--- a/SMP_2PP.xlsx
+++ b/SMP_2PP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\My Paper\Geotexile and Geomembrane\anal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -153,47 +152,47 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>deq_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ds_r_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ds_a_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_r_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_a_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>er_from_ev</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ratio^4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dratio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ev_pla_pred</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>deq_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>eq_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ds_r_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ds_a_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s_r_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s_a_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>er_from_ev</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ratio^4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dratio</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -526,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1:AI1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1:AO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -649,19 +648,19 @@
         <v>28</v>
       </c>
       <c r="AF1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AG1" t="s">
         <v>33</v>
       </c>
       <c r="AH1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AI1" t="s">
         <v>34</v>
       </c>
       <c r="AJ1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AK1" t="s">
         <v>29</v>
@@ -679,7 +678,7 @@
         <v>31</v>
       </c>
       <c r="AP1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AQ1" t="s">
         <v>38</v>
@@ -688,25 +687,25 @@
         <v>39</v>
       </c>
       <c r="AS1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT1" t="s">
         <v>40</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV1" t="s">
         <v>41</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>42</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>43</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>44</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
@@ -827,8 +826,9 @@
         <f>(3*(1-2*0.33))/(0.0762*0.2606*(AK2)^(0.2606-1))</f>
         <v>17650.318447600221</v>
       </c>
-      <c r="AS2">
-        <v>0</v>
+      <c r="AS2" s="1">
+        <f>(1+2*AM3)*AK3*(1-AP3/3)/(2*AN3*AO3*AM3)</f>
+        <v>3.3292368819230625E-4</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -945,8 +945,8 @@
         <v>0.7888178887759989</v>
       </c>
       <c r="AI3" s="1">
-        <f>-AG3/AH3</f>
-        <v>-5.5612997161755946E-2</v>
+        <f>-AD3/AE3</f>
+        <v>-4.8578323170432841E-2</v>
       </c>
       <c r="AJ3" s="1">
         <f>(1.35*(AK3/3255000)^-0.0723)^4</f>
@@ -965,50 +965,50 @@
       </c>
       <c r="AN3" s="1">
         <f t="shared" ref="AN3:AN18" si="8">1/(2+AM3*AQ3-2*0.33*(1+AM3+AQ3))</f>
-        <v>-0.20172780295393586</v>
+        <v>-0.19252046595451952</v>
       </c>
       <c r="AO3" s="1">
         <v>124294.21369229902</v>
       </c>
       <c r="AP3" s="1">
-        <f>(AK3*1.35*(AK3/3255000)^-0.0723-AK2*1.35*(AK2/3255000)^-0.0723)/(AK3-AK2)</f>
-        <v>1.8333349150238609</v>
+        <f>AJ3^0.25</f>
+        <v>1.8634531001502148</v>
       </c>
       <c r="AQ3" s="1">
         <f>(2*AP3+3)/(3-AP3)</f>
-        <v>5.7142961728250148</v>
+        <v>5.9187229327619564</v>
       </c>
       <c r="AR3" s="1">
         <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(2*AN3*AO3*AM3)</f>
-        <v>3.0286991172441031E-4</v>
+        <v>3.0916202715676439E-4</v>
       </c>
       <c r="AS3" s="1">
-        <f>(AS2+AR3)</f>
-        <v>3.0286991172441031E-4</v>
+        <f t="shared" ref="AS3:AS18" si="9">(1+2*AM4)*AK4*(1-AP4/3)/(2*AN4*AO4*AM4)</f>
+        <v>-4.2214763595324244E-2</v>
       </c>
       <c r="AT3" s="1">
         <f>(1-AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>0.54324732645312113</v>
+        <v>0.55453327713372569</v>
       </c>
       <c r="AU3" s="1">
-        <f>AU2+AT3</f>
-        <v>0.54324732645312113</v>
+        <f>(1-AM3)*(AK3)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
+        <v>0.597153749917398</v>
       </c>
       <c r="AV3" s="1">
-        <f t="shared" ref="AV3:AV18" si="9">AN3*AO3*(AM3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
-        <v>-89.782479690984246</v>
+        <f t="shared" ref="AV3:AV18" si="10">AN3*AO3*(AM3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
+        <v>-85.684593653198419</v>
       </c>
       <c r="AW3" s="1">
-        <f t="shared" ref="AW3:AW18" si="10">AN3*AO3*(AM3*AQ3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*AQ3*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
-        <v>-513.04368008493077</v>
+        <f t="shared" ref="AW3:AW18" si="11">AN3*AO3*(AM3*AQ3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*AQ3*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
+        <v>-507.14336943957494</v>
       </c>
       <c r="AX3" s="1">
-        <f t="shared" ref="AX3:AX18" si="11">AV3+(AK2-1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
-        <v>578.20325297930572</v>
+        <f t="shared" ref="AX3:AX18" si="12">AV3+(AK2-1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
+        <v>582.3011390170916</v>
       </c>
       <c r="AY3" s="1">
-        <f t="shared" ref="AY3:AY18" si="12">AW3+(AK2+2*1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
-        <v>6224.0745602644893</v>
+        <f t="shared" ref="AY3:AY18" si="13">AW3+(AK2+2*1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
+        <v>6229.9748709098458</v>
       </c>
     </row>
     <row r="4" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1121,12 +1121,12 @@
         <f t="shared" si="7"/>
         <v>0.90761491448980691</v>
       </c>
-      <c r="AI4" s="2">
-        <f t="shared" ref="AI4:AI18" si="13">-AG4/AH4</f>
-        <v>9.3757671567143527E-2</v>
+      <c r="AI4" s="1">
+        <f t="shared" ref="AI4:AI18" si="14">-AD4/AE4</f>
+        <v>2.7573394041877152E-2</v>
       </c>
       <c r="AJ4" s="2">
-        <f t="shared" ref="AJ4:AJ18" si="14">(1.35*(AK4/3255000)^-0.0723)^4</f>
+        <f t="shared" ref="AJ4:AJ18" si="15">(1.35*(AK4/3255000)^-0.0723)^4</f>
         <v>8.9231233478896872</v>
       </c>
       <c r="AK4" s="2">
@@ -1138,55 +1138,55 @@
         <v>136519.75885225</v>
       </c>
       <c r="AM4" s="2">
-        <f t="shared" ref="AM4:AM18" si="15">(-2*AI4-3)/(-2*AI4+6)</f>
-        <v>-0.54839118402991227</v>
+        <f t="shared" ref="AM4:AM18" si="16">(-2*AI4-3)/(-2*AI4+6)</f>
+        <v>-0.51391458782528421</v>
       </c>
       <c r="AN4" s="2">
         <f t="shared" si="8"/>
-        <v>-0.25222213908682822</v>
+        <v>-0.23357890624124561</v>
       </c>
       <c r="AO4" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP4" s="2">
-        <f t="shared" ref="AP4:AP18" si="16">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
-        <v>1.6545991032687406</v>
+      <c r="AP4" s="1">
+        <f t="shared" ref="AP4:AP18" si="17">AJ4^0.25</f>
+        <v>1.7283401707884312</v>
       </c>
       <c r="AQ4" s="2">
-        <f t="shared" ref="AQ4:AQ18" si="17">(2*AP4+3)/(3-AP4)</f>
-        <v>4.6894559248965093</v>
+        <f t="shared" ref="AQ4:AQ18" si="18">(2*AP4+3)/(3-AP4)</f>
+        <v>5.0773643967192195</v>
       </c>
       <c r="AR4" s="2">
-        <f t="shared" ref="AR4:AR18" si="18">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(2*AN4*AO4*AM4)</f>
-        <v>-8.7205934479490502E-2</v>
-      </c>
-      <c r="AS4" s="2">
-        <f t="shared" ref="AS4:AS18" si="19">AS3+AR4</f>
-        <v>-8.6903064567766086E-2</v>
+        <f t="shared" ref="AR4:AR18" si="19">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(2*AN4*AO4*AM4)</f>
+        <v>-2.7309797546830585E-2</v>
+      </c>
+      <c r="AS4" s="1">
+        <f t="shared" si="9"/>
+        <v>-0.22802696080741641</v>
       </c>
       <c r="AT4" s="2">
         <f t="shared" ref="AT4:AT18" si="20">(1-AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>0.93012052263946277</v>
-      </c>
-      <c r="AU4" s="2">
-        <f>AU3+AT4</f>
-        <v>1.4733678490925839</v>
+        <v>0.99044018684655788</v>
+      </c>
+      <c r="AU4" s="1">
+        <f t="shared" ref="AU4:AU18" si="21">(1-AM4)*(AK4)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
+        <v>1.5309962760192113</v>
       </c>
       <c r="AV4" s="2">
-        <f t="shared" si="9"/>
-        <v>-151.15996172594171</v>
+        <f t="shared" si="10"/>
+        <v>-148.78761208641151</v>
       </c>
       <c r="AW4" s="2">
-        <f t="shared" si="10"/>
-        <v>-708.85797812284693</v>
+        <f t="shared" si="11"/>
+        <v>-755.44892428041601</v>
       </c>
       <c r="AX4" s="2">
-        <f t="shared" si="11"/>
-        <v>14132.928508641588</v>
+        <f t="shared" si="12"/>
+        <v>14135.300858281118</v>
       </c>
       <c r="AY4" s="2">
-        <f t="shared" si="12"/>
-        <v>83834.704025042112</v>
+        <f t="shared" si="13"/>
+        <v>83788.113078884548</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
@@ -1299,12 +1299,12 @@
         <f t="shared" si="7"/>
         <v>0.97226977072217502</v>
       </c>
-      <c r="AI5">
-        <f t="shared" si="13"/>
-        <v>0.18631381826487642</v>
+      <c r="AI5" s="1">
+        <f t="shared" si="14"/>
+        <v>8.5406183997936494E-2</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.4589002579476258</v>
       </c>
       <c r="AK5">
@@ -1316,55 +1316,55 @@
         <v>259266.52142049998</v>
       </c>
       <c r="AM5">
-        <f t="shared" si="15"/>
-        <v>-0.59932547887233567</v>
+        <f t="shared" si="16"/>
+        <v>-0.5439544183802022</v>
       </c>
       <c r="AN5">
         <f t="shared" si="8"/>
-        <v>-0.274678780254968</v>
+        <v>-0.25413259915843323</v>
       </c>
       <c r="AO5" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP5">
-        <f t="shared" si="16"/>
-        <v>1.5643844234460931</v>
+      <c r="AP5" s="1">
+        <f t="shared" si="17"/>
+        <v>1.6526036207278714</v>
       </c>
       <c r="AQ5">
-        <f t="shared" si="17"/>
-        <v>4.2690877328064794</v>
+        <f t="shared" si="18"/>
+        <v>4.6795488977503803</v>
       </c>
       <c r="AR5">
-        <f t="shared" si="18"/>
-        <v>-0.21296146394565391</v>
-      </c>
-      <c r="AS5">
         <f t="shared" si="19"/>
-        <v>-0.29986452851341999</v>
+        <v>-0.10533315002546759</v>
+      </c>
+      <c r="AS5" s="1">
+        <f t="shared" si="9"/>
+        <v>-0.24561760173310954</v>
       </c>
       <c r="AT5">
         <f t="shared" si="20"/>
-        <v>1.1430256001886732</v>
-      </c>
-      <c r="AU5">
-        <f>AU4+AT5</f>
-        <v>2.6163934492812571</v>
+        <v>1.2333199435302313</v>
+      </c>
+      <c r="AU5" s="1">
+        <f t="shared" si="21"/>
+        <v>2.6699115934383131</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="9"/>
-        <v>-186.58638416592518</v>
+        <f t="shared" si="10"/>
+        <v>-188.57864938156177</v>
       </c>
       <c r="AW5">
-        <f t="shared" si="10"/>
-        <v>-796.55364375146826</v>
+        <f t="shared" si="11"/>
+        <v>-882.46301085274297</v>
       </c>
       <c r="AX5">
-        <f t="shared" si="11"/>
-        <v>45079.139861893556</v>
+        <f t="shared" si="12"/>
+        <v>45077.147596677918</v>
       </c>
       <c r="AY5">
-        <f t="shared" si="12"/>
-        <v>229034.03318962961</v>
+        <f t="shared" si="13"/>
+        <v>228948.12382252835</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
@@ -1477,12 +1477,12 @@
         <f t="shared" si="7"/>
         <v>0.92076781787742101</v>
       </c>
-      <c r="AI6">
-        <f t="shared" si="13"/>
-        <v>-1.0498312990989607E-2</v>
+      <c r="AI6" s="1">
+        <f t="shared" si="14"/>
+        <v>6.0804846032563836E-2</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6.5408517058917441</v>
       </c>
       <c r="AK6">
@@ -1494,55 +1494,55 @@
         <v>417666.95242850005</v>
       </c>
       <c r="AM6">
-        <f t="shared" si="15"/>
-        <v>-0.49476914854310644</v>
+        <f t="shared" si="16"/>
+        <v>-0.53103137568995062</v>
       </c>
       <c r="AN6">
         <f t="shared" si="8"/>
-        <v>-0.33534388143058652</v>
+        <v>-0.27934282240811431</v>
       </c>
       <c r="AO6" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP6">
-        <f t="shared" si="16"/>
-        <v>1.5063561750312602</v>
+      <c r="AP6" s="1">
+        <f t="shared" si="17"/>
+        <v>1.5992213376412019</v>
       </c>
       <c r="AQ6">
-        <f t="shared" si="17"/>
-        <v>4.0255328944893263</v>
+        <f t="shared" si="18"/>
+        <v>4.424997925685652</v>
       </c>
       <c r="AR6">
-        <f t="shared" si="18"/>
-        <v>1.440727778404503E-2</v>
-      </c>
-      <c r="AS6">
         <f t="shared" si="19"/>
-        <v>-0.28545725072937495</v>
+        <v>-8.9653725467353965E-2</v>
+      </c>
+      <c r="AS6" s="1">
+        <f t="shared" si="9"/>
+        <v>-0.52469329457758918</v>
       </c>
       <c r="AT6">
         <f t="shared" si="20"/>
-        <v>1.3723421845405324</v>
-      </c>
-      <c r="AU6">
-        <f t="shared" ref="AU6:AU18" si="21">AU5+AT6</f>
-        <v>3.9887356338217894</v>
+        <v>1.4744503327800582</v>
+      </c>
+      <c r="AU6" s="1">
+        <f t="shared" si="21"/>
+        <v>4.0394412248255636</v>
       </c>
       <c r="AV6">
-        <f t="shared" si="9"/>
-        <v>-190.55097462266446</v>
+        <f t="shared" si="10"/>
+        <v>-147.0962459408629</v>
       </c>
       <c r="AW6">
-        <f t="shared" si="10"/>
-        <v>-767.06921642053658</v>
+        <f t="shared" si="11"/>
+        <v>-650.90058316446482</v>
       </c>
       <c r="AX6">
-        <f t="shared" si="11"/>
-        <v>88946.335348722307</v>
+        <f t="shared" si="12"/>
+        <v>88989.790077404105</v>
       </c>
       <c r="AY6">
-        <f t="shared" si="12"/>
-        <v>416353.34892688948</v>
+        <f t="shared" si="13"/>
+        <v>416469.51756014553</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
@@ -1655,12 +1655,12 @@
         <f t="shared" si="7"/>
         <v>1.0077198854384859</v>
       </c>
-      <c r="AI7">
-        <f t="shared" si="13"/>
-        <v>0.21799666289562974</v>
+      <c r="AI7" s="1">
+        <f t="shared" si="14"/>
+        <v>9.5261831682436737E-2</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.9192200384914937</v>
       </c>
       <c r="AK7">
@@ -1672,55 +1672,55 @@
         <v>598265.88940549991</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="15"/>
-        <v>-0.61753939687354775</v>
+        <f t="shared" si="16"/>
+        <v>-0.549192987196646</v>
       </c>
       <c r="AN7">
         <f t="shared" si="8"/>
-        <v>-0.31408915677401467</v>
+        <v>-0.29107839000580121</v>
       </c>
       <c r="AO7" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP7">
-        <f t="shared" si="16"/>
-        <v>1.4641809111583908</v>
+      <c r="AP7" s="1">
+        <f t="shared" si="17"/>
+        <v>1.5597899620580336</v>
       </c>
       <c r="AQ7">
-        <f t="shared" si="17"/>
-        <v>3.8600652025937805</v>
+        <f t="shared" si="18"/>
+        <v>4.2490885099376436</v>
       </c>
       <c r="AR7">
-        <f t="shared" si="18"/>
-        <v>-0.32173289392381987</v>
-      </c>
-      <c r="AS7">
         <f t="shared" si="19"/>
-        <v>-0.60719014465319487</v>
+        <v>-0.15320877535211591</v>
+      </c>
+      <c r="AS7" s="1">
+        <f t="shared" si="9"/>
+        <v>-0.67804966194615723</v>
       </c>
       <c r="AT7">
         <f t="shared" si="20"/>
-        <v>1.475861555173694</v>
-      </c>
-      <c r="AU7">
+        <v>1.608291302468867</v>
+      </c>
+      <c r="AU7" s="1">
         <f t="shared" si="21"/>
-        <v>5.4645971889954836</v>
+        <v>5.5079068427604758</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="9"/>
-        <v>-225.29146789091283</v>
+        <f t="shared" si="10"/>
+        <v>-231.89367953411548</v>
       </c>
       <c r="AW7">
-        <f t="shared" si="10"/>
-        <v>-869.63975564698671</v>
+        <f t="shared" si="11"/>
+        <v>-985.33676923557232</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="11"/>
-        <v>145712.26397154338</v>
+        <f t="shared" si="12"/>
+        <v>145705.66175990016</v>
       </c>
       <c r="AY7">
-        <f t="shared" si="12"/>
-        <v>644903.74034348456</v>
+        <f t="shared" si="13"/>
+        <v>644788.04332989594</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
@@ -1833,12 +1833,12 @@
         <f t="shared" si="7"/>
         <v>0.97354863206513187</v>
       </c>
-      <c r="AI8">
-        <f t="shared" si="13"/>
-        <v>0.10060326813489413</v>
+      <c r="AI8" s="1">
+        <f t="shared" si="14"/>
+        <v>9.6195307156505733E-2</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.4708515804995139</v>
       </c>
       <c r="AK8">
@@ -1850,55 +1850,55 @@
         <v>791591.73232499987</v>
       </c>
       <c r="AM8">
-        <f t="shared" si="15"/>
-        <v>-0.5520470001720903</v>
+        <f t="shared" si="16"/>
+        <v>-0.54969100060013421</v>
       </c>
       <c r="AN8">
         <f t="shared" si="8"/>
-        <v>-0.35342604590827897</v>
+        <v>-0.3047905803296404</v>
       </c>
       <c r="AO8" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP8">
-        <f t="shared" si="16"/>
-        <v>1.4322228418598042</v>
+      <c r="AP8" s="1">
+        <f t="shared" si="17"/>
+        <v>1.5293741073997003</v>
       </c>
       <c r="AQ8">
-        <f t="shared" si="17"/>
-        <v>3.7406117656902302</v>
+        <f t="shared" si="18"/>
+        <v>4.119843289367477</v>
       </c>
       <c r="AR8">
-        <f t="shared" si="18"/>
-        <v>-0.15501310795606185</v>
-      </c>
-      <c r="AS8">
         <f t="shared" si="19"/>
-        <v>-0.7622032526092567</v>
+        <v>-0.16166752010109658</v>
+      </c>
+      <c r="AS8" s="1">
+        <f t="shared" si="9"/>
+        <v>-1.0291647610292043</v>
       </c>
       <c r="AT8">
         <f t="shared" si="20"/>
-        <v>1.5408357087188473</v>
-      </c>
-      <c r="AU8">
+        <v>1.6806175361347964</v>
+      </c>
+      <c r="AU8" s="1">
         <f t="shared" si="21"/>
-        <v>7.0054328977143312</v>
+        <v>7.0486771339375105</v>
       </c>
       <c r="AV8">
-        <f t="shared" si="9"/>
-        <v>-228.17578779169787</v>
+        <f t="shared" si="10"/>
+        <v>-197.61598198671103</v>
       </c>
       <c r="AW8">
-        <f t="shared" si="10"/>
-        <v>-853.51703645926216</v>
+        <f t="shared" si="11"/>
+        <v>-814.14687725971555</v>
       </c>
       <c r="AX8">
-        <f t="shared" si="11"/>
-        <v>211699.74482622038</v>
+        <f t="shared" si="12"/>
+        <v>211730.30463202536</v>
       </c>
       <c r="AY8">
-        <f t="shared" si="12"/>
-        <v>899646.97537951649</v>
+        <f t="shared" si="13"/>
+        <v>899686.34553871606</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
@@ -2011,12 +2011,12 @@
         <f t="shared" si="7"/>
         <v>1.0340177370399486</v>
       </c>
-      <c r="AI9">
-        <f t="shared" si="13"/>
-        <v>0.244239737207229</v>
+      <c r="AI9" s="1">
+        <f t="shared" si="14"/>
+        <v>0.11937262837492017</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.1278912742215805</v>
       </c>
       <c r="AK9">
@@ -2028,55 +2028,55 @@
         <v>993497.51078699995</v>
       </c>
       <c r="AM9">
-        <f t="shared" si="15"/>
-        <v>-0.63294320654713387</v>
+        <f t="shared" si="16"/>
+        <v>-0.56215970323900866</v>
       </c>
       <c r="AN9">
         <f t="shared" si="8"/>
-        <v>-0.33773141101068149</v>
+        <v>-0.31237747750401729</v>
       </c>
       <c r="AO9" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP9">
-        <f t="shared" si="16"/>
-        <v>1.406955906635972</v>
+      <c r="AP9" s="1">
+        <f t="shared" si="17"/>
+        <v>1.5048205109399746</v>
       </c>
       <c r="AQ9">
-        <f t="shared" si="17"/>
-        <v>3.6495611373786385</v>
+        <f t="shared" si="18"/>
+        <v>4.0193442097430259</v>
       </c>
       <c r="AR9">
-        <f t="shared" si="18"/>
-        <v>-0.38641051840409135</v>
-      </c>
-      <c r="AS9">
         <f t="shared" si="19"/>
-        <v>-1.1486137710133479</v>
+        <v>-0.20642107199118895</v>
+      </c>
+      <c r="AS9" s="1">
+        <f t="shared" si="9"/>
+        <v>-1.3006420173659203</v>
       </c>
       <c r="AT9">
         <f t="shared" si="20"/>
-        <v>1.5820952103147554</v>
-      </c>
-      <c r="AU9">
+        <v>1.7292161092647698</v>
+      </c>
+      <c r="AU9" s="1">
         <f t="shared" si="21"/>
-        <v>8.5875281080290868</v>
+        <v>8.621446767485498</v>
       </c>
       <c r="AV9">
-        <f t="shared" si="9"/>
-        <v>-252.36857521678328</v>
+        <f t="shared" si="10"/>
+        <v>-259.52716760860926</v>
       </c>
       <c r="AW9">
-        <f t="shared" si="10"/>
-        <v>-921.03454440679047</v>
+        <f t="shared" si="11"/>
+        <v>-1043.1290183986716</v>
       </c>
       <c r="AX9">
-        <f t="shared" si="11"/>
-        <v>283902.32944152516</v>
+        <f t="shared" si="12"/>
+        <v>283895.17084913334</v>
       </c>
       <c r="AY9">
-        <f t="shared" si="12"/>
-        <v>1169751.7912221095</v>
+        <f t="shared" si="13"/>
+        <v>1169629.6967481175</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
@@ -2189,12 +2189,12 @@
         <f t="shared" si="7"/>
         <v>1.0174630450951474</v>
       </c>
-      <c r="AI10">
-        <f t="shared" si="13"/>
-        <v>0.17776778086874845</v>
+      <c r="AI10" s="1">
+        <f t="shared" si="14"/>
+        <v>0.12716758995037084</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.8550104631250237</v>
       </c>
       <c r="AK10">
@@ -2206,55 +2206,55 @@
         <v>1201493.2976485002</v>
       </c>
       <c r="AM10">
-        <f t="shared" si="15"/>
-        <v>-0.59448254098140951</v>
+        <f t="shared" si="16"/>
+        <v>-0.56639836847366287</v>
       </c>
       <c r="AN10">
         <f t="shared" si="8"/>
-        <v>-0.36298889327057093</v>
+        <v>-0.32092682716121373</v>
       </c>
       <c r="AO10" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP10">
-        <f t="shared" si="16"/>
-        <v>1.3862244629844778</v>
+      <c r="AP10" s="1">
+        <f t="shared" si="17"/>
+        <v>1.4843883683047383</v>
       </c>
       <c r="AQ10">
-        <f t="shared" si="17"/>
-        <v>3.5769837834104141</v>
+        <f t="shared" si="18"/>
+        <v>3.9381967067204431</v>
       </c>
       <c r="AR10">
-        <f t="shared" si="18"/>
-        <v>-0.28598707369534737</v>
-      </c>
-      <c r="AS10">
         <f t="shared" si="19"/>
-        <v>-1.4346008447086953</v>
+        <v>-0.22407916346566564</v>
+      </c>
+      <c r="AS10" s="1">
+        <f t="shared" si="9"/>
+        <v>-1.5562879070102438</v>
       </c>
       <c r="AT10">
         <f t="shared" si="20"/>
-        <v>1.6087677547513548</v>
-      </c>
-      <c r="AU10">
+        <v>1.7620776139039527</v>
+      </c>
+      <c r="AU10" s="1">
         <f t="shared" si="21"/>
-        <v>10.196295862780442</v>
+        <v>10.227779089573978</v>
       </c>
       <c r="AV10">
-        <f t="shared" si="9"/>
-        <v>-256.72814790245087</v>
+        <f t="shared" si="10"/>
+        <v>-237.70207103420867</v>
       </c>
       <c r="AW10">
-        <f t="shared" si="10"/>
-        <v>-918.31242179205697</v>
+        <f t="shared" si="11"/>
+        <v>-936.11751332754955</v>
       </c>
       <c r="AX10">
-        <f t="shared" si="11"/>
-        <v>361125.10046476382</v>
+        <f t="shared" si="12"/>
+        <v>361144.12654163205</v>
       </c>
       <c r="AY10">
-        <f t="shared" si="12"/>
-        <v>1451599.6479188751</v>
+        <f t="shared" si="13"/>
+        <v>1451581.8428273394</v>
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
@@ -2367,12 +2367,12 @@
         <f t="shared" si="7"/>
         <v>1.0230688361068134</v>
       </c>
-      <c r="AI11">
-        <f t="shared" si="13"/>
-        <v>0.16478171135271447</v>
+      <c r="AI11" s="1">
+        <f t="shared" si="14"/>
+        <v>0.13161878151522965</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.6349132508888031</v>
       </c>
       <c r="AK11">
@@ -2384,55 +2384,55 @@
         <v>1404695.8866935</v>
       </c>
       <c r="AM11">
-        <f t="shared" si="15"/>
-        <v>-0.58717937804605536</v>
+        <f t="shared" si="16"/>
+        <v>-0.56882912598944446</v>
       </c>
       <c r="AN11">
         <f t="shared" si="8"/>
-        <v>-0.37597881132668154</v>
+        <v>-0.32868224146039615</v>
       </c>
       <c r="AO11" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP11">
-        <f t="shared" si="16"/>
-        <v>1.3688997705380646</v>
+      <c r="AP11" s="1">
+        <f t="shared" si="17"/>
+        <v>1.4672712315986158</v>
       </c>
       <c r="AQ11">
-        <f t="shared" si="17"/>
-        <v>3.5177479822738449</v>
+        <f t="shared" si="18"/>
+        <v>3.8718803910667647</v>
       </c>
       <c r="AR11">
-        <f t="shared" si="18"/>
-        <v>-0.26330718234310996</v>
-      </c>
-      <c r="AS11">
         <f t="shared" si="19"/>
-        <v>-1.6979080270518052</v>
+        <v>-0.23066513381866269</v>
+      </c>
+      <c r="AS11" s="1">
+        <f t="shared" si="9"/>
+        <v>-1.8916723156098922</v>
       </c>
       <c r="AT11">
         <f t="shared" si="20"/>
-        <v>1.5979150852457289</v>
-      </c>
-      <c r="AU11">
+        <v>1.7525244586159034</v>
+      </c>
+      <c r="AU11" s="1">
         <f t="shared" si="21"/>
-        <v>11.794210948026171</v>
+        <v>11.82420843814122</v>
       </c>
       <c r="AV11">
-        <f t="shared" si="9"/>
-        <v>-265.31095264713747</v>
+        <f t="shared" si="10"/>
+        <v>-239.18429107380121</v>
       </c>
       <c r="AW11">
-        <f t="shared" si="10"/>
-        <v>-933.29706834961962</v>
+        <f t="shared" si="11"/>
+        <v>-926.09296645985637</v>
       </c>
       <c r="AX11">
-        <f t="shared" si="11"/>
-        <v>442301.96573570376</v>
+        <f t="shared" si="12"/>
+        <v>442328.09239727707</v>
       </c>
       <c r="AY11">
-        <f t="shared" si="12"/>
-        <v>1741983.6944879489</v>
+        <f t="shared" si="13"/>
+        <v>1741990.8985898385</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
@@ -2545,12 +2545,12 @@
         <f t="shared" si="7"/>
         <v>1.0418571353252837</v>
       </c>
-      <c r="AI12">
-        <f t="shared" si="13"/>
-        <v>0.22151517740011265</v>
+      <c r="AI12" s="1">
+        <f t="shared" si="14"/>
+        <v>0.14128718175166993</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.4540229875032571</v>
       </c>
       <c r="AK12">
@@ -2562,55 +2562,55 @@
         <v>1603711.9327819999</v>
       </c>
       <c r="AM12">
-        <f t="shared" si="15"/>
-        <v>-0.61958775639064112</v>
+        <f t="shared" si="16"/>
+        <v>-0.5741350342275251</v>
       </c>
       <c r="AN12">
         <f t="shared" si="8"/>
-        <v>-0.3717989835795048</v>
+        <v>-0.33428721735118366</v>
       </c>
       <c r="AO12" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP12">
-        <f t="shared" si="16"/>
-        <v>1.3542817906462632</v>
+      <c r="AP12" s="1">
+        <f t="shared" si="17"/>
+        <v>1.4527407322187205</v>
       </c>
       <c r="AQ12">
-        <f t="shared" si="17"/>
-        <v>3.4687369616784176</v>
+        <f t="shared" si="18"/>
+        <v>3.816736850383009</v>
       </c>
       <c r="AR12">
-        <f t="shared" si="18"/>
-        <v>-0.34774988052912587</v>
-      </c>
-      <c r="AS12">
         <f t="shared" si="19"/>
-        <v>-2.0456579075809311</v>
+        <v>-0.24327001866064751</v>
+      </c>
+      <c r="AS12" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.2496955705564607</v>
       </c>
       <c r="AT12">
         <f t="shared" si="20"/>
-        <v>1.5698693182589527</v>
-      </c>
-      <c r="AU12">
+        <v>1.7218123798960443</v>
+      </c>
+      <c r="AU12" s="1">
         <f t="shared" si="21"/>
-        <v>13.364080266285123</v>
+        <v>13.388845981334295</v>
       </c>
       <c r="AV12">
-        <f t="shared" si="9"/>
-        <v>-276.28472906031124</v>
+        <f t="shared" si="10"/>
+        <v>-266.63288136401707</v>
       </c>
       <c r="AW12">
-        <f t="shared" si="10"/>
-        <v>-958.35905163880875</v>
+        <f t="shared" si="11"/>
+        <v>-1017.6675438258449</v>
       </c>
       <c r="AX12">
-        <f t="shared" si="11"/>
-        <v>525167.99076008564</v>
+        <f t="shared" si="12"/>
+        <v>525177.64260778204</v>
       </c>
       <c r="AY12">
-        <f t="shared" si="12"/>
-        <v>2033499.0278130686</v>
+        <f t="shared" si="13"/>
+        <v>2033439.7193208814</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
@@ -2723,12 +2723,12 @@
         <f t="shared" si="7"/>
         <v>1.0533796298014373</v>
       </c>
-      <c r="AI13">
-        <f t="shared" si="13"/>
-        <v>0.23784262838028775</v>
+      <c r="AI13" s="1">
+        <f t="shared" si="14"/>
+        <v>0.15075688065182952</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.301964660487112</v>
       </c>
       <c r="AK13">
@@ -2740,55 +2740,55 @@
         <v>1798642.8269394999</v>
       </c>
       <c r="AM13">
-        <f t="shared" si="15"/>
-        <v>-0.62916133824816345</v>
+        <f t="shared" si="16"/>
+        <v>-0.57936680427238441</v>
       </c>
       <c r="AN13">
         <f t="shared" si="8"/>
-        <v>-0.37547941432836779</v>
+        <v>-0.33899436776401198</v>
       </c>
       <c r="AO13" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP13">
-        <f t="shared" si="16"/>
-        <v>1.3417561426741769</v>
+      <c r="AP13" s="1">
+        <f t="shared" si="17"/>
+        <v>1.4401797814660104</v>
       </c>
       <c r="AQ13">
-        <f t="shared" si="17"/>
-        <v>3.4274285173677068</v>
+        <f t="shared" si="18"/>
+        <v>3.7698957181480361</v>
       </c>
       <c r="AR13">
-        <f t="shared" si="18"/>
-        <v>-0.36622586336207164</v>
-      </c>
-      <c r="AS13">
         <f t="shared" si="19"/>
-        <v>-2.4118837709430028</v>
+        <v>-0.25461476576446751</v>
+      </c>
+      <c r="AS13" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.6128108877655114</v>
       </c>
       <c r="AT13">
         <f t="shared" si="20"/>
-        <v>1.5397822747590528</v>
-      </c>
-      <c r="AU13">
+        <v>1.6889097510082878</v>
+      </c>
+      <c r="AU13" s="1">
         <f t="shared" si="21"/>
-        <v>14.903862541044177</v>
+        <v>14.922672589333382</v>
       </c>
       <c r="AV13">
-        <f t="shared" si="9"/>
-        <v>-284.78109141101714</v>
+        <f t="shared" si="10"/>
+        <v>-277.4578536176333</v>
       </c>
       <c r="AW13">
-        <f t="shared" si="10"/>
-        <v>-976.06683390921978</v>
+        <f t="shared" si="11"/>
+        <v>-1045.9871743196609</v>
       </c>
       <c r="AX13">
-        <f t="shared" si="11"/>
-        <v>608420.60660768359</v>
+        <f t="shared" si="12"/>
+        <v>608427.92984547699</v>
       </c>
       <c r="AY13">
-        <f t="shared" si="12"/>
-        <v>2322292.2174239014</v>
+        <f t="shared" si="13"/>
+        <v>2322222.297083491</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
@@ -2901,12 +2901,12 @@
         <f t="shared" si="7"/>
         <v>1.0586993831843472</v>
       </c>
-      <c r="AI14">
-        <f t="shared" si="13"/>
-        <v>0.24948412813386528</v>
+      <c r="AI14" s="1">
+        <f t="shared" si="14"/>
+        <v>0.15961529964248958</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.176390546437788</v>
       </c>
       <c r="AK14">
@@ -2918,55 +2918,55 @@
         <v>1977343.6949454998</v>
       </c>
       <c r="AM14">
-        <f t="shared" si="15"/>
-        <v>-0.63605672885897502</v>
+        <f t="shared" si="16"/>
+        <v>-0.58429243737075431</v>
       </c>
       <c r="AN14">
         <f t="shared" si="8"/>
-        <v>-0.37919594854955596</v>
+        <v>-0.34286043385643489</v>
       </c>
       <c r="AO14" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP14">
-        <f t="shared" si="16"/>
-        <v>1.3310353500514012</v>
+      <c r="AP14" s="1">
+        <f t="shared" si="17"/>
+        <v>1.429553048565354</v>
       </c>
       <c r="AQ14">
-        <f t="shared" si="17"/>
-        <v>3.3925647857653449</v>
+        <f t="shared" si="18"/>
+        <v>3.7308526033166896</v>
       </c>
       <c r="AR14">
-        <f t="shared" si="18"/>
-        <v>-0.36245119451595043</v>
-      </c>
-      <c r="AS14">
         <f t="shared" si="19"/>
-        <v>-2.7743349654589533</v>
+        <v>-0.25439358714268479</v>
+      </c>
+      <c r="AS14" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.8976225585392004</v>
       </c>
       <c r="AT14">
         <f t="shared" si="20"/>
-        <v>1.4528026180546063</v>
-      </c>
-      <c r="AU14">
+        <v>1.5937919968354048</v>
+      </c>
+      <c r="AU14" s="1">
         <f t="shared" si="21"/>
-        <v>16.356665159098782</v>
+        <v>16.36942632453</v>
       </c>
       <c r="AV14">
-        <f t="shared" si="9"/>
-        <v>-290.98862470698947</v>
+        <f t="shared" si="10"/>
+        <v>-284.51769813319959</v>
       </c>
       <c r="AW14">
-        <f t="shared" si="10"/>
-        <v>-987.19776123922009</v>
+        <f t="shared" si="11"/>
+        <v>-1061.4935947699196</v>
       </c>
       <c r="AX14">
-        <f t="shared" si="11"/>
-        <v>691670.3999188086</v>
+        <f t="shared" si="12"/>
+        <v>691676.87084538233</v>
       </c>
       <c r="AY14">
-        <f t="shared" si="12"/>
-        <v>2607635.0780327297</v>
+        <f t="shared" si="13"/>
+        <v>2607560.7821991988</v>
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
@@ -3079,12 +3079,12 @@
         <f t="shared" si="7"/>
         <v>1.0431694019184405</v>
       </c>
-      <c r="AI15">
-        <f t="shared" si="13"/>
-        <v>0.20309288651299057</v>
+      <c r="AI15" s="1">
+        <f t="shared" si="14"/>
+        <v>0.16314692217255353</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.068841882430303</v>
       </c>
       <c r="AK15">
@@ -3096,55 +3096,55 @@
         <v>2144755.1031145002</v>
       </c>
       <c r="AM15">
-        <f t="shared" si="15"/>
-        <v>-0.60892007399905412</v>
+        <f t="shared" si="16"/>
+        <v>-0.58626473650381816</v>
       </c>
       <c r="AN15">
         <f t="shared" si="8"/>
-        <v>-0.39597452360441637</v>
+        <v>-0.34714046523957676</v>
       </c>
       <c r="AO15" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP15">
-        <f t="shared" si="16"/>
-        <v>1.321816061075151</v>
+      <c r="AP15" s="1">
+        <f t="shared" si="17"/>
+        <v>1.4202595012808454</v>
       </c>
       <c r="AQ15">
-        <f t="shared" si="17"/>
-        <v>3.3629401350164101</v>
+        <f t="shared" si="18"/>
+        <v>3.6971382371327151</v>
       </c>
       <c r="AR15">
-        <f t="shared" si="18"/>
-        <v>-0.28298173976495739</v>
-      </c>
-      <c r="AS15">
         <f t="shared" si="19"/>
-        <v>-3.0573167052239105</v>
+        <v>-0.24995308378092046</v>
+      </c>
+      <c r="AS15" s="1">
+        <f t="shared" si="9"/>
+        <v>-3.3341297230035969</v>
       </c>
       <c r="AT15">
         <f t="shared" si="20"/>
-        <v>1.3933611591406316</v>
-      </c>
-      <c r="AU15">
+        <v>1.5320735472812403</v>
+      </c>
+      <c r="AU15" s="1">
         <f t="shared" si="21"/>
-        <v>17.750026318239414</v>
+        <v>17.760816569217955</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="9"/>
-        <v>-291.46746007808719</v>
+        <f t="shared" si="10"/>
+        <v>-265.02875403063905</v>
       </c>
       <c r="AW15">
-        <f t="shared" si="10"/>
-        <v>-980.18761954789272</v>
+        <f t="shared" si="11"/>
+        <v>-979.8479404663168</v>
       </c>
       <c r="AX15">
-        <f t="shared" si="11"/>
-        <v>771531.88048628194</v>
+        <f t="shared" si="12"/>
+        <v>771558.31919232942</v>
       </c>
       <c r="AY15">
-        <f t="shared" si="12"/>
-        <v>2878578.9593667327</v>
+        <f t="shared" si="13"/>
+        <v>2878579.2990458142</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
@@ -3257,12 +3257,12 @@
         <f t="shared" si="7"/>
         <v>1.0967342978673056</v>
       </c>
-      <c r="AI16">
-        <f t="shared" si="13"/>
-        <v>0.32020941185176305</v>
+      <c r="AI16" s="1">
+        <f t="shared" si="14"/>
+        <v>0.17550464028814977</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.9821178597184934</v>
       </c>
       <c r="AK16">
@@ -3274,55 +3274,55 @@
         <v>2285570.4841089998</v>
       </c>
       <c r="AM16">
-        <f t="shared" si="15"/>
-        <v>-0.67923569099089443</v>
+        <f t="shared" si="16"/>
+        <v>-0.59320495412641838</v>
       </c>
       <c r="AN16">
         <f t="shared" si="8"/>
-        <v>-0.37283790738064515</v>
+        <v>-0.34874286698633727</v>
       </c>
       <c r="AO16" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP16">
-        <f t="shared" si="16"/>
-        <v>1.3139888388488756</v>
+      <c r="AP16" s="1">
+        <f t="shared" si="17"/>
+        <v>1.4126303328574779</v>
       </c>
       <c r="AQ16">
-        <f t="shared" si="17"/>
-        <v>3.3380429545052652</v>
+        <f t="shared" si="18"/>
+        <v>3.6697568224301551</v>
       </c>
       <c r="AR16">
-        <f t="shared" si="18"/>
-        <v>-0.39937761259671178</v>
-      </c>
-      <c r="AS16">
         <f t="shared" si="19"/>
-        <v>-3.4566943178206224</v>
+        <v>-0.23935709649343839</v>
+      </c>
+      <c r="AS16" s="1">
+        <f t="shared" si="9"/>
+        <v>-5.1809322134181768</v>
       </c>
       <c r="AT16">
         <f t="shared" si="20"/>
-        <v>1.2472388312608331</v>
-      </c>
-      <c r="AU16">
+        <v>1.363822039693386</v>
+      </c>
+      <c r="AU16" s="1">
         <f t="shared" si="21"/>
-        <v>18.997265149500247</v>
+        <v>18.99738786125258</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="9"/>
-        <v>-308.37026871008595</v>
+        <f t="shared" si="10"/>
+        <v>-324.97498628875127</v>
       </c>
       <c r="AW16">
-        <f t="shared" si="10"/>
-        <v>-1029.3532028465979</v>
+        <f t="shared" si="11"/>
+        <v>-1192.5791730522906</v>
       </c>
       <c r="AX16">
-        <f t="shared" si="11"/>
-        <v>849377.58317188802</v>
+        <f t="shared" si="12"/>
+        <v>849360.9784543094</v>
       </c>
       <c r="AY16">
-        <f t="shared" si="12"/>
-        <v>3140377.0748169567</v>
+        <f t="shared" si="13"/>
+        <v>3140213.8488467508</v>
       </c>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
@@ -3435,12 +3435,12 @@
         <f t="shared" si="7"/>
         <v>1.6024762873329763</v>
       </c>
-      <c r="AI17">
-        <f t="shared" si="13"/>
-        <v>1.1252993523051085</v>
+      <c r="AI17" s="1">
+        <f t="shared" si="14"/>
+        <v>0.27343683815855413</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.9873987097034416</v>
       </c>
       <c r="AK17">
@@ -3452,55 +3452,55 @@
         <v>2171373.4943349999</v>
       </c>
       <c r="AM17">
-        <f t="shared" si="15"/>
-        <v>-1.400383232135298</v>
+        <f t="shared" si="16"/>
+        <v>-0.65042939880432615</v>
       </c>
       <c r="AN17">
         <f t="shared" si="8"/>
-        <v>-0.21776652211668712</v>
+        <v>-0.32874563650934679</v>
       </c>
       <c r="AO17" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP17">
-        <f t="shared" si="16"/>
-        <v>1.310714112029983</v>
+      <c r="AP17" s="1">
+        <f t="shared" si="17"/>
+        <v>1.4130984369027104</v>
       </c>
       <c r="AQ17">
-        <f t="shared" si="17"/>
-        <v>3.3276950124855009</v>
+        <f t="shared" si="18"/>
+        <v>3.6714292866622054</v>
       </c>
       <c r="AR17">
-        <f t="shared" si="18"/>
-        <v>0.10631070069293644</v>
-      </c>
-      <c r="AS17">
         <f t="shared" si="19"/>
-        <v>-3.3503836171276862</v>
+        <v>2.3796166179305581E-2</v>
+      </c>
+      <c r="AS17" s="1">
+        <f t="shared" si="9"/>
+        <v>-5.8447129114845486</v>
       </c>
       <c r="AT17">
         <f t="shared" si="20"/>
-        <v>-9.4473262137017427E-2</v>
-      </c>
-      <c r="AU17">
+        <v>-8.7026189812461269E-2</v>
+      </c>
+      <c r="AU17" s="1">
         <f t="shared" si="21"/>
-        <v>18.902791887363229</v>
+        <v>18.947455098986989</v>
       </c>
       <c r="AV17">
-        <f t="shared" si="9"/>
-        <v>-379.56941883754769</v>
+        <f t="shared" si="10"/>
+        <v>-879.87248280167375</v>
       </c>
       <c r="AW17">
-        <f t="shared" si="10"/>
-        <v>-1263.0912619577273</v>
+        <f t="shared" si="11"/>
+        <v>-3230.3896018862524</v>
       </c>
       <c r="AX17">
-        <f t="shared" si="11"/>
-        <v>919443.95048420585</v>
+        <f t="shared" si="12"/>
+        <v>918943.64742024173</v>
       </c>
       <c r="AY17">
-        <f t="shared" si="12"/>
-        <v>3374265.5463339551</v>
+        <f t="shared" si="13"/>
+        <v>3372298.2479940266</v>
       </c>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
@@ -3613,12 +3613,12 @@
         <f t="shared" si="7"/>
         <v>1.5800299392279946</v>
       </c>
-      <c r="AI18">
-        <f t="shared" si="13"/>
-        <v>1.0329960731053212</v>
+      <c r="AI18" s="1">
+        <f t="shared" si="14"/>
+        <v>0.34353098274053323</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.1309123518586013</v>
       </c>
       <c r="AK18">
@@ -3630,55 +3630,55 @@
         <v>1756875.9963530002</v>
       </c>
       <c r="AM18">
-        <f t="shared" si="15"/>
-        <v>-1.2877432721266489</v>
+        <f t="shared" si="16"/>
+        <v>-0.69397797255034543</v>
       </c>
       <c r="AN18">
         <f t="shared" si="8"/>
-        <v>-0.23105270612304352</v>
+        <v>-0.30919480599211685</v>
       </c>
       <c r="AO18" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP18">
-        <f t="shared" si="16"/>
-        <v>1.3166241574846067</v>
+      <c r="AP18" s="1">
+        <f t="shared" si="17"/>
+        <v>1.4256453277007397</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="17"/>
-        <v>3.3463996409451275</v>
+        <f t="shared" si="18"/>
+        <v>3.7166279989857585</v>
       </c>
       <c r="AR18">
-        <f t="shared" si="18"/>
-        <v>2.3803240527357272</v>
-      </c>
-      <c r="AS18">
         <f t="shared" si="19"/>
-        <v>-0.97005956439195895</v>
+        <v>0.76012979924332902</v>
+      </c>
+      <c r="AS18" s="1" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AT18">
         <f t="shared" si="20"/>
-        <v>-2.3042914825224479</v>
-      </c>
-      <c r="AU18">
+        <v>-2.2126964886234148</v>
+      </c>
+      <c r="AU18" s="1">
         <f t="shared" si="21"/>
-        <v>16.598500404840781</v>
+        <v>17.013641287484749</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="9"/>
-        <v>-383.12505016314014</v>
+        <f t="shared" si="10"/>
+        <v>-749.09791929213611</v>
       </c>
       <c r="AW18">
-        <f t="shared" si="10"/>
-        <v>-1282.0895303030161</v>
+        <f t="shared" si="11"/>
+        <v>-2784.1183008231274</v>
       </c>
       <c r="AX18">
-        <f t="shared" si="11"/>
-        <v>914964.92629356496</v>
+        <f t="shared" si="12"/>
+        <v>914598.95342443592</v>
       </c>
       <c r="AY18">
-        <f t="shared" si="12"/>
-        <v>3359353.5536622405</v>
+        <f t="shared" si="13"/>
+        <v>3357851.5248917206</v>
       </c>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">

--- a/SMP_2PP.xlsx
+++ b/SMP_2PP.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t># avgT</t>
   </si>
@@ -128,10 +131,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>dev/deq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ev_ela</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -180,19 +179,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>eq_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ratio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev_pla_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ratio^4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>dratio</t>
+    <t>ev/eq</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ev_pla_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>eq_pred</t>
+    <t>ev/eq_pred</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -258,6 +265,249 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="AV1" t="str">
+            <v>eq_pred</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="AD3">
+            <v>9.9703808983271358E-3</v>
+          </cell>
+          <cell r="AE3">
+            <v>0.86439544855037098</v>
+          </cell>
+          <cell r="AT3">
+            <v>4.0986129748253566E-2</v>
+          </cell>
+          <cell r="AV3">
+            <v>0.54357683165796811</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="AD4">
+            <v>-0.15821214050129639</v>
+          </cell>
+          <cell r="AE4">
+            <v>1.8270880839220307</v>
+          </cell>
+          <cell r="AT4">
+            <v>-9.0962195149273492E-2</v>
+          </cell>
+          <cell r="AV4">
+            <v>1.2527111791161281</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="AD5">
+            <v>-0.32264470836657511</v>
+          </cell>
+          <cell r="AE5">
+            <v>2.8131835652496848</v>
+          </cell>
+          <cell r="AT5">
+            <v>-0.30063791090157771</v>
+          </cell>
+          <cell r="AV5">
+            <v>2.0871329538978531</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AD6">
+            <v>-0.7160377934598201</v>
+          </cell>
+          <cell r="AE6">
+            <v>3.8888826306841788</v>
+          </cell>
+          <cell r="AT6">
+            <v>-0.56553324006309658</v>
+          </cell>
+          <cell r="AV6">
+            <v>3.0063815311831945</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AD7">
+            <v>-0.99869458508912423</v>
+          </cell>
+          <cell r="AE7">
+            <v>4.9384663104565565</v>
+          </cell>
+          <cell r="AT7">
+            <v>-0.85166398322474335</v>
+          </cell>
+          <cell r="AV7">
+            <v>3.9234264603892344</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="AD8">
+            <v>-1.4191891767079605</v>
+          </cell>
+          <cell r="AE8">
+            <v>6.0396844916037837</v>
+          </cell>
+          <cell r="AT8">
+            <v>-1.1603409336828321</v>
+          </cell>
+          <cell r="AV8">
+            <v>4.8622436133342513</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AD9">
+            <v>-1.7508332780185973</v>
+          </cell>
+          <cell r="AE9">
+            <v>7.1192576157988006</v>
+          </cell>
+          <cell r="AT9">
+            <v>-1.4790824591228682</v>
+          </cell>
+          <cell r="AV9">
+            <v>5.7954908188107046</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="AD10">
+            <v>-2.1933307755513098</v>
+          </cell>
+          <cell r="AE10">
+            <v>8.2334755863341869</v>
+          </cell>
+          <cell r="AT10">
+            <v>-1.8002705451505174</v>
+          </cell>
+          <cell r="AV10">
+            <v>6.7092379197771779</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AD11">
+            <v>-2.6262145728773767</v>
+          </cell>
+          <cell r="AE11">
+            <v>9.3529214808213137</v>
+          </cell>
+          <cell r="AT11">
+            <v>-2.1079529542419553</v>
+          </cell>
+          <cell r="AV11">
+            <v>7.5653663812129777</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AD12">
+            <v>-2.9873528008148424</v>
+          </cell>
+          <cell r="AE12">
+            <v>10.457959603650322</v>
+          </cell>
+          <cell r="AT12">
+            <v>-2.3880056213378253</v>
+          </cell>
+          <cell r="AV12">
+            <v>8.3314634872135844</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AD13">
+            <v>-3.7154632727715899</v>
+          </cell>
+          <cell r="AE13">
+            <v>11.68986396061533</v>
+          </cell>
+          <cell r="AT13">
+            <v>-2.5155536550409514</v>
+          </cell>
+          <cell r="AV13">
+            <v>8.6768046510639714</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AD14">
+            <v>-4.8365599237100856</v>
+          </cell>
+          <cell r="AE14">
+            <v>13.062964914256289</v>
+          </cell>
+          <cell r="AT14">
+            <v>-2.5322933196544137</v>
+          </cell>
+          <cell r="AV14">
+            <v>8.7219751250687416</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="AD15">
+            <v>-6.9318802103012933</v>
+          </cell>
+          <cell r="AE15">
+            <v>14.772471457237996</v>
+          </cell>
+          <cell r="AT15">
+            <v>-2.3841945141380516</v>
+          </cell>
+          <cell r="AV15">
+            <v>8.3211122100347197</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="AD16">
+            <v>-7.9826846871881365</v>
+          </cell>
+          <cell r="AE16">
+            <v>16.13500808720881</v>
+          </cell>
+          <cell r="AT16">
+            <v>-2.1515573847430454</v>
+          </cell>
+          <cell r="AV16">
+            <v>7.685409866182721</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="AD17">
+            <v>-8.4552198619320702</v>
+          </cell>
+          <cell r="AE17">
+            <v>17.289686448891189</v>
+          </cell>
+          <cell r="AT17">
+            <v>-2.1952380146765509</v>
+          </cell>
+          <cell r="AV17">
+            <v>7.8053702409389594</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="AD18">
+            <v>-9.3691106683559422</v>
+          </cell>
+          <cell r="AE18">
+            <v>18.607424828283037</v>
+          </cell>
+          <cell r="AT18">
+            <v>-2.0495594831534385</v>
+          </cell>
+          <cell r="AV18">
+            <v>7.4041363881637494</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY20"/>
+  <dimension ref="A1:AZ20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AO1" sqref="AO1:AO1048576"/>
+      <selection activeCell="AR37" sqref="AR37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -546,14 +796,16 @@
     <col min="28" max="28" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.109375" customWidth="1"/>
-    <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.77734375" customWidth="1"/>
-    <col min="44" max="44" width="12.44140625" customWidth="1"/>
-    <col min="45" max="45" width="11.21875" customWidth="1"/>
-    <col min="52" max="1031" width="11.5546875"/>
+    <col min="36" max="36" width="10.33203125" customWidth="1"/>
+    <col min="37" max="37" width="10.21875" style="2" customWidth="1"/>
+    <col min="42" max="42" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.77734375" customWidth="1"/>
+    <col min="45" max="45" width="12.44140625" customWidth="1"/>
+    <col min="46" max="46" width="11.21875" customWidth="1"/>
+    <col min="53" max="1032" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +891,7 @@
         <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD1" t="s">
         <v>32</v>
@@ -648,67 +900,70 @@
         <v>28</v>
       </c>
       <c r="AF1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG1" t="s">
         <v>33</v>
       </c>
       <c r="AH1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT1" t="s">
+      <c r="AW1" t="s">
         <v>40</v>
       </c>
-      <c r="AU1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>43</v>
       </c>
-      <c r="AY1" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.200083855177</v>
       </c>
@@ -795,7 +1050,7 @@
         <v>-2.3187252118361812E-8</v>
       </c>
       <c r="AC2">
-        <f>0.0762*AK2^0.2606-0.5912</f>
+        <f>0.0762*AL2^0.2606-0.5912</f>
         <v>5.5490531233448603E-3</v>
       </c>
       <c r="AD2">
@@ -810,31 +1065,27 @@
         <f t="shared" ref="AF2:AF18" si="1">AB2-P2/2</f>
         <v>-2.3187252118361812E-8</v>
       </c>
-      <c r="AJ2">
-        <f>(1.35*(AK2/3255000)^-0.0723)^4</f>
-        <v>25.872141875745509</v>
-      </c>
-      <c r="AK2">
-        <f t="shared" ref="AK2:AK18" si="2">(X2+Y2+Z2)/3</f>
+      <c r="AL2">
+        <f t="shared" ref="AL2:AL18" si="2">(X2+Y2+Z2)/3</f>
         <v>2691.0299018966666</v>
       </c>
-      <c r="AL2">
-        <f t="shared" ref="AL2:AL18" si="3">Z2-(Y2+X2)/2</f>
+      <c r="AM2">
+        <f t="shared" ref="AM2:AM18" si="3">Z2-(Y2+X2)/2</f>
         <v>3226.8073422049997</v>
       </c>
-      <c r="AO2">
-        <f>(3*(1-2*0.33))/(0.0762*0.2606*(AK2)^(0.2606-1))</f>
+      <c r="AP2">
+        <f>(3*(1-2*0.33))/(0.0762*0.2606*(AL2)^(0.2606-1))</f>
         <v>17650.318447600221</v>
       </c>
-      <c r="AS2" s="1">
-        <f>(1+2*AM3)*AK3*(1-AP3/3)/(2*AN3*AO3*AM3)</f>
-        <v>3.3292368819230625E-4</v>
-      </c>
-      <c r="AU2">
+      <c r="AT2" s="1" t="e">
+        <f>(1+2*AN2)*AL2*(1-AQ2/3)/(2*AO2*AP2*AN2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2.8026869856899999</v>
       </c>
@@ -921,7 +1172,7 @@
         <v>0.63442165348475132</v>
       </c>
       <c r="AC3" s="1">
-        <f t="shared" ref="AC3:AC18" si="4">0.0762*AK3^0.2606-0.5912</f>
+        <f t="shared" ref="AC3:AC18" si="4">0.0762*AL3^0.2606-0.5912</f>
         <v>0.59610220278570636</v>
       </c>
       <c r="AD3" s="1">
@@ -949,69 +1200,74 @@
         <v>-4.8578323170432841E-2</v>
       </c>
       <c r="AJ3" s="1">
-        <f>(1.35*(AK3/3255000)^-0.0723)^4</f>
+        <f>-0.0427*AK3-0.1047*(2*232)^0.2917+0.9625</f>
+        <v>-0.18010072236535091</v>
+      </c>
+      <c r="AK3" s="2">
+        <f>AQ3^4</f>
         <v>12.057960786920809</v>
       </c>
-      <c r="AK3" s="1">
+      <c r="AL3" s="1">
         <f t="shared" si="2"/>
         <v>37703.912981300004</v>
       </c>
-      <c r="AL3" s="1">
+      <c r="AM3" s="1">
         <f t="shared" si="3"/>
         <v>46193.277502650002</v>
       </c>
-      <c r="AM3" s="1">
-        <v>-0.49972129302590063</v>
-      </c>
-      <c r="AN3" s="1">
-        <f t="shared" ref="AN3:AN18" si="8">1/(2+AM3*AQ3-2*0.33*(1+AM3+AQ3))</f>
-        <v>-0.19252046595451952</v>
+      <c r="AN3">
+        <f>(-2*AJ3-3)/(-2*AJ3+6)</f>
+        <v>-0.41504951976895599</v>
       </c>
       <c r="AO3" s="1">
+        <f t="shared" ref="AO3:AO18" si="8">1/(2+AN3*AR3-2*0.33*(1+AN3+AR3))</f>
+        <v>-0.21057119788931108</v>
+      </c>
+      <c r="AP3" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP3" s="1">
-        <f>AJ3^0.25</f>
+      <c r="AQ3" s="1">
+        <f>1.35*(AL3/3255000)^-0.0723</f>
         <v>1.8634531001502148</v>
       </c>
-      <c r="AQ3" s="1">
-        <f>(2*AP3+3)/(3-AP3)</f>
+      <c r="AR3" s="1">
+        <f>(2*AQ3+3)/(3-AQ3)</f>
         <v>5.9187229327619564</v>
       </c>
-      <c r="AR3" s="1">
-        <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(2*AN3*AO3*AM3)</f>
-        <v>3.0916202715676439E-4</v>
-      </c>
       <c r="AS3" s="1">
-        <f t="shared" ref="AS3:AS18" si="9">(1+2*AM4)*AK4*(1-AP4/3)/(2*AN4*AO4*AM4)</f>
-        <v>-4.2214763595324244E-2</v>
+        <f>(1+2*AN3)*(AL3-AL2)*(1-AQ3/3)/(2*AO3*AP3*AN3)</f>
+        <v>0.10373134858656667</v>
       </c>
       <c r="AT3" s="1">
-        <f>(1-AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>0.55453327713372569</v>
+        <f>(1+2*AN3)*AL3*(1-AQ3/3)/(2*AO3*AP3*AN3)</f>
+        <v>0.11170396141532078</v>
       </c>
       <c r="AU3" s="1">
-        <f>(1-AM3)*(AK3)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>0.597153749917398</v>
+        <f>(1-AN3)*(AL3-AL2)*(1-AQ3/3)/(3*AO3*AP3*AN3)</f>
+        <v>0.57596297907199967</v>
       </c>
       <c r="AV3" s="1">
-        <f t="shared" ref="AV3:AV18" si="10">AN3*AO3*(AM3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
-        <v>-85.684593653198419</v>
+        <f>(1-AN3)*(AL3)*(1-AQ3/3)/(3*AO3*AP3*AN3)</f>
+        <v>0.62023050184506723</v>
       </c>
       <c r="AW3" s="1">
-        <f t="shared" ref="AW3:AW18" si="11">AN3*AO3*(AM3*AQ3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*AQ3*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
-        <v>-507.14336943957494</v>
+        <f t="shared" ref="AW3:AW18" si="9">AO3*AP3*(AN3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
+        <v>-111.52340340279017</v>
       </c>
       <c r="AX3" s="1">
-        <f t="shared" ref="AX3:AX18" si="12">AV3+(AK2-1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
-        <v>582.3011390170916</v>
+        <f t="shared" ref="AX3:AX18" si="10">AO3*AP3*(AN3*AR3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*AR3*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
+        <v>-660.07612525975674</v>
       </c>
       <c r="AY3" s="1">
-        <f t="shared" ref="AY3:AY18" si="13">AW3+(AK2+2*1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
-        <v>6229.9748709098458</v>
+        <f t="shared" ref="AY3:AY18" si="11">AW3+(AL2-1.35*(AL2/3255000)^-0.0723*AL2/3)</f>
+        <v>556.46232926749985</v>
+      </c>
+      <c r="AZ3" s="1">
+        <f t="shared" ref="AZ3:AZ18" si="12">AX3+(AL2+2*1.35*(AL2/3255000)^-0.0723*AL2/3)</f>
+        <v>6077.0421150896636</v>
       </c>
     </row>
-    <row r="4" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>7.8844281171999997</v>
       </c>
@@ -1122,74 +1378,78 @@
         <v>0.90761491448980691</v>
       </c>
       <c r="AI4" s="1">
-        <f t="shared" ref="AI4:AI18" si="14">-AD4/AE4</f>
+        <f t="shared" ref="AI4:AI18" si="13">-AD4/AE4</f>
         <v>2.7573394041877152E-2</v>
       </c>
-      <c r="AJ4" s="2">
-        <f t="shared" ref="AJ4:AJ18" si="15">(1.35*(AK4/3255000)^-0.0723)^4</f>
+      <c r="AJ4" s="1">
+        <f t="shared" ref="AJ4:AJ18" si="14">-0.0427*AK4-0.1047*(2*232)^0.2917+0.9625</f>
+        <v>-4.6243163718721836E-2</v>
+      </c>
+      <c r="AK4" s="2">
+        <f t="shared" ref="AK4:AK18" si="15">AQ4^4</f>
         <v>8.9231233478896872</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AL4" s="2">
         <f t="shared" si="2"/>
         <v>106787.34644183335</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AM4" s="2">
         <f t="shared" si="3"/>
         <v>136519.75885225</v>
       </c>
-      <c r="AM4" s="2">
-        <f t="shared" ref="AM4:AM18" si="16">(-2*AI4-3)/(-2*AI4+6)</f>
-        <v>-0.51391458782528421</v>
-      </c>
-      <c r="AN4" s="2">
+      <c r="AN4">
+        <f t="shared" ref="AN4:AN18" si="16">(-2*AJ4-3)/(-2*AJ4+6)</f>
+        <v>-0.47722941280452308</v>
+      </c>
+      <c r="AO4" s="2">
         <f t="shared" si="8"/>
-        <v>-0.23357890624124561</v>
-      </c>
-      <c r="AO4" s="1">
+        <v>-0.24276813634728492</v>
+      </c>
+      <c r="AP4" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP4" s="1">
-        <f t="shared" ref="AP4:AP18" si="17">AJ4^0.25</f>
+      <c r="AQ4" s="1">
+        <f t="shared" ref="AQ4:AQ18" si="17">1.35*(AL4/3255000)^-0.0723</f>
         <v>1.7283401707884312</v>
       </c>
-      <c r="AQ4" s="2">
-        <f t="shared" ref="AQ4:AQ18" si="18">(2*AP4+3)/(3-AP4)</f>
+      <c r="AR4" s="2">
+        <f t="shared" ref="AR4:AR18" si="18">(2*AQ4+3)/(3-AQ4)</f>
         <v>5.0773643967192195</v>
       </c>
-      <c r="AR4" s="2">
-        <f t="shared" ref="AR4:AR18" si="19">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(2*AN4*AO4*AM4)</f>
-        <v>-2.7309797546830585E-2</v>
-      </c>
-      <c r="AS4" s="1">
+      <c r="AS4" s="2">
+        <f t="shared" ref="AS4:AS18" si="19">(1+2*AN4)*(AL4-AL3)*(1-AQ4/3)/(2*AO4*AP4*AN4)</f>
+        <v>4.6305016544274526E-2</v>
+      </c>
+      <c r="AT4" s="1">
+        <f t="shared" ref="AT4:AT18" si="20">(1+2*AN4)*AL4*(1-AQ4/3)/(2*AO4*AP4*AN4)</f>
+        <v>7.1577071318164515E-2</v>
+      </c>
+      <c r="AU4" s="2">
+        <f t="shared" ref="AU4:AU18" si="21">(1-AN4)*(AL4-AL3)*(1-AQ4/3)/(3*AO4*AP4*AN4)</f>
+        <v>1.0013375560964859</v>
+      </c>
+      <c r="AV4" s="1">
+        <f t="shared" ref="AV4:AV18" si="22">(1-AN4)*(AL4)*(1-AQ4/3)/(3*AO4*AP4*AN4)</f>
+        <v>1.5478411415260978</v>
+      </c>
+      <c r="AW4" s="2">
         <f t="shared" si="9"/>
-        <v>-0.22802696080741641</v>
-      </c>
-      <c r="AT4" s="2">
-        <f t="shared" ref="AT4:AT18" si="20">(1-AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>0.99044018684655788</v>
-      </c>
-      <c r="AU4" s="1">
-        <f t="shared" ref="AU4:AU18" si="21">(1-AM4)*(AK4)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>1.5309962760192113</v>
-      </c>
-      <c r="AV4" s="2">
+        <v>-164.37403701778749</v>
+      </c>
+      <c r="AX4" s="2">
         <f t="shared" si="10"/>
-        <v>-148.78761208641151</v>
-      </c>
-      <c r="AW4" s="2">
+        <v>-834.58688329912104</v>
+      </c>
+      <c r="AY4" s="2">
         <f t="shared" si="11"/>
-        <v>-755.44892428041601</v>
-      </c>
-      <c r="AX4" s="2">
+        <v>14119.714433349742</v>
+      </c>
+      <c r="AZ4" s="2">
         <f t="shared" si="12"/>
-        <v>14135.300858281118</v>
-      </c>
-      <c r="AY4" s="2">
-        <f t="shared" si="13"/>
-        <v>83788.113078884548</v>
+        <v>83708.975119865834</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15.028438339299999</v>
       </c>
@@ -1300,74 +1560,78 @@
         <v>0.97226977072217502</v>
       </c>
       <c r="AI5" s="1">
+        <f t="shared" si="13"/>
+        <v>8.5406183997936494E-2</v>
+      </c>
+      <c r="AJ5" s="1">
         <f t="shared" si="14"/>
-        <v>8.5406183997936494E-2</v>
-      </c>
-      <c r="AJ5">
+        <v>1.6279162221804144E-2</v>
+      </c>
+      <c r="AK5" s="2">
         <f t="shared" si="15"/>
         <v>7.4589002579476258</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <f t="shared" si="2"/>
         <v>198464.7302633333</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <f t="shared" si="3"/>
         <v>259266.52142049998</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <f t="shared" si="16"/>
-        <v>-0.5439544183802022</v>
-      </c>
-      <c r="AN5">
+        <v>-0.5081839906145138</v>
+      </c>
+      <c r="AO5">
         <f t="shared" si="8"/>
-        <v>-0.25413259915843323</v>
-      </c>
-      <c r="AO5" s="1">
+        <v>-0.26377062892087993</v>
+      </c>
+      <c r="AP5" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP5" s="1">
+      <c r="AQ5" s="1">
         <f t="shared" si="17"/>
         <v>1.6526036207278714</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <f t="shared" si="18"/>
         <v>4.6795488977503803</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <f t="shared" si="19"/>
-        <v>-0.10533315002546759</v>
-      </c>
-      <c r="AS5" s="1">
+        <v>-2.0225679913797895E-2</v>
+      </c>
+      <c r="AT5" s="1">
+        <f t="shared" si="20"/>
+        <v>-4.3784889371407267E-2</v>
+      </c>
+      <c r="AU5">
+        <f t="shared" si="21"/>
+        <v>1.2424275671083362</v>
+      </c>
+      <c r="AV5" s="1">
+        <f t="shared" si="22"/>
+        <v>2.6896279289337501</v>
+      </c>
+      <c r="AW5">
         <f t="shared" si="9"/>
-        <v>-0.24561760173310954</v>
-      </c>
-      <c r="AT5">
-        <f t="shared" si="20"/>
-        <v>1.2333199435302313</v>
-      </c>
-      <c r="AU5" s="1">
-        <f t="shared" si="21"/>
-        <v>2.6699115934383131</v>
-      </c>
-      <c r="AV5">
+        <v>-206.42459367939119</v>
+      </c>
+      <c r="AX5">
         <f t="shared" si="10"/>
-        <v>-188.57864938156177</v>
-      </c>
-      <c r="AW5">
+        <v>-965.97397982096538</v>
+      </c>
+      <c r="AY5">
         <f t="shared" si="11"/>
-        <v>-882.46301085274297</v>
-      </c>
-      <c r="AX5">
+        <v>45059.301652380091</v>
+      </c>
+      <c r="AZ5">
         <f t="shared" si="12"/>
-        <v>45077.147596677918</v>
-      </c>
-      <c r="AY5">
-        <f t="shared" si="13"/>
-        <v>228948.12382252835</v>
+        <v>228864.61285356013</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>23.366001454100001</v>
       </c>
@@ -1478,74 +1742,78 @@
         <v>0.92076781787742101</v>
       </c>
       <c r="AI6" s="1">
+        <f t="shared" si="13"/>
+        <v>6.0804846032563836E-2</v>
+      </c>
+      <c r="AJ6" s="1">
         <f t="shared" si="14"/>
-        <v>6.0804846032563836E-2</v>
-      </c>
-      <c r="AJ6">
+        <v>5.5479835394590338E-2</v>
+      </c>
+      <c r="AK6" s="2">
         <f t="shared" si="15"/>
         <v>6.5408517058917441</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <f t="shared" si="2"/>
         <v>312549.49699266668</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <f t="shared" si="3"/>
         <v>417666.95242850005</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <f t="shared" si="16"/>
-        <v>-0.53103137568995062</v>
-      </c>
-      <c r="AN6">
+        <v>-0.52826258556223471</v>
+      </c>
+      <c r="AO6">
         <f t="shared" si="8"/>
-        <v>-0.27934282240811431</v>
-      </c>
-      <c r="AO6" s="1">
+        <v>-0.28015864612369362</v>
+      </c>
+      <c r="AP6" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="AQ6" s="1">
         <f t="shared" si="17"/>
         <v>1.5992213376412019</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <f t="shared" si="18"/>
         <v>4.424997925685652</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <f t="shared" si="19"/>
-        <v>-8.9653725467353965E-2</v>
-      </c>
-      <c r="AS6" s="1">
+        <v>-8.1843278447773157E-2</v>
+      </c>
+      <c r="AT6" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.22421990458876159</v>
+      </c>
+      <c r="AU6">
+        <f t="shared" si="21"/>
+        <v>1.4751896408069212</v>
+      </c>
+      <c r="AV6" s="1">
+        <f t="shared" si="22"/>
+        <v>4.0414666516949271</v>
+      </c>
+      <c r="AW6">
         <f t="shared" si="9"/>
-        <v>-0.52469329457758918</v>
-      </c>
-      <c r="AT6">
-        <f t="shared" si="20"/>
-        <v>1.4744503327800582</v>
-      </c>
-      <c r="AU6" s="1">
-        <f t="shared" si="21"/>
-        <v>4.0394412248255636</v>
-      </c>
-      <c r="AV6">
+        <v>-148.41670782080567</v>
+      </c>
+      <c r="AX6">
         <f t="shared" si="10"/>
-        <v>-147.0962459408629</v>
-      </c>
-      <c r="AW6">
+        <v>-656.74362424415858</v>
+      </c>
+      <c r="AY6">
         <f t="shared" si="11"/>
-        <v>-650.90058316446482</v>
-      </c>
-      <c r="AX6">
+        <v>88988.469615524155</v>
+      </c>
+      <c r="AZ6">
         <f t="shared" si="12"/>
-        <v>88989.790077404105</v>
-      </c>
-      <c r="AY6">
-        <f t="shared" si="13"/>
-        <v>416469.51756014553</v>
+        <v>416463.67451906583</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32.700695932499997</v>
       </c>
@@ -1656,74 +1924,78 @@
         <v>1.0077198854384859</v>
       </c>
       <c r="AI7" s="1">
+        <f t="shared" si="13"/>
+        <v>9.5261831682436737E-2</v>
+      </c>
+      <c r="AJ7" s="1">
         <f t="shared" si="14"/>
-        <v>9.5261831682436737E-2</v>
-      </c>
-      <c r="AJ7">
+        <v>8.2023507592581035E-2</v>
+      </c>
+      <c r="AK7" s="2">
         <f t="shared" si="15"/>
         <v>5.9192200384914937</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <f t="shared" si="2"/>
         <v>441452.11121466663</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <f t="shared" si="3"/>
         <v>598265.88940549991</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <f t="shared" si="16"/>
-        <v>-0.549192987196646</v>
-      </c>
-      <c r="AN7">
+        <v>-0.5421645827884527</v>
+      </c>
+      <c r="AO7">
         <f t="shared" si="8"/>
-        <v>-0.29107839000580121</v>
-      </c>
-      <c r="AO7" s="1">
+        <v>-0.29323147642781838</v>
+      </c>
+      <c r="AP7" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP7" s="1">
+      <c r="AQ7" s="1">
         <f t="shared" si="17"/>
         <v>1.5597899620580336</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <f t="shared" si="18"/>
         <v>4.2490885099376436</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <f t="shared" si="19"/>
-        <v>-0.15320877535211591</v>
-      </c>
-      <c r="AS7" s="1">
+        <v>-0.13204485057466003</v>
+      </c>
+      <c r="AT7" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.45221331167743062</v>
+      </c>
+      <c r="AU7">
+        <f t="shared" si="21"/>
+        <v>1.6098415496998757</v>
+      </c>
+      <c r="AV7" s="1">
+        <f t="shared" si="22"/>
+        <v>5.5132159663741742</v>
+      </c>
+      <c r="AW7">
         <f t="shared" si="9"/>
-        <v>-0.67804966194615723</v>
-      </c>
-      <c r="AT7">
-        <f t="shared" si="20"/>
-        <v>1.608291302468867</v>
-      </c>
-      <c r="AU7" s="1">
-        <f t="shared" si="21"/>
-        <v>5.5079068427604758</v>
-      </c>
-      <c r="AV7">
+        <v>-236.00281717816878</v>
+      </c>
+      <c r="AX7">
         <f t="shared" si="10"/>
-        <v>-231.89367953411548</v>
-      </c>
-      <c r="AW7">
+        <v>-1002.7968587846713</v>
+      </c>
+      <c r="AY7">
         <f t="shared" si="11"/>
-        <v>-985.33676923557232</v>
-      </c>
-      <c r="AX7">
+        <v>145701.5526222561</v>
+      </c>
+      <c r="AZ7">
         <f t="shared" si="12"/>
-        <v>145705.66175990016</v>
-      </c>
-      <c r="AY7">
-        <f t="shared" si="13"/>
-        <v>644788.04332989594</v>
+        <v>644770.58324034687</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>42.669404995000001</v>
       </c>
@@ -1834,74 +2106,78 @@
         <v>0.97354863206513187</v>
       </c>
       <c r="AI8" s="1">
+        <f t="shared" si="13"/>
+        <v>9.6195307156505733E-2</v>
+      </c>
+      <c r="AJ8" s="1">
         <f t="shared" si="14"/>
-        <v>9.6195307156505733E-2</v>
-      </c>
-      <c r="AJ8">
+        <v>0.10116884074883858</v>
+      </c>
+      <c r="AK8" s="2">
         <f t="shared" si="15"/>
         <v>5.4708515804995139</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <f t="shared" si="2"/>
         <v>579660.74060000002</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <f t="shared" si="3"/>
         <v>791591.73232499987</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <f t="shared" si="16"/>
-        <v>-0.54969100060013421</v>
-      </c>
-      <c r="AN8">
+        <v>-0.55234981024643715</v>
+      </c>
+      <c r="AO8">
         <f t="shared" si="8"/>
-        <v>-0.3047905803296404</v>
-      </c>
-      <c r="AO8" s="1">
+        <v>-0.303938401404311</v>
+      </c>
+      <c r="AP8" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP8" s="1">
+      <c r="AQ8" s="1">
         <f t="shared" si="17"/>
         <v>1.5293741073997003</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <f t="shared" si="18"/>
         <v>4.119843289367477</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <f t="shared" si="19"/>
-        <v>-0.16166752010109658</v>
-      </c>
-      <c r="AS8" s="1">
+        <v>-0.16997323101540726</v>
+      </c>
+      <c r="AT8" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.71288463977070227</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" si="21"/>
+        <v>1.6800946789276987</v>
+      </c>
+      <c r="AV8" s="1">
+        <f t="shared" si="22"/>
+        <v>7.0464842187972456</v>
+      </c>
+      <c r="AW8">
         <f t="shared" si="9"/>
-        <v>-1.0291647610292043</v>
-      </c>
-      <c r="AT8">
-        <f t="shared" si="20"/>
-        <v>1.6806175361347964</v>
-      </c>
-      <c r="AU8" s="1">
-        <f t="shared" si="21"/>
-        <v>7.0486771339375105</v>
-      </c>
-      <c r="AV8">
+        <v>-196.11837951468956</v>
+      </c>
+      <c r="AX8">
         <f t="shared" si="10"/>
-        <v>-197.61598198671103</v>
-      </c>
-      <c r="AW8">
+        <v>-807.97698976521781</v>
+      </c>
+      <c r="AY8">
         <f t="shared" si="11"/>
-        <v>-814.14687725971555</v>
-      </c>
-      <c r="AX8">
+        <v>211731.80223449739</v>
+      </c>
+      <c r="AZ8">
         <f t="shared" si="12"/>
-        <v>211730.30463202536</v>
-      </c>
-      <c r="AY8">
-        <f t="shared" si="13"/>
-        <v>899686.34553871606</v>
+        <v>899692.51542621059</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>53.192396357699998</v>
       </c>
@@ -2012,74 +2288,78 @@
         <v>1.0340177370399486</v>
       </c>
       <c r="AI9" s="1">
+        <f t="shared" si="13"/>
+        <v>0.11937262837492017</v>
+      </c>
+      <c r="AJ9" s="1">
         <f t="shared" si="14"/>
-        <v>0.11937262837492017</v>
-      </c>
-      <c r="AJ9">
+        <v>0.11581324582690633</v>
+      </c>
+      <c r="AK9" s="2">
         <f t="shared" si="15"/>
         <v>5.1278912742215805</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <f t="shared" si="2"/>
         <v>725093.87252199987</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <f t="shared" si="3"/>
         <v>993497.51078699995</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <f t="shared" si="16"/>
-        <v>-0.56215970323900866</v>
-      </c>
-      <c r="AN9">
+        <v>-0.56023183779240593</v>
+      </c>
+      <c r="AO9">
         <f t="shared" si="8"/>
-        <v>-0.31237747750401729</v>
-      </c>
-      <c r="AO9" s="1">
+        <v>-0.31301072014313547</v>
+      </c>
+      <c r="AP9" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP9" s="1">
+      <c r="AQ9" s="1">
         <f t="shared" si="17"/>
         <v>1.5048205109399746</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <f t="shared" si="18"/>
         <v>4.0193442097430259</v>
       </c>
-      <c r="AR9">
+      <c r="AS9">
         <f t="shared" si="19"/>
-        <v>-0.20642107199118895</v>
-      </c>
-      <c r="AS9" s="1">
+        <v>-0.20030124023615287</v>
+      </c>
+      <c r="AT9" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.99865278313394623</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" si="21"/>
+        <v>1.7295192687675953</v>
+      </c>
+      <c r="AV9" s="1">
+        <f t="shared" si="22"/>
+        <v>8.6229582463004739</v>
+      </c>
+      <c r="AW9">
         <f t="shared" si="9"/>
-        <v>-1.3006420173659203</v>
-      </c>
-      <c r="AT9">
-        <f t="shared" si="20"/>
-        <v>1.7292161092647698</v>
-      </c>
-      <c r="AU9" s="1">
-        <f t="shared" si="21"/>
-        <v>8.621446767485498</v>
-      </c>
-      <c r="AV9">
+        <v>-260.76569182584359</v>
+      </c>
+      <c r="AX9">
         <f t="shared" si="10"/>
-        <v>-259.52716760860926</v>
-      </c>
-      <c r="AW9">
+        <v>-1048.1070735398389</v>
+      </c>
+      <c r="AY9">
         <f t="shared" si="11"/>
-        <v>-1043.1290183986716</v>
-      </c>
-      <c r="AX9">
+        <v>283893.93232491612</v>
+      </c>
+      <c r="AZ9">
         <f t="shared" si="12"/>
-        <v>283895.17084913334</v>
-      </c>
-      <c r="AY9">
-        <f t="shared" si="13"/>
-        <v>1169629.6967481175</v>
+        <v>1169624.7186929763</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>64.125454629800004</v>
       </c>
@@ -2190,74 +2470,78 @@
         <v>1.0174630450951474</v>
       </c>
       <c r="AI10" s="1">
+        <f t="shared" si="13"/>
+        <v>0.12716758995037084</v>
+      </c>
+      <c r="AJ10" s="1">
         <f t="shared" si="14"/>
-        <v>0.12716758995037084</v>
-      </c>
-      <c r="AJ10">
+        <v>0.12746525646072926</v>
+      </c>
+      <c r="AK10" s="2">
         <f t="shared" si="15"/>
         <v>4.8550104631250237</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <f t="shared" si="2"/>
         <v>876017.18164433341</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <f t="shared" si="3"/>
         <v>1201493.2976485002</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <f t="shared" si="16"/>
-        <v>-0.56639836847366287</v>
-      </c>
-      <c r="AN10">
+        <v>-0.56656068655779512</v>
+      </c>
+      <c r="AO10">
         <f t="shared" si="8"/>
-        <v>-0.32092682716121373</v>
-      </c>
-      <c r="AO10" s="1">
+        <v>-0.3208720323032983</v>
+      </c>
+      <c r="AP10" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP10" s="1">
+      <c r="AQ10" s="1">
         <f t="shared" si="17"/>
         <v>1.4843883683047383</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <f t="shared" si="18"/>
         <v>3.9381967067204431</v>
       </c>
-      <c r="AR10">
+      <c r="AS10">
         <f t="shared" si="19"/>
-        <v>-0.22407916346566564</v>
-      </c>
-      <c r="AS10" s="1">
+        <v>-0.22460094275094336</v>
+      </c>
+      <c r="AT10" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.303670625879658</v>
+      </c>
+      <c r="AU10">
+        <f t="shared" si="21"/>
+        <v>1.7620561789725084</v>
+      </c>
+      <c r="AV10" s="1">
+        <f t="shared" si="22"/>
+        <v>10.227654672952438</v>
+      </c>
+      <c r="AW10">
         <f t="shared" si="9"/>
-        <v>-1.5562879070102438</v>
-      </c>
-      <c r="AT10">
-        <f t="shared" si="20"/>
-        <v>1.7620776139039527</v>
-      </c>
-      <c r="AU10" s="1">
-        <f t="shared" si="21"/>
-        <v>10.227779089573978</v>
-      </c>
-      <c r="AV10">
+        <v>-237.59952186887784</v>
+      </c>
+      <c r="AX10">
         <f t="shared" si="10"/>
-        <v>-237.70207103420867</v>
-      </c>
-      <c r="AW10">
+        <v>-935.71365454236673</v>
+      </c>
+      <c r="AY10">
         <f t="shared" si="11"/>
-        <v>-936.11751332754955</v>
-      </c>
-      <c r="AX10">
+        <v>361144.22909079742</v>
+      </c>
+      <c r="AZ10">
         <f t="shared" si="12"/>
-        <v>361144.12654163205</v>
-      </c>
-      <c r="AY10">
-        <f t="shared" si="13"/>
-        <v>1451581.8428273394</v>
+        <v>1451582.2466861247</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>75.4317555863</v>
       </c>
@@ -2368,74 +2652,78 @@
         <v>1.0230688361068134</v>
       </c>
       <c r="AI11" s="1">
+        <f t="shared" si="13"/>
+        <v>0.13161878151522965</v>
+      </c>
+      <c r="AJ11" s="1">
         <f t="shared" si="14"/>
-        <v>0.13161878151522965</v>
-      </c>
-      <c r="AJ11">
+        <v>0.1368634074232159</v>
+      </c>
+      <c r="AK11" s="2">
         <f t="shared" si="15"/>
         <v>4.6349132508888031</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <f t="shared" si="2"/>
         <v>1028448.6459476665</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <f t="shared" si="3"/>
         <v>1404695.8866935</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <f t="shared" si="16"/>
-        <v>-0.56882912598944446</v>
-      </c>
-      <c r="AN11">
+        <v>-0.57170287008558718</v>
+      </c>
+      <c r="AO11">
         <f t="shared" si="8"/>
-        <v>-0.32868224146039615</v>
-      </c>
-      <c r="AO11" s="1">
+        <v>-0.32768810871788401</v>
+      </c>
+      <c r="AP11" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP11" s="1">
+      <c r="AQ11" s="1">
         <f t="shared" si="17"/>
         <v>1.4672712315986158</v>
       </c>
-      <c r="AQ11">
+      <c r="AR11">
         <f t="shared" si="18"/>
         <v>3.8718803910667647</v>
       </c>
-      <c r="AR11">
+      <c r="AS11">
         <f t="shared" si="19"/>
-        <v>-0.23066513381866269</v>
-      </c>
-      <c r="AS11" s="1">
+        <v>-0.23981329153887931</v>
+      </c>
+      <c r="AT11" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.6180101404301763</v>
+      </c>
+      <c r="AU11">
+        <f t="shared" si="21"/>
+        <v>1.7522089801353296</v>
+      </c>
+      <c r="AV11" s="1">
+        <f t="shared" si="22"/>
+        <v>11.822079918168953</v>
+      </c>
+      <c r="AW11">
         <f t="shared" si="9"/>
-        <v>-1.8916723156098922</v>
-      </c>
-      <c r="AT11">
-        <f t="shared" si="20"/>
-        <v>1.7525244586159034</v>
-      </c>
-      <c r="AU11" s="1">
-        <f t="shared" si="21"/>
-        <v>11.82420843814122</v>
-      </c>
-      <c r="AV11">
+        <v>-237.32915793241878</v>
+      </c>
+      <c r="AX11">
         <f t="shared" si="10"/>
-        <v>-239.18429107380121</v>
-      </c>
-      <c r="AW11">
+        <v>-918.91011282691966</v>
+      </c>
+      <c r="AY11">
         <f t="shared" si="11"/>
-        <v>-926.09296645985637</v>
-      </c>
-      <c r="AX11">
+        <v>442329.94753041846</v>
+      </c>
+      <c r="AZ11">
         <f t="shared" si="12"/>
-        <v>442328.09239727707</v>
-      </c>
-      <c r="AY11">
-        <f t="shared" si="13"/>
-        <v>1741990.8985898385</v>
+        <v>1741998.0814434716</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>86.739260263199995</v>
       </c>
@@ -2546,74 +2834,78 @@
         <v>1.0418571353252837</v>
       </c>
       <c r="AI12" s="1">
+        <f t="shared" si="13"/>
+        <v>0.14128718175166993</v>
+      </c>
+      <c r="AJ12" s="1">
         <f t="shared" si="14"/>
-        <v>0.14128718175166993</v>
-      </c>
-      <c r="AJ12">
+        <v>0.14458742166977878</v>
+      </c>
+      <c r="AK12" s="2">
         <f t="shared" si="15"/>
         <v>4.4540229875032571</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <f t="shared" si="2"/>
         <v>1180226.3532186665</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <f t="shared" si="3"/>
         <v>1603711.9327819999</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <f t="shared" si="16"/>
-        <v>-0.5741350342275251</v>
-      </c>
-      <c r="AN12">
+        <v>-0.57595439417427197</v>
+      </c>
+      <c r="AO12">
         <f t="shared" si="8"/>
-        <v>-0.33428721735118366</v>
-      </c>
-      <c r="AO12" s="1">
+        <v>-0.33364665184193126</v>
+      </c>
+      <c r="AP12" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP12" s="1">
+      <c r="AQ12" s="1">
         <f t="shared" si="17"/>
         <v>1.4527407322187205</v>
       </c>
-      <c r="AQ12">
+      <c r="AR12">
         <f t="shared" si="18"/>
         <v>3.816736850383009</v>
       </c>
-      <c r="AR12">
+      <c r="AS12">
         <f t="shared" si="19"/>
-        <v>-0.24327001866064751</v>
-      </c>
-      <c r="AS12" s="1">
+        <v>-0.24892983537209945</v>
+      </c>
+      <c r="AT12" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.9356831585548053</v>
+      </c>
+      <c r="AU12">
+        <f t="shared" si="21"/>
+        <v>1.7216562305165601</v>
+      </c>
+      <c r="AV12" s="1">
+        <f t="shared" si="22"/>
+        <v>13.387631760774376</v>
+      </c>
+      <c r="AW12">
         <f t="shared" si="9"/>
-        <v>-2.2496955705564607</v>
-      </c>
-      <c r="AT12">
-        <f t="shared" si="20"/>
-        <v>1.7218123798960443</v>
-      </c>
-      <c r="AU12" s="1">
-        <f t="shared" si="21"/>
-        <v>13.388845981334295</v>
-      </c>
-      <c r="AV12">
+        <v>-265.39392265224421</v>
+      </c>
+      <c r="AX12">
         <f t="shared" si="10"/>
-        <v>-266.63288136401707</v>
-      </c>
-      <c r="AW12">
+        <v>-1012.9387644545185</v>
+      </c>
+      <c r="AY12">
         <f t="shared" si="11"/>
-        <v>-1017.6675438258449</v>
-      </c>
-      <c r="AX12">
+        <v>525178.88156649377</v>
+      </c>
+      <c r="AZ12">
         <f t="shared" si="12"/>
-        <v>525177.64260778204</v>
-      </c>
-      <c r="AY12">
-        <f t="shared" si="13"/>
-        <v>2033439.7193208814</v>
+        <v>2033444.4481002528</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>97.959816765100001</v>
       </c>
@@ -2724,74 +3016,78 @@
         <v>1.0533796298014373</v>
       </c>
       <c r="AI13" s="1">
+        <f t="shared" si="13"/>
+        <v>0.15075688065182952</v>
+      </c>
+      <c r="AJ13" s="1">
         <f t="shared" si="14"/>
-        <v>0.15075688065182952</v>
-      </c>
-      <c r="AJ13">
+        <v>0.15108031223336804</v>
+      </c>
+      <c r="AK13" s="2">
         <f t="shared" si="15"/>
         <v>4.301964660487112</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <f t="shared" si="2"/>
         <v>1330848.3509603334</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <f t="shared" si="3"/>
         <v>1798642.8269394999</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <f t="shared" si="16"/>
-        <v>-0.57936680427238441</v>
-      </c>
-      <c r="AN13">
+        <v>-0.57954610630940873</v>
+      </c>
+      <c r="AO13">
         <f t="shared" si="8"/>
-        <v>-0.33899436776401198</v>
-      </c>
-      <c r="AO13" s="1">
+        <v>-0.3389303008316516</v>
+      </c>
+      <c r="AP13" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP13" s="1">
+      <c r="AQ13" s="1">
         <f t="shared" si="17"/>
         <v>1.4401797814660104</v>
       </c>
-      <c r="AQ13">
+      <c r="AR13">
         <f t="shared" si="18"/>
         <v>3.7698957181480361</v>
       </c>
-      <c r="AR13">
+      <c r="AS13">
         <f t="shared" si="19"/>
-        <v>-0.25461476576446751</v>
-      </c>
-      <c r="AS13" s="1">
+        <v>-0.25515925163817338</v>
+      </c>
+      <c r="AT13" s="1">
+        <f t="shared" si="20"/>
+        <v>-2.2545064755903019</v>
+      </c>
+      <c r="AU13">
+        <f t="shared" si="21"/>
+        <v>1.6888980957627262</v>
+      </c>
+      <c r="AV13" s="1">
+        <f t="shared" si="22"/>
+        <v>14.922569607268564</v>
+      </c>
+      <c r="AW13">
         <f t="shared" si="9"/>
-        <v>-2.6128108877655114</v>
-      </c>
-      <c r="AT13">
-        <f t="shared" si="20"/>
-        <v>1.6889097510082878</v>
-      </c>
-      <c r="AU13" s="1">
-        <f t="shared" si="21"/>
-        <v>14.922672589333382</v>
-      </c>
-      <c r="AV13">
+        <v>-277.33215794187487</v>
+      </c>
+      <c r="AX13">
         <f t="shared" si="10"/>
-        <v>-277.4578536176333</v>
-      </c>
-      <c r="AW13">
+        <v>-1045.5133147298293</v>
+      </c>
+      <c r="AY13">
         <f t="shared" si="11"/>
-        <v>-1045.9871743196609</v>
-      </c>
-      <c r="AX13">
+        <v>608428.05554115272</v>
+      </c>
+      <c r="AZ13">
         <f t="shared" si="12"/>
-        <v>608427.92984547699</v>
-      </c>
-      <c r="AY13">
-        <f t="shared" si="13"/>
-        <v>2322222.297083491</v>
+        <v>2322222.7709430805</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>109.06347563</v>
       </c>
@@ -2902,74 +3198,78 @@
         <v>1.0586993831843472</v>
       </c>
       <c r="AI14" s="1">
+        <f t="shared" si="13"/>
+        <v>0.15961529964248958</v>
+      </c>
+      <c r="AJ14" s="1">
         <f t="shared" si="14"/>
-        <v>0.15961529964248958</v>
-      </c>
-      <c r="AJ14">
+        <v>0.15644232690327431</v>
+      </c>
+      <c r="AK14" s="2">
         <f t="shared" si="15"/>
         <v>4.176390546437788</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <f t="shared" si="2"/>
         <v>1474401.9476263335</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <f t="shared" si="3"/>
         <v>1977343.6949454998</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <f t="shared" si="16"/>
-        <v>-0.58429243737075431</v>
-      </c>
-      <c r="AN14">
+        <v>-0.58252461083349705</v>
+      </c>
+      <c r="AO14">
         <f t="shared" si="8"/>
-        <v>-0.34286043385643489</v>
-      </c>
-      <c r="AO14" s="1">
+        <v>-0.34349978944528609</v>
+      </c>
+      <c r="AP14" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP14" s="1">
+      <c r="AQ14" s="1">
         <f t="shared" si="17"/>
         <v>1.429553048565354</v>
       </c>
-      <c r="AQ14">
+      <c r="AR14">
         <f t="shared" si="18"/>
         <v>3.7308526033166896</v>
       </c>
-      <c r="AR14">
+      <c r="AS14">
         <f t="shared" si="19"/>
-        <v>-0.25439358714268479</v>
-      </c>
-      <c r="AS14" s="1">
+        <v>-0.24934916270742749</v>
+      </c>
+      <c r="AT14" s="1">
+        <f t="shared" si="20"/>
+        <v>-2.5610009060950296</v>
+      </c>
+      <c r="AU14">
+        <f t="shared" si="21"/>
+        <v>1.5938727558149635</v>
+      </c>
+      <c r="AV14" s="1">
+        <f t="shared" si="22"/>
+        <v>16.370255779169344</v>
+      </c>
+      <c r="AW14">
         <f t="shared" si="9"/>
-        <v>-2.8976225585392004</v>
-      </c>
-      <c r="AT14">
-        <f t="shared" si="20"/>
-        <v>1.5937919968354048</v>
-      </c>
-      <c r="AU14" s="1">
-        <f t="shared" si="21"/>
-        <v>16.36942632453</v>
-      </c>
-      <c r="AV14">
+        <v>-285.78088443702552</v>
+      </c>
+      <c r="AX14">
         <f t="shared" si="10"/>
-        <v>-284.51769813319959</v>
-      </c>
-      <c r="AW14">
+        <v>-1066.2063566800227</v>
+      </c>
+      <c r="AY14">
         <f t="shared" si="11"/>
-        <v>-1061.4935947699196</v>
-      </c>
-      <c r="AX14">
+        <v>691675.60765907855</v>
+      </c>
+      <c r="AZ14">
         <f t="shared" si="12"/>
-        <v>691676.87084538233</v>
-      </c>
-      <c r="AY14">
-        <f t="shared" si="13"/>
-        <v>2607560.7821991988</v>
+        <v>2607556.0694372887</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>119.92295608800001</v>
       </c>
@@ -3080,74 +3380,78 @@
         <v>1.0431694019184405</v>
       </c>
       <c r="AI15" s="1">
+        <f t="shared" si="13"/>
+        <v>0.16314692217255353</v>
+      </c>
+      <c r="AJ15" s="1">
         <f t="shared" si="14"/>
-        <v>0.16314692217255353</v>
-      </c>
-      <c r="AJ15">
+        <v>0.16103465485639379</v>
+      </c>
+      <c r="AK15" s="2">
         <f t="shared" si="15"/>
         <v>4.068841882430303</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <f t="shared" si="2"/>
         <v>1613592.7783003331</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <f t="shared" si="3"/>
         <v>2144755.1031145002</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <f t="shared" si="16"/>
-        <v>-0.58626473650381816</v>
-      </c>
-      <c r="AN15">
+        <v>-0.58508451246077897</v>
+      </c>
+      <c r="AO15">
         <f t="shared" si="8"/>
-        <v>-0.34714046523957676</v>
-      </c>
-      <c r="AO15" s="1">
+        <v>-0.34757295939213967</v>
+      </c>
+      <c r="AP15" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP15" s="1">
+      <c r="AQ15" s="1">
         <f t="shared" si="17"/>
         <v>1.4202595012808454</v>
       </c>
-      <c r="AQ15">
+      <c r="AR15">
         <f t="shared" si="18"/>
         <v>3.6971382371327151</v>
       </c>
-      <c r="AR15">
+      <c r="AS15">
         <f t="shared" si="19"/>
-        <v>-0.24995308378092046</v>
-      </c>
-      <c r="AS15" s="1">
+        <v>-0.24672328761302162</v>
+      </c>
+      <c r="AT15" s="1">
+        <f t="shared" si="20"/>
+        <v>-2.8601806110584085</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" si="21"/>
+        <v>1.5321129966282252</v>
+      </c>
+      <c r="AV15" s="1">
+        <f t="shared" si="22"/>
+        <v>17.761273892312413</v>
+      </c>
+      <c r="AW15">
         <f t="shared" si="9"/>
-        <v>-3.3341297230035969</v>
-      </c>
-      <c r="AT15">
-        <f t="shared" si="20"/>
-        <v>1.5320735472812403</v>
-      </c>
-      <c r="AU15" s="1">
-        <f t="shared" si="21"/>
-        <v>17.760816569217955</v>
-      </c>
-      <c r="AV15">
+        <v>-265.85482300513871</v>
+      </c>
+      <c r="AX15">
         <f t="shared" si="10"/>
-        <v>-265.02875403063905</v>
-      </c>
-      <c r="AW15">
+        <v>-982.90203165844878</v>
+      </c>
+      <c r="AY15">
         <f t="shared" si="11"/>
-        <v>-979.8479404663168</v>
-      </c>
-      <c r="AX15">
+        <v>771557.49312335486</v>
+      </c>
+      <c r="AZ15">
         <f t="shared" si="12"/>
-        <v>771558.31919232942</v>
-      </c>
-      <c r="AY15">
-        <f t="shared" si="13"/>
-        <v>2878579.2990458142</v>
+        <v>2878576.2449546224</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>130.217041959</v>
       </c>
@@ -3258,74 +3562,78 @@
         <v>1.0967342978673056</v>
       </c>
       <c r="AI16" s="1">
+        <f t="shared" si="13"/>
+        <v>0.17550464028814977</v>
+      </c>
+      <c r="AJ16" s="1">
         <f t="shared" si="14"/>
-        <v>0.17550464028814977</v>
-      </c>
-      <c r="AJ16">
+        <v>0.16473777062618811</v>
+      </c>
+      <c r="AK16" s="2">
         <f t="shared" si="15"/>
         <v>3.9821178597184934</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <f t="shared" si="2"/>
         <v>1738391.8924673332</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <f t="shared" si="3"/>
         <v>2285570.4841089998</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <f t="shared" si="16"/>
-        <v>-0.59320495412641838</v>
-      </c>
-      <c r="AN16">
+        <v>-0.58715478003382338</v>
+      </c>
+      <c r="AO16">
         <f t="shared" si="8"/>
-        <v>-0.34874286698633727</v>
-      </c>
-      <c r="AO16" s="1">
+        <v>-0.35097169576494941</v>
+      </c>
+      <c r="AP16" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP16" s="1">
+      <c r="AQ16" s="1">
         <f t="shared" si="17"/>
         <v>1.4126303328574779</v>
       </c>
-      <c r="AQ16">
+      <c r="AR16">
         <f t="shared" si="18"/>
         <v>3.6697568224301551</v>
       </c>
-      <c r="AR16">
+      <c r="AS16">
         <f t="shared" si="19"/>
-        <v>-0.23935709649343839</v>
-      </c>
-      <c r="AS16" s="1">
+        <v>-0.22469009617819397</v>
+      </c>
+      <c r="AT16" s="1">
+        <f t="shared" si="20"/>
+        <v>-3.1298254328247586</v>
+      </c>
+      <c r="AU16">
+        <f t="shared" si="21"/>
+        <v>1.363925803561137</v>
+      </c>
+      <c r="AV16" s="1">
+        <f t="shared" si="22"/>
+        <v>18.998833242236518</v>
+      </c>
+      <c r="AW16">
         <f t="shared" si="9"/>
-        <v>-5.1809322134181768</v>
-      </c>
-      <c r="AT16">
-        <f t="shared" si="20"/>
-        <v>1.363822039693386</v>
-      </c>
-      <c r="AU16" s="1">
-        <f t="shared" si="21"/>
-        <v>18.99738786125258</v>
-      </c>
-      <c r="AV16">
+        <v>-329.6375765528706</v>
+      </c>
+      <c r="AX16">
         <f t="shared" si="10"/>
-        <v>-324.97498628875127</v>
-      </c>
-      <c r="AW16">
+        <v>-1209.689745484239</v>
+      </c>
+      <c r="AY16">
         <f t="shared" si="11"/>
-        <v>-1192.5791730522906</v>
-      </c>
-      <c r="AX16">
+        <v>849356.31586404517</v>
+      </c>
+      <c r="AZ16">
         <f t="shared" si="12"/>
-        <v>849360.9784543094</v>
-      </c>
-      <c r="AY16">
-        <f t="shared" si="13"/>
-        <v>3140213.8488467508</v>
+        <v>3140196.7382743186</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>135.49069329700001</v>
       </c>
@@ -3436,74 +3744,78 @@
         <v>1.6024762873329763</v>
       </c>
       <c r="AI17" s="1">
+        <f t="shared" si="13"/>
+        <v>0.27343683815855413</v>
+      </c>
+      <c r="AJ17" s="1">
         <f t="shared" si="14"/>
-        <v>0.27343683815855413</v>
-      </c>
-      <c r="AJ17">
+        <v>0.1645122783318308</v>
+      </c>
+      <c r="AK17" s="2">
         <f t="shared" si="15"/>
         <v>3.9873987097034416</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <f t="shared" si="2"/>
         <v>1730443.9152933334</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <f t="shared" si="3"/>
         <v>2171373.4943349999</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <f t="shared" si="16"/>
-        <v>-0.65042939880432615</v>
-      </c>
-      <c r="AN17">
+        <v>-0.58702856147533156</v>
+      </c>
+      <c r="AO17">
         <f t="shared" si="8"/>
-        <v>-0.32874563650934679</v>
-      </c>
-      <c r="AO17" s="1">
+        <v>-0.35076170852601968</v>
+      </c>
+      <c r="AP17" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP17" s="1">
+      <c r="AQ17" s="1">
         <f t="shared" si="17"/>
         <v>1.4130984369027104</v>
       </c>
-      <c r="AQ17">
+      <c r="AR17">
         <f t="shared" si="18"/>
         <v>3.6714292866622054</v>
       </c>
-      <c r="AR17">
+      <c r="AS17">
         <f t="shared" si="19"/>
-        <v>2.3796166179305581E-2</v>
-      </c>
-      <c r="AS17" s="1">
+        <v>1.4296338718424879E-2</v>
+      </c>
+      <c r="AT17" s="1">
+        <f t="shared" si="20"/>
+        <v>-3.1126174377046829</v>
+      </c>
+      <c r="AU17">
+        <f t="shared" si="21"/>
+        <v>-8.690134781057704E-2</v>
+      </c>
+      <c r="AV17" s="1">
+        <f t="shared" si="22"/>
+        <v>18.920274336158389</v>
+      </c>
+      <c r="AW17">
         <f t="shared" si="9"/>
-        <v>-5.8447129114845486</v>
-      </c>
-      <c r="AT17">
-        <f t="shared" si="20"/>
-        <v>-8.7026189812461269E-2</v>
-      </c>
-      <c r="AU17" s="1">
-        <f t="shared" si="21"/>
-        <v>18.947455098986989</v>
-      </c>
-      <c r="AV17">
+        <v>-966.47711630600202</v>
+      </c>
+      <c r="AX17">
         <f t="shared" si="10"/>
-        <v>-879.87248280167375</v>
-      </c>
-      <c r="AW17">
+        <v>-3548.3523896946904</v>
+      </c>
+      <c r="AY17">
         <f t="shared" si="11"/>
-        <v>-3230.3896018862524</v>
-      </c>
-      <c r="AX17">
+        <v>918857.04278673744</v>
+      </c>
+      <c r="AZ17">
         <f t="shared" si="12"/>
-        <v>918943.64742024173</v>
-      </c>
-      <c r="AY17">
-        <f t="shared" si="13"/>
-        <v>3372298.2479940266</v>
+        <v>3371980.2852062183</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>130.89123858100001</v>
       </c>
@@ -3614,74 +3926,78 @@
         <v>1.5800299392279946</v>
       </c>
       <c r="AI18" s="1">
+        <f t="shared" si="13"/>
+        <v>0.34353098274053323</v>
+      </c>
+      <c r="AJ18" s="1">
         <f t="shared" si="14"/>
-        <v>0.34353098274053323</v>
-      </c>
-      <c r="AJ18">
+        <v>0.15838424581180555</v>
+      </c>
+      <c r="AK18" s="2">
         <f t="shared" si="15"/>
         <v>4.1309123518586013</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <f t="shared" si="2"/>
         <v>1531292.7706646668</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <f t="shared" si="3"/>
         <v>1756875.9963530002</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <f t="shared" si="16"/>
-        <v>-0.69397797255034543</v>
-      </c>
-      <c r="AN18">
+        <v>-0.58360608515333212</v>
+      </c>
+      <c r="AO18">
         <f t="shared" si="8"/>
-        <v>-0.30919480599211685</v>
-      </c>
-      <c r="AO18" s="1">
+        <v>-0.34520359868053507</v>
+      </c>
+      <c r="AP18" s="1">
         <v>124294.21369229902</v>
       </c>
-      <c r="AP18" s="1">
+      <c r="AQ18" s="1">
         <f t="shared" si="17"/>
         <v>1.4256453277007397</v>
       </c>
-      <c r="AQ18">
+      <c r="AR18">
         <f t="shared" si="18"/>
         <v>3.7166279989857585</v>
       </c>
-      <c r="AR18">
+      <c r="AS18">
         <f t="shared" si="19"/>
-        <v>0.76012979924332902</v>
-      </c>
-      <c r="AS18" s="1" t="e">
+        <v>0.34894419698849261</v>
+      </c>
+      <c r="AT18" s="1">
+        <f t="shared" si="20"/>
+        <v>-2.6830663073023167</v>
+      </c>
+      <c r="AU18">
+        <f t="shared" si="21"/>
+        <v>-2.203149657972379</v>
+      </c>
+      <c r="AV18" s="1">
+        <f t="shared" si="22"/>
+        <v>16.940234766091415</v>
+      </c>
+      <c r="AW18">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT18">
-        <f t="shared" si="20"/>
-        <v>-2.2126964886234148</v>
-      </c>
-      <c r="AU18" s="1">
-        <f t="shared" si="21"/>
-        <v>17.013641287484749</v>
-      </c>
-      <c r="AV18">
+        <v>-885.39850704034313</v>
+      </c>
+      <c r="AX18">
         <f t="shared" si="10"/>
-        <v>-749.09791929213611</v>
-      </c>
-      <c r="AW18">
+        <v>-3290.6968815263294</v>
+      </c>
+      <c r="AY18">
         <f t="shared" si="11"/>
-        <v>-2784.1183008231274</v>
-      </c>
-      <c r="AX18">
+        <v>914462.65283668775</v>
+      </c>
+      <c r="AZ18">
         <f t="shared" si="12"/>
-        <v>914598.95342443592</v>
-      </c>
-      <c r="AY18">
-        <f t="shared" si="13"/>
-        <v>3357851.5248917206</v>
+        <v>3357344.9463110175</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>129.31573498500001</v>
       </c>
@@ -3768,7 +4084,7 @@
         <v>-4.3352486826864656</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>129.56028019199999</v>
       </c>
@@ -3858,7 +4174,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/SMP_2PP.xlsx
+++ b/SMP_2PP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\My Paper\Geotexile and Geomembrane\anal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t># avgT</t>
   </si>
@@ -106,7 +105,32 @@
     <t>ev</t>
   </si>
   <si>
-    <t>eq</t>
+    <t>K_phi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev_ela</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev_pla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>er_from_ev</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev_pla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev/deq</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>p</t>
@@ -117,31 +141,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>D/E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>E</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ev_pla</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev_pla</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev/deq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ev_ela</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>K_phi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D/E</t>
+    <t>dratio</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -165,35 +173,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ds_r_pred</t>
+    <t>dev/deq_pred</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ds_a_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s_r_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s_a_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>er_from_ev</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ratio^4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dratio</t>
+    <t>eq_pla</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -240,10 +224,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY20"/>
+  <dimension ref="A1:AU20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1:AI1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AO3" sqref="AO3:AO18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -547,14 +532,15 @@
     <col min="28" max="28" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.109375" customWidth="1"/>
+    <col min="36" max="36" width="12.88671875" customWidth="1"/>
     <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="12.77734375" customWidth="1"/>
     <col min="44" max="44" width="12.44140625" customWidth="1"/>
     <col min="45" max="45" width="11.21875" customWidth="1"/>
-    <col min="52" max="1031" width="11.5546875"/>
+    <col min="48" max="1026" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -640,76 +626,64 @@
         <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AD1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>48</v>
       </c>
       <c r="AI1" t="s">
         <v>34</v>
       </c>
       <c r="AJ1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AK1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AL1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AM1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AN1" t="s">
         <v>37</v>
       </c>
       <c r="AO1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AP1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="AQ1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AR1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AS1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AT1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AU1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AW1" t="s">
         <v>44</v>
       </c>
-      <c r="AX1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.200083855177</v>
       </c>
@@ -803,17 +777,17 @@
         <f>AB2-AC2</f>
         <v>-5.5490763105969787E-3</v>
       </c>
-      <c r="AE2">
-        <f>P2-AB2/3</f>
-        <v>7.7290840394539373E-9</v>
+      <c r="AE2" s="1">
+        <f>P2-AB2/3-2*(1.35*(AK2/3255000)^-0.0723)*(1+0.33)/(9*(1-2*0.33))</f>
+        <v>-1.9605065809796196</v>
       </c>
       <c r="AF2">
         <f t="shared" ref="AF2:AF18" si="1">AB2-P2/2</f>
         <v>-2.3187252118361812E-8</v>
       </c>
-      <c r="AJ2">
-        <f>(1.35*(AK2/3255000)^-0.0723)^4</f>
-        <v>25.872141875745509</v>
+      <c r="AJ2" t="e">
+        <f>(( 1.588*EXP(-0.0005387*2*232))^2-AP2^2)/(2*AP2)+0.4</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AK2">
         <f t="shared" ref="AK2:AK18" si="2">(X2+Y2+Z2)/3</f>
@@ -823,9 +797,17 @@
         <f t="shared" ref="AL2:AL18" si="3">Z2-(Y2+X2)/2</f>
         <v>3226.8073422049997</v>
       </c>
-      <c r="AO2">
-        <f>(3*(1-2*0.33))/(0.0762*0.2606*(AK2)^(0.2606-1))</f>
-        <v>17650.318447600221</v>
+      <c r="AM2" s="1" t="e">
+        <f t="shared" ref="AM2:AM18" si="4">(-2*AJ2-3)/(-2*AJ2+6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN2" t="e">
+        <f t="shared" ref="AN2:AN18" si="5">1/(2+AM2*AQ2-2*0.33*(1+AM2+AQ2))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO2" s="1" t="e">
+        <f>3*(1-2*0.33)*(AK2-AK1)/(AC2-AC1)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS2">
         <v>0</v>
@@ -834,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2.8026869856899999</v>
       </c>
@@ -921,36 +903,36 @@
         <v>0.63442165348475132</v>
       </c>
       <c r="AC3" s="1">
-        <f t="shared" ref="AC3:AC18" si="4">0.0762*AK3^0.2606-0.5912</f>
+        <f t="shared" ref="AC3:AC18" si="6">0.0762*AK3^0.2606-0.5912</f>
         <v>0.59610220278570636</v>
       </c>
       <c r="AD3" s="1">
-        <f t="shared" ref="AD3:AD18" si="5">AB3-AC3</f>
+        <f t="shared" ref="AD3:AD18" si="7">AB3-AC3</f>
         <v>3.8319450699044966E-2</v>
       </c>
       <c r="AE3" s="1">
-        <f t="shared" ref="AE3:AE18" si="6">P3-AB3/3</f>
-        <v>0.78881789650508294</v>
+        <f t="shared" ref="AE3:AE18" si="8">P3-AB3/3-2*(1.35*(AK3/3255000)^-0.0723)*(1+0.33)/(9*(1-2*0.33))</f>
+        <v>-0.83104656310262048</v>
       </c>
       <c r="AF3" s="1">
         <f t="shared" si="1"/>
         <v>0.1342757629847513</v>
       </c>
       <c r="AG3" s="1">
-        <f t="shared" ref="AG3:AH18" si="7">AD3-AD2</f>
+        <f t="shared" ref="AG3:AH18" si="9">AD3-AD2</f>
         <v>4.3868527009641944E-2</v>
       </c>
       <c r="AH3" s="1">
-        <f t="shared" si="7"/>
-        <v>0.7888178887759989</v>
+        <f t="shared" si="9"/>
+        <v>1.1294600178769991</v>
       </c>
       <c r="AI3" s="1">
         <f>-AG3/AH3</f>
-        <v>-5.5612997161755946E-2</v>
-      </c>
-      <c r="AJ3" s="1">
-        <f>(1.35*(AK3/3255000)^-0.0723)^4</f>
-        <v>12.057960786920809</v>
+        <v>-3.8840265538659671E-2</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" ref="AJ3:AJ18" si="10">(( 1.588*EXP(-0.0005387*2*232))^2-AP3^2)/(2*AP3)+0.4</f>
+        <v>-9.9491306220445497E-2</v>
       </c>
       <c r="AK3" s="1">
         <f t="shared" si="2"/>
@@ -961,14 +943,15 @@
         <v>46193.277502650002</v>
       </c>
       <c r="AM3" s="1">
-        <v>-0.49972129302590063</v>
+        <f t="shared" si="4"/>
+        <v>-0.45185114440193436</v>
       </c>
       <c r="AN3" s="1">
-        <f t="shared" ref="AN3:AN18" si="8">1/(2+AM3*AQ3-2*0.33*(1+AM3+AQ3))</f>
-        <v>-0.20172780295393586</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>124294.21369229902</v>
+        <f t="shared" si="5"/>
+        <v>-0.21207895771974564</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>137813.87066690897</v>
       </c>
       <c r="AP3" s="1">
         <f>(AK3*1.35*(AK3/3255000)^-0.0723-AK2*1.35*(AK2/3255000)^-0.0723)/(AK3-AK2)</f>
@@ -979,39 +962,23 @@
         <v>5.7142961728250148</v>
       </c>
       <c r="AR3" s="1">
-        <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(2*AN3*AO3*AM3)</f>
-        <v>3.0286991172441031E-4</v>
+        <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
+        <v>3.3094942615051824E-2</v>
       </c>
       <c r="AS3" s="1">
         <f>(AS2+AR3)</f>
-        <v>3.0286991172441031E-4</v>
+        <v>3.3094942615051824E-2</v>
       </c>
       <c r="AT3" s="1">
-        <f>(1-AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>0.54324732645312113</v>
+        <f>2*(1-AM3)*(AK3-AK2)*(1-AP3/3)/(9*AN3*AO3*AM3)</f>
+        <v>0.33264155303904169</v>
       </c>
       <c r="AU3" s="1">
         <f>AU2+AT3</f>
-        <v>0.54324732645312113</v>
-      </c>
-      <c r="AV3" s="1">
-        <f t="shared" ref="AV3:AV18" si="9">AN3*AO3*(AM3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
-        <v>-89.782479690984246</v>
-      </c>
-      <c r="AW3" s="1">
-        <f t="shared" ref="AW3:AW18" si="10">AN3*AO3*(AM3*AQ3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*AQ3*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
-        <v>-513.04368008493077</v>
-      </c>
-      <c r="AX3" s="1">
-        <f t="shared" ref="AX3:AX18" si="11">AV3+(AK2-1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
-        <v>578.20325297930572</v>
-      </c>
-      <c r="AY3" s="1">
-        <f t="shared" ref="AY3:AY18" si="12">AW3+(AK2+2*1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
-        <v>6224.0745602644893</v>
+        <v>0.33264155303904169</v>
       </c>
     </row>
-    <row r="4" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>7.8844281171999997</v>
       </c>
@@ -1097,99 +1064,83 @@
         <f t="shared" si="0"/>
         <v>0.91937718517532963</v>
       </c>
-      <c r="AC4" s="2">
-        <f t="shared" si="4"/>
+      <c r="AC4">
+        <f t="shared" si="6"/>
         <v>0.96615359553846103</v>
       </c>
-      <c r="AD4" s="2">
-        <f t="shared" si="5"/>
+      <c r="AD4">
+        <f t="shared" si="7"/>
         <v>-4.6776410363131404E-2</v>
       </c>
-      <c r="AE4" s="2">
-        <f t="shared" si="6"/>
-        <v>1.6964328109948899</v>
-      </c>
-      <c r="AF4" s="2">
+      <c r="AE4" s="1">
+        <f t="shared" si="8"/>
+        <v>0.19401945991736436</v>
+      </c>
+      <c r="AF4">
         <f t="shared" si="1"/>
         <v>-8.2068751184670274E-2</v>
       </c>
-      <c r="AG4" s="2">
-        <f t="shared" si="7"/>
+      <c r="AG4">
+        <f t="shared" si="9"/>
         <v>-8.509586106217637E-2</v>
       </c>
-      <c r="AH4" s="2">
-        <f t="shared" si="7"/>
-        <v>0.90761491448980691</v>
-      </c>
-      <c r="AI4" s="2">
-        <f t="shared" ref="AI4:AI18" si="13">-AG4/AH4</f>
-        <v>9.3757671567143527E-2</v>
-      </c>
-      <c r="AJ4" s="2">
-        <f t="shared" ref="AJ4:AJ18" si="14">(1.35*(AK4/3255000)^-0.0723)^4</f>
-        <v>8.9231233478896872</v>
-      </c>
-      <c r="AK4" s="2">
+      <c r="AH4">
+        <f t="shared" si="9"/>
+        <v>1.0250660230199848</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" ref="AI4:AI18" si="11">-AG4/AH4</f>
+        <v>8.3015005034965755E-2</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="10"/>
+        <v>3.4941484497590602E-2</v>
+      </c>
+      <c r="AK4">
         <f t="shared" si="2"/>
         <v>106787.34644183335</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AL4">
         <f t="shared" si="3"/>
         <v>136519.75885225</v>
       </c>
-      <c r="AM4" s="2">
-        <f t="shared" ref="AM4:AM18" si="15">(-2*AI4-3)/(-2*AI4+6)</f>
-        <v>-0.54839118402991227</v>
-      </c>
-      <c r="AN4" s="2">
-        <f t="shared" si="8"/>
-        <v>-0.25222213908682822</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>124294.21369229902</v>
-      </c>
-      <c r="AP4" s="2">
-        <f t="shared" ref="AP4:AP18" si="16">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
+      <c r="AM4" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.51767662475204301</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" si="5"/>
+        <v>-0.26034913500155066</v>
+      </c>
+      <c r="AO4" s="3">
+        <v>137813.87066690897</v>
+      </c>
+      <c r="AP4">
+        <f t="shared" ref="AP4:AP18" si="12">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
         <v>1.6545991032687406</v>
       </c>
-      <c r="AQ4" s="2">
-        <f t="shared" ref="AQ4:AQ18" si="17">(2*AP4+3)/(3-AP4)</f>
+      <c r="AQ4">
+        <f t="shared" ref="AQ4:AQ18" si="13">(2*AP4+3)/(3-AP4)</f>
         <v>4.6894559248965093</v>
       </c>
-      <c r="AR4" s="2">
-        <f t="shared" ref="AR4:AR18" si="18">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(2*AN4*AO4*AM4)</f>
-        <v>-8.7205934479490502E-2</v>
-      </c>
-      <c r="AS4" s="2">
-        <f t="shared" ref="AS4:AS18" si="19">AS3+AR4</f>
-        <v>-8.6903064567766086E-2</v>
-      </c>
-      <c r="AT4" s="2">
-        <f t="shared" ref="AT4:AT18" si="20">(1-AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>0.93012052263946277</v>
-      </c>
-      <c r="AU4" s="2">
+      <c r="AR4" s="1">
+        <f t="shared" ref="AR4:AR18" si="14">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
+        <v>-1.9656438445604937E-2</v>
+      </c>
+      <c r="AS4">
+        <f t="shared" ref="AS4:AS18" si="15">AS3+AR4</f>
+        <v>1.3438504169446887E-2</v>
+      </c>
+      <c r="AT4" s="1">
+        <f t="shared" ref="AT4:AT18" si="16">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
+        <v>0.56255304341635493</v>
+      </c>
+      <c r="AU4">
         <f>AU3+AT4</f>
-        <v>1.4733678490925839</v>
-      </c>
-      <c r="AV4" s="2">
-        <f t="shared" si="9"/>
-        <v>-151.15996172594171</v>
-      </c>
-      <c r="AW4" s="2">
-        <f t="shared" si="10"/>
-        <v>-708.85797812284693</v>
-      </c>
-      <c r="AX4" s="2">
-        <f t="shared" si="11"/>
-        <v>14132.928508641588</v>
-      </c>
-      <c r="AY4" s="2">
-        <f t="shared" si="12"/>
-        <v>83834.704025042112</v>
+        <v>0.89519459645539667</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15.028438339299999</v>
       </c>
@@ -1276,36 +1227,36 @@
         <v>1.0112140982188045</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2391378019487003</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.22792370372989579</v>
       </c>
-      <c r="AE5">
-        <f t="shared" si="6"/>
-        <v>2.6687025817170649</v>
+      <c r="AE5" s="1">
+        <f t="shared" si="8"/>
+        <v>1.2321255780778038</v>
       </c>
       <c r="AF5">
         <f t="shared" si="1"/>
         <v>-0.49167287567619544</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.18114729336676438</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="7"/>
-        <v>0.97226977072217502</v>
+        <f t="shared" si="9"/>
+        <v>1.0381061181604394</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="13"/>
-        <v>0.18631381826487642</v>
+        <f t="shared" si="11"/>
+        <v>0.17449785739415904</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="14"/>
-        <v>7.4589002579476258</v>
+        <f t="shared" si="10"/>
+        <v>0.10670526923829532</v>
       </c>
       <c r="AK5">
         <f t="shared" si="2"/>
@@ -1315,59 +1266,43 @@
         <f t="shared" si="3"/>
         <v>259266.52142049998</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.55532029010238626</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="5"/>
+        <v>-0.28720796815823474</v>
+      </c>
+      <c r="AO5" s="3">
+        <v>137813.87066690897</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" si="12"/>
+        <v>1.5643844234460931</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" si="13"/>
+        <v>4.2690877328064794</v>
+      </c>
+      <c r="AR5" s="1">
+        <f t="shared" si="14"/>
+        <v>-7.3610429432941035E-2</v>
+      </c>
+      <c r="AS5">
         <f t="shared" si="15"/>
-        <v>-0.59932547887233567</v>
-      </c>
-      <c r="AN5">
-        <f t="shared" si="8"/>
-        <v>-0.274678780254968</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>124294.21369229902</v>
-      </c>
-      <c r="AP5">
+        <v>-6.0171925263494144E-2</v>
+      </c>
+      <c r="AT5" s="1">
         <f t="shared" si="16"/>
-        <v>1.5643844234460931</v>
-      </c>
-      <c r="AQ5">
-        <f t="shared" si="17"/>
-        <v>4.2690877328064794</v>
-      </c>
-      <c r="AR5">
-        <f t="shared" si="18"/>
-        <v>-0.21296146394565391</v>
-      </c>
-      <c r="AS5">
-        <f t="shared" si="19"/>
-        <v>-0.29986452851341999</v>
-      </c>
-      <c r="AT5">
-        <f t="shared" si="20"/>
-        <v>1.1430256001886732</v>
+        <v>0.68984812051364974</v>
       </c>
       <c r="AU5">
         <f>AU4+AT5</f>
-        <v>2.6163934492812571</v>
-      </c>
-      <c r="AV5">
-        <f t="shared" si="9"/>
-        <v>-186.58638416592518</v>
-      </c>
-      <c r="AW5">
-        <f t="shared" si="10"/>
-        <v>-796.55364375146826</v>
-      </c>
-      <c r="AX5">
-        <f t="shared" si="11"/>
-        <v>45079.139861893556</v>
-      </c>
-      <c r="AY5">
-        <f t="shared" si="12"/>
-        <v>229034.03318962961</v>
+        <v>1.5850427169690464</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>23.366001454100001</v>
       </c>
@@ -1454,36 +1389,36 @@
         <v>1.2508444616565417</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4691016566423298</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.21825719498578811</v>
       </c>
-      <c r="AE6">
-        <f t="shared" si="6"/>
-        <v>3.5894703995944859</v>
+      <c r="AE6" s="1">
+        <f t="shared" si="8"/>
+        <v>2.1992976028214146</v>
       </c>
       <c r="AF6">
         <f t="shared" si="1"/>
         <v>-0.75236481508345809</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.6665087441076825E-3</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="7"/>
-        <v>0.92076781787742101</v>
+        <f t="shared" si="9"/>
+        <v>0.96717202474361086</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="13"/>
-        <v>-1.0498312990989607E-2</v>
+        <f t="shared" si="11"/>
+        <v>-9.9946116066272628E-3</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="14"/>
-        <v>6.5408517058917441</v>
+        <f t="shared" si="10"/>
+        <v>0.15455283067978554</v>
       </c>
       <c r="AK6">
         <f t="shared" si="2"/>
@@ -1493,59 +1428,43 @@
         <f t="shared" si="3"/>
         <v>417666.95242850005</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.58147374814028374</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="5"/>
+        <v>-0.30545349923862214</v>
+      </c>
+      <c r="AO6" s="3">
+        <v>137813.87066690897</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" si="12"/>
+        <v>1.5063561750312602</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" si="13"/>
+        <v>4.0255328944893263</v>
+      </c>
+      <c r="AR6" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.12604097128129677</v>
+      </c>
+      <c r="AS6">
         <f t="shared" si="15"/>
-        <v>-0.49476914854310644</v>
-      </c>
-      <c r="AN6">
-        <f t="shared" si="8"/>
-        <v>-0.33534388143058652</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>124294.21369229902</v>
-      </c>
-      <c r="AP6">
+        <v>-0.1862128965447909</v>
+      </c>
+      <c r="AT6" s="1">
         <f t="shared" si="16"/>
-        <v>1.5063561750312602</v>
-      </c>
-      <c r="AQ6">
-        <f t="shared" si="17"/>
-        <v>4.0255328944893263</v>
-      </c>
-      <c r="AR6">
-        <f t="shared" si="18"/>
-        <v>1.440727778404503E-2</v>
-      </c>
-      <c r="AS6">
-        <f t="shared" si="19"/>
-        <v>-0.28545725072937495</v>
-      </c>
-      <c r="AT6">
-        <f t="shared" si="20"/>
-        <v>1.3723421845405324</v>
+        <v>0.81552030284348598</v>
       </c>
       <c r="AU6">
-        <f t="shared" ref="AU6:AU18" si="21">AU5+AT6</f>
-        <v>3.9887356338217894</v>
-      </c>
-      <c r="AV6">
-        <f t="shared" si="9"/>
-        <v>-190.55097462266446</v>
-      </c>
-      <c r="AW6">
-        <f t="shared" si="10"/>
-        <v>-767.06921642053658</v>
-      </c>
-      <c r="AX6">
-        <f t="shared" si="11"/>
-        <v>88946.335348722307</v>
-      </c>
-      <c r="AY6">
-        <f t="shared" si="12"/>
-        <v>416353.34892688948</v>
+        <f t="shared" ref="AU6:AU18" si="17">AU5+AT6</f>
+        <v>2.4005630198125325</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32.700695932499997</v>
       </c>
@@ -1632,36 +1551,36 @@
         <v>1.2251628486510846</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.6630996157960289</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.43793676714494434</v>
       </c>
-      <c r="AE7">
-        <f t="shared" si="6"/>
-        <v>4.5971902850329718</v>
+      <c r="AE7" s="1">
+        <f t="shared" si="8"/>
+        <v>3.2412944356622626</v>
       </c>
       <c r="AF7">
         <f t="shared" si="1"/>
         <v>-1.2776261019739152</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.21967957215915623</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="7"/>
-        <v>1.0077198854384859</v>
+        <f t="shared" si="9"/>
+        <v>1.041996832840848</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="13"/>
-        <v>0.21799666289562974</v>
+        <f t="shared" si="11"/>
+        <v>0.21082556610103395</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="14"/>
-        <v>5.9192200384914937</v>
+        <f t="shared" si="10"/>
+        <v>0.1902654896795524</v>
       </c>
       <c r="AK7">
         <f t="shared" si="2"/>
@@ -1671,59 +1590,43 @@
         <f t="shared" si="3"/>
         <v>598265.88940549991</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.60157480483335035</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="5"/>
+        <v>-0.31921125366938408</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>137813.87066690897</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="12"/>
+        <v>1.4641809111583908</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="13"/>
+        <v>3.8600652025937805</v>
+      </c>
+      <c r="AR7" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.16885522579910542</v>
+      </c>
+      <c r="AS7">
         <f t="shared" si="15"/>
-        <v>-0.61753939687354775</v>
-      </c>
-      <c r="AN7">
-        <f t="shared" si="8"/>
-        <v>-0.31408915677401467</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>124294.21369229902</v>
-      </c>
-      <c r="AP7">
+        <v>-0.35506812234389629</v>
+      </c>
+      <c r="AT7" s="1">
         <f t="shared" si="16"/>
-        <v>1.4641809111583908</v>
-      </c>
-      <c r="AQ7">
+        <v>0.88747163809629137</v>
+      </c>
+      <c r="AU7">
         <f t="shared" si="17"/>
-        <v>3.8600652025937805</v>
-      </c>
-      <c r="AR7">
-        <f t="shared" si="18"/>
-        <v>-0.32173289392381987</v>
-      </c>
-      <c r="AS7">
-        <f t="shared" si="19"/>
-        <v>-0.60719014465319487</v>
-      </c>
-      <c r="AT7">
-        <f t="shared" si="20"/>
-        <v>1.475861555173694</v>
-      </c>
-      <c r="AU7">
-        <f t="shared" si="21"/>
-        <v>5.4645971889954836</v>
-      </c>
-      <c r="AV7">
-        <f t="shared" si="9"/>
-        <v>-225.29146789091283</v>
-      </c>
-      <c r="AW7">
-        <f t="shared" si="10"/>
-        <v>-869.63975564698671</v>
-      </c>
-      <c r="AX7">
-        <f t="shared" si="11"/>
-        <v>145712.26397154338</v>
-      </c>
-      <c r="AY7">
-        <f t="shared" si="12"/>
-        <v>644903.74034348456</v>
+        <v>3.288034657908824</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>42.669404995000001</v>
       </c>
@@ -1810,36 +1713,36 @@
         <v>1.2930476660156898</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.828926607234642</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.53587894121895219</v>
       </c>
-      <c r="AE8">
-        <f t="shared" si="6"/>
-        <v>5.5707389170981036</v>
+      <c r="AE8" s="1">
+        <f t="shared" si="8"/>
+        <v>4.2412829936722201</v>
       </c>
       <c r="AF8">
         <f t="shared" si="1"/>
         <v>-1.7078297368693103</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-9.7942174074007848E-2</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="7"/>
-        <v>0.97354863206513187</v>
+        <f t="shared" si="9"/>
+        <v>0.99998855800995745</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="13"/>
-        <v>0.10060326813489413</v>
+        <f t="shared" si="11"/>
+        <v>9.7943294740211004E-2</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="14"/>
-        <v>5.4708515804995139</v>
+        <f t="shared" si="10"/>
+        <v>0.21790017386130991</v>
       </c>
       <c r="AK8">
         <f t="shared" si="2"/>
@@ -1849,59 +1752,43 @@
         <f t="shared" si="3"/>
         <v>791591.73232499987</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.61748329722790873</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="5"/>
+        <v>-0.32992084372464275</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>137813.87066690897</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" si="12"/>
+        <v>1.4322228418598042</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="13"/>
+        <v>3.7406117656902302</v>
+      </c>
+      <c r="AR8" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.20149079311489101</v>
+      </c>
+      <c r="AS8">
         <f t="shared" si="15"/>
-        <v>-0.5520470001720903</v>
-      </c>
-      <c r="AN8">
-        <f t="shared" si="8"/>
-        <v>-0.35342604590827897</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>124294.21369229902</v>
-      </c>
-      <c r="AP8">
+        <v>-0.55655891545878733</v>
+      </c>
+      <c r="AT8" s="1">
         <f t="shared" si="16"/>
-        <v>1.4322228418598042</v>
-      </c>
-      <c r="AQ8">
+        <v>0.92469312687715766</v>
+      </c>
+      <c r="AU8">
         <f t="shared" si="17"/>
-        <v>3.7406117656902302</v>
-      </c>
-      <c r="AR8">
-        <f t="shared" si="18"/>
-        <v>-0.15501310795606185</v>
-      </c>
-      <c r="AS8">
-        <f t="shared" si="19"/>
-        <v>-0.7622032526092567</v>
-      </c>
-      <c r="AT8">
-        <f t="shared" si="20"/>
-        <v>1.5408357087188473</v>
-      </c>
-      <c r="AU8">
-        <f t="shared" si="21"/>
-        <v>7.0054328977143312</v>
-      </c>
-      <c r="AV8">
-        <f t="shared" si="9"/>
-        <v>-228.17578779169787</v>
-      </c>
-      <c r="AW8">
-        <f t="shared" si="10"/>
-        <v>-853.51703645926216</v>
-      </c>
-      <c r="AX8">
-        <f t="shared" si="11"/>
-        <v>211699.74482622038</v>
-      </c>
-      <c r="AY8">
-        <f t="shared" si="12"/>
-        <v>899646.97537951649</v>
+        <v>4.2127277847859812</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>53.192396357699998</v>
       </c>
@@ -1988,36 +1875,36 @@
         <v>1.1858828218258455</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.9743099834070483</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.78842716158120285</v>
       </c>
-      <c r="AE9">
-        <f t="shared" si="6"/>
-        <v>6.6047566541380522</v>
+      <c r="AE9" s="1">
+        <f t="shared" si="8"/>
+        <v>5.2966447067196425</v>
       </c>
       <c r="AF9">
         <f t="shared" si="1"/>
         <v>-2.3141426422141547</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.25254822036225066</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="7"/>
-        <v>1.0340177370399486</v>
+        <f t="shared" si="9"/>
+        <v>1.0553617130474224</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="13"/>
-        <v>0.244239737207229</v>
+        <f t="shared" si="11"/>
+        <v>0.23930015390931891</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="14"/>
-        <v>5.1278912742215805</v>
+        <f t="shared" si="10"/>
+        <v>0.24012373332381304</v>
       </c>
       <c r="AK9">
         <f t="shared" si="2"/>
@@ -2027,59 +1914,43 @@
         <f t="shared" si="3"/>
         <v>993497.51078699995</v>
       </c>
-      <c r="AM9">
+      <c r="AM9" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.63050787976792277</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="5"/>
+        <v>-0.33856389671167586</v>
+      </c>
+      <c r="AO9" s="3">
+        <v>137813.87066690897</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" si="12"/>
+        <v>1.406955906635972</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" si="13"/>
+        <v>3.6495611373786385</v>
+      </c>
+      <c r="AR9" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.22839746545527598</v>
+      </c>
+      <c r="AS9">
         <f t="shared" si="15"/>
-        <v>-0.63294320654713387</v>
-      </c>
-      <c r="AN9">
-        <f t="shared" si="8"/>
-        <v>-0.33773141101068149</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>124294.21369229902</v>
-      </c>
-      <c r="AP9">
+        <v>-0.78495638091406328</v>
+      </c>
+      <c r="AT9" s="1">
         <f t="shared" si="16"/>
-        <v>1.406955906635972</v>
-      </c>
-      <c r="AQ9">
+        <v>0.95116572732640403</v>
+      </c>
+      <c r="AU9">
         <f t="shared" si="17"/>
-        <v>3.6495611373786385</v>
-      </c>
-      <c r="AR9">
-        <f t="shared" si="18"/>
-        <v>-0.38641051840409135</v>
-      </c>
-      <c r="AS9">
-        <f t="shared" si="19"/>
-        <v>-1.1486137710133479</v>
-      </c>
-      <c r="AT9">
-        <f t="shared" si="20"/>
-        <v>1.5820952103147554</v>
-      </c>
-      <c r="AU9">
-        <f t="shared" si="21"/>
-        <v>8.5875281080290868</v>
-      </c>
-      <c r="AV9">
-        <f t="shared" si="9"/>
-        <v>-252.36857521678328</v>
-      </c>
-      <c r="AW9">
-        <f t="shared" si="10"/>
-        <v>-921.03454440679047</v>
-      </c>
-      <c r="AX9">
-        <f t="shared" si="11"/>
-        <v>283902.32944152516</v>
-      </c>
-      <c r="AY9">
-        <f t="shared" si="12"/>
-        <v>1169751.7912221095</v>
+        <v>5.1638935121123852</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>64.125454629800004</v>
       </c>
@@ -2166,36 +2037,36 @@
         <v>1.1345937228203984</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.1038930320441249</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.96929930922372654</v>
       </c>
-      <c r="AE10">
-        <f t="shared" si="6"/>
-        <v>7.6222196992331996</v>
+      <c r="AE10" s="1">
+        <f t="shared" si="8"/>
+        <v>6.3318690261316952</v>
       </c>
       <c r="AF10">
         <f t="shared" si="1"/>
         <v>-2.8656150805996012</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.18087214764252368</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="7"/>
-        <v>1.0174630450951474</v>
+        <f t="shared" si="9"/>
+        <v>1.0352243194120527</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="13"/>
-        <v>0.17776778086874845</v>
+        <f t="shared" si="11"/>
+        <v>0.17471783095788221</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="14"/>
-        <v>4.8550104631250237</v>
+        <f t="shared" si="10"/>
+        <v>0.2586191975083183</v>
       </c>
       <c r="AK10">
         <f t="shared" si="2"/>
@@ -2205,59 +2076,43 @@
         <f t="shared" si="3"/>
         <v>1201493.2976485002</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.64150854048072536</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="5"/>
+        <v>-0.3457719840995897</v>
+      </c>
+      <c r="AO10" s="3">
+        <v>137813.87066690897</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="12"/>
+        <v>1.3862244629844778</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="13"/>
+        <v>3.5769837834104141</v>
+      </c>
+      <c r="AR10" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.25054423230981032</v>
+      </c>
+      <c r="AS10">
         <f t="shared" si="15"/>
-        <v>-0.59448254098140951</v>
-      </c>
-      <c r="AN10">
-        <f t="shared" si="8"/>
-        <v>-0.36298889327057093</v>
-      </c>
-      <c r="AO10" s="1">
-        <v>124294.21369229902</v>
-      </c>
-      <c r="AP10">
+        <v>-1.0355006132238735</v>
+      </c>
+      <c r="AT10" s="1">
         <f t="shared" si="16"/>
-        <v>1.3862244629844778</v>
-      </c>
-      <c r="AQ10">
+        <v>0.96877662108495144</v>
+      </c>
+      <c r="AU10">
         <f t="shared" si="17"/>
-        <v>3.5769837834104141</v>
-      </c>
-      <c r="AR10">
-        <f t="shared" si="18"/>
-        <v>-0.28598707369534737</v>
-      </c>
-      <c r="AS10">
-        <f t="shared" si="19"/>
-        <v>-1.4346008447086953</v>
-      </c>
-      <c r="AT10">
-        <f t="shared" si="20"/>
-        <v>1.6087677547513548</v>
-      </c>
-      <c r="AU10">
-        <f t="shared" si="21"/>
-        <v>10.196295862780442</v>
-      </c>
-      <c r="AV10">
-        <f t="shared" si="9"/>
-        <v>-256.72814790245087</v>
-      </c>
-      <c r="AW10">
-        <f t="shared" si="10"/>
-        <v>-918.31242179205697</v>
-      </c>
-      <c r="AX10">
-        <f t="shared" si="11"/>
-        <v>361125.10046476382</v>
-      </c>
-      <c r="AY10">
-        <f t="shared" si="12"/>
-        <v>1451599.6479188751</v>
+        <v>6.1326701331973368</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>75.4317555863</v>
       </c>
@@ -2344,36 +2199,36 @@
         <v>1.081069322849959</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.218951665718996</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.137882342869037</v>
       </c>
-      <c r="AE11">
-        <f t="shared" si="6"/>
-        <v>8.6452885353400131</v>
+      <c r="AE11" s="1">
+        <f t="shared" si="8"/>
+        <v>7.3698174647346804</v>
       </c>
       <c r="AF11">
         <f t="shared" si="1"/>
         <v>-3.421753165295041</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.16858303364531046</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="7"/>
-        <v>1.0230688361068134</v>
+        <f t="shared" si="9"/>
+        <v>1.0379484386029851</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="13"/>
-        <v>0.16478171135271447</v>
+        <f t="shared" si="11"/>
+        <v>0.16241946842004298</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="14"/>
-        <v>4.6349132508888031</v>
+        <f t="shared" si="10"/>
+        <v>0.27426421516312105</v>
       </c>
       <c r="AK11">
         <f t="shared" si="2"/>
@@ -2383,59 +2238,43 @@
         <f t="shared" si="3"/>
         <v>1404695.8866935</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.65093037448209667</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="5"/>
+        <v>-0.35187619634800366</v>
+      </c>
+      <c r="AO11" s="3">
+        <v>137813.87066690897</v>
+      </c>
+      <c r="AP11">
+        <f t="shared" si="12"/>
+        <v>1.3688997705380646</v>
+      </c>
+      <c r="AQ11">
+        <f t="shared" si="13"/>
+        <v>3.5177479822738449</v>
+      </c>
+      <c r="AR11" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.26418128564407534</v>
+      </c>
+      <c r="AS11">
         <f t="shared" si="15"/>
-        <v>-0.58717937804605536</v>
-      </c>
-      <c r="AN11">
-        <f t="shared" si="8"/>
-        <v>-0.37597881132668154</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>124294.21369229902</v>
-      </c>
-      <c r="AP11">
+        <v>-1.2996818988679488</v>
+      </c>
+      <c r="AT11" s="1">
         <f t="shared" si="16"/>
-        <v>1.3688997705380646</v>
-      </c>
-      <c r="AQ11">
+        <v>0.96323643785227708</v>
+      </c>
+      <c r="AU11">
         <f t="shared" si="17"/>
-        <v>3.5177479822738449</v>
-      </c>
-      <c r="AR11">
-        <f t="shared" si="18"/>
-        <v>-0.26330718234310996</v>
-      </c>
-      <c r="AS11">
-        <f t="shared" si="19"/>
-        <v>-1.6979080270518052</v>
-      </c>
-      <c r="AT11">
-        <f t="shared" si="20"/>
-        <v>1.5979150852457289</v>
-      </c>
-      <c r="AU11">
-        <f t="shared" si="21"/>
-        <v>11.794210948026171</v>
-      </c>
-      <c r="AV11">
-        <f t="shared" si="9"/>
-        <v>-265.31095264713747</v>
-      </c>
-      <c r="AW11">
-        <f t="shared" si="10"/>
-        <v>-933.29706834961962</v>
-      </c>
-      <c r="AX11">
-        <f t="shared" si="11"/>
-        <v>442301.96573570376</v>
-      </c>
-      <c r="AY11">
-        <f t="shared" si="12"/>
-        <v>1741983.6944879489</v>
+        <v>7.0959065710496141</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>86.739260263199995</v>
       </c>
@@ -2522,36 +2361,36 @@
         <v>0.95292019120410965</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.3215897022303</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.3686695110261904</v>
       </c>
-      <c r="AE12">
-        <f t="shared" si="6"/>
-        <v>9.6871456706652967</v>
+      <c r="AE12" s="1">
+        <f t="shared" si="8"/>
+        <v>8.4243056877562132</v>
       </c>
       <c r="AF12">
         <f t="shared" si="1"/>
         <v>-4.0494726759958901</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.23078716815715339</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="7"/>
-        <v>1.0418571353252837</v>
+        <f t="shared" si="9"/>
+        <v>1.0544882230215329</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="13"/>
-        <v>0.22151517740011265</v>
+        <f t="shared" si="11"/>
+        <v>0.21886177874595444</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="14"/>
-        <v>4.4540229875032571</v>
+        <f t="shared" si="10"/>
+        <v>0.28760390827714577</v>
       </c>
       <c r="AK12">
         <f t="shared" si="2"/>
@@ -2561,59 +2400,43 @@
         <f t="shared" si="3"/>
         <v>1603711.9327819999</v>
       </c>
-      <c r="AM12">
+      <c r="AM12" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.65904972866322753</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="5"/>
+        <v>-0.35708371806122774</v>
+      </c>
+      <c r="AO12" s="3">
+        <v>137813.87066690897</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="12"/>
+        <v>1.3542817906462632</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="13"/>
+        <v>3.4687369616784176</v>
+      </c>
+      <c r="AR12" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.27220914858237044</v>
+      </c>
+      <c r="AS12">
         <f t="shared" si="15"/>
-        <v>-0.61958775639064112</v>
-      </c>
-      <c r="AN12">
-        <f t="shared" si="8"/>
-        <v>-0.3717989835795048</v>
-      </c>
-      <c r="AO12" s="1">
-        <v>124294.21369229902</v>
-      </c>
-      <c r="AP12">
+        <v>-1.5718910474503192</v>
+      </c>
+      <c r="AT12" s="1">
         <f t="shared" si="16"/>
-        <v>1.3542817906462632</v>
-      </c>
-      <c r="AQ12">
+        <v>0.94647235572355137</v>
+      </c>
+      <c r="AU12">
         <f t="shared" si="17"/>
-        <v>3.4687369616784176</v>
-      </c>
-      <c r="AR12">
-        <f t="shared" si="18"/>
-        <v>-0.34774988052912587</v>
-      </c>
-      <c r="AS12">
-        <f t="shared" si="19"/>
-        <v>-2.0456579075809311</v>
-      </c>
-      <c r="AT12">
-        <f t="shared" si="20"/>
-        <v>1.5698693182589527</v>
-      </c>
-      <c r="AU12">
-        <f t="shared" si="21"/>
-        <v>13.364080266285123</v>
-      </c>
-      <c r="AV12">
-        <f t="shared" si="9"/>
-        <v>-276.28472906031124</v>
-      </c>
-      <c r="AW12">
-        <f t="shared" si="10"/>
-        <v>-958.35905163880875</v>
-      </c>
-      <c r="AX12">
-        <f t="shared" si="11"/>
-        <v>525167.99076008564</v>
-      </c>
-      <c r="AY12">
-        <f t="shared" si="12"/>
-        <v>2033499.0278130686</v>
+        <v>8.042378926773166</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>97.959816765100001</v>
       </c>
@@ -2700,36 +2523,36 @@
         <v>0.79499602539979675</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.4142041162602155</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.6192080908604187</v>
       </c>
-      <c r="AE13">
-        <f t="shared" si="6"/>
-        <v>10.740525300466734</v>
+      <c r="AE13" s="1">
+        <f t="shared" si="8"/>
+        <v>9.4886043139636005</v>
       </c>
       <c r="AF13">
         <f t="shared" si="1"/>
         <v>-4.7077659624002024</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.25053857983422834</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="7"/>
-        <v>1.0533796298014373</v>
+        <f t="shared" si="9"/>
+        <v>1.0642986262073872</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="13"/>
-        <v>0.23784262838028775</v>
+        <f t="shared" si="11"/>
+        <v>0.23540252112042928</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="14"/>
-        <v>4.301964660487112</v>
+        <f t="shared" si="10"/>
+        <v>0.29913877416333912</v>
       </c>
       <c r="AK13">
         <f t="shared" si="2"/>
@@ -2739,59 +2562,43 @@
         <f t="shared" si="3"/>
         <v>1798642.8269394999</v>
       </c>
-      <c r="AM13">
+      <c r="AM13" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.66613521529822761</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="5"/>
+        <v>-0.36158722742548122</v>
+      </c>
+      <c r="AO13" s="3">
+        <v>137813.87066690897</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="12"/>
+        <v>1.3417561426741769</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="13"/>
+        <v>3.4274285173677068</v>
+      </c>
+      <c r="AR13" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.27779062215930628</v>
+      </c>
+      <c r="AS13">
         <f t="shared" si="15"/>
-        <v>-0.62916133824816345</v>
-      </c>
-      <c r="AN13">
-        <f t="shared" si="8"/>
-        <v>-0.37547941432836779</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>124294.21369229902</v>
-      </c>
-      <c r="AP13">
+        <v>-1.8496816696096254</v>
+      </c>
+      <c r="AT13" s="1">
         <f t="shared" si="16"/>
-        <v>1.3417561426741769</v>
-      </c>
-      <c r="AQ13">
+        <v>0.92863462095898008</v>
+      </c>
+      <c r="AU13">
         <f t="shared" si="17"/>
-        <v>3.4274285173677068</v>
-      </c>
-      <c r="AR13">
-        <f t="shared" si="18"/>
-        <v>-0.36622586336207164</v>
-      </c>
-      <c r="AS13">
-        <f t="shared" si="19"/>
-        <v>-2.4118837709430028</v>
-      </c>
-      <c r="AT13">
-        <f t="shared" si="20"/>
-        <v>1.5397822747590528</v>
-      </c>
-      <c r="AU13">
-        <f t="shared" si="21"/>
-        <v>14.903862541044177</v>
-      </c>
-      <c r="AV13">
-        <f t="shared" si="9"/>
-        <v>-284.78109141101714</v>
-      </c>
-      <c r="AW13">
-        <f t="shared" si="10"/>
-        <v>-976.06683390921978</v>
-      </c>
-      <c r="AX13">
-        <f t="shared" si="11"/>
-        <v>608420.60660768359</v>
-      </c>
-      <c r="AY13">
-        <f t="shared" si="12"/>
-        <v>2322292.2174239014</v>
+        <v>8.9710135477321469</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>109.06347563</v>
       </c>
@@ -2878,36 +2685,36 @@
         <v>0.61217637854675822</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.4955131619767847</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.8833367834300265</v>
       </c>
-      <c r="AE14">
-        <f t="shared" si="6"/>
-        <v>11.799224683651081</v>
+      <c r="AE14" s="1">
+        <f t="shared" si="8"/>
+        <v>10.556541314636753</v>
       </c>
       <c r="AF14">
         <f t="shared" si="1"/>
         <v>-5.3894653597032418</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.2641286925696078</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="7"/>
-        <v>1.0586993831843472</v>
+        <f t="shared" si="9"/>
+        <v>1.0679370006731528</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="13"/>
-        <v>0.24948412813386528</v>
+        <f t="shared" si="11"/>
+        <v>0.2473260992016566</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="14"/>
-        <v>4.176390546437788</v>
+        <f t="shared" si="10"/>
+        <v>0.3090903576222831</v>
       </c>
       <c r="AK14">
         <f t="shared" si="2"/>
@@ -2917,59 +2724,43 @@
         <f t="shared" si="3"/>
         <v>1977343.6949454998</v>
       </c>
-      <c r="AM14">
+      <c r="AM14" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.67229695458066419</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="5"/>
+        <v>-0.36547199760881494</v>
+      </c>
+      <c r="AO14" s="3">
+        <v>137813.87066690897</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="12"/>
+        <v>1.3310353500514012</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="13"/>
+        <v>3.3925647857653449</v>
+      </c>
+      <c r="AR14" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.27090568691148781</v>
+      </c>
+      <c r="AS14">
         <f t="shared" si="15"/>
-        <v>-0.63605672885897502</v>
-      </c>
-      <c r="AN14">
-        <f t="shared" si="8"/>
-        <v>-0.37919594854955596</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>124294.21369229902</v>
-      </c>
-      <c r="AP14">
+        <v>-2.1205873565211131</v>
+      </c>
+      <c r="AT14" s="1">
         <f t="shared" si="16"/>
-        <v>1.3310353500514012</v>
-      </c>
-      <c r="AQ14">
+        <v>0.87646113905158396</v>
+      </c>
+      <c r="AU14">
         <f t="shared" si="17"/>
-        <v>3.3925647857653449</v>
-      </c>
-      <c r="AR14">
-        <f t="shared" si="18"/>
-        <v>-0.36245119451595043</v>
-      </c>
-      <c r="AS14">
-        <f t="shared" si="19"/>
-        <v>-2.7743349654589533</v>
-      </c>
-      <c r="AT14">
-        <f t="shared" si="20"/>
-        <v>1.4528026180546063</v>
-      </c>
-      <c r="AU14">
-        <f t="shared" si="21"/>
-        <v>16.356665159098782</v>
-      </c>
-      <c r="AV14">
-        <f t="shared" si="9"/>
-        <v>-290.98862470698947</v>
-      </c>
-      <c r="AW14">
-        <f t="shared" si="10"/>
-        <v>-987.19776123922009</v>
-      </c>
-      <c r="AX14">
-        <f t="shared" si="11"/>
-        <v>691670.3999188086</v>
-      </c>
-      <c r="AY14">
-        <f t="shared" si="12"/>
-        <v>2607635.0780327297</v>
+        <v>9.8474746867837304</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>119.92295608800001</v>
       </c>
@@ -3056,36 +2847,36 @@
         <v>0.47374110819143889</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.5689381765791115</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.0951970683876726</v>
       </c>
-      <c r="AE15">
-        <f t="shared" si="6"/>
-        <v>12.842394085569522</v>
+      <c r="AE15" s="1">
+        <f t="shared" si="8"/>
+        <v>11.607789421057413</v>
       </c>
       <c r="AF15">
         <f t="shared" si="1"/>
         <v>-6.026412785958561</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.21186028495764608</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="7"/>
-        <v>1.0431694019184405</v>
+        <f t="shared" si="9"/>
+        <v>1.05124810642066</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="13"/>
-        <v>0.20309288651299057</v>
+        <f t="shared" si="11"/>
+        <v>0.20153214418525628</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="14"/>
-        <v>4.068841882430303</v>
+        <f t="shared" si="10"/>
+        <v>0.31770772879572884</v>
       </c>
       <c r="AK15">
         <f t="shared" si="2"/>
@@ -3095,59 +2886,43 @@
         <f t="shared" si="3"/>
         <v>2144755.1031145002</v>
       </c>
-      <c r="AM15">
+      <c r="AM15" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.67766952479776976</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="5"/>
+        <v>-0.3688348363648708</v>
+      </c>
+      <c r="AO15" s="3">
+        <v>137813.87066690897</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="12"/>
+        <v>1.321816061075151</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="13"/>
+        <v>3.3629401350164101</v>
+      </c>
+      <c r="AR15" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.26773663116216551</v>
+      </c>
+      <c r="AS15">
         <f t="shared" si="15"/>
-        <v>-0.60892007399905412</v>
-      </c>
-      <c r="AN15">
-        <f t="shared" si="8"/>
-        <v>-0.39597452360441637</v>
-      </c>
-      <c r="AO15" s="1">
-        <v>124294.21369229902</v>
-      </c>
-      <c r="AP15">
+        <v>-2.3883239876832785</v>
+      </c>
+      <c r="AT15" s="1">
         <f t="shared" si="16"/>
-        <v>1.321816061075151</v>
-      </c>
-      <c r="AQ15">
+        <v>0.84271362291695306</v>
+      </c>
+      <c r="AU15">
         <f t="shared" si="17"/>
-        <v>3.3629401350164101</v>
-      </c>
-      <c r="AR15">
-        <f t="shared" si="18"/>
-        <v>-0.28298173976495739</v>
-      </c>
-      <c r="AS15">
-        <f t="shared" si="19"/>
-        <v>-3.0573167052239105</v>
-      </c>
-      <c r="AT15">
-        <f t="shared" si="20"/>
-        <v>1.3933611591406316</v>
-      </c>
-      <c r="AU15">
-        <f t="shared" si="21"/>
-        <v>17.750026318239414</v>
-      </c>
-      <c r="AV15">
-        <f t="shared" si="9"/>
-        <v>-291.46746007808719</v>
-      </c>
-      <c r="AW15">
-        <f t="shared" si="10"/>
-        <v>-980.18761954789272</v>
-      </c>
-      <c r="AX15">
-        <f t="shared" si="11"/>
-        <v>771531.88048628194</v>
-      </c>
-      <c r="AY15">
-        <f t="shared" si="12"/>
-        <v>2878578.9593667327</v>
+        <v>10.690188309700684</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>130.217041959</v>
       </c>
@@ -3234,36 +3009,36 @@
         <v>0.18450674208951856</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.6308884549549374</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.4463817128654188</v>
       </c>
-      <c r="AE16">
-        <f t="shared" si="6"/>
-        <v>13.939128383436827</v>
+      <c r="AE16" s="1">
+        <f t="shared" si="8"/>
+        <v>12.71115561043</v>
       </c>
       <c r="AF16">
         <f t="shared" si="1"/>
         <v>-6.8158085733104814</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.35118464447774622</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="7"/>
-        <v>1.0967342978673056</v>
+        <f t="shared" si="9"/>
+        <v>1.1033661893725863</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="13"/>
-        <v>0.32020941185176305</v>
+        <f t="shared" si="11"/>
+        <v>0.31828476154180729</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="14"/>
-        <v>3.9821178597184934</v>
+        <f t="shared" si="10"/>
+        <v>0.32506806182767251</v>
       </c>
       <c r="AK16">
         <f t="shared" si="2"/>
@@ -3273,59 +3048,43 @@
         <f t="shared" si="3"/>
         <v>2285570.4841089998</v>
       </c>
-      <c r="AM16">
+      <c r="AM16" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.68228579418535318</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" si="5"/>
+        <v>-0.37170589394610526</v>
+      </c>
+      <c r="AO16" s="3">
+        <v>137813.87066690897</v>
+      </c>
+      <c r="AP16">
+        <f t="shared" si="12"/>
+        <v>1.3139888388488756</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" si="13"/>
+        <v>3.3380429545052652</v>
+      </c>
+      <c r="AR16" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.24386728983293282</v>
+      </c>
+      <c r="AS16">
         <f t="shared" si="15"/>
-        <v>-0.67923569099089443</v>
-      </c>
-      <c r="AN16">
-        <f t="shared" si="8"/>
-        <v>-0.37283790738064515</v>
-      </c>
-      <c r="AO16" s="1">
-        <v>124294.21369229902</v>
-      </c>
-      <c r="AP16">
+        <v>-2.6321912775162115</v>
+      </c>
+      <c r="AT16" s="1">
         <f t="shared" si="16"/>
-        <v>1.3139888388488756</v>
-      </c>
-      <c r="AQ16">
+        <v>0.75020378336095517</v>
+      </c>
+      <c r="AU16">
         <f t="shared" si="17"/>
-        <v>3.3380429545052652</v>
-      </c>
-      <c r="AR16">
-        <f t="shared" si="18"/>
-        <v>-0.39937761259671178</v>
-      </c>
-      <c r="AS16">
-        <f t="shared" si="19"/>
-        <v>-3.4566943178206224</v>
-      </c>
-      <c r="AT16">
-        <f t="shared" si="20"/>
-        <v>1.2472388312608331</v>
-      </c>
-      <c r="AU16">
-        <f t="shared" si="21"/>
-        <v>18.997265149500247</v>
-      </c>
-      <c r="AV16">
-        <f t="shared" si="9"/>
-        <v>-308.37026871008595</v>
-      </c>
-      <c r="AW16">
-        <f t="shared" si="10"/>
-        <v>-1029.3532028465979</v>
-      </c>
-      <c r="AX16">
-        <f t="shared" si="11"/>
-        <v>849377.58317188802</v>
-      </c>
-      <c r="AY16">
-        <f t="shared" si="12"/>
-        <v>3140377.0748169567</v>
+        <v>11.440392093061639</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>135.49069329700001</v>
       </c>
@@ -3412,36 +3171,36 @@
         <v>-1.6226043161094106</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.6270429249761014</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.249647241085512</v>
       </c>
-      <c r="AE17">
-        <f t="shared" si="6"/>
-        <v>15.541604670769804</v>
+      <c r="AE17" s="1">
+        <f t="shared" si="8"/>
+        <v>14.313224983789016</v>
       </c>
       <c r="AF17">
         <f t="shared" si="1"/>
         <v>-9.1229725988094117</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.8032655282200931</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="7"/>
-        <v>1.6024762873329763</v>
+        <f t="shared" si="9"/>
+        <v>1.6020693733590168</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="13"/>
-        <v>1.1252993523051085</v>
+        <f t="shared" si="11"/>
+        <v>1.1255851701597877</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="14"/>
-        <v>3.9873987097034416</v>
+        <f t="shared" si="10"/>
+        <v>0.32815966731793039</v>
       </c>
       <c r="AK17">
         <f t="shared" si="2"/>
@@ -3451,59 +3210,43 @@
         <f t="shared" si="3"/>
         <v>2171373.4943349999</v>
       </c>
-      <c r="AM17">
+      <c r="AM17" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.68423237906689272</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" si="5"/>
+        <v>-0.37291141454094984</v>
+      </c>
+      <c r="AO17" s="3">
+        <v>137813.87066690897</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="12"/>
+        <v>1.310714112029983</v>
+      </c>
+      <c r="AQ17">
+        <f t="shared" si="13"/>
+        <v>3.3276950124855009</v>
+      </c>
+      <c r="AR17" s="1">
+        <f t="shared" si="14"/>
+        <v>1.5631871716552621E-2</v>
+      </c>
+      <c r="AS17">
         <f t="shared" si="15"/>
-        <v>-1.400383232135298</v>
-      </c>
-      <c r="AN17">
-        <f t="shared" si="8"/>
-        <v>-0.21776652211668712</v>
-      </c>
-      <c r="AO17" s="1">
-        <v>124294.21369229902</v>
-      </c>
-      <c r="AP17">
+        <v>-2.6165594057996588</v>
+      </c>
+      <c r="AT17" s="1">
         <f t="shared" si="16"/>
-        <v>1.310714112029983</v>
-      </c>
-      <c r="AQ17">
+        <v>-4.7634957227720535E-2</v>
+      </c>
+      <c r="AU17">
         <f t="shared" si="17"/>
-        <v>3.3276950124855009</v>
-      </c>
-      <c r="AR17">
-        <f t="shared" si="18"/>
-        <v>0.10631070069293644</v>
-      </c>
-      <c r="AS17">
-        <f t="shared" si="19"/>
-        <v>-3.3503836171276862</v>
-      </c>
-      <c r="AT17">
-        <f t="shared" si="20"/>
-        <v>-9.4473262137017427E-2</v>
-      </c>
-      <c r="AU17">
-        <f t="shared" si="21"/>
-        <v>18.902791887363229</v>
-      </c>
-      <c r="AV17">
-        <f t="shared" si="9"/>
-        <v>-379.56941883754769</v>
-      </c>
-      <c r="AW17">
-        <f t="shared" si="10"/>
-        <v>-1263.0912619577273</v>
-      </c>
-      <c r="AX17">
-        <f t="shared" si="11"/>
-        <v>919443.95048420585</v>
-      </c>
-      <c r="AY17">
-        <f t="shared" si="12"/>
-        <v>3374265.5463339551</v>
+        <v>11.39275713583392</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>130.89123858100001</v>
       </c>
@@ -3590,36 +3333,36 @@
         <v>-3.3556936808933902</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.5261182828034796</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.8818119636968698</v>
       </c>
-      <c r="AE18">
-        <f t="shared" si="6"/>
-        <v>17.121634609997798</v>
+      <c r="AE18" s="1">
+        <f t="shared" si="8"/>
+        <v>15.882348148663167</v>
       </c>
       <c r="AF18">
         <f t="shared" si="1"/>
         <v>-11.35722870574339</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.6321647226113578</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="7"/>
-        <v>1.5800299392279946</v>
+        <f t="shared" si="9"/>
+        <v>1.569123164874151</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="13"/>
-        <v>1.0329960731053212</v>
+        <f t="shared" si="11"/>
+        <v>1.0401762966403361</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="14"/>
-        <v>4.1309123518586013</v>
+        <f t="shared" si="10"/>
+        <v>0.32258536228531792</v>
       </c>
       <c r="AK18">
         <f t="shared" si="2"/>
@@ -3629,59 +3372,43 @@
         <f t="shared" si="3"/>
         <v>1756875.9963530002</v>
       </c>
-      <c r="AM18">
+      <c r="AM18" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.68072585269833019</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="5"/>
+        <v>-0.37073761353547524</v>
+      </c>
+      <c r="AO18" s="3">
+        <v>137813.87066690897</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" si="12"/>
+        <v>1.3166241574846067</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" si="13"/>
+        <v>3.3463996409451275</v>
+      </c>
+      <c r="AR18" s="1">
+        <f t="shared" si="14"/>
+        <v>0.38711485838927023</v>
+      </c>
+      <c r="AS18">
         <f t="shared" si="15"/>
-        <v>-1.2877432721266489</v>
-      </c>
-      <c r="AN18">
-        <f t="shared" si="8"/>
-        <v>-0.23105270612304352</v>
-      </c>
-      <c r="AO18" s="1">
-        <v>124294.21369229902</v>
-      </c>
-      <c r="AP18">
+        <v>-2.2294445474103886</v>
+      </c>
+      <c r="AT18" s="1">
         <f t="shared" si="16"/>
-        <v>1.3166241574846067</v>
-      </c>
-      <c r="AQ18">
+        <v>-1.2000385127421804</v>
+      </c>
+      <c r="AU18">
         <f t="shared" si="17"/>
-        <v>3.3463996409451275</v>
-      </c>
-      <c r="AR18">
-        <f t="shared" si="18"/>
-        <v>2.3803240527357272</v>
-      </c>
-      <c r="AS18">
-        <f t="shared" si="19"/>
-        <v>-0.97005956439195895</v>
-      </c>
-      <c r="AT18">
-        <f t="shared" si="20"/>
-        <v>-2.3042914825224479</v>
-      </c>
-      <c r="AU18">
-        <f t="shared" si="21"/>
-        <v>16.598500404840781</v>
-      </c>
-      <c r="AV18">
-        <f t="shared" si="9"/>
-        <v>-383.12505016314014</v>
-      </c>
-      <c r="AW18">
-        <f t="shared" si="10"/>
-        <v>-1282.0895303030161</v>
-      </c>
-      <c r="AX18">
-        <f t="shared" si="11"/>
-        <v>914964.92629356496</v>
-      </c>
-      <c r="AY18">
-        <f t="shared" si="12"/>
-        <v>3359353.5536622405</v>
+        <v>10.192718623091739</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>129.31573498500001</v>
       </c>
@@ -3768,7 +3495,7 @@
         <v>-4.3352486826864656</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>129.56028019199999</v>
       </c>

--- a/SMP_2PP.xlsx
+++ b/SMP_2PP.xlsx
@@ -951,7 +951,7 @@
         <v>-0.21207895771974564</v>
       </c>
       <c r="AO3" s="3">
-        <v>137813.87066690897</v>
+        <v>163644.44554783992</v>
       </c>
       <c r="AP3" s="1">
         <f>(AK3*1.35*(AK3/3255000)^-0.0723-AK2*1.35*(AK2/3255000)^-0.0723)/(AK3-AK2)</f>
@@ -963,19 +963,19 @@
       </c>
       <c r="AR3" s="1">
         <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>3.3094942615051824E-2</v>
+        <v>2.7871047660741888E-2</v>
       </c>
       <c r="AS3" s="1">
         <f>(AS2+AR3)</f>
-        <v>3.3094942615051824E-2</v>
+        <v>2.7871047660741888E-2</v>
       </c>
       <c r="AT3" s="1">
         <f>2*(1-AM3)*(AK3-AK2)*(1-AP3/3)/(9*AN3*AO3*AM3)</f>
-        <v>0.33264155303904169</v>
+        <v>0.2801355085135509</v>
       </c>
       <c r="AU3" s="1">
         <f>AU2+AT3</f>
-        <v>0.33264155303904169</v>
+        <v>0.2801355085135509</v>
       </c>
     </row>
     <row r="4" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1113,7 +1113,7 @@
         <v>-0.26034913500155066</v>
       </c>
       <c r="AO4" s="3">
-        <v>137813.87066690897</v>
+        <v>163644.44554783992</v>
       </c>
       <c r="AP4">
         <f t="shared" ref="AP4:AP18" si="12">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
@@ -1125,19 +1125,19 @@
       </c>
       <c r="AR4" s="1">
         <f t="shared" ref="AR4:AR18" si="14">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>-1.9656438445604937E-2</v>
+        <v>-1.6553753820643585E-2</v>
       </c>
       <c r="AS4">
         <f t="shared" ref="AS4:AS18" si="15">AS3+AR4</f>
-        <v>1.3438504169446887E-2</v>
+        <v>1.1317293840098303E-2</v>
       </c>
       <c r="AT4" s="1">
         <f t="shared" ref="AT4:AT18" si="16">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
-        <v>0.56255304341635493</v>
+        <v>0.4737564547890083</v>
       </c>
       <c r="AU4">
         <f>AU3+AT4</f>
-        <v>0.89519459645539667</v>
+        <v>0.75389196330255914</v>
       </c>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.25">
@@ -1275,7 +1275,7 @@
         <v>-0.28720796815823474</v>
       </c>
       <c r="AO5" s="3">
-        <v>137813.87066690897</v>
+        <v>163644.44554783992</v>
       </c>
       <c r="AP5">
         <f t="shared" si="12"/>
@@ -1287,19 +1287,19 @@
       </c>
       <c r="AR5" s="1">
         <f t="shared" si="14"/>
-        <v>-7.3610429432941035E-2</v>
+        <v>-6.1991338402263736E-2</v>
       </c>
       <c r="AS5">
         <f t="shared" si="15"/>
-        <v>-6.0171925263494144E-2</v>
+        <v>-5.0674044562165434E-2</v>
       </c>
       <c r="AT5" s="1">
         <f t="shared" si="16"/>
-        <v>0.68984812051364974</v>
+        <v>0.58095854913991163</v>
       </c>
       <c r="AU5">
         <f>AU4+AT5</f>
-        <v>1.5850427169690464</v>
+        <v>1.3348505124424708</v>
       </c>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
         <v>-0.30545349923862214</v>
       </c>
       <c r="AO6" s="3">
-        <v>137813.87066690897</v>
+        <v>163644.44554783992</v>
       </c>
       <c r="AP6">
         <f t="shared" si="12"/>
@@ -1449,19 +1449,19 @@
       </c>
       <c r="AR6" s="1">
         <f t="shared" si="14"/>
-        <v>-0.12604097128129677</v>
+        <v>-0.10614594376693469</v>
       </c>
       <c r="AS6">
         <f t="shared" si="15"/>
-        <v>-0.1862128965447909</v>
+        <v>-0.15681998832910013</v>
       </c>
       <c r="AT6" s="1">
         <f t="shared" si="16"/>
-        <v>0.81552030284348598</v>
+        <v>0.6867939157119417</v>
       </c>
       <c r="AU6">
         <f t="shared" ref="AU6:AU18" si="17">AU5+AT6</f>
-        <v>2.4005630198125325</v>
+        <v>2.0216444281544126</v>
       </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
         <v>-0.31921125366938408</v>
       </c>
       <c r="AO7" s="3">
-        <v>137813.87066690897</v>
+        <v>163644.44554783992</v>
       </c>
       <c r="AP7">
         <f t="shared" si="12"/>
@@ -1611,19 +1611,19 @@
       </c>
       <c r="AR7" s="1">
         <f t="shared" si="14"/>
-        <v>-0.16885522579910542</v>
+        <v>-0.14220215157199875</v>
       </c>
       <c r="AS7">
         <f t="shared" si="15"/>
-        <v>-0.35506812234389629</v>
+        <v>-0.29902213990109888</v>
       </c>
       <c r="AT7" s="1">
         <f t="shared" si="16"/>
-        <v>0.88747163809629137</v>
+        <v>0.74738804084491317</v>
       </c>
       <c r="AU7">
         <f t="shared" si="17"/>
-        <v>3.288034657908824</v>
+        <v>2.7690324689993258</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
@@ -1761,7 +1761,7 @@
         <v>-0.32992084372464275</v>
       </c>
       <c r="AO8" s="3">
-        <v>137813.87066690897</v>
+        <v>163644.44554783992</v>
       </c>
       <c r="AP8">
         <f t="shared" si="12"/>
@@ -1773,19 +1773,19 @@
       </c>
       <c r="AR8" s="1">
         <f t="shared" si="14"/>
-        <v>-0.20149079311489101</v>
+        <v>-0.16968633435707248</v>
       </c>
       <c r="AS8">
         <f t="shared" si="15"/>
-        <v>-0.55655891545878733</v>
+        <v>-0.46870847425817136</v>
       </c>
       <c r="AT8" s="1">
         <f t="shared" si="16"/>
-        <v>0.92469312687715766</v>
+        <v>0.77873427703217502</v>
       </c>
       <c r="AU8">
         <f t="shared" si="17"/>
-        <v>4.2127277847859812</v>
+        <v>3.5477667460315008</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
@@ -1923,7 +1923,7 @@
         <v>-0.33856389671167586</v>
       </c>
       <c r="AO9" s="3">
-        <v>137813.87066690897</v>
+        <v>163644.44554783992</v>
       </c>
       <c r="AP9">
         <f t="shared" si="12"/>
@@ -1935,19 +1935,19 @@
       </c>
       <c r="AR9" s="1">
         <f t="shared" si="14"/>
-        <v>-0.22839746545527598</v>
+        <v>-0.19234590370316848</v>
       </c>
       <c r="AS9">
         <f t="shared" si="15"/>
-        <v>-0.78495638091406328</v>
+        <v>-0.66105437796133981</v>
       </c>
       <c r="AT9" s="1">
         <f t="shared" si="16"/>
-        <v>0.95116572732640403</v>
+        <v>0.8010282908761257</v>
       </c>
       <c r="AU9">
         <f t="shared" si="17"/>
-        <v>5.1638935121123852</v>
+        <v>4.3487950369076263</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
@@ -2085,7 +2085,7 @@
         <v>-0.3457719840995897</v>
       </c>
       <c r="AO10" s="3">
-        <v>137813.87066690897</v>
+        <v>163644.44554783992</v>
       </c>
       <c r="AP10">
         <f t="shared" si="12"/>
@@ -2097,19 +2097,19 @@
       </c>
       <c r="AR10" s="1">
         <f t="shared" si="14"/>
-        <v>-0.25054423230981032</v>
+        <v>-0.21099689825885429</v>
       </c>
       <c r="AS10">
         <f t="shared" si="15"/>
-        <v>-1.0355006132238735</v>
+        <v>-0.87205127622019407</v>
       </c>
       <c r="AT10" s="1">
         <f t="shared" si="16"/>
-        <v>0.96877662108495144</v>
+        <v>0.81585938047800055</v>
       </c>
       <c r="AU10">
         <f t="shared" si="17"/>
-        <v>6.1326701331973368</v>
+        <v>5.164654417385627</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
@@ -2247,7 +2247,7 @@
         <v>-0.35187619634800366</v>
       </c>
       <c r="AO11" s="3">
-        <v>137813.87066690897</v>
+        <v>163644.44554783992</v>
       </c>
       <c r="AP11">
         <f t="shared" si="12"/>
@@ -2259,19 +2259,19 @@
       </c>
       <c r="AR11" s="1">
         <f t="shared" si="14"/>
-        <v>-0.26418128564407534</v>
+        <v>-0.22248140112844125</v>
       </c>
       <c r="AS11">
         <f t="shared" si="15"/>
-        <v>-1.2996818988679488</v>
+        <v>-1.0945326773486352</v>
       </c>
       <c r="AT11" s="1">
         <f t="shared" si="16"/>
-        <v>0.96323643785227708</v>
+        <v>0.81119369144136555</v>
       </c>
       <c r="AU11">
         <f t="shared" si="17"/>
-        <v>7.0959065710496141</v>
+        <v>5.9758481088269928</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
@@ -2409,7 +2409,7 @@
         <v>-0.35708371806122774</v>
       </c>
       <c r="AO12" s="3">
-        <v>137813.87066690897</v>
+        <v>163644.44554783992</v>
       </c>
       <c r="AP12">
         <f t="shared" si="12"/>
@@ -2421,19 +2421,19 @@
       </c>
       <c r="AR12" s="1">
         <f t="shared" si="14"/>
-        <v>-0.27220914858237044</v>
+        <v>-0.22924210028328326</v>
       </c>
       <c r="AS12">
         <f t="shared" si="15"/>
-        <v>-1.5718910474503192</v>
+        <v>-1.3237747776319184</v>
       </c>
       <c r="AT12" s="1">
         <f t="shared" si="16"/>
-        <v>0.94647235572355137</v>
+        <v>0.79707574788023061</v>
       </c>
       <c r="AU12">
         <f t="shared" si="17"/>
-        <v>8.042378926773166</v>
+        <v>6.772923856707223</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
@@ -2571,7 +2571,7 @@
         <v>-0.36158722742548122</v>
       </c>
       <c r="AO13" s="3">
-        <v>137813.87066690897</v>
+        <v>163644.44554783992</v>
       </c>
       <c r="AP13">
         <f t="shared" si="12"/>
@@ -2583,19 +2583,19 @@
       </c>
       <c r="AR13" s="1">
         <f t="shared" si="14"/>
-        <v>-0.27779062215930628</v>
+        <v>-0.23394256216017437</v>
       </c>
       <c r="AS13">
         <f t="shared" si="15"/>
-        <v>-1.8496816696096254</v>
+        <v>-1.5577173397920927</v>
       </c>
       <c r="AT13" s="1">
         <f t="shared" si="16"/>
-        <v>0.92863462095898008</v>
+        <v>0.78205362315362859</v>
       </c>
       <c r="AU13">
         <f t="shared" si="17"/>
-        <v>8.9710135477321469</v>
+        <v>7.5549774798608516</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
@@ -2733,7 +2733,7 @@
         <v>-0.36547199760881494</v>
       </c>
       <c r="AO14" s="3">
-        <v>137813.87066690897</v>
+        <v>163644.44554783992</v>
       </c>
       <c r="AP14">
         <f t="shared" si="12"/>
@@ -2745,19 +2745,19 @@
       </c>
       <c r="AR14" s="1">
         <f t="shared" si="14"/>
-        <v>-0.27090568691148781</v>
+        <v>-0.22814438445474466</v>
       </c>
       <c r="AS14">
         <f t="shared" si="15"/>
-        <v>-2.1205873565211131</v>
+        <v>-1.7858617242468373</v>
       </c>
       <c r="AT14" s="1">
         <f t="shared" si="16"/>
-        <v>0.87646113905158396</v>
+        <v>0.7381155019191612</v>
       </c>
       <c r="AU14">
         <f t="shared" si="17"/>
-        <v>9.8474746867837304</v>
+        <v>8.2930929817800134</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
@@ -2895,7 +2895,7 @@
         <v>-0.3688348363648708</v>
       </c>
       <c r="AO15" s="3">
-        <v>137813.87066690897</v>
+        <v>163644.44554783992</v>
       </c>
       <c r="AP15">
         <f t="shared" si="12"/>
@@ -2907,19 +2907,19 @@
       </c>
       <c r="AR15" s="1">
         <f t="shared" si="14"/>
-        <v>-0.26773663116216551</v>
+        <v>-0.22547555058316879</v>
       </c>
       <c r="AS15">
         <f t="shared" si="15"/>
-        <v>-2.3883239876832785</v>
+        <v>-2.011337274830006</v>
       </c>
       <c r="AT15" s="1">
         <f t="shared" si="16"/>
-        <v>0.84271362291695306</v>
+        <v>0.70969488667409442</v>
       </c>
       <c r="AU15">
         <f t="shared" si="17"/>
-        <v>10.690188309700684</v>
+        <v>9.0027878684541083</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
@@ -3057,7 +3057,7 @@
         <v>-0.37170589394610526</v>
       </c>
       <c r="AO16" s="3">
-        <v>137813.87066690897</v>
+        <v>163644.44554783992</v>
       </c>
       <c r="AP16">
         <f t="shared" si="12"/>
@@ -3069,19 +3069,19 @@
       </c>
       <c r="AR16" s="1">
         <f t="shared" si="14"/>
-        <v>-0.24386728983293282</v>
+        <v>-0.20537388255625413</v>
       </c>
       <c r="AS16">
         <f t="shared" si="15"/>
-        <v>-2.6321912775162115</v>
+        <v>-2.2167111573862601</v>
       </c>
       <c r="AT16" s="1">
         <f t="shared" si="16"/>
-        <v>0.75020378336095517</v>
+        <v>0.63178732909518653</v>
       </c>
       <c r="AU16">
         <f t="shared" si="17"/>
-        <v>11.440392093061639</v>
+        <v>9.6345751975492941</v>
       </c>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.25">
@@ -3219,7 +3219,7 @@
         <v>-0.37291141454094984</v>
       </c>
       <c r="AO17" s="3">
-        <v>137813.87066690897</v>
+        <v>163644.44554783992</v>
       </c>
       <c r="AP17">
         <f t="shared" si="12"/>
@@ -3231,19 +3231,19 @@
       </c>
       <c r="AR17" s="1">
         <f t="shared" si="14"/>
-        <v>1.5631871716552621E-2</v>
+        <v>1.3164447713545578E-2</v>
       </c>
       <c r="AS17">
         <f t="shared" si="15"/>
-        <v>-2.6165594057996588</v>
+        <v>-2.2035467096727146</v>
       </c>
       <c r="AT17" s="1">
         <f t="shared" si="16"/>
-        <v>-4.7634957227720535E-2</v>
+        <v>-4.0115983238096974E-2</v>
       </c>
       <c r="AU17">
         <f t="shared" si="17"/>
-        <v>11.39275713583392</v>
+        <v>9.5944592143111969</v>
       </c>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.25">
@@ -3381,7 +3381,7 @@
         <v>-0.37073761353547524</v>
       </c>
       <c r="AO18" s="3">
-        <v>137813.87066690897</v>
+        <v>163644.44554783992</v>
       </c>
       <c r="AP18">
         <f t="shared" si="12"/>
@@ -3393,19 +3393,19 @@
       </c>
       <c r="AR18" s="1">
         <f t="shared" si="14"/>
-        <v>0.38711485838927023</v>
+        <v>0.3260104359099763</v>
       </c>
       <c r="AS18">
         <f t="shared" si="15"/>
-        <v>-2.2294445474103886</v>
+        <v>-1.8775362737627384</v>
       </c>
       <c r="AT18" s="1">
         <f t="shared" si="16"/>
-        <v>-1.2000385127421804</v>
+        <v>-1.0106175729747746</v>
       </c>
       <c r="AU18">
         <f t="shared" si="17"/>
-        <v>10.192718623091739</v>
+        <v>8.5838416413364218</v>
       </c>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.25">

--- a/SMP_2PP.xlsx
+++ b/SMP_2PP.xlsx
@@ -951,7 +951,7 @@
         <v>-0.21207895771974564</v>
       </c>
       <c r="AO3" s="3">
-        <v>163644.44554783992</v>
+        <v>162709.28305112128</v>
       </c>
       <c r="AP3" s="1">
         <f>(AK3*1.35*(AK3/3255000)^-0.0723-AK2*1.35*(AK2/3255000)^-0.0723)/(AK3-AK2)</f>
@@ -963,19 +963,19 @@
       </c>
       <c r="AR3" s="1">
         <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>2.7871047660741888E-2</v>
+        <v>2.8031234947096008E-2</v>
       </c>
       <c r="AS3" s="1">
         <f>(AS2+AR3)</f>
-        <v>2.7871047660741888E-2</v>
+        <v>2.8031234947096008E-2</v>
       </c>
       <c r="AT3" s="1">
         <f>2*(1-AM3)*(AK3-AK2)*(1-AP3/3)/(9*AN3*AO3*AM3)</f>
-        <v>0.2801355085135509</v>
+        <v>0.2817455716682068</v>
       </c>
       <c r="AU3" s="1">
         <f>AU2+AT3</f>
-        <v>0.2801355085135509</v>
+        <v>0.2817455716682068</v>
       </c>
     </row>
     <row r="4" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1113,7 +1113,7 @@
         <v>-0.26034913500155066</v>
       </c>
       <c r="AO4" s="3">
-        <v>163644.44554783992</v>
+        <v>162709.28305112128</v>
       </c>
       <c r="AP4">
         <f t="shared" ref="AP4:AP18" si="12">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
@@ -1125,19 +1125,19 @@
       </c>
       <c r="AR4" s="1">
         <f t="shared" ref="AR4:AR18" si="14">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>-1.6553753820643585E-2</v>
+        <v>-1.6648895594134867E-2</v>
       </c>
       <c r="AS4">
         <f t="shared" ref="AS4:AS18" si="15">AS3+AR4</f>
-        <v>1.1317293840098303E-2</v>
+        <v>1.1382339352961141E-2</v>
       </c>
       <c r="AT4" s="1">
         <f t="shared" ref="AT4:AT18" si="16">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
-        <v>0.4737564547890083</v>
+        <v>0.47647934349449084</v>
       </c>
       <c r="AU4">
         <f>AU3+AT4</f>
-        <v>0.75389196330255914</v>
+        <v>0.75822491516269763</v>
       </c>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.25">
@@ -1275,7 +1275,7 @@
         <v>-0.28720796815823474</v>
       </c>
       <c r="AO5" s="3">
-        <v>163644.44554783992</v>
+        <v>162709.28305112128</v>
       </c>
       <c r="AP5">
         <f t="shared" si="12"/>
@@ -1287,19 +1287,19 @@
       </c>
       <c r="AR5" s="1">
         <f t="shared" si="14"/>
-        <v>-6.1991338402263736E-2</v>
+        <v>-6.2347630149778704E-2</v>
       </c>
       <c r="AS5">
         <f t="shared" si="15"/>
-        <v>-5.0674044562165434E-2</v>
+        <v>-5.0965290796817567E-2</v>
       </c>
       <c r="AT5" s="1">
         <f t="shared" si="16"/>
-        <v>0.58095854913991163</v>
+        <v>0.58429757588206155</v>
       </c>
       <c r="AU5">
         <f>AU4+AT5</f>
-        <v>1.3348505124424708</v>
+        <v>1.3425224910447593</v>
       </c>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
         <v>-0.30545349923862214</v>
       </c>
       <c r="AO6" s="3">
-        <v>163644.44554783992</v>
+        <v>162709.28305112128</v>
       </c>
       <c r="AP6">
         <f t="shared" si="12"/>
@@ -1449,19 +1449,19 @@
       </c>
       <c r="AR6" s="1">
         <f t="shared" si="14"/>
-        <v>-0.10614594376693469</v>
+        <v>-0.1067560116372384</v>
       </c>
       <c r="AS6">
         <f t="shared" si="15"/>
-        <v>-0.15681998832910013</v>
+        <v>-0.15772130243405597</v>
       </c>
       <c r="AT6" s="1">
         <f t="shared" si="16"/>
-        <v>0.6867939157119417</v>
+        <v>0.69074122529935211</v>
       </c>
       <c r="AU6">
         <f t="shared" ref="AU6:AU18" si="17">AU5+AT6</f>
-        <v>2.0216444281544126</v>
+        <v>2.0332637163441114</v>
       </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
         <v>-0.31921125366938408</v>
       </c>
       <c r="AO7" s="3">
-        <v>163644.44554783992</v>
+        <v>162709.28305112128</v>
       </c>
       <c r="AP7">
         <f t="shared" si="12"/>
@@ -1611,19 +1611,19 @@
       </c>
       <c r="AR7" s="1">
         <f t="shared" si="14"/>
-        <v>-0.14220215157199875</v>
+        <v>-0.14301945047842349</v>
       </c>
       <c r="AS7">
         <f t="shared" si="15"/>
-        <v>-0.29902213990109888</v>
+        <v>-0.30074075291247948</v>
       </c>
       <c r="AT7" s="1">
         <f t="shared" si="16"/>
-        <v>0.74738804084491317</v>
+        <v>0.75168361177478182</v>
       </c>
       <c r="AU7">
         <f t="shared" si="17"/>
-        <v>2.7690324689993258</v>
+        <v>2.7849473281188932</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
@@ -1761,7 +1761,7 @@
         <v>-0.32992084372464275</v>
       </c>
       <c r="AO8" s="3">
-        <v>163644.44554783992</v>
+        <v>162709.28305112128</v>
       </c>
       <c r="AP8">
         <f t="shared" si="12"/>
@@ -1773,19 +1773,19 @@
       </c>
       <c r="AR8" s="1">
         <f t="shared" si="14"/>
-        <v>-0.16968633435707248</v>
+        <v>-0.17066159706563305</v>
       </c>
       <c r="AS8">
         <f t="shared" si="15"/>
-        <v>-0.46870847425817136</v>
+        <v>-0.47140234997811253</v>
       </c>
       <c r="AT8" s="1">
         <f t="shared" si="16"/>
-        <v>0.77873427703217502</v>
+        <v>0.78321000869993107</v>
       </c>
       <c r="AU8">
         <f t="shared" si="17"/>
-        <v>3.5477667460315008</v>
+        <v>3.5681573368188242</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
@@ -1923,7 +1923,7 @@
         <v>-0.33856389671167586</v>
       </c>
       <c r="AO9" s="3">
-        <v>163644.44554783992</v>
+        <v>162709.28305112128</v>
       </c>
       <c r="AP9">
         <f t="shared" si="12"/>
@@ -1935,19 +1935,19 @@
       </c>
       <c r="AR9" s="1">
         <f t="shared" si="14"/>
-        <v>-0.19234590370316848</v>
+        <v>-0.19345140101818117</v>
       </c>
       <c r="AS9">
         <f t="shared" si="15"/>
-        <v>-0.66105437796133981</v>
+        <v>-0.66485375099629374</v>
       </c>
       <c r="AT9" s="1">
         <f t="shared" si="16"/>
-        <v>0.8010282908761257</v>
+        <v>0.80563215614054717</v>
       </c>
       <c r="AU9">
         <f t="shared" si="17"/>
-        <v>4.3487950369076263</v>
+        <v>4.3737894929593715</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
@@ -2085,7 +2085,7 @@
         <v>-0.3457719840995897</v>
       </c>
       <c r="AO10" s="3">
-        <v>163644.44554783992</v>
+        <v>162709.28305112128</v>
       </c>
       <c r="AP10">
         <f t="shared" si="12"/>
@@ -2097,19 +2097,19 @@
       </c>
       <c r="AR10" s="1">
         <f t="shared" si="14"/>
-        <v>-0.21099689825885429</v>
+        <v>-0.21220959112109028</v>
       </c>
       <c r="AS10">
         <f t="shared" si="15"/>
-        <v>-0.87205127622019407</v>
+        <v>-0.87706334211738401</v>
       </c>
       <c r="AT10" s="1">
         <f t="shared" si="16"/>
-        <v>0.81585938047800055</v>
+        <v>0.82054848659974178</v>
       </c>
       <c r="AU10">
         <f t="shared" si="17"/>
-        <v>5.164654417385627</v>
+        <v>5.1943379795591129</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
@@ -2247,7 +2247,7 @@
         <v>-0.35187619634800366</v>
       </c>
       <c r="AO11" s="3">
-        <v>163644.44554783992</v>
+        <v>162709.28305112128</v>
       </c>
       <c r="AP11">
         <f t="shared" si="12"/>
@@ -2259,19 +2259,19 @@
       </c>
       <c r="AR11" s="1">
         <f t="shared" si="14"/>
-        <v>-0.22248140112844125</v>
+        <v>-0.2237601005280776</v>
       </c>
       <c r="AS11">
         <f t="shared" si="15"/>
-        <v>-1.0945326773486352</v>
+        <v>-1.1008234426454617</v>
       </c>
       <c r="AT11" s="1">
         <f t="shared" si="16"/>
-        <v>0.81119369144136555</v>
+        <v>0.81585598177652952</v>
       </c>
       <c r="AU11">
         <f t="shared" si="17"/>
-        <v>5.9758481088269928</v>
+        <v>6.0101939613356423</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
@@ -2409,7 +2409,7 @@
         <v>-0.35708371806122774</v>
       </c>
       <c r="AO12" s="3">
-        <v>163644.44554783992</v>
+        <v>162709.28305112128</v>
       </c>
       <c r="AP12">
         <f t="shared" si="12"/>
@@ -2421,19 +2421,19 @@
       </c>
       <c r="AR12" s="1">
         <f t="shared" si="14"/>
-        <v>-0.22924210028328326</v>
+        <v>-0.23055965642288337</v>
       </c>
       <c r="AS12">
         <f t="shared" si="15"/>
-        <v>-1.3237747776319184</v>
+        <v>-1.3313830990683451</v>
       </c>
       <c r="AT12" s="1">
         <f t="shared" si="16"/>
-        <v>0.79707574788023061</v>
+        <v>0.801656896125026</v>
       </c>
       <c r="AU12">
         <f t="shared" si="17"/>
-        <v>6.772923856707223</v>
+        <v>6.8118508574606684</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
@@ -2571,7 +2571,7 @@
         <v>-0.36158722742548122</v>
       </c>
       <c r="AO13" s="3">
-        <v>163644.44554783992</v>
+        <v>162709.28305112128</v>
       </c>
       <c r="AP13">
         <f t="shared" si="12"/>
@@ -2583,19 +2583,19 @@
       </c>
       <c r="AR13" s="1">
         <f t="shared" si="14"/>
-        <v>-0.23394256216017437</v>
+        <v>-0.2352871339413046</v>
       </c>
       <c r="AS13">
         <f t="shared" si="15"/>
-        <v>-1.5577173397920927</v>
+        <v>-1.5666702330096496</v>
       </c>
       <c r="AT13" s="1">
         <f t="shared" si="16"/>
-        <v>0.78205362315362859</v>
+        <v>0.78654843257741813</v>
       </c>
       <c r="AU13">
         <f t="shared" si="17"/>
-        <v>7.5549774798608516</v>
+        <v>7.5983992900380866</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
@@ -2733,7 +2733,7 @@
         <v>-0.36547199760881494</v>
       </c>
       <c r="AO14" s="3">
-        <v>163644.44554783992</v>
+        <v>162709.28305112128</v>
       </c>
       <c r="AP14">
         <f t="shared" si="12"/>
@@ -2745,19 +2745,19 @@
       </c>
       <c r="AR14" s="1">
         <f t="shared" si="14"/>
-        <v>-0.22814438445474466</v>
+        <v>-0.22945563153406465</v>
       </c>
       <c r="AS14">
         <f t="shared" si="15"/>
-        <v>-1.7858617242468373</v>
+        <v>-1.7961258645437141</v>
       </c>
       <c r="AT14" s="1">
         <f t="shared" si="16"/>
-        <v>0.7381155019191612</v>
+        <v>0.74235777945058257</v>
       </c>
       <c r="AU14">
         <f t="shared" si="17"/>
-        <v>8.2930929817800134</v>
+        <v>8.340757069488669</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
@@ -2895,7 +2895,7 @@
         <v>-0.3688348363648708</v>
       </c>
       <c r="AO15" s="3">
-        <v>163644.44554783992</v>
+        <v>162709.28305112128</v>
       </c>
       <c r="AP15">
         <f t="shared" si="12"/>
@@ -2907,19 +2907,19 @@
       </c>
       <c r="AR15" s="1">
         <f t="shared" si="14"/>
-        <v>-0.22547555058316879</v>
+        <v>-0.22677145868919932</v>
       </c>
       <c r="AS15">
         <f t="shared" si="15"/>
-        <v>-2.011337274830006</v>
+        <v>-2.0228973232329133</v>
       </c>
       <c r="AT15" s="1">
         <f t="shared" si="16"/>
-        <v>0.70969488667409442</v>
+        <v>0.71377381831023279</v>
       </c>
       <c r="AU15">
         <f t="shared" si="17"/>
-        <v>9.0027878684541083</v>
+        <v>9.0545308877989026</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
@@ -3057,7 +3057,7 @@
         <v>-0.37170589394610526</v>
       </c>
       <c r="AO16" s="3">
-        <v>163644.44554783992</v>
+        <v>162709.28305112128</v>
       </c>
       <c r="AP16">
         <f t="shared" si="12"/>
@@ -3069,19 +3069,19 @@
       </c>
       <c r="AR16" s="1">
         <f t="shared" si="14"/>
-        <v>-0.20537388255625413</v>
+        <v>-0.20655425745048661</v>
       </c>
       <c r="AS16">
         <f t="shared" si="15"/>
-        <v>-2.2167111573862601</v>
+        <v>-2.2294515806834001</v>
       </c>
       <c r="AT16" s="1">
         <f t="shared" si="16"/>
-        <v>0.63178732909518653</v>
+        <v>0.63541849140499895</v>
       </c>
       <c r="AU16">
         <f t="shared" si="17"/>
-        <v>9.6345751975492941</v>
+        <v>9.6899493792039024</v>
       </c>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.25">
@@ -3219,7 +3219,7 @@
         <v>-0.37291141454094984</v>
       </c>
       <c r="AO17" s="3">
-        <v>163644.44554783992</v>
+        <v>162709.28305112128</v>
       </c>
       <c r="AP17">
         <f t="shared" si="12"/>
@@ -3231,19 +3231,19 @@
       </c>
       <c r="AR17" s="1">
         <f t="shared" si="14"/>
-        <v>1.3164447713545578E-2</v>
+        <v>1.3240109639902006E-2</v>
       </c>
       <c r="AS17">
         <f t="shared" si="15"/>
-        <v>-2.2035467096727146</v>
+        <v>-2.2162114710434979</v>
       </c>
       <c r="AT17" s="1">
         <f t="shared" si="16"/>
-        <v>-4.0115983238096974E-2</v>
+        <v>-4.0346547606274256E-2</v>
       </c>
       <c r="AU17">
         <f t="shared" si="17"/>
-        <v>9.5944592143111969</v>
+        <v>9.6496028315976279</v>
       </c>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.25">
@@ -3381,7 +3381,7 @@
         <v>-0.37073761353547524</v>
       </c>
       <c r="AO18" s="3">
-        <v>163644.44554783992</v>
+        <v>162709.28305112128</v>
       </c>
       <c r="AP18">
         <f t="shared" si="12"/>
@@ -3393,19 +3393,19 @@
       </c>
       <c r="AR18" s="1">
         <f t="shared" si="14"/>
-        <v>0.3260104359099763</v>
+        <v>0.32788416264200371</v>
       </c>
       <c r="AS18">
         <f t="shared" si="15"/>
-        <v>-1.8775362737627384</v>
+        <v>-1.8883273084014942</v>
       </c>
       <c r="AT18" s="1">
         <f t="shared" si="16"/>
-        <v>-1.0106175729747746</v>
+        <v>-1.0164260409063424</v>
       </c>
       <c r="AU18">
         <f t="shared" si="17"/>
-        <v>8.5838416413364218</v>
+        <v>8.6331767906912855</v>
       </c>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.25">

--- a/SMP_2PP.xlsx
+++ b/SMP_2PP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t># avgT</t>
   </si>
@@ -178,6 +178,10 @@
   </si>
   <si>
     <t>eq_pla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_n_real_pred</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -509,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU20"/>
+  <dimension ref="A1:AV20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AO3" sqref="AO3:AO18"/>
+      <selection activeCell="AV3" sqref="AV2:AV3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -537,10 +541,11 @@
     <col min="42" max="42" width="12.77734375" customWidth="1"/>
     <col min="44" max="44" width="12.44140625" customWidth="1"/>
     <col min="45" max="45" width="11.21875" customWidth="1"/>
-    <col min="48" max="1026" width="11.5546875"/>
+    <col min="48" max="48" width="13.33203125" customWidth="1"/>
+    <col min="49" max="1026" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -682,8 +687,11 @@
       <c r="AU1" t="s">
         <v>44</v>
       </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.200083855177</v>
       </c>
@@ -815,8 +823,12 @@
       <c r="AU2">
         <v>0</v>
       </c>
+      <c r="AV2">
+        <f>(AQ2*X2-2*X2*(1-0.01*P2-2*0.01*AF2)/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+1+0.08/0.4)+4*2*232000*(-0.4*0.01*AF2-0.08*0.01*P2)/((1-2*0.01*AF2)*0.4*0.08))/1000</f>
+        <v>-2.7326248057628262</v>
+      </c>
     </row>
-    <row r="3" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2.8026869856899999</v>
       </c>
@@ -977,8 +989,12 @@
         <f>AU2+AT3</f>
         <v>0.2817455716682068</v>
       </c>
+      <c r="AV3">
+        <f>(AQ3*X3-2*X3*(1-0.01*P3-2*0.01*AF3)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+1+0.08/0.4)+4*2*232000*(-0.4*0.01*AF3-0.08*0.01*P3)/((1-2*0.01*AF3)*0.4*0.08))/1000</f>
+        <v>13.842034741405179</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>7.8844281171999997</v>
       </c>
@@ -1139,8 +1155,12 @@
         <f>AU3+AT4</f>
         <v>0.75822491516269763</v>
       </c>
+      <c r="AV4">
+        <f t="shared" ref="AV4:AV18" si="17">(AQ4*X4-2*X4*(1-0.01*P4-2*0.01*AF4)/(-0.08/0.4*0.01*P4-(2*0.08/0.4+3)*0.01*AF4+1+0.08/0.4)+4*2*232000*(-0.4*0.01*AF4-0.08*0.01*P4)/((1-2*0.01*AF4)*0.4*0.08))/1000</f>
+        <v>116.5989132240631</v>
+      </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15.028438339299999</v>
       </c>
@@ -1301,8 +1321,12 @@
         <f>AU4+AT5</f>
         <v>1.3425224910447593</v>
       </c>
+      <c r="AV5">
+        <f t="shared" si="17"/>
+        <v>278.60794219441141</v>
+      </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>23.366001454100001</v>
       </c>
@@ -1460,11 +1484,15 @@
         <v>0.69074122529935211</v>
       </c>
       <c r="AU6">
-        <f t="shared" ref="AU6:AU18" si="17">AU5+AT6</f>
+        <f t="shared" ref="AU6:AU18" si="18">AU5+AT6</f>
         <v>2.0332637163441114</v>
       </c>
+      <c r="AV6">
+        <f t="shared" si="17"/>
+        <v>420.33230659411947</v>
+      </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32.700695932499997</v>
       </c>
@@ -1622,11 +1650,15 @@
         <v>0.75168361177478182</v>
       </c>
       <c r="AU7">
+        <f t="shared" si="18"/>
+        <v>2.7849473281188932</v>
+      </c>
+      <c r="AV7">
         <f t="shared" si="17"/>
-        <v>2.7849473281188932</v>
+        <v>630.09803258025659</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>42.669404995000001</v>
       </c>
@@ -1784,11 +1816,15 @@
         <v>0.78321000869993107</v>
       </c>
       <c r="AU8">
+        <f t="shared" si="18"/>
+        <v>3.5681573368188242</v>
+      </c>
+      <c r="AV8">
         <f t="shared" si="17"/>
-        <v>3.5681573368188242</v>
+        <v>821.17704967003374</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>53.192396357699998</v>
       </c>
@@ -1946,11 +1982,15 @@
         <v>0.80563215614054717</v>
       </c>
       <c r="AU9">
+        <f t="shared" si="18"/>
+        <v>4.3737894929593715</v>
+      </c>
+      <c r="AV9">
         <f t="shared" si="17"/>
-        <v>4.3737894929593715</v>
+        <v>1054.9875793811993</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>64.125454629800004</v>
       </c>
@@ -2108,11 +2148,15 @@
         <v>0.82054848659974178</v>
       </c>
       <c r="AU10">
+        <f t="shared" si="18"/>
+        <v>5.1943379795591129</v>
+      </c>
+      <c r="AV10">
         <f t="shared" si="17"/>
-        <v>5.1943379795591129</v>
+        <v>1279.6208639530264</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>75.4317555863</v>
       </c>
@@ -2270,11 +2314,15 @@
         <v>0.81585598177652952</v>
       </c>
       <c r="AU11">
+        <f t="shared" si="18"/>
+        <v>6.0101939613356423</v>
+      </c>
+      <c r="AV11">
         <f t="shared" si="17"/>
-        <v>6.0101939613356423</v>
+        <v>1506.2879608218079</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>86.739260263199995</v>
       </c>
@@ -2432,11 +2480,15 @@
         <v>0.801656896125026</v>
       </c>
       <c r="AU12">
+        <f t="shared" si="18"/>
+        <v>6.8118508574606684</v>
+      </c>
+      <c r="AV12">
         <f t="shared" si="17"/>
-        <v>6.8118508574606684</v>
+        <v>1746.5095874995588</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>97.959816765100001</v>
       </c>
@@ -2594,11 +2646,15 @@
         <v>0.78654843257741813</v>
       </c>
       <c r="AU13">
+        <f t="shared" si="18"/>
+        <v>7.5983992900380866</v>
+      </c>
+      <c r="AV13">
         <f t="shared" si="17"/>
-        <v>7.5983992900380866</v>
+        <v>1991.2448905208023</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>109.06347563</v>
       </c>
@@ -2756,11 +2812,15 @@
         <v>0.74235777945058257</v>
       </c>
       <c r="AU14">
+        <f t="shared" si="18"/>
+        <v>8.340757069488669</v>
+      </c>
+      <c r="AV14">
         <f t="shared" si="17"/>
-        <v>8.340757069488669</v>
+        <v>2235.9289745626593</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>119.92295608800001</v>
       </c>
@@ -2918,11 +2978,15 @@
         <v>0.71377381831023279</v>
       </c>
       <c r="AU15">
+        <f t="shared" si="18"/>
+        <v>9.0545308877989026</v>
+      </c>
+      <c r="AV15">
         <f t="shared" si="17"/>
-        <v>9.0545308877989026</v>
+        <v>2468.6907392855433</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>130.217041959</v>
       </c>
@@ -3080,11 +3144,15 @@
         <v>0.63541849140499895</v>
       </c>
       <c r="AU16">
+        <f t="shared" si="18"/>
+        <v>9.6899493792039024</v>
+      </c>
+      <c r="AV16">
         <f t="shared" si="17"/>
-        <v>9.6899493792039024</v>
+        <v>2718.3804562638197</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>135.49069329700001</v>
       </c>
@@ -3242,11 +3310,15 @@
         <v>-4.0346547606274256E-2</v>
       </c>
       <c r="AU17">
+        <f t="shared" si="18"/>
+        <v>9.6496028315976279</v>
+      </c>
+      <c r="AV17">
         <f t="shared" si="17"/>
-        <v>9.6496028315976279</v>
+        <v>3145.1061590051568</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>130.89123858100001</v>
       </c>
@@ -3404,11 +3476,15 @@
         <v>-1.0164260409063424</v>
       </c>
       <c r="AU18">
+        <f t="shared" si="18"/>
+        <v>8.6331767906912855</v>
+      </c>
+      <c r="AV18">
         <f t="shared" si="17"/>
-        <v>8.6331767906912855</v>
+        <v>3363.7470878818353</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>129.31573498500001</v>
       </c>
@@ -3495,7 +3571,7 @@
         <v>-4.3352486826864656</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>129.56028019199999</v>
       </c>
@@ -3585,7 +3661,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/SMP_2PP.xlsx
+++ b/SMP_2PP.xlsx
@@ -516,7 +516,7 @@
   <dimension ref="A1:AV20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AV3" sqref="AV2:AV3"/>
+      <selection activeCell="AV1" sqref="AV1:AV1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -824,8 +824,8 @@
         <v>0</v>
       </c>
       <c r="AV2">
-        <f>(AQ2*X2-2*X2*(1-0.01*P2-2*0.01*AF2)/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+1+0.08/0.4)+4*2*232000*(-0.4*0.01*AF2-0.08*0.01*P2)/((1-2*0.01*AF2)*0.4*0.08))/1000</f>
-        <v>-2.7326248057628262</v>
+        <f>(AQ2*X2-4*X2*(1-0.01*P2-2*0.01*AF2)*(0.08/0.4)/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+0.08/0.4+1))/1000</f>
+        <v>-1.0930520740821261</v>
       </c>
     </row>
     <row r="3" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -990,8 +990,8 @@
         <v>0.2817455716682068</v>
       </c>
       <c r="AV3">
-        <f>(AQ3*X3-2*X3*(1-0.01*P3-2*0.01*AF3)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+1+0.08/0.4)+4*2*232000*(-0.4*0.01*AF3-0.08*0.01*P3)/((1-2*0.01*AF3)*0.4*0.08))/1000</f>
-        <v>13.842034741405179</v>
+        <f t="shared" ref="AV3:AV18" si="11">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
+        <v>114.01981127127523</v>
       </c>
     </row>
     <row r="4" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1105,7 +1105,7 @@
         <v>1.0250660230199848</v>
       </c>
       <c r="AI4">
-        <f t="shared" ref="AI4:AI18" si="11">-AG4/AH4</f>
+        <f t="shared" ref="AI4:AI18" si="12">-AG4/AH4</f>
         <v>8.3015005034965755E-2</v>
       </c>
       <c r="AJ4">
@@ -1132,23 +1132,23 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP4">
-        <f t="shared" ref="AP4:AP18" si="12">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
+        <f t="shared" ref="AP4:AP18" si="13">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
         <v>1.6545991032687406</v>
       </c>
       <c r="AQ4">
-        <f t="shared" ref="AQ4:AQ18" si="13">(2*AP4+3)/(3-AP4)</f>
+        <f t="shared" ref="AQ4:AQ18" si="14">(2*AP4+3)/(3-AP4)</f>
         <v>4.6894559248965093</v>
       </c>
       <c r="AR4" s="1">
-        <f t="shared" ref="AR4:AR18" si="14">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
+        <f t="shared" ref="AR4:AR18" si="15">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
         <v>-1.6648895594134867E-2</v>
       </c>
       <c r="AS4">
-        <f t="shared" ref="AS4:AS18" si="15">AS3+AR4</f>
+        <f t="shared" ref="AS4:AS18" si="16">AS3+AR4</f>
         <v>1.1382339352961141E-2</v>
       </c>
       <c r="AT4" s="1">
-        <f t="shared" ref="AT4:AT18" si="16">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
+        <f t="shared" ref="AT4:AT18" si="17">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
         <v>0.47647934349449084</v>
       </c>
       <c r="AU4">
@@ -1156,8 +1156,8 @@
         <v>0.75822491516269763</v>
       </c>
       <c r="AV4">
-        <f t="shared" ref="AV4:AV18" si="17">(AQ4*X4-2*X4*(1-0.01*P4-2*0.01*AF4)/(-0.08/0.4*0.01*P4-(2*0.08/0.4+3)*0.01*AF4+1+0.08/0.4)+4*2*232000*(-0.4*0.01*AF4-0.08*0.01*P4)/((1-2*0.01*AF4)*0.4*0.08))/1000</f>
-        <v>116.5989132240631</v>
+        <f t="shared" si="11"/>
+        <v>251.6678481418715</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
@@ -1271,7 +1271,7 @@
         <v>1.0381061181604394</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.17449785739415904</v>
       </c>
       <c r="AJ5">
@@ -1298,23 +1298,23 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5643844234460931</v>
       </c>
       <c r="AQ5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.2690877328064794</v>
       </c>
       <c r="AR5" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-6.2347630149778704E-2</v>
       </c>
       <c r="AS5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-5.0965290796817567E-2</v>
       </c>
       <c r="AT5" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.58429757588206155</v>
       </c>
       <c r="AU5">
@@ -1322,8 +1322,8 @@
         <v>1.3425224910447593</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="17"/>
-        <v>278.60794219441141</v>
+        <f t="shared" si="11"/>
+        <v>415.05186424562578</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
         <v>0.96717202474361086</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-9.9946116066272628E-3</v>
       </c>
       <c r="AJ6">
@@ -1464,23 +1464,23 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5063561750312602</v>
       </c>
       <c r="AQ6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.0255328944893263</v>
       </c>
       <c r="AR6" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.1067560116372384</v>
       </c>
       <c r="AS6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.15772130243405597</v>
       </c>
       <c r="AT6" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.69074122529935211</v>
       </c>
       <c r="AU6">
@@ -1488,8 +1488,8 @@
         <v>2.0332637163441114</v>
       </c>
       <c r="AV6">
-        <f t="shared" si="17"/>
-        <v>420.33230659411947</v>
+        <f t="shared" si="11"/>
+        <v>602.57210447996999</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
@@ -1603,7 +1603,7 @@
         <v>1.041996832840848</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.21082556610103395</v>
       </c>
       <c r="AJ7">
@@ -1630,23 +1630,23 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.4641809111583908</v>
       </c>
       <c r="AQ7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.8600652025937805</v>
       </c>
       <c r="AR7" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.14301945047842349</v>
       </c>
       <c r="AS7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.30074075291247948</v>
       </c>
       <c r="AT7" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.75168361177478182</v>
       </c>
       <c r="AU7">
@@ -1654,8 +1654,8 @@
         <v>2.7849473281188932</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="17"/>
-        <v>630.09803258025659</v>
+        <f t="shared" si="11"/>
+        <v>803.96546328095644</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
@@ -1769,7 +1769,7 @@
         <v>0.99998855800995745</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.7943294740211004E-2</v>
       </c>
       <c r="AJ8">
@@ -1796,23 +1796,23 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.4322228418598042</v>
       </c>
       <c r="AQ8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.7406117656902302</v>
       </c>
       <c r="AR8" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.17066159706563305</v>
       </c>
       <c r="AS8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.47140234997811253</v>
       </c>
       <c r="AT8" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.78321000869993107</v>
       </c>
       <c r="AU8">
@@ -1820,8 +1820,8 @@
         <v>3.5681573368188242</v>
       </c>
       <c r="AV8">
-        <f t="shared" si="17"/>
-        <v>821.17704967003374</v>
+        <f t="shared" si="11"/>
+        <v>1012.1295313641309</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
@@ -1935,7 +1935,7 @@
         <v>1.0553617130474224</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.23930015390931891</v>
       </c>
       <c r="AJ9">
@@ -1962,23 +1962,23 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.406955906635972</v>
       </c>
       <c r="AQ9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.6495611373786385</v>
       </c>
       <c r="AR9" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.19345140101818117</v>
       </c>
       <c r="AS9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.66485375099629374</v>
       </c>
       <c r="AT9" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.80563215614054717</v>
       </c>
       <c r="AU9">
@@ -1986,8 +1986,8 @@
         <v>4.3737894929593715</v>
       </c>
       <c r="AV9">
-        <f t="shared" si="17"/>
-        <v>1054.9875793811993</v>
+        <f t="shared" si="11"/>
+        <v>1227.2449099651203</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
@@ -2101,7 +2101,7 @@
         <v>1.0352243194120527</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.17471783095788221</v>
       </c>
       <c r="AJ10">
@@ -2128,23 +2128,23 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3862244629844778</v>
       </c>
       <c r="AQ10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.5769837834104141</v>
       </c>
       <c r="AR10" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.21220959112109028</v>
       </c>
       <c r="AS10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.87706334211738401</v>
       </c>
       <c r="AT10" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.82054848659974178</v>
       </c>
       <c r="AU10">
@@ -2152,8 +2152,8 @@
         <v>5.1943379795591129</v>
       </c>
       <c r="AV10">
-        <f t="shared" si="17"/>
-        <v>1279.6208639530264</v>
+        <f t="shared" si="11"/>
+        <v>1448.8777227373846</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
@@ -2267,7 +2267,7 @@
         <v>1.0379484386029851</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.16241946842004298</v>
       </c>
       <c r="AJ11">
@@ -2294,23 +2294,23 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3688997705380646</v>
       </c>
       <c r="AQ11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.5177479822738449</v>
       </c>
       <c r="AR11" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.2237601005280776</v>
       </c>
       <c r="AS11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.1008234426454617</v>
       </c>
       <c r="AT11" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.81585598177652952</v>
       </c>
       <c r="AU11">
@@ -2318,8 +2318,8 @@
         <v>6.0101939613356423</v>
       </c>
       <c r="AV11">
-        <f t="shared" si="17"/>
-        <v>1506.2879608218079</v>
+        <f t="shared" si="11"/>
+        <v>1673.5755738617834</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
@@ -2433,7 +2433,7 @@
         <v>1.0544882230215329</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.21886177874595444</v>
       </c>
       <c r="AJ12">
@@ -2460,23 +2460,23 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3542817906462632</v>
       </c>
       <c r="AQ12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.4687369616784176</v>
       </c>
       <c r="AR12" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.23055965642288337</v>
       </c>
       <c r="AS12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.3313830990683451</v>
       </c>
       <c r="AT12" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.801656896125026</v>
       </c>
       <c r="AU12">
@@ -2484,8 +2484,8 @@
         <v>6.8118508574606684</v>
       </c>
       <c r="AV12">
-        <f t="shared" si="17"/>
-        <v>1746.5095874995588</v>
+        <f t="shared" si="11"/>
+        <v>1896.5416417070553</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
@@ -2599,7 +2599,7 @@
         <v>1.0642986262073872</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.23540252112042928</v>
       </c>
       <c r="AJ13">
@@ -2626,23 +2626,23 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3417561426741769</v>
       </c>
       <c r="AQ13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.4274285173677068</v>
       </c>
       <c r="AR13" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.2352871339413046</v>
       </c>
       <c r="AS13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.5666702330096496</v>
       </c>
       <c r="AT13" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.78654843257741813</v>
       </c>
       <c r="AU13">
@@ -2650,8 +2650,8 @@
         <v>7.5983992900380866</v>
       </c>
       <c r="AV13">
-        <f t="shared" si="17"/>
-        <v>1991.2448905208023</v>
+        <f t="shared" si="11"/>
+        <v>2118.2300553388941</v>
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
@@ -2765,7 +2765,7 @@
         <v>1.0679370006731528</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.2473260992016566</v>
       </c>
       <c r="AJ14">
@@ -2792,23 +2792,23 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3310353500514012</v>
       </c>
       <c r="AQ14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.3925647857653449</v>
       </c>
       <c r="AR14" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.22945563153406465</v>
       </c>
       <c r="AS14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.7961258645437141</v>
       </c>
       <c r="AT14" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.74235777945058257</v>
       </c>
       <c r="AU14">
@@ -2816,8 +2816,8 @@
         <v>8.340757069488669</v>
       </c>
       <c r="AV14">
-        <f t="shared" si="17"/>
-        <v>2235.9289745626593</v>
+        <f t="shared" si="11"/>
+        <v>2334.0071823127164</v>
       </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
@@ -2931,7 +2931,7 @@
         <v>1.05124810642066</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.20153214418525628</v>
       </c>
       <c r="AJ15">
@@ -2958,23 +2958,23 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.321816061075151</v>
       </c>
       <c r="AQ15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.3629401350164101</v>
       </c>
       <c r="AR15" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.22677145868919932</v>
       </c>
       <c r="AS15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.0228973232329133</v>
       </c>
       <c r="AT15" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.71377381831023279</v>
       </c>
       <c r="AU15">
@@ -2982,8 +2982,8 @@
         <v>9.0545308877989026</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="17"/>
-        <v>2468.6907392855433</v>
+        <f t="shared" si="11"/>
+        <v>2546.5765981767636</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
@@ -3097,7 +3097,7 @@
         <v>1.1033661893725863</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.31828476154180729</v>
       </c>
       <c r="AJ16">
@@ -3124,23 +3124,23 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3139888388488756</v>
       </c>
       <c r="AQ16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.3380429545052652</v>
       </c>
       <c r="AR16" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.20655425745048661</v>
       </c>
       <c r="AS16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.2294515806834001</v>
       </c>
       <c r="AT16" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.63541849140499895</v>
       </c>
       <c r="AU16">
@@ -3148,8 +3148,8 @@
         <v>9.6899493792039024</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="17"/>
-        <v>2718.3804562638197</v>
+        <f t="shared" si="11"/>
+        <v>2741.3206767852994</v>
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
@@ -3263,7 +3263,7 @@
         <v>1.6020693733590168</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1255851701597877</v>
       </c>
       <c r="AJ17">
@@ -3290,23 +3290,23 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.310714112029983</v>
       </c>
       <c r="AQ17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.3276950124855009</v>
       </c>
       <c r="AR17" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.3240109639902006E-2</v>
       </c>
       <c r="AS17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.2162114710434979</v>
       </c>
       <c r="AT17" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-4.0346547606274256E-2</v>
       </c>
       <c r="AU17">
@@ -3314,8 +3314,8 @@
         <v>9.6496028315976279</v>
       </c>
       <c r="AV17">
-        <f t="shared" si="17"/>
-        <v>3145.1061590051568</v>
+        <f t="shared" si="11"/>
+        <v>2785.6473645563497</v>
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
@@ -3429,7 +3429,7 @@
         <v>1.569123164874151</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0401762966403361</v>
       </c>
       <c r="AJ18">
@@ -3456,23 +3456,23 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3166241574846067</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.3463996409451275</v>
       </c>
       <c r="AR18" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.32788416264200371</v>
       </c>
       <c r="AS18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.8883273084014942</v>
       </c>
       <c r="AT18" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1.0164260409063424</v>
       </c>
       <c r="AU18">
@@ -3480,8 +3480,8 @@
         <v>8.6331767906912855</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="17"/>
-        <v>3363.7470878818353</v>
+        <f t="shared" si="11"/>
+        <v>2582.3878326283307</v>
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">

--- a/SMP_2PP.xlsx
+++ b/SMP_2PP.xlsx
@@ -109,6 +109,54 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D/E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dratio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K_p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev_pla_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev_pla_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deq_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eq_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev/deq_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_n_real_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ev_ela</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -117,6 +165,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>eq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>er_from_ev</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -130,58 +182,6 @@
   </si>
   <si>
     <t>dev/deq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>q</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D/E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dratio</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>K_p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev_pla_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ev_pla_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deq_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>eq_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev/deq_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>eq_pla</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s_n_real_pred</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -516,7 +516,7 @@
   <dimension ref="A1:AV20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AV1" sqref="AV1:AV1048576"/>
+      <selection activeCell="AH3" sqref="AH3:AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -631,64 +631,64 @@
         <v>27</v>
       </c>
       <c r="AC1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK1" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AL1" t="s">
         <v>30</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>36</v>
       </c>
       <c r="AM1" t="s">
         <v>28</v>
       </c>
       <c r="AN1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT1" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AU1" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ1" t="s">
+      <c r="AV1" t="s">
         <v>40</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
@@ -778,16 +778,16 @@
         <v>-2.3187252118361812E-8</v>
       </c>
       <c r="AC2">
-        <f>0.0762*AK2^0.2606-0.5912</f>
-        <v>5.5490531233448603E-3</v>
+        <f>1.34 *((AK2/100000)^0.3-(2594/100000)^0.3)</f>
+        <v>4.9630478843653058E-3</v>
       </c>
       <c r="AD2">
         <f>AB2-AC2</f>
-        <v>-5.5490763105969787E-3</v>
-      </c>
-      <c r="AE2" s="1">
-        <f>P2-AB2/3-2*(1.35*(AK2/3255000)^-0.0723)*(1+0.33)/(9*(1-2*0.33))</f>
-        <v>-1.9605065809796196</v>
+        <v>-4.9630710716174241E-3</v>
+      </c>
+      <c r="AE2" s="2">
+        <f>P2-AB2/3</f>
+        <v>7.7290840394539373E-9</v>
       </c>
       <c r="AF2">
         <f t="shared" ref="AF2:AF18" si="1">AB2-P2/2</f>
@@ -914,36 +914,36 @@
         <f t="shared" si="0"/>
         <v>0.63442165348475132</v>
       </c>
-      <c r="AC3" s="1">
-        <f t="shared" ref="AC3:AC18" si="6">0.0762*AK3^0.2606-0.5912</f>
-        <v>0.59610220278570636</v>
-      </c>
-      <c r="AD3" s="1">
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC18" si="6">1.34 *((AK3/100000)^0.3-(2594/100000)^0.3)</f>
+        <v>0.55202938656764189</v>
+      </c>
+      <c r="AD3">
         <f t="shared" ref="AD3:AD18" si="7">AB3-AC3</f>
-        <v>3.8319450699044966E-2</v>
-      </c>
-      <c r="AE3" s="1">
-        <f t="shared" ref="AE3:AE18" si="8">P3-AB3/3-2*(1.35*(AK3/3255000)^-0.0723)*(1+0.33)/(9*(1-2*0.33))</f>
-        <v>-0.83104656310262048</v>
-      </c>
-      <c r="AF3" s="1">
+        <v>8.2392266917109436E-2</v>
+      </c>
+      <c r="AE3" s="2">
+        <f t="shared" ref="AE3:AE18" si="8">P3-AB3/3</f>
+        <v>0.78881789650508294</v>
+      </c>
+      <c r="AF3">
         <f t="shared" si="1"/>
         <v>0.1342757629847513</v>
       </c>
       <c r="AG3" s="1">
         <f t="shared" ref="AG3:AH18" si="9">AD3-AD2</f>
-        <v>4.3868527009641944E-2</v>
+        <v>8.7355337988726856E-2</v>
       </c>
       <c r="AH3" s="1">
         <f t="shared" si="9"/>
-        <v>1.1294600178769991</v>
-      </c>
-      <c r="AI3" s="1">
-        <f>-AG3/AH3</f>
-        <v>-3.8840265538659671E-2</v>
+        <v>0.7888178887759989</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI18" si="10">-AG3/AH3</f>
+        <v>-0.11074208538079086</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ18" si="10">(( 1.588*EXP(-0.0005387*2*232))^2-AP3^2)/(2*AP3)+0.4</f>
+        <f t="shared" ref="AJ3:AJ18" si="11">(( 1.588*EXP(-0.0005387*2*232))^2-AP3^2)/(2*AP3)+0.4</f>
         <v>-9.9491306220445497E-2</v>
       </c>
       <c r="AK3" s="1">
@@ -990,7 +990,7 @@
         <v>0.2817455716682068</v>
       </c>
       <c r="AV3">
-        <f t="shared" ref="AV3:AV18" si="11">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
+        <f t="shared" ref="AV3:AV18" si="12">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
         <v>114.01981127127523</v>
       </c>
     </row>
@@ -1082,34 +1082,34 @@
       </c>
       <c r="AC4">
         <f t="shared" si="6"/>
-        <v>0.96615359553846103</v>
+        <v>0.91864245997976202</v>
       </c>
       <c r="AD4">
         <f t="shared" si="7"/>
-        <v>-4.6776410363131404E-2</v>
-      </c>
-      <c r="AE4" s="1">
+        <v>7.3472519556760929E-4</v>
+      </c>
+      <c r="AE4" s="2">
         <f t="shared" si="8"/>
-        <v>0.19401945991736436</v>
+        <v>1.6964328109948899</v>
       </c>
       <c r="AF4">
         <f t="shared" si="1"/>
         <v>-8.2068751184670274E-2</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="1">
         <f t="shared" si="9"/>
-        <v>-8.509586106217637E-2</v>
-      </c>
-      <c r="AH4">
+        <v>-8.1657541721541826E-2</v>
+      </c>
+      <c r="AH4" s="1">
         <f t="shared" si="9"/>
-        <v>1.0250660230199848</v>
+        <v>0.90761491448980691</v>
       </c>
       <c r="AI4">
-        <f t="shared" ref="AI4:AI18" si="12">-AG4/AH4</f>
-        <v>8.3015005034965755E-2</v>
+        <f t="shared" si="10"/>
+        <v>8.9969369627914908E-2</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.4941484497590602E-2</v>
       </c>
       <c r="AK4">
@@ -1156,7 +1156,7 @@
         <v>0.75822491516269763</v>
       </c>
       <c r="AV4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>251.6678481418715</v>
       </c>
     </row>
@@ -1248,34 +1248,34 @@
       </c>
       <c r="AC5">
         <f t="shared" si="6"/>
-        <v>1.2391378019487003</v>
+        <v>1.1979057457656637</v>
       </c>
       <c r="AD5">
         <f t="shared" si="7"/>
-        <v>-0.22792370372989579</v>
-      </c>
-      <c r="AE5" s="1">
+        <v>-0.18669164754685919</v>
+      </c>
+      <c r="AE5" s="2">
         <f t="shared" si="8"/>
-        <v>1.2321255780778038</v>
+        <v>2.6687025817170649</v>
       </c>
       <c r="AF5">
         <f t="shared" si="1"/>
         <v>-0.49167287567619544</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="1">
         <f t="shared" si="9"/>
-        <v>-0.18114729336676438</v>
-      </c>
-      <c r="AH5">
+        <v>-0.18742637274242679</v>
+      </c>
+      <c r="AH5" s="1">
         <f t="shared" si="9"/>
-        <v>1.0381061181604394</v>
+        <v>0.97226977072217502</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="12"/>
-        <v>0.17449785739415904</v>
+        <f t="shared" si="10"/>
+        <v>0.19277198405871621</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.10670526923829532</v>
       </c>
       <c r="AK5">
@@ -1322,7 +1322,7 @@
         <v>1.3425224910447593</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>415.05186424562578</v>
       </c>
     </row>
@@ -1414,34 +1414,34 @@
       </c>
       <c r="AC6">
         <f t="shared" si="6"/>
-        <v>1.4691016566423298</v>
+        <v>1.4381499543859098</v>
       </c>
       <c r="AD6">
         <f t="shared" si="7"/>
-        <v>-0.21825719498578811</v>
-      </c>
-      <c r="AE6" s="1">
+        <v>-0.18730549272936803</v>
+      </c>
+      <c r="AE6" s="2">
         <f t="shared" si="8"/>
-        <v>2.1992976028214146</v>
+        <v>3.5894703995944859</v>
       </c>
       <c r="AF6">
         <f t="shared" si="1"/>
         <v>-0.75236481508345809</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="1">
         <f t="shared" si="9"/>
-        <v>9.6665087441076825E-3</v>
-      </c>
-      <c r="AH6">
+        <v>-6.1384518250884312E-4</v>
+      </c>
+      <c r="AH6" s="1">
         <f t="shared" si="9"/>
-        <v>0.96717202474361086</v>
+        <v>0.92076781787742101</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="12"/>
-        <v>-9.9946116066272628E-3</v>
+        <f t="shared" si="10"/>
+        <v>6.6666663472654346E-4</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.15455283067978554</v>
       </c>
       <c r="AK6">
@@ -1488,7 +1488,7 @@
         <v>2.0332637163441114</v>
       </c>
       <c r="AV6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>602.57210447996999</v>
       </c>
     </row>
@@ -1580,34 +1580,34 @@
       </c>
       <c r="AC7">
         <f t="shared" si="6"/>
-        <v>1.6630996157960289</v>
+        <v>1.6440211510990856</v>
       </c>
       <c r="AD7">
         <f t="shared" si="7"/>
-        <v>-0.43793676714494434</v>
-      </c>
-      <c r="AE7" s="1">
+        <v>-0.41885830244800104</v>
+      </c>
+      <c r="AE7" s="2">
         <f t="shared" si="8"/>
-        <v>3.2412944356622626</v>
+        <v>4.5971902850329718</v>
       </c>
       <c r="AF7">
         <f t="shared" si="1"/>
         <v>-1.2776261019739152</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="1">
         <f t="shared" si="9"/>
-        <v>-0.21967957215915623</v>
-      </c>
-      <c r="AH7">
+        <v>-0.23155280971863301</v>
+      </c>
+      <c r="AH7" s="1">
         <f t="shared" si="9"/>
-        <v>1.041996832840848</v>
+        <v>1.0077198854384859</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="12"/>
-        <v>0.21082556610103395</v>
+        <f t="shared" si="10"/>
+        <v>0.2297789426055418</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.1902654896795524</v>
       </c>
       <c r="AK7">
@@ -1654,7 +1654,7 @@
         <v>2.7849473281188932</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>803.96546328095644</v>
       </c>
     </row>
@@ -1746,34 +1746,34 @@
       </c>
       <c r="AC8">
         <f t="shared" si="6"/>
-        <v>1.828926607234642</v>
+        <v>1.8221442627669238</v>
       </c>
       <c r="AD8">
         <f t="shared" si="7"/>
-        <v>-0.53587894121895219</v>
-      </c>
-      <c r="AE8" s="1">
+        <v>-0.52909659675123399</v>
+      </c>
+      <c r="AE8" s="2">
         <f t="shared" si="8"/>
-        <v>4.2412829936722201</v>
+        <v>5.5707389170981036</v>
       </c>
       <c r="AF8">
         <f t="shared" si="1"/>
         <v>-1.7078297368693103</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="1">
         <f t="shared" si="9"/>
-        <v>-9.7942174074007848E-2</v>
-      </c>
-      <c r="AH8">
+        <v>-0.11023829430323295</v>
+      </c>
+      <c r="AH8" s="1">
         <f t="shared" si="9"/>
-        <v>0.99998855800995745</v>
+        <v>0.97354863206513187</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="12"/>
-        <v>9.7943294740211004E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.11323347460248688</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.21790017386130991</v>
       </c>
       <c r="AK8">
@@ -1820,7 +1820,7 @@
         <v>3.5681573368188242</v>
       </c>
       <c r="AV8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1012.1295313641309</v>
       </c>
     </row>
@@ -1912,34 +1912,34 @@
       </c>
       <c r="AC9">
         <f t="shared" si="6"/>
-        <v>1.9743099834070483</v>
+        <v>1.9798384701302365</v>
       </c>
       <c r="AD9">
         <f t="shared" si="7"/>
-        <v>-0.78842716158120285</v>
-      </c>
-      <c r="AE9" s="1">
+        <v>-0.79395564830439103</v>
+      </c>
+      <c r="AE9" s="2">
         <f t="shared" si="8"/>
-        <v>5.2966447067196425</v>
+        <v>6.6047566541380522</v>
       </c>
       <c r="AF9">
         <f t="shared" si="1"/>
         <v>-2.3141426422141547</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" s="1">
         <f t="shared" si="9"/>
-        <v>-0.25254822036225066</v>
-      </c>
-      <c r="AH9">
+        <v>-0.26485905155315703</v>
+      </c>
+      <c r="AH9" s="1">
         <f t="shared" si="9"/>
-        <v>1.0553617130474224</v>
+        <v>1.0340177370399486</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="12"/>
-        <v>0.23930015390931891</v>
+        <f t="shared" si="10"/>
+        <v>0.25614555927382932</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.24012373332381304</v>
       </c>
       <c r="AK9">
@@ -1986,7 +1986,7 @@
         <v>4.3737894929593715</v>
       </c>
       <c r="AV9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1227.2449099651203</v>
       </c>
     </row>
@@ -2078,34 +2078,34 @@
       </c>
       <c r="AC10">
         <f t="shared" si="6"/>
-        <v>2.1038930320441249</v>
+        <v>2.1215406130701688</v>
       </c>
       <c r="AD10">
         <f t="shared" si="7"/>
-        <v>-0.96929930922372654</v>
-      </c>
-      <c r="AE10" s="1">
+        <v>-0.98694689024977045</v>
+      </c>
+      <c r="AE10" s="2">
         <f t="shared" si="8"/>
-        <v>6.3318690261316952</v>
+        <v>7.6222196992331996</v>
       </c>
       <c r="AF10">
         <f t="shared" si="1"/>
         <v>-2.8656150805996012</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="1">
         <f t="shared" si="9"/>
-        <v>-0.18087214764252368</v>
-      </c>
-      <c r="AH10">
+        <v>-0.19299124194537942</v>
+      </c>
+      <c r="AH10" s="1">
         <f t="shared" si="9"/>
-        <v>1.0352243194120527</v>
+        <v>1.0174630450951474</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="12"/>
-        <v>0.17471783095788221</v>
+        <f t="shared" si="10"/>
+        <v>0.18967887126291841</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.2586191975083183</v>
       </c>
       <c r="AK10">
@@ -2152,7 +2152,7 @@
         <v>5.1943379795591129</v>
       </c>
       <c r="AV10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1448.8777227373846</v>
       </c>
     </row>
@@ -2244,34 +2244,34 @@
       </c>
       <c r="AC11">
         <f t="shared" si="6"/>
-        <v>2.218951665718996</v>
+        <v>2.2482280834731423</v>
       </c>
       <c r="AD11">
         <f t="shared" si="7"/>
-        <v>-1.137882342869037</v>
-      </c>
-      <c r="AE11" s="1">
+        <v>-1.1671587606231832</v>
+      </c>
+      <c r="AE11" s="2">
         <f t="shared" si="8"/>
-        <v>7.3698174647346804</v>
+        <v>8.6452885353400131</v>
       </c>
       <c r="AF11">
         <f t="shared" si="1"/>
         <v>-3.421753165295041</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="1">
         <f t="shared" si="9"/>
-        <v>-0.16858303364531046</v>
-      </c>
-      <c r="AH11">
+        <v>-0.1802118703734128</v>
+      </c>
+      <c r="AH11" s="1">
         <f t="shared" si="9"/>
-        <v>1.0379484386029851</v>
+        <v>1.0230688361068134</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="12"/>
-        <v>0.16241946842004298</v>
+        <f t="shared" si="10"/>
+        <v>0.1761483333410791</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.27426421516312105</v>
       </c>
       <c r="AK11">
@@ -2318,7 +2318,7 @@
         <v>6.0101939613356423</v>
       </c>
       <c r="AV11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1673.5755738617834</v>
       </c>
     </row>
@@ -2410,34 +2410,34 @@
       </c>
       <c r="AC12">
         <f t="shared" si="6"/>
-        <v>2.3215897022303</v>
+        <v>2.3619044786509447</v>
       </c>
       <c r="AD12">
         <f t="shared" si="7"/>
-        <v>-1.3686695110261904</v>
-      </c>
-      <c r="AE12" s="1">
+        <v>-1.408984287446835</v>
+      </c>
+      <c r="AE12" s="2">
         <f t="shared" si="8"/>
-        <v>8.4243056877562132</v>
+        <v>9.6871456706652967</v>
       </c>
       <c r="AF12">
         <f t="shared" si="1"/>
         <v>-4.0494726759958901</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" s="1">
         <f t="shared" si="9"/>
-        <v>-0.23078716815715339</v>
-      </c>
-      <c r="AH12">
+        <v>-0.24182552682365177</v>
+      </c>
+      <c r="AH12" s="1">
         <f t="shared" si="9"/>
-        <v>1.0544882230215329</v>
+        <v>1.0418571353252837</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="12"/>
-        <v>0.21886177874595444</v>
+        <f t="shared" si="10"/>
+        <v>0.23211006444578428</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.28760390827714577</v>
       </c>
       <c r="AK12">
@@ -2484,7 +2484,7 @@
         <v>6.8118508574606684</v>
       </c>
       <c r="AV12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1896.5416417070553</v>
       </c>
     </row>
@@ -2576,34 +2576,34 @@
       </c>
       <c r="AC13">
         <f t="shared" si="6"/>
-        <v>2.4142041162602155</v>
+        <v>2.4650010136205767</v>
       </c>
       <c r="AD13">
         <f t="shared" si="7"/>
-        <v>-1.6192080908604187</v>
-      </c>
-      <c r="AE13" s="1">
+        <v>-1.6700049882207799</v>
+      </c>
+      <c r="AE13" s="2">
         <f t="shared" si="8"/>
-        <v>9.4886043139636005</v>
+        <v>10.740525300466734</v>
       </c>
       <c r="AF13">
         <f t="shared" si="1"/>
         <v>-4.7077659624002024</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" s="1">
         <f t="shared" si="9"/>
-        <v>-0.25053857983422834</v>
-      </c>
-      <c r="AH13">
+        <v>-0.2610207007739449</v>
+      </c>
+      <c r="AH13" s="1">
         <f t="shared" si="9"/>
-        <v>1.0642986262073872</v>
+        <v>1.0533796298014373</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="12"/>
-        <v>0.23540252112042928</v>
+        <f t="shared" si="10"/>
+        <v>0.24779357165198596</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.29913877416333912</v>
       </c>
       <c r="AK13">
@@ -2650,7 +2650,7 @@
         <v>7.5983992900380866</v>
       </c>
       <c r="AV13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2118.2300553388941</v>
       </c>
     </row>
@@ -2742,34 +2742,34 @@
       </c>
       <c r="AC14">
         <f t="shared" si="6"/>
-        <v>2.4955131619767847</v>
+        <v>2.5559099955632094</v>
       </c>
       <c r="AD14">
         <f t="shared" si="7"/>
-        <v>-1.8833367834300265</v>
-      </c>
-      <c r="AE14" s="1">
+        <v>-1.9437336170164512</v>
+      </c>
+      <c r="AE14" s="2">
         <f t="shared" si="8"/>
-        <v>10.556541314636753</v>
+        <v>11.799224683651081</v>
       </c>
       <c r="AF14">
         <f t="shared" si="1"/>
         <v>-5.3894653597032418</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" s="1">
         <f t="shared" si="9"/>
-        <v>-0.2641286925696078</v>
-      </c>
-      <c r="AH14">
+        <v>-0.27372862879567128</v>
+      </c>
+      <c r="AH14" s="1">
         <f t="shared" si="9"/>
-        <v>1.0679370006731528</v>
+        <v>1.0586993831843472</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="12"/>
-        <v>0.2473260992016566</v>
+        <f t="shared" si="10"/>
+        <v>0.25855179774673392</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.3090903576222831</v>
       </c>
       <c r="AK14">
@@ -2816,7 +2816,7 @@
         <v>8.340757069488669</v>
       </c>
       <c r="AV14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2334.0071823127164</v>
       </c>
     </row>
@@ -2908,34 +2908,34 @@
       </c>
       <c r="AC15">
         <f t="shared" si="6"/>
-        <v>2.5689381765791115</v>
+        <v>2.6383160723024259</v>
       </c>
       <c r="AD15">
         <f t="shared" si="7"/>
-        <v>-2.0951970683876726</v>
-      </c>
-      <c r="AE15" s="1">
+        <v>-2.164574964110987</v>
+      </c>
+      <c r="AE15" s="2">
         <f t="shared" si="8"/>
-        <v>11.607789421057413</v>
+        <v>12.842394085569522</v>
       </c>
       <c r="AF15">
         <f t="shared" si="1"/>
         <v>-6.026412785958561</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" s="1">
         <f t="shared" si="9"/>
-        <v>-0.21186028495764608</v>
-      </c>
-      <c r="AH15">
+        <v>-0.22084134709453584</v>
+      </c>
+      <c r="AH15" s="1">
         <f t="shared" si="9"/>
-        <v>1.05124810642066</v>
+        <v>1.0431694019184405</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="12"/>
-        <v>0.20153214418525628</v>
+        <f t="shared" si="10"/>
+        <v>0.21170228602219121</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.31770772879572884</v>
       </c>
       <c r="AK15">
@@ -2982,7 +2982,7 @@
         <v>9.0545308877989026</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2546.5765981767636</v>
       </c>
     </row>
@@ -3074,34 +3074,34 @@
       </c>
       <c r="AC16">
         <f t="shared" si="6"/>
-        <v>2.6308884549549374</v>
+        <v>2.7080696681794678</v>
       </c>
       <c r="AD16">
         <f t="shared" si="7"/>
-        <v>-2.4463817128654188</v>
-      </c>
-      <c r="AE16" s="1">
+        <v>-2.5235629260899493</v>
+      </c>
+      <c r="AE16" s="2">
         <f t="shared" si="8"/>
-        <v>12.71115561043</v>
+        <v>13.939128383436827</v>
       </c>
       <c r="AF16">
         <f t="shared" si="1"/>
         <v>-6.8158085733104814</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" s="1">
         <f t="shared" si="9"/>
-        <v>-0.35118464447774622</v>
-      </c>
-      <c r="AH16">
+        <v>-0.35898796197896221</v>
+      </c>
+      <c r="AH16" s="1">
         <f t="shared" si="9"/>
-        <v>1.1033661893725863</v>
+        <v>1.0967342978673056</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="12"/>
-        <v>0.31828476154180729</v>
+        <f t="shared" si="10"/>
+        <v>0.32732446015141975</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.32506806182767251</v>
       </c>
       <c r="AK16">
@@ -3148,7 +3148,7 @@
         <v>9.6899493792039024</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2741.3206767852994</v>
       </c>
     </row>
@@ -3240,34 +3240,34 @@
       </c>
       <c r="AC17">
         <f t="shared" si="6"/>
-        <v>2.6270429249761014</v>
+        <v>2.7037338057634561</v>
       </c>
       <c r="AD17">
         <f t="shared" si="7"/>
-        <v>-4.249647241085512</v>
-      </c>
-      <c r="AE17" s="1">
+        <v>-4.3263381218728671</v>
+      </c>
+      <c r="AE17" s="2">
         <f t="shared" si="8"/>
-        <v>14.313224983789016</v>
+        <v>15.541604670769804</v>
       </c>
       <c r="AF17">
         <f t="shared" si="1"/>
         <v>-9.1229725988094117</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" s="1">
         <f t="shared" si="9"/>
-        <v>-1.8032655282200931</v>
-      </c>
-      <c r="AH17">
+        <v>-1.8027751957829179</v>
+      </c>
+      <c r="AH17" s="1">
         <f t="shared" si="9"/>
-        <v>1.6020693733590168</v>
+        <v>1.6024762873329763</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="12"/>
-        <v>1.1255851701597877</v>
+        <f t="shared" si="10"/>
+        <v>1.1249933680973849</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.32815966731793039</v>
       </c>
       <c r="AK17">
@@ -3314,7 +3314,7 @@
         <v>9.6496028315976279</v>
       </c>
       <c r="AV17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2785.6473645563497</v>
       </c>
     </row>
@@ -3406,34 +3406,34 @@
       </c>
       <c r="AC18">
         <f t="shared" si="6"/>
-        <v>2.5261182828034796</v>
+        <v>2.590222998070026</v>
       </c>
       <c r="AD18">
         <f t="shared" si="7"/>
-        <v>-5.8818119636968698</v>
-      </c>
-      <c r="AE18" s="1">
+        <v>-5.9459166789634157</v>
+      </c>
+      <c r="AE18" s="2">
         <f t="shared" si="8"/>
-        <v>15.882348148663167</v>
+        <v>17.121634609997798</v>
       </c>
       <c r="AF18">
         <f t="shared" si="1"/>
         <v>-11.35722870574339</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" s="1">
         <f t="shared" si="9"/>
-        <v>-1.6321647226113578</v>
-      </c>
-      <c r="AH18">
+        <v>-1.6195785570905485</v>
+      </c>
+      <c r="AH18" s="1">
         <f t="shared" si="9"/>
-        <v>1.569123164874151</v>
+        <v>1.5800299392279946</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="12"/>
-        <v>1.0401762966403361</v>
+        <f t="shared" si="10"/>
+        <v>1.025030296503038</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.32258536228531792</v>
       </c>
       <c r="AK18">
@@ -3480,7 +3480,7 @@
         <v>8.6331767906912855</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2582.3878326283307</v>
       </c>
     </row>

--- a/SMP_2PP.xlsx
+++ b/SMP_2PP.xlsx
@@ -105,10 +105,6 @@
     <t>ev</t>
   </si>
   <si>
-    <t>K_phi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>p</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -182,6 +178,10 @@
   </si>
   <si>
     <t>dev/deq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K_phi</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -516,7 +516,7 @@
   <dimension ref="A1:AV20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AH3" sqref="AH3:AH15"/>
+      <selection activeCell="AM1" sqref="AM1:AM1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -631,64 +631,64 @@
         <v>27</v>
       </c>
       <c r="AC1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD1" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" t="s">
         <v>43</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>46</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM1" t="s">
         <v>47</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AN1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV1" t="s">
         <v>39</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
@@ -793,9 +793,9 @@
         <f t="shared" ref="AF2:AF18" si="1">AB2-P2/2</f>
         <v>-2.3187252118361812E-8</v>
       </c>
-      <c r="AJ2" t="e">
+      <c r="AJ2">
         <f>(( 1.588*EXP(-0.0005387*2*232))^2-AP2^2)/(2*AP2)+0.4</f>
-        <v>#DIV/0!</v>
+        <v>0.4382839127048892</v>
       </c>
       <c r="AK2">
         <f t="shared" ref="AK2:AK18" si="2">(X2+Y2+Z2)/3</f>
@@ -805,17 +805,21 @@
         <f t="shared" ref="AL2:AL18" si="3">Z2-(Y2+X2)/2</f>
         <v>3226.8073422049997</v>
       </c>
-      <c r="AM2" s="1" t="e">
-        <f t="shared" ref="AM2:AM18" si="4">(-2*AJ2-3)/(-2*AJ2+6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN2" t="e">
-        <f t="shared" ref="AN2:AN18" si="5">1/(2+AM2*AQ2-2*0.33*(1+AM2+AQ2))</f>
-        <v>#DIV/0!</v>
+      <c r="AM2" s="1">
+        <f>(-2*AI2-3)/(-2*AI2+6)</f>
+        <v>-0.5</v>
+      </c>
+      <c r="AN2">
+        <f t="shared" ref="AN2:AN18" si="4">1/(2+AM2*AQ2-2*0.33*(1+AM2+AQ2))</f>
+        <v>0.5988023952095809</v>
       </c>
       <c r="AO2" s="1" t="e">
         <f>3*(1-2*0.33)*(AK2-AK1)/(AC2-AC1)</f>
         <v>#VALUE!</v>
+      </c>
+      <c r="AP2">
+        <f>AL2/AK2</f>
+        <v>1.1990975425173505</v>
       </c>
       <c r="AS2">
         <v>0</v>
@@ -915,15 +919,15 @@
         <v>0.63442165348475132</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC18" si="6">1.34 *((AK3/100000)^0.3-(2594/100000)^0.3)</f>
+        <f t="shared" ref="AC3:AC18" si="5">1.34 *((AK3/100000)^0.3-(2594/100000)^0.3)</f>
         <v>0.55202938656764189</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD18" si="7">AB3-AC3</f>
+        <f t="shared" ref="AD3:AD18" si="6">AB3-AC3</f>
         <v>8.2392266917109436E-2</v>
       </c>
       <c r="AE3" s="2">
-        <f t="shared" ref="AE3:AE18" si="8">P3-AB3/3</f>
+        <f t="shared" ref="AE3:AE18" si="7">P3-AB3/3</f>
         <v>0.78881789650508294</v>
       </c>
       <c r="AF3">
@@ -931,20 +935,20 @@
         <v>0.1342757629847513</v>
       </c>
       <c r="AG3" s="1">
-        <f t="shared" ref="AG3:AH18" si="9">AD3-AD2</f>
+        <f t="shared" ref="AG3:AH18" si="8">AD3-AD2</f>
         <v>8.7355337988726856E-2</v>
       </c>
       <c r="AH3" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.7888178887759989</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AI18" si="10">-AG3/AH3</f>
+        <f t="shared" ref="AI3:AI18" si="9">-AG3/AH3</f>
         <v>-0.11074208538079086</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ18" si="11">(( 1.588*EXP(-0.0005387*2*232))^2-AP3^2)/(2*AP3)+0.4</f>
-        <v>-9.9491306220445497E-2</v>
+        <f t="shared" ref="AJ3:AJ18" si="10">(( 1.588*EXP(-0.0005387*2*232))^2-AP3^2)/(2*AP3)+0.4</f>
+        <v>0.41168556181764598</v>
       </c>
       <c r="AK3" s="1">
         <f t="shared" si="2"/>
@@ -955,43 +959,43 @@
         <v>46193.277502650002</v>
       </c>
       <c r="AM3" s="1">
+        <f>(-2*AI3-3)/(-2*AI3+6)</f>
+        <v>-0.44660016050451445</v>
+      </c>
+      <c r="AN3" s="1">
         <f t="shared" si="4"/>
-        <v>-0.45185114440193436</v>
-      </c>
-      <c r="AN3" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.21207895771974564</v>
+        <v>-0.56706196267877862</v>
       </c>
       <c r="AO3" s="3">
         <v>162709.28305112128</v>
       </c>
-      <c r="AP3" s="1">
-        <f>(AK3*1.35*(AK3/3255000)^-0.0723-AK2*1.35*(AK2/3255000)^-0.0723)/(AK3-AK2)</f>
-        <v>1.8333349150238609</v>
+      <c r="AP3">
+        <f>AL3/AK3</f>
+        <v>1.2251587129845241</v>
       </c>
       <c r="AQ3" s="1">
         <f>(2*AP3+3)/(3-AP3)</f>
-        <v>5.7142961728250148</v>
+        <v>3.0708759514683996</v>
       </c>
       <c r="AR3" s="1">
         <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>2.8031234947096008E-2</v>
+        <v>1.7895882157900354E-2</v>
       </c>
       <c r="AS3" s="1">
         <f>(AS2+AR3)</f>
-        <v>2.8031234947096008E-2</v>
+        <v>1.7895882157900354E-2</v>
       </c>
       <c r="AT3" s="1">
         <f>2*(1-AM3)*(AK3-AK2)*(1-AP3/3)/(9*AN3*AO3*AM3)</f>
-        <v>0.2817455716682068</v>
+        <v>0.16159964927845355</v>
       </c>
       <c r="AU3" s="1">
         <f>AU2+AT3</f>
-        <v>0.2817455716682068</v>
+        <v>0.16159964927845355</v>
       </c>
       <c r="AV3">
-        <f t="shared" ref="AV3:AV18" si="12">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
-        <v>114.01981127127523</v>
+        <f t="shared" ref="AV3:AV18" si="11">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
+        <v>54.365336687304591</v>
       </c>
     </row>
     <row r="4" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1081,15 +1085,15 @@
         <v>0.91937718517532963</v>
       </c>
       <c r="AC4">
+        <f t="shared" si="5"/>
+        <v>0.91864245997976202</v>
+      </c>
+      <c r="AD4">
         <f t="shared" si="6"/>
-        <v>0.91864245997976202</v>
-      </c>
-      <c r="AD4">
+        <v>7.3472519556760929E-4</v>
+      </c>
+      <c r="AE4" s="2">
         <f t="shared" si="7"/>
-        <v>7.3472519556760929E-4</v>
-      </c>
-      <c r="AE4" s="2">
-        <f t="shared" si="8"/>
         <v>1.6964328109948899</v>
       </c>
       <c r="AF4">
@@ -1097,20 +1101,20 @@
         <v>-8.2068751184670274E-2</v>
       </c>
       <c r="AG4" s="1">
+        <f t="shared" si="8"/>
+        <v>-8.1657541721541826E-2</v>
+      </c>
+      <c r="AH4" s="1">
+        <f t="shared" si="8"/>
+        <v>0.90761491448980691</v>
+      </c>
+      <c r="AI4">
         <f t="shared" si="9"/>
-        <v>-8.1657541721541826E-2</v>
-      </c>
-      <c r="AH4" s="1">
-        <f t="shared" si="9"/>
-        <v>0.90761491448980691</v>
-      </c>
-      <c r="AI4">
+        <v>8.9969369627914908E-2</v>
+      </c>
+      <c r="AJ4">
         <f t="shared" si="10"/>
-        <v>8.9969369627914908E-2</v>
-      </c>
-      <c r="AJ4">
-        <f t="shared" si="11"/>
-        <v>3.4941484497590602E-2</v>
+        <v>0.35904075542480302</v>
       </c>
       <c r="AK4">
         <f t="shared" si="2"/>
@@ -1121,43 +1125,43 @@
         <v>136519.75885225</v>
       </c>
       <c r="AM4" s="1">
+        <f t="shared" ref="AM4:AM18" si="12">(-2*AI4-3)/(-2*AI4+6)</f>
+        <v>-0.54637547558206179</v>
+      </c>
+      <c r="AN4">
         <f t="shared" si="4"/>
-        <v>-0.51767662475204301</v>
-      </c>
-      <c r="AN4">
-        <f t="shared" si="5"/>
-        <v>-0.26034913500155066</v>
+        <v>-0.45593376239768474</v>
       </c>
       <c r="AO4" s="3">
         <v>162709.28305112128</v>
       </c>
       <c r="AP4">
-        <f t="shared" ref="AP4:AP18" si="13">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
-        <v>1.6545991032687406</v>
+        <f t="shared" ref="AP4:AP18" si="13">AL4/AK4</f>
+        <v>1.2784263623088694</v>
       </c>
       <c r="AQ4">
         <f t="shared" ref="AQ4:AQ18" si="14">(2*AP4+3)/(3-AP4)</f>
-        <v>4.6894559248965093</v>
+        <v>3.227775218532186</v>
       </c>
       <c r="AR4" s="1">
         <f t="shared" ref="AR4:AR18" si="15">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>-1.6648895594134867E-2</v>
+        <v>-3.023918610960153E-2</v>
       </c>
       <c r="AS4">
         <f t="shared" ref="AS4:AS18" si="16">AS3+AR4</f>
-        <v>1.1382339352961141E-2</v>
+        <v>-1.2343303951701176E-2</v>
       </c>
       <c r="AT4" s="1">
         <f t="shared" ref="AT4:AT18" si="17">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
-        <v>0.47647934349449084</v>
+        <v>0.33610534601566383</v>
       </c>
       <c r="AU4">
         <f>AU3+AT4</f>
-        <v>0.75822491516269763</v>
+        <v>0.49770499529411738</v>
       </c>
       <c r="AV4">
-        <f t="shared" si="12"/>
-        <v>251.6678481418715</v>
+        <f t="shared" si="11"/>
+        <v>160.48713074337977</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
@@ -1247,15 +1251,15 @@
         <v>1.0112140982188045</v>
       </c>
       <c r="AC5">
+        <f t="shared" si="5"/>
+        <v>1.1979057457656637</v>
+      </c>
+      <c r="AD5">
         <f t="shared" si="6"/>
-        <v>1.1979057457656637</v>
-      </c>
-      <c r="AD5">
+        <v>-0.18669164754685919</v>
+      </c>
+      <c r="AE5" s="2">
         <f t="shared" si="7"/>
-        <v>-0.18669164754685919</v>
-      </c>
-      <c r="AE5" s="2">
-        <f t="shared" si="8"/>
         <v>2.6687025817170649</v>
       </c>
       <c r="AF5">
@@ -1263,20 +1267,20 @@
         <v>-0.49167287567619544</v>
       </c>
       <c r="AG5" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.18742637274242679</v>
+      </c>
+      <c r="AH5" s="1">
+        <f t="shared" si="8"/>
+        <v>0.97226977072217502</v>
+      </c>
+      <c r="AI5">
         <f t="shared" si="9"/>
-        <v>-0.18742637274242679</v>
-      </c>
-      <c r="AH5" s="1">
-        <f t="shared" si="9"/>
-        <v>0.97226977072217502</v>
-      </c>
-      <c r="AI5">
+        <v>0.19277198405871621</v>
+      </c>
+      <c r="AJ5">
         <f t="shared" si="10"/>
-        <v>0.19277198405871621</v>
-      </c>
-      <c r="AJ5">
-        <f t="shared" si="11"/>
-        <v>0.10670526923829532</v>
+        <v>0.33228093927339025</v>
       </c>
       <c r="AK5">
         <f t="shared" si="2"/>
@@ -1287,43 +1291,43 @@
         <v>259266.52142049998</v>
       </c>
       <c r="AM5" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.60300480561110303</v>
+      </c>
+      <c r="AN5">
         <f t="shared" si="4"/>
-        <v>-0.55532029010238626</v>
-      </c>
-      <c r="AN5">
-        <f t="shared" si="5"/>
-        <v>-0.28720796815823474</v>
+        <v>-0.40856094182579328</v>
       </c>
       <c r="AO5" s="3">
         <v>162709.28305112128</v>
       </c>
       <c r="AP5">
         <f t="shared" si="13"/>
-        <v>1.5643844234460931</v>
+        <v>1.3063606872439839</v>
       </c>
       <c r="AQ5">
         <f t="shared" si="14"/>
-        <v>4.2690877328064794</v>
+        <v>3.3140004085961667</v>
       </c>
       <c r="AR5" s="1">
         <f t="shared" si="15"/>
-        <v>-6.2347630149778704E-2</v>
+        <v>-8.8662129861149186E-2</v>
       </c>
       <c r="AS5">
         <f t="shared" si="16"/>
-        <v>-5.0965290796817567E-2</v>
+        <v>-0.10100543381285036</v>
       </c>
       <c r="AT5" s="1">
         <f t="shared" si="17"/>
-        <v>0.58429757588206155</v>
+        <v>0.45993265200893335</v>
       </c>
       <c r="AU5">
         <f>AU4+AT5</f>
-        <v>1.3425224910447593</v>
+        <v>0.95763764730305079</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="12"/>
-        <v>415.05186424562578</v>
+        <f t="shared" si="11"/>
+        <v>305.59690770020325</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
@@ -1413,15 +1417,15 @@
         <v>1.2508444616565417</v>
       </c>
       <c r="AC6">
+        <f t="shared" si="5"/>
+        <v>1.4381499543859098</v>
+      </c>
+      <c r="AD6">
         <f t="shared" si="6"/>
-        <v>1.4381499543859098</v>
-      </c>
-      <c r="AD6">
+        <v>-0.18730549272936803</v>
+      </c>
+      <c r="AE6" s="2">
         <f t="shared" si="7"/>
-        <v>-0.18730549272936803</v>
-      </c>
-      <c r="AE6" s="2">
-        <f t="shared" si="8"/>
         <v>3.5894703995944859</v>
       </c>
       <c r="AF6">
@@ -1429,20 +1433,20 @@
         <v>-0.75236481508345809</v>
       </c>
       <c r="AG6" s="1">
+        <f t="shared" si="8"/>
+        <v>-6.1384518250884312E-4</v>
+      </c>
+      <c r="AH6" s="1">
+        <f t="shared" si="8"/>
+        <v>0.92076781787742101</v>
+      </c>
+      <c r="AI6">
         <f t="shared" si="9"/>
-        <v>-6.1384518250884312E-4</v>
-      </c>
-      <c r="AH6" s="1">
-        <f t="shared" si="9"/>
-        <v>0.92076781787742101</v>
-      </c>
-      <c r="AI6">
+        <v>6.6666663472654346E-4</v>
+      </c>
+      <c r="AJ6">
         <f t="shared" si="10"/>
-        <v>6.6666663472654346E-4</v>
-      </c>
-      <c r="AJ6">
-        <f t="shared" si="11"/>
-        <v>0.15455283067978554</v>
+        <v>0.30417326939129286</v>
       </c>
       <c r="AK6">
         <f t="shared" si="2"/>
@@ -1453,43 +1457,43 @@
         <v>417666.95242850005</v>
       </c>
       <c r="AM6" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.50033340740789478</v>
+      </c>
+      <c r="AN6">
         <f t="shared" si="4"/>
-        <v>-0.58147374814028374</v>
-      </c>
-      <c r="AN6">
-        <f t="shared" si="5"/>
-        <v>-0.30545349923862214</v>
+        <v>-0.43741245233931986</v>
       </c>
       <c r="AO6" s="3">
         <v>162709.28305112128</v>
       </c>
       <c r="AP6">
         <f t="shared" si="13"/>
-        <v>1.5063561750312602</v>
+        <v>1.3363225871334541</v>
       </c>
       <c r="AQ6">
         <f t="shared" si="14"/>
-        <v>4.0255328944893263</v>
+        <v>3.4097025844047728</v>
       </c>
       <c r="AR6" s="1">
         <f t="shared" si="15"/>
-        <v>-0.1067560116372384</v>
+        <v>-3.9490854831278533E-4</v>
       </c>
       <c r="AS6">
         <f t="shared" si="16"/>
-        <v>-0.15772130243405597</v>
+        <v>-0.10140034236116315</v>
       </c>
       <c r="AT6" s="1">
         <f t="shared" si="17"/>
-        <v>0.69074122529935211</v>
+        <v>0.59236285084944229</v>
       </c>
       <c r="AU6">
         <f t="shared" ref="AU6:AU18" si="18">AU5+AT6</f>
-        <v>2.0332637163441114</v>
+        <v>1.5500004981524931</v>
       </c>
       <c r="AV6">
-        <f t="shared" si="12"/>
-        <v>602.57210447996999</v>
+        <f t="shared" si="11"/>
+        <v>492.94413798949682</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
@@ -1579,15 +1583,15 @@
         <v>1.2251628486510846</v>
       </c>
       <c r="AC7">
+        <f t="shared" si="5"/>
+        <v>1.6440211510990856</v>
+      </c>
+      <c r="AD7">
         <f t="shared" si="6"/>
-        <v>1.6440211510990856</v>
-      </c>
-      <c r="AD7">
+        <v>-0.41885830244800104</v>
+      </c>
+      <c r="AE7" s="2">
         <f t="shared" si="7"/>
-        <v>-0.41885830244800104</v>
-      </c>
-      <c r="AE7" s="2">
-        <f t="shared" si="8"/>
         <v>4.5971902850329718</v>
       </c>
       <c r="AF7">
@@ -1595,20 +1599,20 @@
         <v>-1.2776261019739152</v>
       </c>
       <c r="AG7" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.23155280971863301</v>
+      </c>
+      <c r="AH7" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0077198854384859</v>
+      </c>
+      <c r="AI7">
         <f t="shared" si="9"/>
-        <v>-0.23155280971863301</v>
-      </c>
-      <c r="AH7" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0077198854384859</v>
-      </c>
-      <c r="AI7">
+        <v>0.2297789426055418</v>
+      </c>
+      <c r="AJ7">
         <f t="shared" si="10"/>
-        <v>0.2297789426055418</v>
-      </c>
-      <c r="AJ7">
-        <f t="shared" si="11"/>
-        <v>0.1902654896795524</v>
+        <v>0.28674142818623</v>
       </c>
       <c r="AK7">
         <f t="shared" si="2"/>
@@ -1619,43 +1623,43 @@
         <v>598265.88940549991</v>
       </c>
       <c r="AM7" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.62441910113573817</v>
+      </c>
+      <c r="AN7">
         <f t="shared" si="4"/>
-        <v>-0.60157480483335035</v>
-      </c>
-      <c r="AN7">
-        <f t="shared" si="5"/>
-        <v>-0.31921125366938408</v>
+        <v>-0.36938352610632968</v>
       </c>
       <c r="AO7" s="3">
         <v>162709.28305112128</v>
       </c>
       <c r="AP7">
         <f t="shared" si="13"/>
-        <v>1.4641809111583908</v>
+        <v>1.3552226259816862</v>
       </c>
       <c r="AQ7">
         <f t="shared" si="14"/>
-        <v>3.8600652025937805</v>
+        <v>3.4718651546210957</v>
       </c>
       <c r="AR7" s="1">
         <f t="shared" si="15"/>
-        <v>-0.14301945047842349</v>
+        <v>-0.15619868021789537</v>
       </c>
       <c r="AS7">
         <f t="shared" si="16"/>
-        <v>-0.30074075291247948</v>
+        <v>-0.25759902257905853</v>
       </c>
       <c r="AT7" s="1">
         <f t="shared" si="17"/>
-        <v>0.75168361177478182</v>
+        <v>0.67977804426595967</v>
       </c>
       <c r="AU7">
         <f t="shared" si="18"/>
-        <v>2.7849473281188932</v>
+        <v>2.2297785424184529</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="12"/>
-        <v>803.96546328095644</v>
+        <f t="shared" si="11"/>
+        <v>707.26118805332396</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
@@ -1745,15 +1749,15 @@
         <v>1.2930476660156898</v>
       </c>
       <c r="AC8">
+        <f t="shared" si="5"/>
+        <v>1.8221442627669238</v>
+      </c>
+      <c r="AD8">
         <f t="shared" si="6"/>
-        <v>1.8221442627669238</v>
-      </c>
-      <c r="AD8">
+        <v>-0.52909659675123399</v>
+      </c>
+      <c r="AE8" s="2">
         <f t="shared" si="7"/>
-        <v>-0.52909659675123399</v>
-      </c>
-      <c r="AE8" s="2">
-        <f t="shared" si="8"/>
         <v>5.5707389170981036</v>
       </c>
       <c r="AF8">
@@ -1761,20 +1765,20 @@
         <v>-1.7078297368693103</v>
       </c>
       <c r="AG8" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.11023829430323295</v>
+      </c>
+      <c r="AH8" s="1">
+        <f t="shared" si="8"/>
+        <v>0.97354863206513187</v>
+      </c>
+      <c r="AI8">
         <f t="shared" si="9"/>
-        <v>-0.11023829430323295</v>
-      </c>
-      <c r="AH8" s="1">
-        <f t="shared" si="9"/>
-        <v>0.97354863206513187</v>
-      </c>
-      <c r="AI8">
+        <v>0.11323347460248688</v>
+      </c>
+      <c r="AJ8">
         <f t="shared" si="10"/>
-        <v>0.11323347460248688</v>
-      </c>
-      <c r="AJ8">
-        <f t="shared" si="11"/>
-        <v>0.21790017386130991</v>
+        <v>0.2772531206456107</v>
       </c>
       <c r="AK8">
         <f t="shared" si="2"/>
@@ -1785,43 +1789,43 @@
         <v>791591.73232499987</v>
       </c>
       <c r="AM8" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.55883752995242364</v>
+      </c>
+      <c r="AN8">
         <f t="shared" si="4"/>
-        <v>-0.61748329722790873</v>
-      </c>
-      <c r="AN8">
-        <f t="shared" si="5"/>
-        <v>-0.32992084372464275</v>
+        <v>-0.38983279504992641</v>
       </c>
       <c r="AO8" s="3">
         <v>162709.28305112128</v>
       </c>
       <c r="AP8">
         <f t="shared" si="13"/>
-        <v>1.4322228418598042</v>
+        <v>1.3656121190916477</v>
       </c>
       <c r="AQ8">
         <f t="shared" si="14"/>
-        <v>3.7406117656902302</v>
+        <v>3.5066487613687047</v>
       </c>
       <c r="AR8" s="1">
         <f t="shared" si="15"/>
-        <v>-0.17066159706563305</v>
+        <v>-8.3321282182404907E-2</v>
       </c>
       <c r="AS8">
         <f t="shared" si="16"/>
-        <v>-0.47140234997811253</v>
+        <v>-0.34092030476146346</v>
       </c>
       <c r="AT8" s="1">
         <f t="shared" si="17"/>
-        <v>0.78321000869993107</v>
+        <v>0.73583613392514469</v>
       </c>
       <c r="AU8">
         <f t="shared" si="18"/>
-        <v>3.5681573368188242</v>
+        <v>2.9656146763435975</v>
       </c>
       <c r="AV8">
-        <f t="shared" si="12"/>
-        <v>1012.1295313641309</v>
+        <f t="shared" si="11"/>
+        <v>936.11469677757157</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
@@ -1911,15 +1915,15 @@
         <v>1.1858828218258455</v>
       </c>
       <c r="AC9">
+        <f t="shared" si="5"/>
+        <v>1.9798384701302365</v>
+      </c>
+      <c r="AD9">
         <f t="shared" si="6"/>
-        <v>1.9798384701302365</v>
-      </c>
-      <c r="AD9">
+        <v>-0.79395564830439103</v>
+      </c>
+      <c r="AE9" s="2">
         <f t="shared" si="7"/>
-        <v>-0.79395564830439103</v>
-      </c>
-      <c r="AE9" s="2">
-        <f t="shared" si="8"/>
         <v>6.6047566541380522</v>
       </c>
       <c r="AF9">
@@ -1927,20 +1931,20 @@
         <v>-2.3141426422141547</v>
       </c>
       <c r="AG9" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.26485905155315703</v>
+      </c>
+      <c r="AH9" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0340177370399486</v>
+      </c>
+      <c r="AI9">
         <f t="shared" si="9"/>
-        <v>-0.26485905155315703</v>
-      </c>
-      <c r="AH9" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0340177370399486</v>
-      </c>
-      <c r="AI9">
+        <v>0.25614555927382932</v>
+      </c>
+      <c r="AJ9">
         <f t="shared" si="10"/>
-        <v>0.25614555927382932</v>
-      </c>
-      <c r="AJ9">
-        <f t="shared" si="11"/>
-        <v>0.24012373332381304</v>
+        <v>0.27311659590632353</v>
       </c>
       <c r="AK9">
         <f t="shared" si="2"/>
@@ -1951,43 +1955,43 @@
         <v>993497.51078699995</v>
       </c>
       <c r="AM9" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.64002868855137196</v>
+      </c>
+      <c r="AN9">
         <f t="shared" si="4"/>
-        <v>-0.63050787976792277</v>
-      </c>
-      <c r="AN9">
-        <f t="shared" si="5"/>
-        <v>-0.33856389671167586</v>
+        <v>-0.35507348569117525</v>
       </c>
       <c r="AO9" s="3">
         <v>162709.28305112128</v>
       </c>
       <c r="AP9">
         <f t="shared" si="13"/>
-        <v>1.406955906635972</v>
+        <v>1.3701639862593882</v>
       </c>
       <c r="AQ9">
         <f t="shared" si="14"/>
-        <v>3.6495611373786385</v>
+        <v>3.5220279366291809</v>
       </c>
       <c r="AR9" s="1">
         <f t="shared" si="15"/>
-        <v>-0.19345140101818117</v>
+        <v>-0.19947191554722368</v>
       </c>
       <c r="AS9">
         <f t="shared" si="16"/>
-        <v>-0.66485375099629374</v>
+        <v>-0.54039222030868717</v>
       </c>
       <c r="AT9" s="1">
         <f t="shared" si="17"/>
-        <v>0.80563215614054717</v>
+        <v>0.77874438312623917</v>
       </c>
       <c r="AU9">
         <f t="shared" si="18"/>
-        <v>4.3737894929593715</v>
+        <v>3.7443590594698368</v>
       </c>
       <c r="AV9">
-        <f t="shared" si="12"/>
-        <v>1227.2449099651203</v>
+        <f t="shared" si="11"/>
+        <v>1175.6239317602474</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
@@ -2077,15 +2081,15 @@
         <v>1.1345937228203984</v>
       </c>
       <c r="AC10">
+        <f t="shared" si="5"/>
+        <v>2.1215406130701688</v>
+      </c>
+      <c r="AD10">
         <f t="shared" si="6"/>
-        <v>2.1215406130701688</v>
-      </c>
-      <c r="AD10">
+        <v>-0.98694689024977045</v>
+      </c>
+      <c r="AE10" s="2">
         <f t="shared" si="7"/>
-        <v>-0.98694689024977045</v>
-      </c>
-      <c r="AE10" s="2">
-        <f t="shared" si="8"/>
         <v>7.6222196992331996</v>
       </c>
       <c r="AF10">
@@ -2093,20 +2097,20 @@
         <v>-2.8656150805996012</v>
       </c>
       <c r="AG10" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.19299124194537942</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0174630450951474</v>
+      </c>
+      <c r="AI10">
         <f t="shared" si="9"/>
-        <v>-0.19299124194537942</v>
-      </c>
-      <c r="AH10" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0174630450951474</v>
-      </c>
-      <c r="AI10">
+        <v>0.18967887126291841</v>
+      </c>
+      <c r="AJ10">
         <f t="shared" si="10"/>
-        <v>0.18967887126291841</v>
-      </c>
-      <c r="AJ10">
-        <f t="shared" si="11"/>
-        <v>0.2586191975083183</v>
+        <v>0.27186785320480822</v>
       </c>
       <c r="AK10">
         <f t="shared" si="2"/>
@@ -2117,43 +2121,43 @@
         <v>1201493.2976485002</v>
       </c>
       <c r="AM10" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.60124049667670409</v>
+      </c>
+      <c r="AN10">
         <f t="shared" si="4"/>
-        <v>-0.64150854048072536</v>
-      </c>
-      <c r="AN10">
-        <f t="shared" si="5"/>
-        <v>-0.3457719840995897</v>
+        <v>-0.36884120104216567</v>
       </c>
       <c r="AO10" s="3">
         <v>162709.28305112128</v>
       </c>
       <c r="AP10">
         <f t="shared" si="13"/>
-        <v>1.3862244629844778</v>
+        <v>1.3715407903224339</v>
       </c>
       <c r="AQ10">
         <f t="shared" si="14"/>
-        <v>3.5769837834104141</v>
+        <v>3.5266966139004454</v>
       </c>
       <c r="AR10" s="1">
         <f t="shared" si="15"/>
-        <v>-0.21220959112109028</v>
+        <v>-0.15324099846104236</v>
       </c>
       <c r="AS10">
         <f t="shared" si="16"/>
-        <v>-0.87706334211738401</v>
+        <v>-0.6936332187697295</v>
       </c>
       <c r="AT10" s="1">
         <f t="shared" si="17"/>
-        <v>0.82054848659974178</v>
+        <v>0.80789703903620991</v>
       </c>
       <c r="AU10">
         <f t="shared" si="18"/>
-        <v>5.1943379795591129</v>
+        <v>4.5522560985060467</v>
       </c>
       <c r="AV10">
-        <f t="shared" si="12"/>
-        <v>1448.8777227373846</v>
+        <f t="shared" si="11"/>
+        <v>1424.3196858457177</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
@@ -2243,15 +2247,15 @@
         <v>1.081069322849959</v>
       </c>
       <c r="AC11">
+        <f t="shared" si="5"/>
+        <v>2.2482280834731423</v>
+      </c>
+      <c r="AD11">
         <f t="shared" si="6"/>
-        <v>2.2482280834731423</v>
-      </c>
-      <c r="AD11">
+        <v>-1.1671587606231832</v>
+      </c>
+      <c r="AE11" s="2">
         <f t="shared" si="7"/>
-        <v>-1.1671587606231832</v>
-      </c>
-      <c r="AE11" s="2">
-        <f t="shared" si="8"/>
         <v>8.6452885353400131</v>
       </c>
       <c r="AF11">
@@ -2259,20 +2263,20 @@
         <v>-3.421753165295041</v>
       </c>
       <c r="AG11" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.1802118703734128</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0230688361068134</v>
+      </c>
+      <c r="AI11">
         <f t="shared" si="9"/>
-        <v>-0.1802118703734128</v>
-      </c>
-      <c r="AH11" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0230688361068134</v>
-      </c>
-      <c r="AI11">
+        <v>0.1761483333410791</v>
+      </c>
+      <c r="AJ11">
         <f t="shared" si="10"/>
-        <v>0.1761483333410791</v>
-      </c>
-      <c r="AJ11">
-        <f t="shared" si="11"/>
-        <v>0.27426421516312105</v>
+        <v>0.2770461026522012</v>
       </c>
       <c r="AK11">
         <f t="shared" si="2"/>
@@ -2283,43 +2287,43 @@
         <v>1404695.8866935</v>
       </c>
       <c r="AM11" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.59356812297589179</v>
+      </c>
+      <c r="AN11">
         <f t="shared" si="4"/>
-        <v>-0.65093037448209667</v>
-      </c>
-      <c r="AN11">
-        <f t="shared" si="5"/>
-        <v>-0.35187619634800366</v>
+        <v>-0.37523043010938423</v>
       </c>
       <c r="AO11" s="3">
         <v>162709.28305112128</v>
       </c>
       <c r="AP11">
         <f t="shared" si="13"/>
-        <v>1.3688997705380646</v>
+        <v>1.3658395995058552</v>
       </c>
       <c r="AQ11">
         <f t="shared" si="14"/>
-        <v>3.5177479822738449</v>
+        <v>3.5074153046901264</v>
       </c>
       <c r="AR11" s="1">
         <f t="shared" si="15"/>
-        <v>-0.2237601005280776</v>
+        <v>-0.14292353702258878</v>
       </c>
       <c r="AS11">
         <f t="shared" si="16"/>
-        <v>-1.1008234426454617</v>
+        <v>-0.83655675579231825</v>
       </c>
       <c r="AT11" s="1">
         <f t="shared" si="17"/>
-        <v>0.81585598177652952</v>
+        <v>0.81138171625980327</v>
       </c>
       <c r="AU11">
         <f t="shared" si="18"/>
-        <v>6.0101939613356423</v>
+        <v>5.3636378147658501</v>
       </c>
       <c r="AV11">
-        <f t="shared" si="12"/>
-        <v>1673.5755738617834</v>
+        <f t="shared" si="11"/>
+        <v>1667.6431045936072</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
@@ -2409,15 +2413,15 @@
         <v>0.95292019120410965</v>
       </c>
       <c r="AC12">
+        <f t="shared" si="5"/>
+        <v>2.3619044786509447</v>
+      </c>
+      <c r="AD12">
         <f t="shared" si="6"/>
-        <v>2.3619044786509447</v>
-      </c>
-      <c r="AD12">
+        <v>-1.408984287446835</v>
+      </c>
+      <c r="AE12" s="2">
         <f t="shared" si="7"/>
-        <v>-1.408984287446835</v>
-      </c>
-      <c r="AE12" s="2">
-        <f t="shared" si="8"/>
         <v>9.6871456706652967</v>
       </c>
       <c r="AF12">
@@ -2425,20 +2429,20 @@
         <v>-4.0494726759958901</v>
       </c>
       <c r="AG12" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.24182552682365177</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0418571353252837</v>
+      </c>
+      <c r="AI12">
         <f t="shared" si="9"/>
-        <v>-0.24182552682365177</v>
-      </c>
-      <c r="AH12" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0418571353252837</v>
-      </c>
-      <c r="AI12">
+        <v>0.23211006444578428</v>
+      </c>
+      <c r="AJ12">
         <f t="shared" si="10"/>
-        <v>0.23211006444578428</v>
-      </c>
-      <c r="AJ12">
-        <f t="shared" si="11"/>
-        <v>0.28760390827714577</v>
+        <v>0.28345116978456075</v>
       </c>
       <c r="AK12">
         <f t="shared" si="2"/>
@@ -2449,43 +2453,43 @@
         <v>1603711.9327819999</v>
       </c>
       <c r="AM12" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.62578718979985859</v>
+      </c>
+      <c r="AN12">
         <f t="shared" si="4"/>
-        <v>-0.65904972866322753</v>
-      </c>
-      <c r="AN12">
-        <f t="shared" si="5"/>
-        <v>-0.35708371806122774</v>
+        <v>-0.36677459966570114</v>
       </c>
       <c r="AO12" s="3">
         <v>162709.28305112128</v>
       </c>
       <c r="AP12">
         <f t="shared" si="13"/>
-        <v>1.3542817906462632</v>
+        <v>1.3588172543414407</v>
       </c>
       <c r="AQ12">
         <f t="shared" si="14"/>
-        <v>3.4687369616784176</v>
+        <v>3.4838500001342383</v>
       </c>
       <c r="AR12" s="1">
         <f t="shared" si="15"/>
-        <v>-0.23055965642288337</v>
+        <v>-0.18644493068295864</v>
       </c>
       <c r="AS12">
         <f t="shared" si="16"/>
-        <v>-1.3313830990683451</v>
+        <v>-1.0230016864752769</v>
       </c>
       <c r="AT12" s="1">
         <f t="shared" si="17"/>
-        <v>0.801656896125026</v>
+        <v>0.80326086302262867</v>
       </c>
       <c r="AU12">
         <f t="shared" si="18"/>
-        <v>6.8118508574606684</v>
+        <v>6.1668986777884784</v>
       </c>
       <c r="AV12">
-        <f t="shared" si="12"/>
-        <v>1896.5416417070553</v>
+        <f t="shared" si="11"/>
+        <v>1906.5175356346383</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
@@ -2575,15 +2579,15 @@
         <v>0.79499602539979675</v>
       </c>
       <c r="AC13">
+        <f t="shared" si="5"/>
+        <v>2.4650010136205767</v>
+      </c>
+      <c r="AD13">
         <f t="shared" si="6"/>
-        <v>2.4650010136205767</v>
-      </c>
-      <c r="AD13">
+        <v>-1.6700049882207799</v>
+      </c>
+      <c r="AE13" s="2">
         <f t="shared" si="7"/>
-        <v>-1.6700049882207799</v>
-      </c>
-      <c r="AE13" s="2">
-        <f t="shared" si="8"/>
         <v>10.740525300466734</v>
       </c>
       <c r="AF13">
@@ -2591,20 +2595,20 @@
         <v>-4.7077659624002024</v>
       </c>
       <c r="AG13" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.2610207007739449</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0533796298014373</v>
+      </c>
+      <c r="AI13">
         <f t="shared" si="9"/>
-        <v>-0.2610207007739449</v>
-      </c>
-      <c r="AH13" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0533796298014373</v>
-      </c>
-      <c r="AI13">
+        <v>0.24779357165198596</v>
+      </c>
+      <c r="AJ13">
         <f t="shared" si="10"/>
-        <v>0.24779357165198596</v>
-      </c>
-      <c r="AJ13">
-        <f t="shared" si="11"/>
-        <v>0.29913877416333912</v>
+        <v>0.29015633302732102</v>
       </c>
       <c r="AK13">
         <f t="shared" si="2"/>
@@ -2615,43 +2619,43 @@
         <v>1798642.8269394999</v>
       </c>
       <c r="AM13" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.63505177287921766</v>
+      </c>
+      <c r="AN13">
         <f t="shared" si="4"/>
-        <v>-0.66613521529822761</v>
-      </c>
-      <c r="AN13">
-        <f t="shared" si="5"/>
-        <v>-0.36158722742548122</v>
+        <v>-0.36749671484104429</v>
       </c>
       <c r="AO13" s="3">
         <v>162709.28305112128</v>
       </c>
       <c r="AP13">
         <f t="shared" si="13"/>
-        <v>1.3417561426741769</v>
+        <v>1.3515009622558487</v>
       </c>
       <c r="AQ13">
         <f t="shared" si="14"/>
-        <v>3.4274285173677068</v>
+        <v>3.4595118310265036</v>
       </c>
       <c r="AR13" s="1">
         <f t="shared" si="15"/>
-        <v>-0.2352871339413046</v>
+        <v>-0.19624109206117743</v>
       </c>
       <c r="AS13">
         <f t="shared" si="16"/>
-        <v>-1.5666702330096496</v>
+        <v>-1.2192427785364544</v>
       </c>
       <c r="AT13" s="1">
         <f t="shared" si="17"/>
-        <v>0.78654843257741813</v>
+        <v>0.79195392662077879</v>
       </c>
       <c r="AU13">
         <f t="shared" si="18"/>
-        <v>7.5983992900380866</v>
+        <v>6.9588526044092571</v>
       </c>
       <c r="AV13">
-        <f t="shared" si="12"/>
-        <v>2118.2300553388941</v>
+        <f t="shared" si="11"/>
+        <v>2142.1675735633012</v>
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
@@ -2741,15 +2745,15 @@
         <v>0.61217637854675822</v>
       </c>
       <c r="AC14">
+        <f t="shared" si="5"/>
+        <v>2.5559099955632094</v>
+      </c>
+      <c r="AD14">
         <f t="shared" si="6"/>
-        <v>2.5559099955632094</v>
-      </c>
-      <c r="AD14">
+        <v>-1.9437336170164512</v>
+      </c>
+      <c r="AE14" s="2">
         <f t="shared" si="7"/>
-        <v>-1.9437336170164512</v>
-      </c>
-      <c r="AE14" s="2">
-        <f t="shared" si="8"/>
         <v>11.799224683651081</v>
       </c>
       <c r="AF14">
@@ -2757,20 +2761,20 @@
         <v>-5.3894653597032418</v>
       </c>
       <c r="AG14" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.27372862879567128</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0586993831843472</v>
+      </c>
+      <c r="AI14">
         <f t="shared" si="9"/>
-        <v>-0.27372862879567128</v>
-      </c>
-      <c r="AH14" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0586993831843472</v>
-      </c>
-      <c r="AI14">
+        <v>0.25855179774673392</v>
+      </c>
+      <c r="AJ14">
         <f t="shared" si="10"/>
-        <v>0.25855179774673392</v>
-      </c>
-      <c r="AJ14">
-        <f t="shared" si="11"/>
-        <v>0.3090903576222831</v>
+        <v>0.29973114447919574</v>
       </c>
       <c r="AK14">
         <f t="shared" si="2"/>
@@ -2781,43 +2785,43 @@
         <v>1977343.6949454998</v>
       </c>
       <c r="AM14" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.64146818324027988</v>
+      </c>
+      <c r="AN14">
         <f t="shared" si="4"/>
-        <v>-0.67229695458066419</v>
-      </c>
-      <c r="AN14">
-        <f t="shared" si="5"/>
-        <v>-0.36547199760881494</v>
+        <v>-0.37111350501498974</v>
       </c>
       <c r="AO14" s="3">
         <v>162709.28305112128</v>
       </c>
       <c r="AP14">
         <f t="shared" si="13"/>
-        <v>1.3310353500514012</v>
+        <v>1.3411157643469349</v>
       </c>
       <c r="AQ14">
         <f t="shared" si="14"/>
-        <v>3.3925647857653449</v>
+        <v>3.4253333696048442</v>
       </c>
       <c r="AR14" s="1">
         <f t="shared" si="15"/>
-        <v>-0.22945563153406465</v>
+        <v>-0.19327790522622817</v>
       </c>
       <c r="AS14">
         <f t="shared" si="16"/>
-        <v>-1.7961258645437141</v>
+        <v>-1.4125206837626825</v>
       </c>
       <c r="AT14" s="1">
         <f t="shared" si="17"/>
-        <v>0.74235777945058257</v>
+        <v>0.74754036487324993</v>
       </c>
       <c r="AU14">
         <f t="shared" si="18"/>
-        <v>8.340757069488669</v>
+        <v>7.7063929692825068</v>
       </c>
       <c r="AV14">
-        <f t="shared" si="12"/>
-        <v>2334.0071823127164</v>
+        <f t="shared" si="11"/>
+        <v>2361.2133516477543</v>
       </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
@@ -2907,15 +2911,15 @@
         <v>0.47374110819143889</v>
       </c>
       <c r="AC15">
+        <f t="shared" si="5"/>
+        <v>2.6383160723024259</v>
+      </c>
+      <c r="AD15">
         <f t="shared" si="6"/>
-        <v>2.6383160723024259</v>
-      </c>
-      <c r="AD15">
+        <v>-2.164574964110987</v>
+      </c>
+      <c r="AE15" s="2">
         <f t="shared" si="7"/>
-        <v>-2.164574964110987</v>
-      </c>
-      <c r="AE15" s="2">
-        <f t="shared" si="8"/>
         <v>12.842394085569522</v>
       </c>
       <c r="AF15">
@@ -2923,20 +2927,20 @@
         <v>-6.026412785958561</v>
       </c>
       <c r="AG15" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.22084134709453584</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0431694019184405</v>
+      </c>
+      <c r="AI15">
         <f t="shared" si="9"/>
-        <v>-0.22084134709453584</v>
-      </c>
-      <c r="AH15" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0431694019184405</v>
-      </c>
-      <c r="AI15">
+        <v>0.21170228602219121</v>
+      </c>
+      <c r="AJ15">
         <f t="shared" si="10"/>
-        <v>0.21170228602219121</v>
-      </c>
-      <c r="AJ15">
-        <f t="shared" si="11"/>
-        <v>0.31770772879572884</v>
+        <v>0.31082018976652587</v>
       </c>
       <c r="AK15">
         <f t="shared" si="2"/>
@@ -2947,43 +2951,43 @@
         <v>2144755.1031145002</v>
       </c>
       <c r="AM15" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.6138879207343545</v>
+      </c>
+      <c r="AN15">
         <f t="shared" si="4"/>
-        <v>-0.67766952479776976</v>
-      </c>
-      <c r="AN15">
-        <f t="shared" si="5"/>
-        <v>-0.3688348363648708</v>
+        <v>-0.3892636887436669</v>
       </c>
       <c r="AO15" s="3">
         <v>162709.28305112128</v>
       </c>
       <c r="AP15">
         <f t="shared" si="13"/>
-        <v>1.321816061075151</v>
+        <v>1.3291799095516921</v>
       </c>
       <c r="AQ15">
         <f t="shared" si="14"/>
-        <v>3.3629401350164101</v>
+        <v>3.386576359388374</v>
       </c>
       <c r="AR15" s="1">
         <f t="shared" si="15"/>
-        <v>-0.22677145868919932</v>
+        <v>-0.15137709003761479</v>
       </c>
       <c r="AS15">
         <f t="shared" si="16"/>
-        <v>-2.0228973232329133</v>
+        <v>-1.5638977738002973</v>
       </c>
       <c r="AT15" s="1">
         <f t="shared" si="17"/>
-        <v>0.71377381831023279</v>
+        <v>0.71504702609468807</v>
       </c>
       <c r="AU15">
         <f t="shared" si="18"/>
-        <v>9.0545308877989026</v>
+        <v>8.4214399953771952</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="12"/>
-        <v>2546.5765981767636</v>
+        <f t="shared" si="11"/>
+        <v>2568.1640328165322</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
@@ -3073,15 +3077,15 @@
         <v>0.18450674208951856</v>
       </c>
       <c r="AC16">
+        <f t="shared" si="5"/>
+        <v>2.7080696681794678</v>
+      </c>
+      <c r="AD16">
         <f t="shared" si="6"/>
-        <v>2.7080696681794678</v>
-      </c>
-      <c r="AD16">
+        <v>-2.5235629260899493</v>
+      </c>
+      <c r="AE16" s="2">
         <f t="shared" si="7"/>
-        <v>-2.5235629260899493</v>
-      </c>
-      <c r="AE16" s="2">
-        <f t="shared" si="8"/>
         <v>13.939128383436827</v>
       </c>
       <c r="AF16">
@@ -3089,20 +3093,20 @@
         <v>-6.8158085733104814</v>
       </c>
       <c r="AG16" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.35898796197896221</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0967342978673056</v>
+      </c>
+      <c r="AI16">
         <f t="shared" si="9"/>
-        <v>-0.35898796197896221</v>
-      </c>
-      <c r="AH16" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0967342978673056</v>
-      </c>
-      <c r="AI16">
+        <v>0.32732446015141975</v>
+      </c>
+      <c r="AJ16">
         <f t="shared" si="10"/>
-        <v>0.32732446015141975</v>
-      </c>
-      <c r="AJ16">
-        <f t="shared" si="11"/>
-        <v>0.32506806182767251</v>
+        <v>0.32433979829909243</v>
       </c>
       <c r="AK16">
         <f t="shared" si="2"/>
@@ -3113,43 +3117,43 @@
         <v>2285570.4841089998</v>
       </c>
       <c r="AM16" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.68370605893109881</v>
+      </c>
+      <c r="AN16">
         <f t="shared" si="4"/>
-        <v>-0.68228579418535318</v>
-      </c>
-      <c r="AN16">
-        <f t="shared" si="5"/>
-        <v>-0.37170589394610526</v>
+        <v>-0.37072866463366788</v>
       </c>
       <c r="AO16" s="3">
         <v>162709.28305112128</v>
       </c>
       <c r="AP16">
         <f t="shared" si="13"/>
-        <v>1.3139888388488756</v>
+        <v>1.3147613573283785</v>
       </c>
       <c r="AQ16">
         <f t="shared" si="14"/>
-        <v>3.3380429545052652</v>
+        <v>3.340489929504721</v>
       </c>
       <c r="AR16" s="1">
         <f t="shared" si="15"/>
-        <v>-0.20655425745048661</v>
+        <v>-0.20818333014394974</v>
       </c>
       <c r="AS16">
         <f t="shared" si="16"/>
-        <v>-2.2294515806834001</v>
+        <v>-1.772081103944247</v>
       </c>
       <c r="AT16" s="1">
         <f t="shared" si="17"/>
-        <v>0.63541849140499895</v>
+        <v>0.6360151943659953</v>
       </c>
       <c r="AU16">
         <f t="shared" si="18"/>
-        <v>9.6899493792039024</v>
+        <v>9.057455189743191</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="12"/>
-        <v>2741.3206767852994</v>
+        <f t="shared" si="11"/>
+        <v>2743.74210855725</v>
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
@@ -3239,15 +3243,15 @@
         <v>-1.6226043161094106</v>
       </c>
       <c r="AC17">
+        <f t="shared" si="5"/>
+        <v>2.7037338057634561</v>
+      </c>
+      <c r="AD17">
         <f t="shared" si="6"/>
-        <v>2.7037338057634561</v>
-      </c>
-      <c r="AD17">
+        <v>-4.3263381218728671</v>
+      </c>
+      <c r="AE17" s="2">
         <f t="shared" si="7"/>
-        <v>-4.3263381218728671</v>
-      </c>
-      <c r="AE17" s="2">
-        <f t="shared" si="8"/>
         <v>15.541604670769804</v>
       </c>
       <c r="AF17">
@@ -3255,20 +3259,20 @@
         <v>-9.1229725988094117</v>
       </c>
       <c r="AG17" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.8027751957829179</v>
+      </c>
+      <c r="AH17" s="1">
+        <f t="shared" si="8"/>
+        <v>1.6024762873329763</v>
+      </c>
+      <c r="AI17">
         <f t="shared" si="9"/>
-        <v>-1.8027751957829179</v>
-      </c>
-      <c r="AH17" s="1">
-        <f t="shared" si="9"/>
-        <v>1.6024762873329763</v>
-      </c>
-      <c r="AI17">
+        <v>1.1249933680973849</v>
+      </c>
+      <c r="AJ17">
         <f t="shared" si="10"/>
-        <v>1.1249933680973849</v>
-      </c>
-      <c r="AJ17">
-        <f t="shared" si="11"/>
-        <v>0.32815966731793039</v>
+        <v>0.38211122950247106</v>
       </c>
       <c r="AK17">
         <f t="shared" si="2"/>
@@ -3279,43 +3283,43 @@
         <v>2171373.4943349999</v>
       </c>
       <c r="AM17" s="1">
+        <f t="shared" si="12"/>
+        <v>-1.3999915111946777</v>
+      </c>
+      <c r="AN17">
         <f t="shared" si="4"/>
-        <v>-0.68423237906689272</v>
-      </c>
-      <c r="AN17">
-        <f t="shared" si="5"/>
-        <v>-0.37291141454094984</v>
+        <v>-0.23587982574713737</v>
       </c>
       <c r="AO17" s="3">
         <v>162709.28305112128</v>
       </c>
       <c r="AP17">
         <f t="shared" si="13"/>
-        <v>1.310714112029983</v>
+        <v>1.2548072059110469</v>
       </c>
       <c r="AQ17">
         <f t="shared" si="14"/>
-        <v>3.3276950124855009</v>
+        <v>3.1570233560918926</v>
       </c>
       <c r="AR17" s="1">
         <f t="shared" si="15"/>
-        <v>1.3240109639902006E-2</v>
+        <v>5.162943704071752E-2</v>
       </c>
       <c r="AS17">
         <f t="shared" si="16"/>
-        <v>-2.2162114710434979</v>
+        <v>-1.7204516669035295</v>
       </c>
       <c r="AT17" s="1">
         <f t="shared" si="17"/>
-        <v>-4.0346547606274256E-2</v>
+        <v>-4.5893103466053707E-2</v>
       </c>
       <c r="AU17">
         <f t="shared" si="18"/>
-        <v>9.6496028315976279</v>
+        <v>9.011562086277138</v>
       </c>
       <c r="AV17">
-        <f t="shared" si="12"/>
-        <v>2785.6473645563497</v>
+        <f t="shared" si="11"/>
+        <v>2613.9918083277498</v>
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
@@ -3405,15 +3409,15 @@
         <v>-3.3556936808933902</v>
       </c>
       <c r="AC18">
+        <f t="shared" si="5"/>
+        <v>2.590222998070026</v>
+      </c>
+      <c r="AD18">
         <f t="shared" si="6"/>
-        <v>2.590222998070026</v>
-      </c>
-      <c r="AD18">
+        <v>-5.9459166789634157</v>
+      </c>
+      <c r="AE18" s="2">
         <f t="shared" si="7"/>
-        <v>-5.9459166789634157</v>
-      </c>
-      <c r="AE18" s="2">
-        <f t="shared" si="8"/>
         <v>17.121634609997798</v>
       </c>
       <c r="AF18">
@@ -3421,20 +3425,20 @@
         <v>-11.35722870574339</v>
       </c>
       <c r="AG18" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.6195785570905485</v>
+      </c>
+      <c r="AH18" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5800299392279946</v>
+      </c>
+      <c r="AI18">
         <f t="shared" si="9"/>
-        <v>-1.6195785570905485</v>
-      </c>
-      <c r="AH18" s="1">
-        <f t="shared" si="9"/>
-        <v>1.5800299392279946</v>
-      </c>
-      <c r="AI18">
+        <v>1.025030296503038</v>
+      </c>
+      <c r="AJ18">
         <f t="shared" si="10"/>
-        <v>1.025030296503038</v>
-      </c>
-      <c r="AJ18">
-        <f t="shared" si="11"/>
-        <v>0.32258536228531792</v>
+        <v>0.49296233035315518</v>
       </c>
       <c r="AK18">
         <f t="shared" si="2"/>
@@ -3445,43 +3449,43 @@
         <v>1756875.9963530002</v>
       </c>
       <c r="AM18" s="1">
+        <f t="shared" si="12"/>
+        <v>-1.2785159650966373</v>
+      </c>
+      <c r="AN18">
         <f t="shared" si="4"/>
-        <v>-0.68072585269833019</v>
-      </c>
-      <c r="AN18">
-        <f t="shared" si="5"/>
-        <v>-0.37073761353547524</v>
+        <v>-0.29796479355422317</v>
       </c>
       <c r="AO18" s="3">
         <v>162709.28305112128</v>
       </c>
       <c r="AP18">
         <f t="shared" si="13"/>
-        <v>1.3166241574846067</v>
+        <v>1.1473155427948749</v>
       </c>
       <c r="AQ18">
         <f t="shared" si="14"/>
-        <v>3.3463996409451275</v>
+        <v>2.8578158925006512</v>
       </c>
       <c r="AR18" s="1">
         <f t="shared" si="15"/>
-        <v>0.32788416264200371</v>
+        <v>1.0298069889172143</v>
       </c>
       <c r="AS18">
         <f t="shared" si="16"/>
-        <v>-1.8883273084014942</v>
+        <v>-0.69064467798631513</v>
       </c>
       <c r="AT18" s="1">
         <f t="shared" si="17"/>
-        <v>-1.0164260409063424</v>
+        <v>-1.0046600499814224</v>
       </c>
       <c r="AU18">
         <f t="shared" si="18"/>
-        <v>8.6331767906912855</v>
+        <v>8.0069020362957151</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="12"/>
-        <v>2582.3878326283307</v>
+        <f t="shared" si="11"/>
+        <v>2131.3086696379314</v>
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">

--- a/SMP_2PP.xlsx
+++ b/SMP_2PP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t># avgT</t>
   </si>
@@ -182,6 +182,14 @@
   </si>
   <si>
     <t>K_phi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dratio-M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dratio_pred</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -513,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV20"/>
+  <dimension ref="A1:AX20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1:AM1048576"/>
+      <selection activeCell="AR1" sqref="AR1:AR1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -539,13 +547,14 @@
     <col min="36" max="36" width="12.88671875" customWidth="1"/>
     <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="12.77734375" customWidth="1"/>
-    <col min="44" max="44" width="12.44140625" customWidth="1"/>
-    <col min="45" max="45" width="11.21875" customWidth="1"/>
-    <col min="48" max="48" width="13.33203125" customWidth="1"/>
-    <col min="49" max="1026" width="11.5546875"/>
+    <col min="43" max="44" width="10.44140625" customWidth="1"/>
+    <col min="46" max="46" width="12.44140625" customWidth="1"/>
+    <col min="47" max="47" width="11.21875" customWidth="1"/>
+    <col min="50" max="50" width="13.33203125" customWidth="1"/>
+    <col min="51" max="1028" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -673,25 +682,31 @@
         <v>32</v>
       </c>
       <c r="AQ1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS1" t="s">
         <v>33</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>34</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>36</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>37</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.200083855177</v>
       </c>
@@ -810,7 +825,7 @@
         <v>-0.5</v>
       </c>
       <c r="AN2">
-        <f t="shared" ref="AN2:AN18" si="4">1/(2+AM2*AQ2-2*0.33*(1+AM2+AQ2))</f>
+        <f t="shared" ref="AN2:AN18" si="4">1/(2+AM2*AS2-2*0.33*(1+AM2+AS2))</f>
         <v>0.5988023952095809</v>
       </c>
       <c r="AO2" s="1" t="e">
@@ -821,18 +836,26 @@
         <f>AL2/AK2</f>
         <v>1.1990975425173505</v>
       </c>
-      <c r="AS2">
-        <v>0</v>
+      <c r="AQ2">
+        <f>AL2/AK2-(1.35*(AK2/3255000)^-0.0723)</f>
+        <v>-1.0562220670498046</v>
+      </c>
+      <c r="AR2">
+        <f>1.35*(AK2/3255000)^-0.0723-1.386/(AE2+1.27)+0.03463</f>
+        <v>1.1986110335317595</v>
       </c>
       <c r="AU2">
         <v>0</v>
       </c>
-      <c r="AV2">
-        <f>(AQ2*X2-4*X2*(1-0.01*P2-2*0.01*AF2)*(0.08/0.4)/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+0.08/0.4+1))/1000</f>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <f>(AS2*X2-4*X2*(1-0.01*P2-2*0.01*AF2)*(0.08/0.4)/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+0.08/0.4+1))/1000</f>
         <v>-1.0930520740821261</v>
       </c>
     </row>
-    <row r="3" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2.8026869856899999</v>
       </c>
@@ -973,32 +996,40 @@
         <f>AL3/AK3</f>
         <v>1.2251587129845241</v>
       </c>
-      <c r="AQ3" s="1">
+      <c r="AQ3">
+        <f t="shared" ref="AQ3:AQ18" si="11">AL3/AK3-(1.35*(AK3/3255000)^-0.0723)</f>
+        <v>-0.63829438716569076</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" ref="AR3:AR18" si="12">1.35*(AK3/3255000)^-0.0723-1.386/(AE3+1.27)+0.03463</f>
+        <v>1.2248812582812547</v>
+      </c>
+      <c r="AS3" s="1">
         <f>(2*AP3+3)/(3-AP3)</f>
         <v>3.0708759514683996</v>
       </c>
-      <c r="AR3" s="1">
+      <c r="AT3" s="1">
         <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
         <v>1.7895882157900354E-2</v>
       </c>
-      <c r="AS3" s="1">
-        <f>(AS2+AR3)</f>
+      <c r="AU3" s="1">
+        <f>(AU2+AT3)</f>
         <v>1.7895882157900354E-2</v>
       </c>
-      <c r="AT3" s="1">
+      <c r="AV3" s="1">
         <f>2*(1-AM3)*(AK3-AK2)*(1-AP3/3)/(9*AN3*AO3*AM3)</f>
         <v>0.16159964927845355</v>
       </c>
-      <c r="AU3" s="1">
-        <f>AU2+AT3</f>
+      <c r="AW3" s="1">
+        <f>AW2+AV3</f>
         <v>0.16159964927845355</v>
       </c>
-      <c r="AV3">
-        <f t="shared" ref="AV3:AV18" si="11">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
+      <c r="AX3">
+        <f t="shared" ref="AX3:AX18" si="13">(AS3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
         <v>54.365336687304591</v>
       </c>
     </row>
-    <row r="4" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>7.8844281171999997</v>
       </c>
@@ -1125,7 +1156,7 @@
         <v>136519.75885225</v>
       </c>
       <c r="AM4" s="1">
-        <f t="shared" ref="AM4:AM18" si="12">(-2*AI4-3)/(-2*AI4+6)</f>
+        <f t="shared" ref="AM4:AM18" si="14">(-2*AI4-3)/(-2*AI4+6)</f>
         <v>-0.54637547558206179</v>
       </c>
       <c r="AN4">
@@ -1136,35 +1167,43 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP4">
-        <f t="shared" ref="AP4:AP18" si="13">AL4/AK4</f>
+        <f t="shared" ref="AP4:AP18" si="15">AL4/AK4</f>
         <v>1.2784263623088694</v>
       </c>
       <c r="AQ4">
-        <f t="shared" ref="AQ4:AQ18" si="14">(2*AP4+3)/(3-AP4)</f>
+        <f t="shared" si="11"/>
+        <v>-0.44991380847956175</v>
+      </c>
+      <c r="AR4">
+        <f t="shared" si="12"/>
+        <v>1.2957423290308558</v>
+      </c>
+      <c r="AS4">
+        <f t="shared" ref="AS4:AS18" si="16">(2*AP4+3)/(3-AP4)</f>
         <v>3.227775218532186</v>
       </c>
-      <c r="AR4" s="1">
-        <f t="shared" ref="AR4:AR18" si="15">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
+      <c r="AT4" s="1">
+        <f t="shared" ref="AT4:AT18" si="17">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
         <v>-3.023918610960153E-2</v>
       </c>
-      <c r="AS4">
-        <f t="shared" ref="AS4:AS18" si="16">AS3+AR4</f>
+      <c r="AU4">
+        <f t="shared" ref="AU4:AU18" si="18">AU3+AT4</f>
         <v>-1.2343303951701176E-2</v>
       </c>
-      <c r="AT4" s="1">
-        <f t="shared" ref="AT4:AT18" si="17">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
+      <c r="AV4" s="1">
+        <f t="shared" ref="AV4:AV18" si="19">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
         <v>0.33610534601566383</v>
       </c>
-      <c r="AU4">
-        <f>AU3+AT4</f>
+      <c r="AW4">
+        <f>AW3+AV4</f>
         <v>0.49770499529411738</v>
       </c>
-      <c r="AV4">
-        <f t="shared" si="11"/>
+      <c r="AX4">
+        <f t="shared" si="13"/>
         <v>160.48713074337977</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15.028438339299999</v>
       </c>
@@ -1291,7 +1330,7 @@
         <v>259266.52142049998</v>
       </c>
       <c r="AM5" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.60300480561110303</v>
       </c>
       <c r="AN5">
@@ -1302,35 +1341,43 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3063606872439839</v>
       </c>
       <c r="AQ5">
-        <f t="shared" si="14"/>
-        <v>3.3140004085961667</v>
-      </c>
-      <c r="AR5" s="1">
-        <f t="shared" si="15"/>
-        <v>-8.8662129861149186E-2</v>
+        <f t="shared" si="11"/>
+        <v>-0.34624293348388746</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" si="12"/>
+        <v>1.3353410948911584</v>
       </c>
       <c r="AS5">
         <f t="shared" si="16"/>
-        <v>-0.10100543381285036</v>
+        <v>3.3140004085961667</v>
       </c>
       <c r="AT5" s="1">
         <f t="shared" si="17"/>
+        <v>-8.8662129861149186E-2</v>
+      </c>
+      <c r="AU5">
+        <f t="shared" si="18"/>
+        <v>-0.10100543381285036</v>
+      </c>
+      <c r="AV5" s="1">
+        <f t="shared" si="19"/>
         <v>0.45993265200893335</v>
       </c>
-      <c r="AU5">
-        <f>AU4+AT5</f>
+      <c r="AW5">
+        <f>AW4+AV5</f>
         <v>0.95763764730305079</v>
       </c>
-      <c r="AV5">
-        <f t="shared" si="11"/>
+      <c r="AX5">
+        <f t="shared" si="13"/>
         <v>305.59690770020325</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>23.366001454100001</v>
       </c>
@@ -1457,7 +1504,7 @@
         <v>417666.95242850005</v>
       </c>
       <c r="AM6" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.50033340740789478</v>
       </c>
       <c r="AN6">
@@ -1468,35 +1515,43 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3363225871334541</v>
       </c>
       <c r="AQ6">
-        <f t="shared" si="14"/>
-        <v>3.4097025844047728</v>
-      </c>
-      <c r="AR6" s="1">
-        <f t="shared" si="15"/>
-        <v>-3.9490854831278533E-4</v>
+        <f t="shared" si="11"/>
+        <v>-0.2628987505077478</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" si="12"/>
+        <v>1.3486350720753781</v>
       </c>
       <c r="AS6">
         <f t="shared" si="16"/>
-        <v>-0.10140034236116315</v>
+        <v>3.4097025844047728</v>
       </c>
       <c r="AT6" s="1">
         <f t="shared" si="17"/>
+        <v>-3.9490854831278533E-4</v>
+      </c>
+      <c r="AU6">
+        <f t="shared" si="18"/>
+        <v>-0.10140034236116315</v>
+      </c>
+      <c r="AV6" s="1">
+        <f t="shared" si="19"/>
         <v>0.59236285084944229</v>
       </c>
-      <c r="AU6">
-        <f t="shared" ref="AU6:AU18" si="18">AU5+AT6</f>
+      <c r="AW6">
+        <f t="shared" ref="AW6:AW18" si="20">AW5+AV6</f>
         <v>1.5500004981524931</v>
       </c>
-      <c r="AV6">
-        <f t="shared" si="11"/>
+      <c r="AX6">
+        <f t="shared" si="13"/>
         <v>492.94413798949682</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32.700695932499997</v>
       </c>
@@ -1623,7 +1678,7 @@
         <v>598265.88940549991</v>
       </c>
       <c r="AM7" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.62441910113573817</v>
       </c>
       <c r="AN7">
@@ -1634,35 +1689,43 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3552226259816862</v>
       </c>
       <c r="AQ7">
-        <f t="shared" si="14"/>
-        <v>3.4718651546210957</v>
-      </c>
-      <c r="AR7" s="1">
-        <f t="shared" si="15"/>
-        <v>-0.15619868021789537</v>
+        <f t="shared" si="11"/>
+        <v>-0.20456733607634736</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="12"/>
+        <v>1.3581910462283144</v>
       </c>
       <c r="AS7">
         <f t="shared" si="16"/>
-        <v>-0.25759902257905853</v>
+        <v>3.4718651546210957</v>
       </c>
       <c r="AT7" s="1">
         <f t="shared" si="17"/>
-        <v>0.67977804426595967</v>
+        <v>-0.15619868021789537</v>
       </c>
       <c r="AU7">
         <f t="shared" si="18"/>
+        <v>-0.25759902257905853</v>
+      </c>
+      <c r="AV7" s="1">
+        <f t="shared" si="19"/>
+        <v>0.67977804426595967</v>
+      </c>
+      <c r="AW7">
+        <f t="shared" si="20"/>
         <v>2.2297785424184529</v>
       </c>
-      <c r="AV7">
-        <f t="shared" si="11"/>
+      <c r="AX7">
+        <f t="shared" si="13"/>
         <v>707.26118805332396</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>42.669404995000001</v>
       </c>
@@ -1789,7 +1852,7 @@
         <v>791591.73232499987</v>
       </c>
       <c r="AM8" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.55883752995242364</v>
       </c>
       <c r="AN8">
@@ -1800,35 +1863,43 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3656121190916477</v>
       </c>
       <c r="AQ8">
-        <f t="shared" si="14"/>
-        <v>3.5066487613687047</v>
-      </c>
-      <c r="AR8" s="1">
-        <f t="shared" si="15"/>
-        <v>-8.3321282182404907E-2</v>
+        <f t="shared" si="11"/>
+        <v>-0.16376198830805255</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="12"/>
+        <v>1.3613944161372902</v>
       </c>
       <c r="AS8">
         <f t="shared" si="16"/>
-        <v>-0.34092030476146346</v>
+        <v>3.5066487613687047</v>
       </c>
       <c r="AT8" s="1">
         <f t="shared" si="17"/>
-        <v>0.73583613392514469</v>
+        <v>-8.3321282182404907E-2</v>
       </c>
       <c r="AU8">
         <f t="shared" si="18"/>
+        <v>-0.34092030476146346</v>
+      </c>
+      <c r="AV8" s="1">
+        <f t="shared" si="19"/>
+        <v>0.73583613392514469</v>
+      </c>
+      <c r="AW8">
+        <f t="shared" si="20"/>
         <v>2.9656146763435975</v>
       </c>
-      <c r="AV8">
-        <f t="shared" si="11"/>
+      <c r="AX8">
+        <f t="shared" si="13"/>
         <v>936.11469677757157</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>53.192396357699998</v>
       </c>
@@ -1955,7 +2026,7 @@
         <v>993497.51078699995</v>
       </c>
       <c r="AM9" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.64002868855137196</v>
       </c>
       <c r="AN9">
@@ -1966,35 +2037,43 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3701639862593882</v>
       </c>
       <c r="AQ9">
-        <f t="shared" si="14"/>
-        <v>3.5220279366291809</v>
-      </c>
-      <c r="AR9" s="1">
-        <f t="shared" si="15"/>
-        <v>-0.19947191554722368</v>
+        <f t="shared" si="11"/>
+        <v>-0.13465652468058642</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" si="12"/>
+        <v>1.3634450721850284</v>
       </c>
       <c r="AS9">
         <f t="shared" si="16"/>
-        <v>-0.54039222030868717</v>
+        <v>3.5220279366291809</v>
       </c>
       <c r="AT9" s="1">
         <f t="shared" si="17"/>
-        <v>0.77874438312623917</v>
+        <v>-0.19947191554722368</v>
       </c>
       <c r="AU9">
         <f t="shared" si="18"/>
+        <v>-0.54039222030868717</v>
+      </c>
+      <c r="AV9" s="1">
+        <f t="shared" si="19"/>
+        <v>0.77874438312623917</v>
+      </c>
+      <c r="AW9">
+        <f t="shared" si="20"/>
         <v>3.7443590594698368</v>
       </c>
-      <c r="AV9">
-        <f t="shared" si="11"/>
+      <c r="AX9">
+        <f t="shared" si="13"/>
         <v>1175.6239317602474</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>64.125454629800004</v>
       </c>
@@ -2121,7 +2200,7 @@
         <v>1201493.2976485002</v>
       </c>
       <c r="AM10" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.60124049667670409</v>
       </c>
       <c r="AN10">
@@ -2132,35 +2211,43 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3715407903224339</v>
       </c>
       <c r="AQ10">
-        <f t="shared" si="14"/>
-        <v>3.5266966139004454</v>
-      </c>
-      <c r="AR10" s="1">
-        <f t="shared" si="15"/>
-        <v>-0.15324099846104236</v>
+        <f t="shared" si="11"/>
+        <v>-0.11284757798230438</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" si="12"/>
+        <v>1.3631517740369967</v>
       </c>
       <c r="AS10">
         <f t="shared" si="16"/>
-        <v>-0.6936332187697295</v>
+        <v>3.5266966139004454</v>
       </c>
       <c r="AT10" s="1">
         <f t="shared" si="17"/>
-        <v>0.80789703903620991</v>
+        <v>-0.15324099846104236</v>
       </c>
       <c r="AU10">
         <f t="shared" si="18"/>
+        <v>-0.6936332187697295</v>
+      </c>
+      <c r="AV10" s="1">
+        <f t="shared" si="19"/>
+        <v>0.80789703903620991</v>
+      </c>
+      <c r="AW10">
+        <f t="shared" si="20"/>
         <v>4.5522560985060467</v>
       </c>
-      <c r="AV10">
-        <f t="shared" si="11"/>
+      <c r="AX10">
+        <f t="shared" si="13"/>
         <v>1424.3196858457177</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>75.4317555863</v>
       </c>
@@ -2287,7 +2374,7 @@
         <v>1404695.8866935</v>
       </c>
       <c r="AM11" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.59356812297589179</v>
       </c>
       <c r="AN11">
@@ -2298,35 +2385,43 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3658395995058552</v>
       </c>
       <c r="AQ11">
-        <f t="shared" si="14"/>
-        <v>3.5074153046901264</v>
-      </c>
-      <c r="AR11" s="1">
-        <f t="shared" si="15"/>
-        <v>-0.14292353702258878</v>
+        <f t="shared" si="11"/>
+        <v>-0.10143163209276063</v>
+      </c>
+      <c r="AR11">
+        <f t="shared" si="12"/>
+        <v>1.3621170997440533</v>
       </c>
       <c r="AS11">
         <f t="shared" si="16"/>
-        <v>-0.83655675579231825</v>
+        <v>3.5074153046901264</v>
       </c>
       <c r="AT11" s="1">
         <f t="shared" si="17"/>
-        <v>0.81138171625980327</v>
+        <v>-0.14292353702258878</v>
       </c>
       <c r="AU11">
         <f t="shared" si="18"/>
+        <v>-0.83655675579231825</v>
+      </c>
+      <c r="AV11" s="1">
+        <f t="shared" si="19"/>
+        <v>0.81138171625980327</v>
+      </c>
+      <c r="AW11">
+        <f t="shared" si="20"/>
         <v>5.3636378147658501</v>
       </c>
-      <c r="AV11">
-        <f t="shared" si="11"/>
+      <c r="AX11">
+        <f t="shared" si="13"/>
         <v>1667.6431045936072</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>86.739260263199995</v>
       </c>
@@ -2453,7 +2548,7 @@
         <v>1603711.9327819999</v>
       </c>
       <c r="AM12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.62578718979985859</v>
       </c>
       <c r="AN12">
@@ -2464,35 +2559,43 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3588172543414407</v>
       </c>
       <c r="AQ12">
-        <f t="shared" si="14"/>
-        <v>3.4838500001342383</v>
-      </c>
-      <c r="AR12" s="1">
-        <f t="shared" si="15"/>
-        <v>-0.18644493068295864</v>
+        <f t="shared" si="11"/>
+        <v>-9.3923477877279726E-2</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="12"/>
+        <v>1.3608779354942386</v>
       </c>
       <c r="AS12">
         <f t="shared" si="16"/>
-        <v>-1.0230016864752769</v>
+        <v>3.4838500001342383</v>
       </c>
       <c r="AT12" s="1">
         <f t="shared" si="17"/>
-        <v>0.80326086302262867</v>
+        <v>-0.18644493068295864</v>
       </c>
       <c r="AU12">
         <f t="shared" si="18"/>
+        <v>-1.0230016864752769</v>
+      </c>
+      <c r="AV12" s="1">
+        <f t="shared" si="19"/>
+        <v>0.80326086302262867</v>
+      </c>
+      <c r="AW12">
+        <f t="shared" si="20"/>
         <v>6.1668986777884784</v>
       </c>
-      <c r="AV12">
-        <f t="shared" si="11"/>
+      <c r="AX12">
+        <f t="shared" si="13"/>
         <v>1906.5175356346383</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>97.959816765100001</v>
       </c>
@@ -2619,7 +2722,7 @@
         <v>1798642.8269394999</v>
       </c>
       <c r="AM13" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.63505177287921766</v>
       </c>
       <c r="AN13">
@@ -2630,35 +2733,43 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3515009622558487</v>
       </c>
       <c r="AQ13">
-        <f t="shared" si="14"/>
-        <v>3.4595118310265036</v>
-      </c>
-      <c r="AR13" s="1">
-        <f t="shared" si="15"/>
-        <v>-0.19624109206117743</v>
+        <f t="shared" si="11"/>
+        <v>-8.8678819210161741E-2</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="12"/>
+        <v>1.3594109987045153</v>
       </c>
       <c r="AS13">
         <f t="shared" si="16"/>
-        <v>-1.2192427785364544</v>
+        <v>3.4595118310265036</v>
       </c>
       <c r="AT13" s="1">
         <f t="shared" si="17"/>
-        <v>0.79195392662077879</v>
+        <v>-0.19624109206117743</v>
       </c>
       <c r="AU13">
         <f t="shared" si="18"/>
+        <v>-1.2192427785364544</v>
+      </c>
+      <c r="AV13" s="1">
+        <f t="shared" si="19"/>
+        <v>0.79195392662077879</v>
+      </c>
+      <c r="AW13">
+        <f t="shared" si="20"/>
         <v>6.9588526044092571</v>
       </c>
-      <c r="AV13">
-        <f t="shared" si="11"/>
+      <c r="AX13">
+        <f t="shared" si="13"/>
         <v>2142.1675735633012</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>109.06347563</v>
       </c>
@@ -2785,7 +2896,7 @@
         <v>1977343.6949454998</v>
       </c>
       <c r="AM14" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.64146818324027988</v>
       </c>
       <c r="AN14">
@@ -2796,35 +2907,43 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3411157643469349</v>
       </c>
       <c r="AQ14">
-        <f t="shared" si="14"/>
-        <v>3.4253333696048442</v>
-      </c>
-      <c r="AR14" s="1">
-        <f t="shared" si="15"/>
-        <v>-0.19327790522622817</v>
+        <f t="shared" si="11"/>
+        <v>-8.8437284218419121E-2</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="12"/>
+        <v>1.3581323811731396</v>
       </c>
       <c r="AS14">
         <f t="shared" si="16"/>
-        <v>-1.4125206837626825</v>
+        <v>3.4253333696048442</v>
       </c>
       <c r="AT14" s="1">
         <f t="shared" si="17"/>
-        <v>0.74754036487324993</v>
+        <v>-0.19327790522622817</v>
       </c>
       <c r="AU14">
         <f t="shared" si="18"/>
+        <v>-1.4125206837626825</v>
+      </c>
+      <c r="AV14" s="1">
+        <f t="shared" si="19"/>
+        <v>0.74754036487324993</v>
+      </c>
+      <c r="AW14">
+        <f t="shared" si="20"/>
         <v>7.7063929692825068</v>
       </c>
-      <c r="AV14">
-        <f t="shared" si="11"/>
+      <c r="AX14">
+        <f t="shared" si="13"/>
         <v>2361.2133516477543</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>119.92295608800001</v>
       </c>
@@ -2951,7 +3070,7 @@
         <v>2144755.1031145002</v>
       </c>
       <c r="AM15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.6138879207343545</v>
       </c>
       <c r="AN15">
@@ -2962,35 +3081,43 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3291799095516921</v>
       </c>
       <c r="AQ15">
-        <f t="shared" si="14"/>
-        <v>3.386576359388374</v>
-      </c>
-      <c r="AR15" s="1">
-        <f t="shared" si="15"/>
-        <v>-0.15137709003761479</v>
+        <f t="shared" si="11"/>
+        <v>-9.1079591729153364E-2</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="12"/>
+        <v>1.3566779581793642</v>
       </c>
       <c r="AS15">
         <f t="shared" si="16"/>
-        <v>-1.5638977738002973</v>
+        <v>3.386576359388374</v>
       </c>
       <c r="AT15" s="1">
         <f t="shared" si="17"/>
-        <v>0.71504702609468807</v>
+        <v>-0.15137709003761479</v>
       </c>
       <c r="AU15">
         <f t="shared" si="18"/>
+        <v>-1.5638977738002973</v>
+      </c>
+      <c r="AV15" s="1">
+        <f t="shared" si="19"/>
+        <v>0.71504702609468807</v>
+      </c>
+      <c r="AW15">
+        <f t="shared" si="20"/>
         <v>8.4214399953771952</v>
       </c>
-      <c r="AV15">
-        <f t="shared" si="11"/>
+      <c r="AX15">
+        <f t="shared" si="13"/>
         <v>2568.1640328165322</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>130.217041959</v>
       </c>
@@ -3117,7 +3244,7 @@
         <v>2285570.4841089998</v>
       </c>
       <c r="AM16" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.68370605893109881</v>
       </c>
       <c r="AN16">
@@ -3128,35 +3255,43 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3147613573283785</v>
       </c>
       <c r="AQ16">
-        <f t="shared" si="14"/>
-        <v>3.340489929504721</v>
-      </c>
-      <c r="AR16" s="1">
-        <f t="shared" si="15"/>
-        <v>-0.20818333014394974</v>
+        <f t="shared" si="11"/>
+        <v>-9.7868975529099345E-2</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" si="12"/>
+        <v>1.3561308502824347</v>
       </c>
       <c r="AS16">
         <f t="shared" si="16"/>
-        <v>-1.772081103944247</v>
+        <v>3.340489929504721</v>
       </c>
       <c r="AT16" s="1">
         <f t="shared" si="17"/>
-        <v>0.6360151943659953</v>
+        <v>-0.20818333014394974</v>
       </c>
       <c r="AU16">
         <f t="shared" si="18"/>
+        <v>-1.772081103944247</v>
+      </c>
+      <c r="AV16" s="1">
+        <f t="shared" si="19"/>
+        <v>0.6360151943659953</v>
+      </c>
+      <c r="AW16">
+        <f t="shared" si="20"/>
         <v>9.057455189743191</v>
       </c>
-      <c r="AV16">
-        <f t="shared" si="11"/>
+      <c r="AX16">
+        <f t="shared" si="13"/>
         <v>2743.74210855725</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>135.49069329700001</v>
       </c>
@@ -3283,7 +3418,7 @@
         <v>2171373.4943349999</v>
       </c>
       <c r="AM17" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-1.3999915111946777</v>
       </c>
       <c r="AN17">
@@ -3294,35 +3429,43 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.2548072059110469</v>
       </c>
       <c r="AQ17">
-        <f t="shared" si="14"/>
-        <v>3.1570233560918926</v>
-      </c>
-      <c r="AR17" s="1">
-        <f t="shared" si="15"/>
-        <v>5.162943704071752E-2</v>
+        <f t="shared" si="11"/>
+        <v>-0.15829123099166353</v>
+      </c>
+      <c r="AR17">
+        <f t="shared" si="12"/>
+        <v>1.3652853847882489</v>
       </c>
       <c r="AS17">
         <f t="shared" si="16"/>
-        <v>-1.7204516669035295</v>
+        <v>3.1570233560918926</v>
       </c>
       <c r="AT17" s="1">
         <f t="shared" si="17"/>
-        <v>-4.5893103466053707E-2</v>
+        <v>5.162943704071752E-2</v>
       </c>
       <c r="AU17">
         <f t="shared" si="18"/>
+        <v>-1.7204516669035295</v>
+      </c>
+      <c r="AV17" s="1">
+        <f t="shared" si="19"/>
+        <v>-4.5893103466053707E-2</v>
+      </c>
+      <c r="AW17">
+        <f t="shared" si="20"/>
         <v>9.011562086277138</v>
       </c>
-      <c r="AV17">
-        <f t="shared" si="11"/>
+      <c r="AX17">
+        <f t="shared" si="13"/>
         <v>2613.9918083277498</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>130.89123858100001</v>
       </c>
@@ -3449,7 +3592,7 @@
         <v>1756875.9963530002</v>
       </c>
       <c r="AM18" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-1.2785159650966373</v>
       </c>
       <c r="AN18">
@@ -3460,35 +3603,43 @@
         <v>162709.28305112128</v>
       </c>
       <c r="AP18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.1473155427948749</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="14"/>
-        <v>2.8578158925006512</v>
-      </c>
-      <c r="AR18" s="1">
-        <f t="shared" si="15"/>
-        <v>1.0298069889172143</v>
+        <f t="shared" si="11"/>
+        <v>-0.2783297849058648</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" si="12"/>
+        <v>1.3849149788578716</v>
       </c>
       <c r="AS18">
         <f t="shared" si="16"/>
-        <v>-0.69064467798631513</v>
+        <v>2.8578158925006512</v>
       </c>
       <c r="AT18" s="1">
         <f t="shared" si="17"/>
-        <v>-1.0046600499814224</v>
+        <v>1.0298069889172143</v>
       </c>
       <c r="AU18">
         <f t="shared" si="18"/>
+        <v>-0.69064467798631513</v>
+      </c>
+      <c r="AV18" s="1">
+        <f t="shared" si="19"/>
+        <v>-1.0046600499814224</v>
+      </c>
+      <c r="AW18">
+        <f t="shared" si="20"/>
         <v>8.0069020362957151</v>
       </c>
-      <c r="AV18">
-        <f t="shared" si="11"/>
+      <c r="AX18">
+        <f t="shared" si="13"/>
         <v>2131.3086696379314</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>129.31573498500001</v>
       </c>
@@ -3575,7 +3726,7 @@
         <v>-4.3352486826864656</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>129.56028019199999</v>
       </c>

--- a/SMP_2PP.xlsx
+++ b/SMP_2PP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t># avgT</t>
   </si>
@@ -145,51 +145,55 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>s_n_real_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev_ela</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev_pla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>er_from_ev</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev_pla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev/deq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dratio_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dratio-M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev/deq-ratioF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>dev/deq_pred</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>s_n_real_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ev_ela</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ev_pla</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>eq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>er_from_ev</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev_pla</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev/deq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>K_phi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dratio-M</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dratio_pred</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -521,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX20"/>
+  <dimension ref="A1:AY20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AR1" sqref="AR1:AR1048576"/>
+      <selection activeCell="AP3" sqref="AP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -544,17 +548,17 @@
     <col min="28" max="28" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.109375" customWidth="1"/>
-    <col min="36" max="36" width="12.88671875" customWidth="1"/>
-    <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.77734375" customWidth="1"/>
-    <col min="43" max="44" width="10.44140625" customWidth="1"/>
-    <col min="46" max="46" width="12.44140625" customWidth="1"/>
-    <col min="47" max="47" width="11.21875" customWidth="1"/>
-    <col min="50" max="50" width="13.33203125" customWidth="1"/>
-    <col min="51" max="1028" width="11.5546875"/>
+    <col min="36" max="37" width="12.88671875" customWidth="1"/>
+    <col min="42" max="42" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.77734375" customWidth="1"/>
+    <col min="44" max="45" width="10.44140625" customWidth="1"/>
+    <col min="47" max="47" width="12.44140625" customWidth="1"/>
+    <col min="48" max="48" width="11.21875" customWidth="1"/>
+    <col min="51" max="51" width="13.33203125" customWidth="1"/>
+    <col min="52" max="1029" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -640,73 +644,76 @@
         <v>27</v>
       </c>
       <c r="AC1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>43</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>44</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>45</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS1" t="s">
         <v>46</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AT1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.200083855177</v>
       </c>
@@ -793,7 +800,7 @@
         <v>-2.3187252118361812E-8</v>
       </c>
       <c r="AC2">
-        <f>1.34 *((AK2/100000)^0.3-(2594/100000)^0.3)</f>
+        <f>1.34 *((AL2/100000)^0.3-(2594/100000)^0.3)</f>
         <v>4.9630478843653058E-3</v>
       </c>
       <c r="AD2">
@@ -808,54 +815,53 @@
         <f t="shared" ref="AF2:AF18" si="1">AB2-P2/2</f>
         <v>-2.3187252118361812E-8</v>
       </c>
-      <c r="AJ2">
-        <f>(( 1.588*EXP(-0.0005387*2*232))^2-AP2^2)/(2*AP2)+0.4</f>
-        <v>0.4382839127048892</v>
-      </c>
-      <c r="AK2">
-        <f t="shared" ref="AK2:AK18" si="2">(X2+Y2+Z2)/3</f>
+      <c r="AL2">
+        <f t="shared" ref="AL2:AL18" si="2">(X2+Y2+Z2)/3</f>
         <v>2691.0299018966666</v>
       </c>
-      <c r="AL2">
-        <f t="shared" ref="AL2:AL18" si="3">Z2-(Y2+X2)/2</f>
+      <c r="AM2">
+        <f t="shared" ref="AM2:AM18" si="3">Z2-(Y2+X2)/2</f>
         <v>3226.8073422049997</v>
       </c>
-      <c r="AM2" s="1">
-        <f>(-2*AI2-3)/(-2*AI2+6)</f>
+      <c r="AN2" s="1">
+        <f>(-2*AJ2-3)/(-2*AJ2+6)</f>
         <v>-0.5</v>
       </c>
-      <c r="AN2">
-        <f t="shared" ref="AN2:AN18" si="4">1/(2+AM2*AS2-2*0.33*(1+AM2+AS2))</f>
-        <v>0.5988023952095809</v>
-      </c>
-      <c r="AO2" s="1" t="e">
-        <f>3*(1-2*0.33)*(AK2-AK1)/(AC2-AC1)</f>
+      <c r="AO2">
+        <f t="shared" ref="AO2:AO18" si="4">1/(2+AN2*AT2-2*0.33*(1+AN2+AT2))</f>
+        <v>-0.22624434389140272</v>
+      </c>
+      <c r="AP2" s="1" t="e">
+        <f>3*(1-2*0.33)*(AL2-AL1)/(AC2-AC1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AP2">
-        <f>AL2/AK2</f>
+      <c r="AQ2">
+        <f>AM2/AL2</f>
         <v>1.1990975425173505</v>
       </c>
-      <c r="AQ2">
-        <f>AL2/AK2-(1.35*(AK2/3255000)^-0.0723)</f>
-        <v>-1.0562220670498046</v>
-      </c>
       <c r="AR2">
-        <f>1.35*(AK2/3255000)^-0.0723-1.386/(AE2+1.27)+0.03463</f>
+        <f>-1.386/(AE2+1.27)+0.03463</f>
+        <v>-1.0567085760353956</v>
+      </c>
+      <c r="AS2">
+        <f>1.35*(AL2/3255000)^-0.0723-1.386/(AE2+1.27)+0.03463</f>
         <v>1.1986110335317595</v>
       </c>
-      <c r="AU2">
+      <c r="AT2">
+        <v>5.25</v>
+      </c>
+      <c r="AV2">
         <v>0</v>
       </c>
-      <c r="AW2">
+      <c r="AX2">
         <v>0</v>
       </c>
-      <c r="AX2">
-        <f>(AS2*X2-4*X2*(1-0.01*P2-2*0.01*AF2)*(0.08/0.4)/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+0.08/0.4+1))/1000</f>
-        <v>-1.0930520740821261</v>
+      <c r="AY2">
+        <f>(AT2*X2-4*X2*(1-0.01*P2-2*0.01*AF2)*(0.08/0.4)/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+0.08/0.4+1))/1000</f>
+        <v>7.5147330109778725</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2.8026869856899999</v>
       </c>
@@ -942,7 +948,7 @@
         <v>0.63442165348475132</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC18" si="5">1.34 *((AK3/100000)^0.3-(2594/100000)^0.3)</f>
+        <f t="shared" ref="AC3:AC18" si="5">1.34 *((AL3/100000)^0.3-(2594/100000)^0.3)</f>
         <v>0.55202938656764189</v>
       </c>
       <c r="AD3">
@@ -970,66 +976,70 @@
         <v>-0.11074208538079086</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ18" si="10">(( 1.588*EXP(-0.0005387*2*232))^2-AP3^2)/(2*AP3)+0.4</f>
-        <v>0.41168556181764598</v>
-      </c>
-      <c r="AK3" s="1">
+        <f>-(1.35-(1.35*(AL3/3255000)^-0.0723))+0.2354+1.382*AR3</f>
+        <v>-0.13365318531268788</v>
+      </c>
+      <c r="AK3">
+        <f>AI3+(1.35-(1.35*(AL3/3255000)^-0.0723))</f>
+        <v>-0.62419518553100561</v>
+      </c>
+      <c r="AL3" s="1">
         <f t="shared" si="2"/>
         <v>37703.912981300004</v>
       </c>
-      <c r="AL3" s="1">
+      <c r="AM3" s="1">
         <f t="shared" si="3"/>
         <v>46193.277502650002</v>
       </c>
-      <c r="AM3" s="1">
-        <f>(-2*AI3-3)/(-2*AI3+6)</f>
-        <v>-0.44660016050451445</v>
-      </c>
       <c r="AN3" s="1">
+        <f>(-2*AJ3-3)/(-2*AJ3+6)</f>
+        <v>-0.43602362287292262</v>
+      </c>
+      <c r="AO3" s="1">
         <f t="shared" si="4"/>
-        <v>-0.56706196267877862</v>
-      </c>
-      <c r="AO3" s="3">
-        <v>162709.28305112128</v>
-      </c>
-      <c r="AP3">
-        <f>AL3/AK3</f>
+        <v>-0.57538160924588255</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>120000</v>
+      </c>
+      <c r="AQ3">
+        <f>AM3/AL3</f>
         <v>1.2251587129845241</v>
       </c>
-      <c r="AQ3">
-        <f t="shared" ref="AQ3:AQ18" si="11">AL3/AK3-(1.35*(AK3/3255000)^-0.0723)</f>
-        <v>-0.63829438716569076</v>
-      </c>
       <c r="AR3">
-        <f t="shared" ref="AR3:AR18" si="12">1.35*(AK3/3255000)^-0.0723-1.386/(AE3+1.27)+0.03463</f>
+        <f>-1.386/(AE3+1.27)+0.03463</f>
+        <v>-0.63857184186895999</v>
+      </c>
+      <c r="AS3">
+        <f t="shared" ref="AS3:AS18" si="10">1.35*(AL3/3255000)^-0.0723-1.386/(AE3+1.27)+0.03463</f>
         <v>1.2248812582812547</v>
       </c>
-      <c r="AS3" s="1">
-        <f>(2*AP3+3)/(3-AP3)</f>
+      <c r="AT3" s="1">
+        <f>(2*AQ3+3)/(3-AQ3)</f>
         <v>3.0708759514683996</v>
       </c>
-      <c r="AT3" s="1">
-        <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>1.7895882157900354E-2</v>
-      </c>
       <c r="AU3" s="1">
-        <f>(AU2+AT3)</f>
-        <v>1.7895882157900354E-2</v>
+        <f>(1+2*AN3)*(AL3-AL2)*(1-AQ3/3)/(3*AO3*AP3*AN3)</f>
+        <v>2.9345889913356037E-2</v>
       </c>
       <c r="AV3" s="1">
-        <f>2*(1-AM3)*(AK3-AK2)*(1-AP3/3)/(9*AN3*AO3*AM3)</f>
-        <v>0.16159964927845355</v>
+        <f>(AV2+AU3)</f>
+        <v>2.9345889913356037E-2</v>
       </c>
       <c r="AW3" s="1">
-        <f>AW2+AV3</f>
-        <v>0.16159964927845355</v>
-      </c>
-      <c r="AX3">
-        <f t="shared" ref="AX3:AX18" si="13">(AS3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
+        <f>2*(1-AN3)*(AL3-AL2)*(1-AQ3/3)/(9*AO3*AP3*AN3)</f>
+        <v>0.21956745620914278</v>
+      </c>
+      <c r="AX3" s="1">
+        <f>AX2+AW3</f>
+        <v>0.21956745620914278</v>
+      </c>
+      <c r="AY3">
+        <f t="shared" ref="AY3:AY18" si="11">(AT3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
         <v>54.365336687304591</v>
       </c>
     </row>
-    <row r="4" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>7.8844281171999997</v>
       </c>
@@ -1144,66 +1154,70 @@
         <v>8.9969369627914908E-2</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="10"/>
-        <v>0.35904075542480302</v>
+        <f t="shared" ref="AJ4:AJ22" si="12">-(1.35-(1.35*(AL4/3255000)^-0.0723))+0.2354+1.382*AR4</f>
+        <v>1.5889953479462093E-2</v>
       </c>
       <c r="AK4">
+        <f t="shared" ref="AK4:AK18" si="13">AI4+(1.35-(1.35*(AL4/3255000)^-0.0723))</f>
+        <v>-0.28837080116051617</v>
+      </c>
+      <c r="AL4">
         <f t="shared" si="2"/>
         <v>106787.34644183335</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <f t="shared" si="3"/>
         <v>136519.75885225</v>
       </c>
-      <c r="AM4" s="1">
-        <f t="shared" ref="AM4:AM18" si="14">(-2*AI4-3)/(-2*AI4+6)</f>
-        <v>-0.54637547558206179</v>
-      </c>
-      <c r="AN4">
+      <c r="AN4" s="1">
+        <f t="shared" ref="AN4:AN18" si="14">(-2*AJ4-3)/(-2*AJ4+6)</f>
+        <v>-0.50798728258932158</v>
+      </c>
+      <c r="AO4">
         <f t="shared" si="4"/>
-        <v>-0.45593376239768474</v>
-      </c>
-      <c r="AO4" s="3">
-        <v>162709.28305112128</v>
-      </c>
-      <c r="AP4">
-        <f t="shared" ref="AP4:AP18" si="15">AL4/AK4</f>
+        <v>-0.47738876750944015</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>120000</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" ref="AQ4:AQ18" si="15">AM4/AL4</f>
         <v>1.2784263623088694</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
+        <f>-1.386/(AE4+1.27)+0.03463</f>
+        <v>-0.43259784175757532</v>
+      </c>
+      <c r="AS4">
+        <f t="shared" si="10"/>
+        <v>1.2957423290308558</v>
+      </c>
+      <c r="AT4">
+        <f t="shared" ref="AT4:AT18" si="16">(2*AQ4+3)/(3-AQ4)</f>
+        <v>3.227775218532186</v>
+      </c>
+      <c r="AU4" s="1">
+        <f t="shared" ref="AU4:AU18" si="17">(1+2*AN4)*(AL4-AL3)*(1-AQ4/3)/(3*AO4*AP4*AN4)</f>
+        <v>-7.2540370880943266E-3</v>
+      </c>
+      <c r="AV4">
+        <f t="shared" ref="AV4:AV18" si="18">AV3+AU4</f>
+        <v>2.2091852825261708E-2</v>
+      </c>
+      <c r="AW4" s="1">
+        <f t="shared" ref="AW4:AW18" si="19">2*(1-AN4)*(AL4-AL3)*(1-AQ4/3)/(9*AO4*AP4*AN4)</f>
+        <v>0.45651720110258653</v>
+      </c>
+      <c r="AX4">
+        <f>AX3+AW4</f>
+        <v>0.67608465731172929</v>
+      </c>
+      <c r="AY4">
         <f t="shared" si="11"/>
-        <v>-0.44991380847956175</v>
-      </c>
-      <c r="AR4">
-        <f t="shared" si="12"/>
-        <v>1.2957423290308558</v>
-      </c>
-      <c r="AS4">
-        <f t="shared" ref="AS4:AS18" si="16">(2*AP4+3)/(3-AP4)</f>
-        <v>3.227775218532186</v>
-      </c>
-      <c r="AT4" s="1">
-        <f t="shared" ref="AT4:AT18" si="17">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>-3.023918610960153E-2</v>
-      </c>
-      <c r="AU4">
-        <f t="shared" ref="AU4:AU18" si="18">AU3+AT4</f>
-        <v>-1.2343303951701176E-2</v>
-      </c>
-      <c r="AV4" s="1">
-        <f t="shared" ref="AV4:AV18" si="19">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
-        <v>0.33610534601566383</v>
-      </c>
-      <c r="AW4">
-        <f>AW3+AV4</f>
-        <v>0.49770499529411738</v>
-      </c>
-      <c r="AX4">
-        <f t="shared" si="13"/>
         <v>160.48713074337977</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15.028438339299999</v>
       </c>
@@ -1318,66 +1332,70 @@
         <v>0.19277198405871621</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="10"/>
-        <v>0.33228093927339025</v>
+        <f t="shared" si="12"/>
+        <v>9.9546810021534149E-2</v>
       </c>
       <c r="AK5">
+        <f t="shared" si="13"/>
+        <v>-0.10983163666915507</v>
+      </c>
+      <c r="AL5">
         <f t="shared" si="2"/>
         <v>198464.7302633333</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <f t="shared" si="3"/>
         <v>259266.52142049998</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AN5" s="1">
         <f t="shared" si="14"/>
-        <v>-0.60300480561110303</v>
-      </c>
-      <c r="AN5">
+        <v>-0.55148168415481646</v>
+      </c>
+      <c r="AO5">
         <f t="shared" si="4"/>
-        <v>-0.40856094182579328</v>
-      </c>
-      <c r="AO5" s="3">
-        <v>162709.28305112128</v>
-      </c>
-      <c r="AP5">
+        <v>-0.4327369136561583</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>120000</v>
+      </c>
+      <c r="AQ5">
         <f t="shared" si="15"/>
         <v>1.3063606872439839</v>
       </c>
-      <c r="AQ5">
-        <f t="shared" si="11"/>
-        <v>-0.34624293348388746</v>
-      </c>
       <c r="AR5">
-        <f t="shared" si="12"/>
+        <f>-1.386/(AE5+1.27)+0.03463</f>
+        <v>-0.31726252583671288</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" si="10"/>
         <v>1.3353410948911584</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <f t="shared" si="16"/>
         <v>3.3140004085961667</v>
       </c>
-      <c r="AT5" s="1">
+      <c r="AU5" s="1">
         <f t="shared" si="17"/>
-        <v>-8.8662129861149186E-2</v>
-      </c>
-      <c r="AU5">
+        <v>-6.2027901264448543E-2</v>
+      </c>
+      <c r="AV5">
         <f t="shared" si="18"/>
-        <v>-0.10100543381285036</v>
-      </c>
-      <c r="AV5" s="1">
+        <v>-3.9936048439186835E-2</v>
+      </c>
+      <c r="AW5" s="1">
         <f t="shared" si="19"/>
-        <v>0.45993265200893335</v>
-      </c>
-      <c r="AW5">
-        <f>AW4+AV5</f>
-        <v>0.95763764730305079</v>
+        <v>0.6231028523267651</v>
       </c>
       <c r="AX5">
-        <f t="shared" si="13"/>
+        <f>AX4+AW5</f>
+        <v>1.2991875096384944</v>
+      </c>
+      <c r="AY5">
+        <f t="shared" si="11"/>
         <v>305.59690770020325</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>23.366001454100001</v>
       </c>
@@ -1492,66 +1510,70 @@
         <v>6.6666663472654346E-4</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="10"/>
-        <v>0.30417326939129286</v>
+        <f t="shared" si="12"/>
+        <v>0.13831111862923356</v>
       </c>
       <c r="AK6">
+        <f t="shared" si="13"/>
+        <v>-0.24855467100647527</v>
+      </c>
+      <c r="AL6">
         <f t="shared" si="2"/>
         <v>312549.49699266668</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <f t="shared" si="3"/>
         <v>417666.95242850005</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AN6" s="1">
         <f t="shared" si="14"/>
-        <v>-0.50033340740789478</v>
-      </c>
-      <c r="AN6">
+        <v>-0.57249798512145478</v>
+      </c>
+      <c r="AO6">
         <f t="shared" si="4"/>
-        <v>-0.43741245233931986</v>
-      </c>
-      <c r="AO6" s="3">
-        <v>162709.28305112128</v>
-      </c>
-      <c r="AP6">
+        <v>-0.40247880336436537</v>
+      </c>
+      <c r="AP6" s="3">
+        <v>120000</v>
+      </c>
+      <c r="AQ6">
         <f t="shared" si="15"/>
         <v>1.3363225871334541</v>
       </c>
-      <c r="AQ6">
-        <f t="shared" si="11"/>
-        <v>-0.2628987505077478</v>
-      </c>
       <c r="AR6">
-        <f t="shared" si="12"/>
+        <f>-1.386/(AE6+1.27)+0.03463</f>
+        <v>-0.25058626556582364</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" si="10"/>
         <v>1.3486350720753781</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <f t="shared" si="16"/>
         <v>3.4097025844047728</v>
       </c>
-      <c r="AT6" s="1">
+      <c r="AU6" s="1">
         <f t="shared" si="17"/>
-        <v>-3.9490854831278533E-4</v>
-      </c>
-      <c r="AU6">
+        <v>-0.11058901258936654</v>
+      </c>
+      <c r="AV6">
         <f t="shared" si="18"/>
-        <v>-0.10140034236116315</v>
-      </c>
-      <c r="AV6" s="1">
+        <v>-0.15052506102855337</v>
+      </c>
+      <c r="AW6" s="1">
         <f t="shared" si="19"/>
-        <v>0.59236285084944229</v>
-      </c>
-      <c r="AW6">
-        <f t="shared" ref="AW6:AW18" si="20">AW5+AV6</f>
-        <v>1.5500004981524931</v>
+        <v>0.79956704627499331</v>
       </c>
       <c r="AX6">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="AX6:AX18" si="20">AX5+AW6</f>
+        <v>2.0987545559134877</v>
+      </c>
+      <c r="AY6">
+        <f t="shared" si="11"/>
         <v>492.94413798949682</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32.700695932499997</v>
       </c>
@@ -1666,66 +1688,70 @@
         <v>0.2297789426055418</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="10"/>
-        <v>0.28674142818623</v>
+        <f t="shared" si="12"/>
+        <v>0.16658026038136164</v>
       </c>
       <c r="AK7">
+        <f t="shared" si="13"/>
+        <v>1.9988980547508334E-2</v>
+      </c>
+      <c r="AL7">
         <f t="shared" si="2"/>
         <v>441452.11121466663</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <f t="shared" si="3"/>
         <v>598265.88940549991</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AN7" s="1">
         <f t="shared" si="14"/>
-        <v>-0.62441910113573817</v>
-      </c>
-      <c r="AN7">
+        <v>-0.5881868602375423</v>
+      </c>
+      <c r="AO7">
         <f t="shared" si="4"/>
-        <v>-0.36938352610632968</v>
-      </c>
-      <c r="AO7" s="3">
-        <v>162709.28305112128</v>
-      </c>
-      <c r="AP7">
+        <v>-0.38382807370145744</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>120000</v>
+      </c>
+      <c r="AQ7">
         <f t="shared" si="15"/>
         <v>1.3552226259816862</v>
       </c>
-      <c r="AQ7">
-        <f t="shared" si="11"/>
-        <v>-0.20456733607634736</v>
-      </c>
       <c r="AR7">
-        <f t="shared" si="12"/>
+        <f>-1.386/(AE7+1.27)+0.03463</f>
+        <v>-0.20159891582971914</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" si="10"/>
         <v>1.3581910462283144</v>
       </c>
-      <c r="AS7">
+      <c r="AT7">
         <f t="shared" si="16"/>
         <v>3.4718651546210957</v>
       </c>
-      <c r="AT7" s="1">
+      <c r="AU7" s="1">
         <f t="shared" si="17"/>
-        <v>-0.15619868021789537</v>
-      </c>
-      <c r="AU7">
+        <v>-0.1533652313553821</v>
+      </c>
+      <c r="AV7">
         <f t="shared" si="18"/>
-        <v>-0.25759902257905853</v>
-      </c>
-      <c r="AV7" s="1">
+        <v>-0.3038902923839355</v>
+      </c>
+      <c r="AW7" s="1">
         <f t="shared" si="19"/>
-        <v>0.67977804426595967</v>
-      </c>
-      <c r="AW7">
+        <v>0.92066869750518132</v>
+      </c>
+      <c r="AX7">
         <f t="shared" si="20"/>
-        <v>2.2297785424184529</v>
-      </c>
-      <c r="AX7">
-        <f t="shared" si="13"/>
+        <v>3.0194232534186689</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" si="11"/>
         <v>707.26118805332396</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>42.669404995000001</v>
       </c>
@@ -1840,66 +1866,70 @@
         <v>0.11323347460248688</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="10"/>
-        <v>0.2772531206456107</v>
+        <f t="shared" si="12"/>
+        <v>0.18262617407504952</v>
       </c>
       <c r="AK8">
+        <f t="shared" si="13"/>
+        <v>-6.6140632797213286E-2</v>
+      </c>
+      <c r="AL8">
         <f t="shared" si="2"/>
         <v>579660.74060000002</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <f t="shared" si="3"/>
         <v>791591.73232499987</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AN8" s="1">
         <f t="shared" si="14"/>
-        <v>-0.55883752995242364</v>
-      </c>
-      <c r="AN8">
+        <v>-0.59723213106895368</v>
+      </c>
+      <c r="AO8">
         <f t="shared" si="4"/>
-        <v>-0.38983279504992641</v>
-      </c>
-      <c r="AO8" s="3">
-        <v>162709.28305112128</v>
-      </c>
-      <c r="AP8">
+        <v>-0.37390190311203697</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>120000</v>
+      </c>
+      <c r="AQ8">
         <f t="shared" si="15"/>
         <v>1.3656121190916477</v>
       </c>
-      <c r="AQ8">
-        <f t="shared" si="11"/>
-        <v>-0.16376198830805255</v>
-      </c>
       <c r="AR8">
-        <f t="shared" si="12"/>
+        <f>-1.386/(AE8+1.27)+0.03463</f>
+        <v>-0.16797969126241002</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="10"/>
         <v>1.3613944161372902</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <f t="shared" si="16"/>
         <v>3.5066487613687047</v>
       </c>
-      <c r="AT8" s="1">
+      <c r="AU8" s="1">
         <f t="shared" si="17"/>
-        <v>-8.3321282182404907E-2</v>
-      </c>
-      <c r="AU8">
+        <v>-0.18214006937111923</v>
+      </c>
+      <c r="AV8">
         <f t="shared" si="18"/>
-        <v>-0.34092030476146346</v>
-      </c>
-      <c r="AV8" s="1">
+        <v>-0.48603036175505476</v>
+      </c>
+      <c r="AW8" s="1">
         <f t="shared" si="19"/>
-        <v>0.73583613392514469</v>
-      </c>
-      <c r="AW8">
+        <v>0.9973382528194974</v>
+      </c>
+      <c r="AX8">
         <f t="shared" si="20"/>
-        <v>2.9656146763435975</v>
-      </c>
-      <c r="AX8">
-        <f t="shared" si="13"/>
+        <v>4.0167615062381667</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" si="11"/>
         <v>936.11469677757157</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>53.192396357699998</v>
       </c>
@@ -2014,66 +2044,70 @@
         <v>0.25614555927382932</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="10"/>
-        <v>0.27311659590632353</v>
+        <f t="shared" si="12"/>
+        <v>0.19483965458063887</v>
       </c>
       <c r="AK9">
+        <f t="shared" si="13"/>
+        <v>0.10132504833385481</v>
+      </c>
+      <c r="AL9">
         <f t="shared" si="2"/>
         <v>725093.87252199987</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <f t="shared" si="3"/>
         <v>993497.51078699995</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AN9" s="1">
         <f t="shared" si="14"/>
-        <v>-0.64002868855137196</v>
-      </c>
-      <c r="AN9">
+        <v>-0.60418637292809252</v>
+      </c>
+      <c r="AO9">
         <f t="shared" si="4"/>
-        <v>-0.35507348569117525</v>
-      </c>
-      <c r="AO9" s="3">
-        <v>162709.28305112128</v>
-      </c>
-      <c r="AP9">
+        <v>-0.3684955854217723</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>120000</v>
+      </c>
+      <c r="AQ9">
         <f t="shared" si="15"/>
         <v>1.3701639862593882</v>
       </c>
-      <c r="AQ9">
-        <f t="shared" si="11"/>
-        <v>-0.13465652468058642</v>
-      </c>
       <c r="AR9">
-        <f t="shared" si="12"/>
+        <f>-1.386/(AE9+1.27)+0.03463</f>
+        <v>-0.14137543875494621</v>
+      </c>
+      <c r="AS9">
+        <f t="shared" si="10"/>
         <v>1.3634450721850284</v>
       </c>
-      <c r="AS9">
+      <c r="AT9">
         <f t="shared" si="16"/>
         <v>3.5220279366291809</v>
       </c>
-      <c r="AT9" s="1">
+      <c r="AU9" s="1">
         <f t="shared" si="17"/>
-        <v>-0.19947191554722368</v>
-      </c>
-      <c r="AU9">
+        <v>-0.20540982418750869</v>
+      </c>
+      <c r="AV9">
         <f t="shared" si="18"/>
-        <v>-0.54039222030868717</v>
-      </c>
-      <c r="AV9" s="1">
+        <v>-0.6914401859425634</v>
+      </c>
+      <c r="AW9" s="1">
         <f t="shared" si="19"/>
-        <v>0.77874438312623917</v>
-      </c>
-      <c r="AW9">
+        <v>1.0542506074013545</v>
+      </c>
+      <c r="AX9">
         <f t="shared" si="20"/>
-        <v>3.7443590594698368</v>
-      </c>
-      <c r="AX9">
-        <f t="shared" si="13"/>
+        <v>5.0710121136395214</v>
+      </c>
+      <c r="AY9">
+        <f t="shared" si="11"/>
         <v>1175.6239317602474</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>64.125454629800004</v>
       </c>
@@ -2188,66 +2222,70 @@
         <v>0.18967887126291841</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="10"/>
-        <v>0.27186785320480822</v>
+        <f t="shared" si="12"/>
+        <v>0.20223939502671939</v>
       </c>
       <c r="AK10">
+        <f t="shared" si="13"/>
+        <v>5.5290502958180193E-2</v>
+      </c>
+      <c r="AL10">
         <f t="shared" si="2"/>
         <v>876017.18164433341</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <f t="shared" si="3"/>
         <v>1201493.2976485002</v>
       </c>
-      <c r="AM10" s="1">
+      <c r="AN10" s="1">
         <f t="shared" si="14"/>
-        <v>-0.60124049667670409</v>
-      </c>
-      <c r="AN10">
+        <v>-0.60842925302501938</v>
+      </c>
+      <c r="AO10">
         <f t="shared" si="4"/>
-        <v>-0.36884120104216567</v>
-      </c>
-      <c r="AO10" s="3">
-        <v>162709.28305112128</v>
-      </c>
-      <c r="AP10">
+        <v>-0.36605876153489236</v>
+      </c>
+      <c r="AP10" s="3">
+        <v>120000</v>
+      </c>
+      <c r="AQ10">
         <f t="shared" si="15"/>
         <v>1.3715407903224339</v>
       </c>
-      <c r="AQ10">
-        <f t="shared" si="11"/>
-        <v>-0.11284757798230438</v>
-      </c>
       <c r="AR10">
-        <f t="shared" si="12"/>
+        <f>-1.386/(AE10+1.27)+0.03463</f>
+        <v>-0.12123659426774155</v>
+      </c>
+      <c r="AS10">
+        <f t="shared" si="10"/>
         <v>1.3631517740369967</v>
       </c>
-      <c r="AS10">
+      <c r="AT10">
         <f t="shared" si="16"/>
         <v>3.5266966139004454</v>
       </c>
-      <c r="AT10" s="1">
+      <c r="AU10" s="1">
         <f t="shared" si="17"/>
-        <v>-0.15324099846104236</v>
-      </c>
-      <c r="AU10">
+        <v>-0.22157717294727755</v>
+      </c>
+      <c r="AV10">
         <f t="shared" si="18"/>
-        <v>-0.6936332187697295</v>
-      </c>
-      <c r="AV10" s="1">
+        <v>-0.91301735888984092</v>
+      </c>
+      <c r="AW10" s="1">
         <f t="shared" si="19"/>
-        <v>0.80789703903620991</v>
-      </c>
-      <c r="AW10">
+        <v>1.0956182543861113</v>
+      </c>
+      <c r="AX10">
         <f t="shared" si="20"/>
-        <v>4.5522560985060467</v>
-      </c>
-      <c r="AX10">
-        <f t="shared" si="13"/>
+        <v>6.1666303680256327</v>
+      </c>
+      <c r="AY10">
+        <f t="shared" si="11"/>
         <v>1424.3196858457177</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>75.4317555863</v>
       </c>
@@ -2362,66 +2400,70 @@
         <v>0.1761483333410791</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="10"/>
-        <v>0.2770461026522012</v>
+        <f t="shared" si="12"/>
+        <v>0.20734822137561043</v>
       </c>
       <c r="AK11">
+        <f t="shared" si="13"/>
+        <v>5.8877101742463356E-2</v>
+      </c>
+      <c r="AL11">
         <f t="shared" si="2"/>
         <v>1028448.6459476665</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <f t="shared" si="3"/>
         <v>1404695.8866935</v>
       </c>
-      <c r="AM11" s="1">
+      <c r="AN11" s="1">
         <f t="shared" si="14"/>
-        <v>-0.59356812297589179</v>
-      </c>
-      <c r="AN11">
+        <v>-0.61137168423362098</v>
+      </c>
+      <c r="AO11">
         <f t="shared" si="4"/>
-        <v>-0.37523043010938423</v>
-      </c>
-      <c r="AO11" s="3">
-        <v>162709.28305112128</v>
-      </c>
-      <c r="AP11">
+        <v>-0.36822604125474484</v>
+      </c>
+      <c r="AP11" s="3">
+        <v>120000</v>
+      </c>
+      <c r="AQ11">
         <f t="shared" si="15"/>
         <v>1.3658395995058552</v>
       </c>
-      <c r="AQ11">
-        <f t="shared" si="11"/>
-        <v>-0.10143163209276063</v>
-      </c>
       <c r="AR11">
-        <f t="shared" si="12"/>
+        <f>-1.386/(AE11+1.27)+0.03463</f>
+        <v>-0.10515413185456246</v>
+      </c>
+      <c r="AS11">
+        <f t="shared" si="10"/>
         <v>1.3621170997440533</v>
       </c>
-      <c r="AS11">
+      <c r="AT11">
         <f t="shared" si="16"/>
         <v>3.5074153046901264</v>
       </c>
-      <c r="AT11" s="1">
+      <c r="AU11" s="1">
         <f t="shared" si="17"/>
-        <v>-0.14292353702258878</v>
-      </c>
-      <c r="AU11">
+        <v>-0.22820781465379278</v>
+      </c>
+      <c r="AV11">
         <f t="shared" si="18"/>
-        <v>-0.83655675579231825</v>
-      </c>
-      <c r="AV11" s="1">
+        <v>-1.1412251735436336</v>
+      </c>
+      <c r="AW11" s="1">
         <f t="shared" si="19"/>
-        <v>0.81138171625980327</v>
-      </c>
-      <c r="AW11">
+        <v>1.100601746857502</v>
+      </c>
+      <c r="AX11">
         <f t="shared" si="20"/>
-        <v>5.3636378147658501</v>
-      </c>
-      <c r="AX11">
-        <f t="shared" si="13"/>
+        <v>7.2672321148831349</v>
+      </c>
+      <c r="AY11">
+        <f t="shared" si="11"/>
         <v>1667.6431045936072</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>86.739260263199995</v>
       </c>
@@ -2536,66 +2578,70 @@
         <v>0.23211006444578428</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="10"/>
-        <v>0.28345116978456075</v>
+        <f t="shared" si="12"/>
+        <v>0.21118634714548667</v>
       </c>
       <c r="AK12">
+        <f t="shared" si="13"/>
+        <v>0.1293693322270639</v>
+      </c>
+      <c r="AL12">
         <f t="shared" si="2"/>
         <v>1180226.3532186665</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <f t="shared" si="3"/>
         <v>1603711.9327819999</v>
       </c>
-      <c r="AM12" s="1">
+      <c r="AN12" s="1">
         <f t="shared" si="14"/>
-        <v>-0.62578718979985859</v>
-      </c>
-      <c r="AN12">
+        <v>-0.61358934663633324</v>
+      </c>
+      <c r="AO12">
         <f t="shared" si="4"/>
-        <v>-0.36677459966570114</v>
-      </c>
-      <c r="AO12" s="3">
-        <v>162709.28305112128</v>
-      </c>
-      <c r="AP12">
+        <v>-0.37146753734682481</v>
+      </c>
+      <c r="AP12" s="3">
+        <v>120000</v>
+      </c>
+      <c r="AQ12">
         <f t="shared" si="15"/>
         <v>1.3588172543414407</v>
       </c>
-      <c r="AQ12">
-        <f t="shared" si="11"/>
-        <v>-9.3923477877279726E-2</v>
-      </c>
       <c r="AR12">
-        <f t="shared" si="12"/>
+        <f>-1.386/(AE12+1.27)+0.03463</f>
+        <v>-9.1862796724481693E-2</v>
+      </c>
+      <c r="AS12">
+        <f t="shared" si="10"/>
         <v>1.3608779354942386</v>
       </c>
-      <c r="AS12">
+      <c r="AT12">
         <f t="shared" si="16"/>
         <v>3.4838500001342383</v>
       </c>
-      <c r="AT12" s="1">
+      <c r="AU12" s="1">
         <f t="shared" si="17"/>
-        <v>-0.18644493068295864</v>
-      </c>
-      <c r="AU12">
+        <v>-0.22988471443997036</v>
+      </c>
+      <c r="AV12">
         <f t="shared" si="18"/>
-        <v>-1.0230016864752769</v>
-      </c>
-      <c r="AV12" s="1">
+        <v>-1.3711098879836039</v>
+      </c>
+      <c r="AW12" s="1">
         <f t="shared" si="19"/>
-        <v>0.80326086302262867</v>
-      </c>
-      <c r="AW12">
+        <v>1.0885396596286707</v>
+      </c>
+      <c r="AX12">
         <f t="shared" si="20"/>
-        <v>6.1668986777884784</v>
-      </c>
-      <c r="AX12">
-        <f t="shared" si="13"/>
+        <v>8.3557717745118048</v>
+      </c>
+      <c r="AY12">
+        <f t="shared" si="11"/>
         <v>1906.5175356346383</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>97.959816765100001</v>
       </c>
@@ -2710,66 +2756,70 @@
         <v>0.24779357165198596</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="10"/>
-        <v>0.29015633302732102</v>
+        <f t="shared" si="12"/>
+        <v>0.21395732368962428</v>
       </c>
       <c r="AK13">
+        <f t="shared" si="13"/>
+        <v>0.1576137901859756</v>
+      </c>
+      <c r="AL13">
         <f t="shared" si="2"/>
         <v>1330848.3509603334</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <f t="shared" si="3"/>
         <v>1798642.8269394999</v>
       </c>
-      <c r="AM13" s="1">
+      <c r="AN13" s="1">
         <f t="shared" si="14"/>
-        <v>-0.63505177287921766</v>
-      </c>
-      <c r="AN13">
+        <v>-0.61519421014736919</v>
+      </c>
+      <c r="AO13">
         <f t="shared" si="4"/>
-        <v>-0.36749671484104429</v>
-      </c>
-      <c r="AO13" s="3">
-        <v>162709.28305112128</v>
-      </c>
-      <c r="AP13">
+        <v>-0.37516113947091589</v>
+      </c>
+      <c r="AP13" s="3">
+        <v>120000</v>
+      </c>
+      <c r="AQ13">
         <f t="shared" si="15"/>
         <v>1.3515009622558487</v>
       </c>
-      <c r="AQ13">
-        <f t="shared" si="11"/>
-        <v>-8.8678819210161741E-2</v>
-      </c>
       <c r="AR13">
-        <f t="shared" si="12"/>
+        <f>-1.386/(AE13+1.27)+0.03463</f>
+        <v>-8.0768782761494989E-2</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="10"/>
         <v>1.3594109987045153</v>
       </c>
-      <c r="AS13">
+      <c r="AT13">
         <f t="shared" si="16"/>
         <v>3.4595118310265036</v>
       </c>
-      <c r="AT13" s="1">
+      <c r="AU13" s="1">
         <f t="shared" si="17"/>
-        <v>-0.19624109206117743</v>
-      </c>
-      <c r="AU13">
+        <v>-0.22950064326148401</v>
+      </c>
+      <c r="AV13">
         <f t="shared" si="18"/>
-        <v>-1.2192427785364544</v>
-      </c>
-      <c r="AV13" s="1">
+        <v>-1.600610531245088</v>
+      </c>
+      <c r="AW13" s="1">
         <f t="shared" si="19"/>
-        <v>0.79195392662077879</v>
-      </c>
-      <c r="AW13">
+        <v>1.072646821823251</v>
+      </c>
+      <c r="AX13">
         <f t="shared" si="20"/>
-        <v>6.9588526044092571</v>
-      </c>
-      <c r="AX13">
-        <f t="shared" si="13"/>
+        <v>9.4284185963350566</v>
+      </c>
+      <c r="AY13">
+        <f t="shared" si="11"/>
         <v>2142.1675735633012</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>109.06347563</v>
       </c>
@@ -2884,66 +2934,70 @@
         <v>0.25855179774673392</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="10"/>
-        <v>0.29973114447919574</v>
+        <f t="shared" si="12"/>
+        <v>0.21624968622931356</v>
       </c>
       <c r="AK14">
+        <f t="shared" si="13"/>
+        <v>0.17899874918137998</v>
+      </c>
+      <c r="AL14">
         <f t="shared" si="2"/>
         <v>1474401.9476263335</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <f t="shared" si="3"/>
         <v>1977343.6949454998</v>
       </c>
-      <c r="AM14" s="1">
+      <c r="AN14" s="1">
         <f t="shared" si="14"/>
-        <v>-0.64146818324027988</v>
-      </c>
-      <c r="AN14">
+        <v>-0.61652429017766097</v>
+      </c>
+      <c r="AO14">
         <f t="shared" si="4"/>
-        <v>-0.37111350501498974</v>
-      </c>
-      <c r="AO14" s="3">
-        <v>162709.28305112128</v>
-      </c>
-      <c r="AP14">
+        <v>-0.38086311871768991</v>
+      </c>
+      <c r="AP14" s="3">
+        <v>120000</v>
+      </c>
+      <c r="AQ14">
         <f t="shared" si="15"/>
         <v>1.3411157643469349</v>
       </c>
-      <c r="AQ14">
-        <f t="shared" si="11"/>
-        <v>-8.8437284218419121E-2</v>
-      </c>
       <c r="AR14">
-        <f t="shared" si="12"/>
+        <f>-1.386/(AE14+1.27)+0.03463</f>
+        <v>-7.1420667392214449E-2</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="10"/>
         <v>1.3581323811731396</v>
       </c>
-      <c r="AS14">
+      <c r="AT14">
         <f t="shared" si="16"/>
         <v>3.4253333696048442</v>
       </c>
-      <c r="AT14" s="1">
+      <c r="AU14" s="1">
         <f t="shared" si="17"/>
-        <v>-0.19327790522622817</v>
-      </c>
-      <c r="AU14">
+        <v>-0.21884355100722661</v>
+      </c>
+      <c r="AV14">
         <f t="shared" si="18"/>
-        <v>-1.4125206837626825</v>
-      </c>
-      <c r="AV14" s="1">
+        <v>-1.8194540822523146</v>
+      </c>
+      <c r="AW14" s="1">
         <f t="shared" si="19"/>
-        <v>0.74754036487324993</v>
-      </c>
-      <c r="AW14">
+        <v>1.0119947678220562</v>
+      </c>
+      <c r="AX14">
         <f t="shared" si="20"/>
-        <v>7.7063929692825068</v>
-      </c>
-      <c r="AX14">
-        <f t="shared" si="13"/>
+        <v>10.440413364157113</v>
+      </c>
+      <c r="AY14">
+        <f t="shared" si="11"/>
         <v>2361.2133516477543</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>119.92295608800001</v>
       </c>
@@ -3058,66 +3112,70 @@
         <v>0.21170228602219121</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="10"/>
-        <v>0.31082018976652587</v>
+        <f t="shared" si="12"/>
+        <v>0.2177898087145983</v>
       </c>
       <c r="AK15">
+        <f t="shared" si="13"/>
+        <v>0.14144278474134586</v>
+      </c>
+      <c r="AL15">
         <f t="shared" si="2"/>
         <v>1613592.7783003331</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <f t="shared" si="3"/>
         <v>2144755.1031145002</v>
       </c>
-      <c r="AM15" s="1">
+      <c r="AN15" s="1">
         <f t="shared" si="14"/>
-        <v>-0.6138879207343545</v>
-      </c>
-      <c r="AN15">
+        <v>-0.61741913464883347</v>
+      </c>
+      <c r="AO15">
         <f t="shared" si="4"/>
-        <v>-0.3892636887436669</v>
-      </c>
-      <c r="AO15" s="3">
-        <v>162709.28305112128</v>
-      </c>
-      <c r="AP15">
+        <v>-0.3878102228713543</v>
+      </c>
+      <c r="AP15" s="3">
+        <v>120000</v>
+      </c>
+      <c r="AQ15">
         <f t="shared" si="15"/>
         <v>1.3291799095516921</v>
       </c>
-      <c r="AQ15">
-        <f t="shared" si="11"/>
-        <v>-9.1079591729153364E-2</v>
-      </c>
       <c r="AR15">
-        <f t="shared" si="12"/>
+        <f>-1.386/(AE15+1.27)+0.03463</f>
+        <v>-6.358154310148123E-2</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="10"/>
         <v>1.3566779581793642</v>
       </c>
-      <c r="AS15">
+      <c r="AT15">
         <f t="shared" si="16"/>
         <v>3.386576359388374</v>
       </c>
-      <c r="AT15" s="1">
+      <c r="AU15" s="1">
         <f t="shared" si="17"/>
-        <v>-0.15137709003761479</v>
-      </c>
-      <c r="AU15">
+        <v>-0.21119619676128426</v>
+      </c>
+      <c r="AV15">
         <f t="shared" si="18"/>
-        <v>-1.5638977738002973</v>
-      </c>
-      <c r="AV15" s="1">
+        <v>-2.030650279013599</v>
+      </c>
+      <c r="AW15" s="1">
         <f t="shared" si="19"/>
-        <v>0.71504702609468807</v>
-      </c>
-      <c r="AW15">
+        <v>0.9697248829399796</v>
+      </c>
+      <c r="AX15">
         <f t="shared" si="20"/>
-        <v>8.4214399953771952</v>
-      </c>
-      <c r="AX15">
-        <f t="shared" si="13"/>
+        <v>11.410138247097093</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="11"/>
         <v>2568.1640328165322</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>130.217041959</v>
       </c>
@@ -3232,66 +3290,70 @@
         <v>0.32732446015141975</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="10"/>
-        <v>0.32433979829909243</v>
+        <f t="shared" si="12"/>
+        <v>0.21994804793876821</v>
       </c>
       <c r="AK16">
+        <f t="shared" si="13"/>
+        <v>0.26469412729394198</v>
+      </c>
+      <c r="AL16">
         <f t="shared" si="2"/>
         <v>1738391.8924673332</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <f t="shared" si="3"/>
         <v>2285570.4841089998</v>
       </c>
-      <c r="AM16" s="1">
+      <c r="AN16" s="1">
         <f t="shared" si="14"/>
-        <v>-0.68370605893109881</v>
-      </c>
-      <c r="AN16">
+        <v>-0.61867478651380448</v>
+      </c>
+      <c r="AO16">
         <f t="shared" si="4"/>
-        <v>-0.37072866463366788</v>
-      </c>
-      <c r="AO16" s="3">
-        <v>162709.28305112128</v>
-      </c>
-      <c r="AP16">
+        <v>-0.3963417830412741</v>
+      </c>
+      <c r="AP16" s="3">
+        <v>120000</v>
+      </c>
+      <c r="AQ16">
         <f t="shared" si="15"/>
         <v>1.3147613573283785</v>
       </c>
-      <c r="AQ16">
-        <f t="shared" si="11"/>
-        <v>-9.7868975529099345E-2</v>
-      </c>
       <c r="AR16">
-        <f t="shared" si="12"/>
+        <f>-1.386/(AE16+1.27)+0.03463</f>
+        <v>-5.6499482575043107E-2</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="10"/>
         <v>1.3561308502824347</v>
       </c>
-      <c r="AS16">
+      <c r="AT16">
         <f t="shared" si="16"/>
         <v>3.340489929504721</v>
       </c>
-      <c r="AT16" s="1">
+      <c r="AU16" s="1">
         <f t="shared" si="17"/>
-        <v>-0.20818333014394974</v>
-      </c>
-      <c r="AU16">
+        <v>-0.18849738732554316</v>
+      </c>
+      <c r="AV16">
         <f t="shared" si="18"/>
-        <v>-1.772081103944247</v>
-      </c>
-      <c r="AV16" s="1">
+        <v>-2.2191476663391421</v>
+      </c>
+      <c r="AW16" s="1">
         <f t="shared" si="19"/>
-        <v>0.6360151943659953</v>
-      </c>
-      <c r="AW16">
+        <v>0.85700868496918625</v>
+      </c>
+      <c r="AX16">
         <f t="shared" si="20"/>
-        <v>9.057455189743191</v>
-      </c>
-      <c r="AX16">
-        <f t="shared" si="13"/>
+        <v>12.267146932066279</v>
+      </c>
+      <c r="AY16">
+        <f t="shared" si="11"/>
         <v>2743.74210855725</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>135.49069329700001</v>
       </c>
@@ -3406,66 +3468,70 @@
         <v>1.1249933680973849</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="10"/>
-        <v>0.38211122950247106</v>
+        <f t="shared" si="12"/>
+        <v>0.23242079888052447</v>
       </c>
       <c r="AK17">
+        <f t="shared" si="13"/>
+        <v>1.0618949311946746</v>
+      </c>
+      <c r="AL17">
         <f t="shared" si="2"/>
         <v>1730443.9152933334</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <f t="shared" si="3"/>
         <v>2171373.4943349999</v>
       </c>
-      <c r="AM17" s="1">
+      <c r="AN17" s="1">
         <f t="shared" si="14"/>
-        <v>-1.3999915111946777</v>
-      </c>
-      <c r="AN17">
+        <v>-0.62596972768828685</v>
+      </c>
+      <c r="AO17">
         <f t="shared" si="4"/>
-        <v>-0.23587982574713737</v>
-      </c>
-      <c r="AO17" s="3">
-        <v>162709.28305112128</v>
-      </c>
-      <c r="AP17">
+        <v>-0.43352041490019766</v>
+      </c>
+      <c r="AP17" s="3">
+        <v>120000</v>
+      </c>
+      <c r="AQ17">
         <f t="shared" si="15"/>
         <v>1.2548072059110469</v>
       </c>
-      <c r="AQ17">
-        <f t="shared" si="11"/>
-        <v>-0.15829123099166353</v>
-      </c>
       <c r="AR17">
-        <f t="shared" si="12"/>
+        <f>-1.386/(AE17+1.27)+0.03463</f>
+        <v>-4.7813052114461539E-2</v>
+      </c>
+      <c r="AS17">
+        <f t="shared" si="10"/>
         <v>1.3652853847882489</v>
       </c>
-      <c r="AS17">
+      <c r="AT17">
         <f t="shared" si="16"/>
         <v>3.1570233560918926</v>
       </c>
-      <c r="AT17" s="1">
+      <c r="AU17" s="1">
         <f t="shared" si="17"/>
-        <v>5.162943704071752E-2</v>
-      </c>
-      <c r="AU17">
+        <v>1.1923659578937949E-2</v>
+      </c>
+      <c r="AV17">
         <f t="shared" si="18"/>
-        <v>-1.7204516669035295</v>
-      </c>
-      <c r="AV17" s="1">
+        <v>-2.207224006760204</v>
+      </c>
+      <c r="AW17" s="1">
         <f t="shared" si="19"/>
-        <v>-4.5893103466053707E-2</v>
-      </c>
-      <c r="AW17">
+        <v>-5.1302033365212225E-2</v>
+      </c>
+      <c r="AX17">
         <f t="shared" si="20"/>
-        <v>9.011562086277138</v>
-      </c>
-      <c r="AX17">
-        <f t="shared" si="13"/>
+        <v>12.215844898701066</v>
+      </c>
+      <c r="AY17">
+        <f t="shared" si="11"/>
         <v>2613.9918083277498</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>130.89123858100001</v>
       </c>
@@ -3580,66 +3646,70 @@
         <v>1.025030296503038</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="10"/>
-        <v>0.49296233035315518</v>
+        <f t="shared" si="12"/>
+        <v>0.25475598559989593</v>
       </c>
       <c r="AK18">
+        <f t="shared" si="13"/>
+        <v>0.94938496880229839</v>
+      </c>
+      <c r="AL18">
         <f t="shared" si="2"/>
         <v>1531292.7706646668</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <f t="shared" si="3"/>
         <v>1756875.9963530002</v>
       </c>
-      <c r="AM18" s="1">
+      <c r="AN18" s="1">
         <f t="shared" si="14"/>
-        <v>-1.2785159650966373</v>
-      </c>
-      <c r="AN18">
+        <v>-0.63919854715842028</v>
+      </c>
+      <c r="AO18">
         <f t="shared" si="4"/>
-        <v>-0.29796479355422317</v>
-      </c>
-      <c r="AO18" s="3">
-        <v>162709.28305112128</v>
-      </c>
-      <c r="AP18">
+        <v>-0.51255786911094847</v>
+      </c>
+      <c r="AP18" s="3">
+        <v>120000</v>
+      </c>
+      <c r="AQ18">
         <f t="shared" si="15"/>
         <v>1.1473155427948749</v>
       </c>
-      <c r="AQ18">
-        <f t="shared" si="11"/>
-        <v>-0.2783297849058648</v>
-      </c>
       <c r="AR18">
-        <f t="shared" si="12"/>
+        <f>-1.386/(AE18+1.27)+0.03463</f>
+        <v>-4.0730348842868074E-2</v>
+      </c>
+      <c r="AS18">
+        <f t="shared" si="10"/>
         <v>1.3849149788578716</v>
       </c>
-      <c r="AS18">
+      <c r="AT18">
         <f t="shared" si="16"/>
         <v>2.8578158925006512</v>
       </c>
-      <c r="AT18" s="1">
+      <c r="AU18" s="1">
         <f t="shared" si="17"/>
-        <v>1.0298069889172143</v>
-      </c>
-      <c r="AU18">
+        <v>0.29029965717747763</v>
+      </c>
+      <c r="AV18">
         <f t="shared" si="18"/>
-        <v>-0.69064467798631513</v>
-      </c>
-      <c r="AV18" s="1">
+        <v>-1.9169243495827264</v>
+      </c>
+      <c r="AW18" s="1">
         <f t="shared" si="19"/>
-        <v>-1.0046600499814224</v>
-      </c>
-      <c r="AW18">
+        <v>-1.1395204571695694</v>
+      </c>
+      <c r="AX18">
         <f t="shared" si="20"/>
-        <v>8.0069020362957151</v>
-      </c>
-      <c r="AX18">
-        <f t="shared" si="13"/>
+        <v>11.076324441531497</v>
+      </c>
+      <c r="AY18">
+        <f t="shared" si="11"/>
         <v>2131.3086696379314</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>129.31573498500001</v>
       </c>
@@ -3726,7 +3796,7 @@
         <v>-4.3352486826864656</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>129.56028019199999</v>
       </c>

--- a/SMP_2PP.xlsx
+++ b/SMP_2PP.xlsx
@@ -525,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY20"/>
+  <dimension ref="A1:AY21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AP3" sqref="AP3"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -840,7 +840,7 @@
         <v>1.1990975425173505</v>
       </c>
       <c r="AR2">
-        <f>-1.386/(AE2+1.27)+0.03463</f>
+        <f t="shared" ref="AR2:AR18" si="5">-1.386/(AE2+1.27)+0.03463</f>
         <v>-1.0567085760353956</v>
       </c>
       <c r="AS2">
@@ -948,15 +948,15 @@
         <v>0.63442165348475132</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC18" si="5">1.34 *((AL3/100000)^0.3-(2594/100000)^0.3)</f>
+        <f t="shared" ref="AC3:AC18" si="6">1.34 *((AL3/100000)^0.3-(2594/100000)^0.3)</f>
         <v>0.55202938656764189</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD18" si="6">AB3-AC3</f>
+        <f t="shared" ref="AD3:AD18" si="7">AB3-AC3</f>
         <v>8.2392266917109436E-2</v>
       </c>
       <c r="AE3" s="2">
-        <f t="shared" ref="AE3:AE18" si="7">P3-AB3/3</f>
+        <f t="shared" ref="AE3:AE18" si="8">P3-AB3/3</f>
         <v>0.78881789650508294</v>
       </c>
       <c r="AF3">
@@ -964,15 +964,15 @@
         <v>0.1342757629847513</v>
       </c>
       <c r="AG3" s="1">
-        <f t="shared" ref="AG3:AH18" si="8">AD3-AD2</f>
+        <f t="shared" ref="AG3:AH18" si="9">AD3-AD2</f>
         <v>8.7355337988726856E-2</v>
       </c>
       <c r="AH3" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.7888178887759989</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AI18" si="9">-AG3/AH3</f>
+        <f t="shared" ref="AI3:AI18" si="10">-AG3/AH3</f>
         <v>-0.11074208538079086</v>
       </c>
       <c r="AJ3">
@@ -1000,18 +1000,18 @@
         <v>-0.57538160924588255</v>
       </c>
       <c r="AP3" s="3">
-        <v>120000</v>
+        <v>102718.40575454501</v>
       </c>
       <c r="AQ3">
         <f>AM3/AL3</f>
         <v>1.2251587129845241</v>
       </c>
       <c r="AR3">
-        <f>-1.386/(AE3+1.27)+0.03463</f>
+        <f t="shared" si="5"/>
         <v>-0.63857184186895999</v>
       </c>
       <c r="AS3">
-        <f t="shared" ref="AS3:AS18" si="10">1.35*(AL3/3255000)^-0.0723-1.386/(AE3+1.27)+0.03463</f>
+        <f t="shared" ref="AS3:AS18" si="11">1.35*(AL3/3255000)^-0.0723-1.386/(AE3+1.27)+0.03463</f>
         <v>1.2248812582812547</v>
       </c>
       <c r="AT3" s="1">
@@ -1020,22 +1020,22 @@
       </c>
       <c r="AU3" s="1">
         <f>(1+2*AN3)*(AL3-AL2)*(1-AQ3/3)/(3*AO3*AP3*AN3)</f>
-        <v>2.9345889913356037E-2</v>
+        <v>3.4283113758771591E-2</v>
       </c>
       <c r="AV3" s="1">
         <f>(AV2+AU3)</f>
-        <v>2.9345889913356037E-2</v>
+        <v>3.4283113758771591E-2</v>
       </c>
       <c r="AW3" s="1">
         <f>2*(1-AN3)*(AL3-AL2)*(1-AQ3/3)/(9*AO3*AP3*AN3)</f>
-        <v>0.21956745620914278</v>
+        <v>0.25650801870950274</v>
       </c>
       <c r="AX3" s="1">
         <f>AX2+AW3</f>
-        <v>0.21956745620914278</v>
+        <v>0.25650801870950274</v>
       </c>
       <c r="AY3">
-        <f t="shared" ref="AY3:AY18" si="11">(AT3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
+        <f t="shared" ref="AY3:AY18" si="12">(AT3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
         <v>54.365336687304591</v>
       </c>
     </row>
@@ -1126,15 +1126,15 @@
         <v>0.91937718517532963</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.91864245997976202</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.3472519556760929E-4</v>
       </c>
       <c r="AE4" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6964328109948899</v>
       </c>
       <c r="AF4">
@@ -1142,23 +1142,23 @@
         <v>-8.2068751184670274E-2</v>
       </c>
       <c r="AG4" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8.1657541721541826E-2</v>
       </c>
       <c r="AH4" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.90761491448980691</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.9969369627914908E-2</v>
       </c>
       <c r="AJ4">
-        <f t="shared" ref="AJ4:AJ22" si="12">-(1.35-(1.35*(AL4/3255000)^-0.0723))+0.2354+1.382*AR4</f>
+        <f t="shared" ref="AJ4:AJ18" si="13">-(1.35-(1.35*(AL4/3255000)^-0.0723))+0.2354+1.382*AR4</f>
         <v>1.5889953479462093E-2</v>
       </c>
       <c r="AK4">
-        <f t="shared" ref="AK4:AK18" si="13">AI4+(1.35-(1.35*(AL4/3255000)^-0.0723))</f>
+        <f t="shared" ref="AK4:AK18" si="14">AI4+(1.35-(1.35*(AL4/3255000)^-0.0723))</f>
         <v>-0.28837080116051617</v>
       </c>
       <c r="AL4">
@@ -1170,7 +1170,7 @@
         <v>136519.75885225</v>
       </c>
       <c r="AN4" s="1">
-        <f t="shared" ref="AN4:AN18" si="14">(-2*AJ4-3)/(-2*AJ4+6)</f>
+        <f t="shared" ref="AN4:AN18" si="15">(-2*AJ4-3)/(-2*AJ4+6)</f>
         <v>-0.50798728258932158</v>
       </c>
       <c r="AO4">
@@ -1178,42 +1178,42 @@
         <v>-0.47738876750944015</v>
       </c>
       <c r="AP4" s="3">
-        <v>120000</v>
+        <v>102718.40575454501</v>
       </c>
       <c r="AQ4">
-        <f t="shared" ref="AQ4:AQ18" si="15">AM4/AL4</f>
+        <f t="shared" ref="AQ4:AQ18" si="16">AM4/AL4</f>
         <v>1.2784263623088694</v>
       </c>
       <c r="AR4">
-        <f>-1.386/(AE4+1.27)+0.03463</f>
+        <f t="shared" si="5"/>
         <v>-0.43259784175757532</v>
       </c>
       <c r="AS4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2957423290308558</v>
       </c>
       <c r="AT4">
-        <f t="shared" ref="AT4:AT18" si="16">(2*AQ4+3)/(3-AQ4)</f>
+        <f t="shared" ref="AT4:AT18" si="17">(2*AQ4+3)/(3-AQ4)</f>
         <v>3.227775218532186</v>
       </c>
       <c r="AU4" s="1">
-        <f t="shared" ref="AU4:AU18" si="17">(1+2*AN4)*(AL4-AL3)*(1-AQ4/3)/(3*AO4*AP4*AN4)</f>
-        <v>-7.2540370880943266E-3</v>
+        <f t="shared" ref="AU4:AU18" si="18">(1+2*AN4)*(AL4-AL3)*(1-AQ4/3)/(3*AO4*AP4*AN4)</f>
+        <v>-8.4744739190308407E-3</v>
       </c>
       <c r="AV4">
-        <f t="shared" ref="AV4:AV18" si="18">AV3+AU4</f>
-        <v>2.2091852825261708E-2</v>
+        <f t="shared" ref="AV4:AV18" si="19">AV3+AU4</f>
+        <v>2.580863983974075E-2</v>
       </c>
       <c r="AW4" s="1">
-        <f t="shared" ref="AW4:AW18" si="19">2*(1-AN4)*(AL4-AL3)*(1-AQ4/3)/(9*AO4*AP4*AN4)</f>
-        <v>0.45651720110258653</v>
+        <f t="shared" ref="AW4:AW18" si="20">2*(1-AN4)*(AL4-AL3)*(1-AQ4/3)/(9*AO4*AP4*AN4)</f>
+        <v>0.53332276459992101</v>
       </c>
       <c r="AX4">
         <f>AX3+AW4</f>
-        <v>0.67608465731172929</v>
+        <v>0.7898307833094238</v>
       </c>
       <c r="AY4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>160.48713074337977</v>
       </c>
     </row>
@@ -1304,15 +1304,15 @@
         <v>1.0112140982188045</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1979057457656637</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.18669164754685919</v>
       </c>
       <c r="AE5" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.6687025817170649</v>
       </c>
       <c r="AF5">
@@ -1320,23 +1320,23 @@
         <v>-0.49167287567619544</v>
       </c>
       <c r="AG5" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.18742637274242679</v>
       </c>
       <c r="AH5" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.97226977072217502</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.19277198405871621</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.9546810021534149E-2</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.10983163666915507</v>
       </c>
       <c r="AL5">
@@ -1348,7 +1348,7 @@
         <v>259266.52142049998</v>
       </c>
       <c r="AN5" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.55148168415481646</v>
       </c>
       <c r="AO5">
@@ -1356,42 +1356,42 @@
         <v>-0.4327369136561583</v>
       </c>
       <c r="AP5" s="3">
-        <v>120000</v>
+        <v>102718.40575454501</v>
       </c>
       <c r="AQ5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.3063606872439839</v>
       </c>
       <c r="AR5">
-        <f>-1.386/(AE5+1.27)+0.03463</f>
+        <f t="shared" si="5"/>
         <v>-0.31726252583671288</v>
       </c>
       <c r="AS5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3353410948911584</v>
       </c>
       <c r="AT5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.3140004085961667</v>
       </c>
       <c r="AU5" s="1">
-        <f t="shared" si="17"/>
-        <v>-6.2027901264448543E-2</v>
+        <f t="shared" si="18"/>
+        <v>-7.2463626134544809E-2</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="18"/>
-        <v>-3.9936048439186835E-2</v>
+        <f t="shared" si="19"/>
+        <v>-4.6654986294804059E-2</v>
       </c>
       <c r="AW5" s="1">
-        <f t="shared" si="19"/>
-        <v>0.6231028523267651</v>
+        <f t="shared" si="20"/>
+        <v>0.72793519067933288</v>
       </c>
       <c r="AX5">
         <f>AX4+AW5</f>
-        <v>1.2991875096384944</v>
+        <v>1.5177659739887566</v>
       </c>
       <c r="AY5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>305.59690770020325</v>
       </c>
     </row>
@@ -1482,15 +1482,15 @@
         <v>1.2508444616565417</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4381499543859098</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.18730549272936803</v>
       </c>
       <c r="AE6" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.5894703995944859</v>
       </c>
       <c r="AF6">
@@ -1498,23 +1498,23 @@
         <v>-0.75236481508345809</v>
       </c>
       <c r="AG6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-6.1384518250884312E-4</v>
       </c>
       <c r="AH6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.92076781787742101</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.6666663472654346E-4</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.13831111862923356</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.24855467100647527</v>
       </c>
       <c r="AL6">
@@ -1526,7 +1526,7 @@
         <v>417666.95242850005</v>
       </c>
       <c r="AN6" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.57249798512145478</v>
       </c>
       <c r="AO6">
@@ -1534,42 +1534,42 @@
         <v>-0.40247880336436537</v>
       </c>
       <c r="AP6" s="3">
-        <v>120000</v>
+        <v>102718.40575454501</v>
       </c>
       <c r="AQ6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.3363225871334541</v>
       </c>
       <c r="AR6">
-        <f>-1.386/(AE6+1.27)+0.03463</f>
+        <f t="shared" si="5"/>
         <v>-0.25058626556582364</v>
       </c>
       <c r="AS6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3486350720753781</v>
       </c>
       <c r="AT6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.4097025844047728</v>
       </c>
       <c r="AU6" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.11058901258936654</v>
+        <f t="shared" si="18"/>
+        <v>-0.12919477685854555</v>
       </c>
       <c r="AV6">
-        <f t="shared" si="18"/>
-        <v>-0.15052506102855337</v>
+        <f t="shared" si="19"/>
+        <v>-0.1758497631533496</v>
       </c>
       <c r="AW6" s="1">
-        <f t="shared" si="19"/>
-        <v>0.79956704627499331</v>
+        <f t="shared" si="20"/>
+        <v>0.93408814952089314</v>
       </c>
       <c r="AX6">
-        <f t="shared" ref="AX6:AX18" si="20">AX5+AW6</f>
-        <v>2.0987545559134877</v>
+        <f t="shared" ref="AX6:AX18" si="21">AX5+AW6</f>
+        <v>2.4518541235096496</v>
       </c>
       <c r="AY6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>492.94413798949682</v>
       </c>
     </row>
@@ -1660,15 +1660,15 @@
         <v>1.2251628486510846</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6440211510990856</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.41885830244800104</v>
       </c>
       <c r="AE7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.5971902850329718</v>
       </c>
       <c r="AF7">
@@ -1676,23 +1676,23 @@
         <v>-1.2776261019739152</v>
       </c>
       <c r="AG7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.23155280971863301</v>
       </c>
       <c r="AH7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0077198854384859</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.2297789426055418</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.16658026038136164</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.9988980547508334E-2</v>
       </c>
       <c r="AL7">
@@ -1704,7 +1704,7 @@
         <v>598265.88940549991</v>
       </c>
       <c r="AN7" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.5881868602375423</v>
       </c>
       <c r="AO7">
@@ -1712,42 +1712,42 @@
         <v>-0.38382807370145744</v>
       </c>
       <c r="AP7" s="3">
-        <v>120000</v>
+        <v>102718.40575454501</v>
       </c>
       <c r="AQ7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.3552226259816862</v>
       </c>
       <c r="AR7">
-        <f>-1.386/(AE7+1.27)+0.03463</f>
+        <f t="shared" si="5"/>
         <v>-0.20159891582971914</v>
       </c>
       <c r="AS7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3581910462283144</v>
       </c>
       <c r="AT7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.4718651546210957</v>
       </c>
       <c r="AU7" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.1533652313553821</v>
+        <f t="shared" si="18"/>
+        <v>-0.17916777063911485</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="18"/>
-        <v>-0.3038902923839355</v>
+        <f t="shared" si="19"/>
+        <v>-0.35501753379246448</v>
       </c>
       <c r="AW7" s="1">
-        <f t="shared" si="19"/>
-        <v>0.92066869750518132</v>
+        <f t="shared" si="20"/>
+        <v>1.0755642368965925</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="20"/>
-        <v>3.0194232534186689</v>
+        <f t="shared" si="21"/>
+        <v>3.5274183604062421</v>
       </c>
       <c r="AY7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>707.26118805332396</v>
       </c>
     </row>
@@ -1838,15 +1838,15 @@
         <v>1.2930476660156898</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8221442627669238</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.52909659675123399</v>
       </c>
       <c r="AE8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.5707389170981036</v>
       </c>
       <c r="AF8">
@@ -1854,23 +1854,23 @@
         <v>-1.7078297368693103</v>
       </c>
       <c r="AG8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.11023829430323295</v>
       </c>
       <c r="AH8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.97354863206513187</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.11323347460248688</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.18262617407504952</v>
       </c>
       <c r="AK8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-6.6140632797213286E-2</v>
       </c>
       <c r="AL8">
@@ -1882,7 +1882,7 @@
         <v>791591.73232499987</v>
       </c>
       <c r="AN8" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.59723213106895368</v>
       </c>
       <c r="AO8">
@@ -1890,42 +1890,42 @@
         <v>-0.37390190311203697</v>
       </c>
       <c r="AP8" s="3">
-        <v>120000</v>
+        <v>102718.40575454501</v>
       </c>
       <c r="AQ8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.3656121190916477</v>
       </c>
       <c r="AR8">
-        <f>-1.386/(AE8+1.27)+0.03463</f>
+        <f t="shared" si="5"/>
         <v>-0.16797969126241002</v>
       </c>
       <c r="AS8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3613944161372902</v>
       </c>
       <c r="AT8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.5066487613687047</v>
       </c>
       <c r="AU8" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.18214006937111923</v>
+        <f t="shared" si="18"/>
+        <v>-0.21278375734104699</v>
       </c>
       <c r="AV8">
-        <f t="shared" si="18"/>
-        <v>-0.48603036175505476</v>
+        <f t="shared" si="19"/>
+        <v>-0.56780129113351152</v>
       </c>
       <c r="AW8" s="1">
-        <f t="shared" si="19"/>
-        <v>0.9973382528194974</v>
+        <f t="shared" si="20"/>
+        <v>1.1651328645454968</v>
       </c>
       <c r="AX8">
-        <f t="shared" si="20"/>
-        <v>4.0167615062381667</v>
+        <f t="shared" si="21"/>
+        <v>4.6925512249517389</v>
       </c>
       <c r="AY8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>936.11469677757157</v>
       </c>
     </row>
@@ -2016,15 +2016,15 @@
         <v>1.1858828218258455</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9798384701302365</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.79395564830439103</v>
       </c>
       <c r="AE9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.6047566541380522</v>
       </c>
       <c r="AF9">
@@ -2032,23 +2032,23 @@
         <v>-2.3141426422141547</v>
       </c>
       <c r="AG9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.26485905155315703</v>
       </c>
       <c r="AH9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0340177370399486</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.25614555927382932</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.19483965458063887</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.10132504833385481</v>
       </c>
       <c r="AL9">
@@ -2060,7 +2060,7 @@
         <v>993497.51078699995</v>
       </c>
       <c r="AN9" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.60418637292809252</v>
       </c>
       <c r="AO9">
@@ -2068,42 +2068,42 @@
         <v>-0.3684955854217723</v>
       </c>
       <c r="AP9" s="3">
-        <v>120000</v>
+        <v>102718.40575454501</v>
       </c>
       <c r="AQ9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.3701639862593882</v>
       </c>
       <c r="AR9">
-        <f>-1.386/(AE9+1.27)+0.03463</f>
+        <f t="shared" si="5"/>
         <v>-0.14137543875494621</v>
       </c>
       <c r="AS9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3634450721850284</v>
       </c>
       <c r="AT9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.5220279366291809</v>
       </c>
       <c r="AU9" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.20540982418750869</v>
+        <f t="shared" si="18"/>
+        <v>-0.23996847226584198</v>
       </c>
       <c r="AV9">
-        <f t="shared" si="18"/>
-        <v>-0.6914401859425634</v>
+        <f t="shared" si="19"/>
+        <v>-0.80776976339935347</v>
       </c>
       <c r="AW9" s="1">
-        <f t="shared" si="19"/>
-        <v>1.0542506074013545</v>
+        <f t="shared" si="20"/>
+        <v>1.2316202919900245</v>
       </c>
       <c r="AX9">
-        <f t="shared" si="20"/>
-        <v>5.0710121136395214</v>
+        <f t="shared" si="21"/>
+        <v>5.9241715169417635</v>
       </c>
       <c r="AY9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1175.6239317602474</v>
       </c>
     </row>
@@ -2194,15 +2194,15 @@
         <v>1.1345937228203984</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1215406130701688</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.98694689024977045</v>
       </c>
       <c r="AE10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.6222196992331996</v>
       </c>
       <c r="AF10">
@@ -2210,23 +2210,23 @@
         <v>-2.8656150805996012</v>
       </c>
       <c r="AG10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.19299124194537942</v>
       </c>
       <c r="AH10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0174630450951474</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.18967887126291841</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.20223939502671939</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.5290502958180193E-2</v>
       </c>
       <c r="AL10">
@@ -2238,7 +2238,7 @@
         <v>1201493.2976485002</v>
       </c>
       <c r="AN10" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.60842925302501938</v>
       </c>
       <c r="AO10">
@@ -2246,42 +2246,42 @@
         <v>-0.36605876153489236</v>
       </c>
       <c r="AP10" s="3">
-        <v>120000</v>
+        <v>102718.40575454501</v>
       </c>
       <c r="AQ10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.3715407903224339</v>
       </c>
       <c r="AR10">
-        <f>-1.386/(AE10+1.27)+0.03463</f>
+        <f t="shared" si="5"/>
         <v>-0.12123659426774155</v>
       </c>
       <c r="AS10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3631517740369967</v>
       </c>
       <c r="AT10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.5266966139004454</v>
       </c>
       <c r="AU10" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.22157717294727755</v>
+        <f t="shared" si="18"/>
+        <v>-0.25885585507636061</v>
       </c>
       <c r="AV10">
-        <f t="shared" si="18"/>
-        <v>-0.91301735888984092</v>
+        <f t="shared" si="19"/>
+        <v>-1.0666256184757141</v>
       </c>
       <c r="AW10" s="1">
-        <f t="shared" si="19"/>
-        <v>1.0956182543861113</v>
+        <f t="shared" si="20"/>
+        <v>1.2799477324492645</v>
       </c>
       <c r="AX10">
-        <f t="shared" si="20"/>
-        <v>6.1666303680256327</v>
+        <f t="shared" si="21"/>
+        <v>7.2041192493910282</v>
       </c>
       <c r="AY10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1424.3196858457177</v>
       </c>
     </row>
@@ -2372,15 +2372,15 @@
         <v>1.081069322849959</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.2482280834731423</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.1671587606231832</v>
       </c>
       <c r="AE11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6452885353400131</v>
       </c>
       <c r="AF11">
@@ -2388,23 +2388,23 @@
         <v>-3.421753165295041</v>
       </c>
       <c r="AG11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.1802118703734128</v>
       </c>
       <c r="AH11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0230688361068134</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1761483333410791</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.20734822137561043</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.8877101742463356E-2</v>
       </c>
       <c r="AL11">
@@ -2416,7 +2416,7 @@
         <v>1404695.8866935</v>
       </c>
       <c r="AN11" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.61137168423362098</v>
       </c>
       <c r="AO11">
@@ -2424,42 +2424,42 @@
         <v>-0.36822604125474484</v>
       </c>
       <c r="AP11" s="3">
-        <v>120000</v>
+        <v>102718.40575454501</v>
       </c>
       <c r="AQ11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.3658395995058552</v>
       </c>
       <c r="AR11">
-        <f>-1.386/(AE11+1.27)+0.03463</f>
+        <f t="shared" si="5"/>
         <v>-0.10515413185456246</v>
       </c>
       <c r="AS11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3621170997440533</v>
       </c>
       <c r="AT11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.5074153046901264</v>
       </c>
       <c r="AU11" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.22820781465379278</v>
+        <f t="shared" si="18"/>
+        <v>-0.26660205205962734</v>
       </c>
       <c r="AV11">
-        <f t="shared" si="18"/>
-        <v>-1.1412251735436336</v>
+        <f t="shared" si="19"/>
+        <v>-1.3332276705353414</v>
       </c>
       <c r="AW11" s="1">
-        <f t="shared" si="19"/>
-        <v>1.100601746857502</v>
+        <f t="shared" si="20"/>
+        <v>1.2857696598066257</v>
       </c>
       <c r="AX11">
-        <f t="shared" si="20"/>
-        <v>7.2672321148831349</v>
+        <f t="shared" si="21"/>
+        <v>8.4898889091976546</v>
       </c>
       <c r="AY11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1667.6431045936072</v>
       </c>
     </row>
@@ -2550,15 +2550,15 @@
         <v>0.95292019120410965</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3619044786509447</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.408984287446835</v>
       </c>
       <c r="AE12" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.6871456706652967</v>
       </c>
       <c r="AF12">
@@ -2566,23 +2566,23 @@
         <v>-4.0494726759958901</v>
       </c>
       <c r="AG12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.24182552682365177</v>
       </c>
       <c r="AH12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0418571353252837</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.23211006444578428</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.21118634714548667</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1293693322270639</v>
       </c>
       <c r="AL12">
@@ -2594,7 +2594,7 @@
         <v>1603711.9327819999</v>
       </c>
       <c r="AN12" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.61358934663633324</v>
       </c>
       <c r="AO12">
@@ -2602,42 +2602,42 @@
         <v>-0.37146753734682481</v>
       </c>
       <c r="AP12" s="3">
-        <v>120000</v>
+        <v>102718.40575454501</v>
       </c>
       <c r="AQ12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.3588172543414407</v>
       </c>
       <c r="AR12">
-        <f>-1.386/(AE12+1.27)+0.03463</f>
+        <f t="shared" si="5"/>
         <v>-9.1862796724481693E-2</v>
       </c>
       <c r="AS12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3608779354942386</v>
       </c>
       <c r="AT12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.4838500001342383</v>
       </c>
       <c r="AU12" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.22988471443997036</v>
+        <f t="shared" si="18"/>
+        <v>-0.26856107754160541</v>
       </c>
       <c r="AV12">
-        <f t="shared" si="18"/>
-        <v>-1.3711098879836039</v>
+        <f t="shared" si="19"/>
+        <v>-1.6017887480769468</v>
       </c>
       <c r="AW12" s="1">
-        <f t="shared" si="19"/>
-        <v>1.0885396596286707</v>
+        <f t="shared" si="20"/>
+        <v>1.2716782177050163</v>
       </c>
       <c r="AX12">
-        <f t="shared" si="20"/>
-        <v>8.3557717745118048</v>
+        <f t="shared" si="21"/>
+        <v>9.7615671269026709</v>
       </c>
       <c r="AY12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1906.5175356346383</v>
       </c>
     </row>
@@ -2728,15 +2728,15 @@
         <v>0.79499602539979675</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4650010136205767</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.6700049882207799</v>
       </c>
       <c r="AE13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.740525300466734</v>
       </c>
       <c r="AF13">
@@ -2744,23 +2744,23 @@
         <v>-4.7077659624002024</v>
       </c>
       <c r="AG13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.2610207007739449</v>
       </c>
       <c r="AH13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0533796298014373</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.24779357165198596</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.21395732368962428</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1576137901859756</v>
       </c>
       <c r="AL13">
@@ -2772,7 +2772,7 @@
         <v>1798642.8269394999</v>
       </c>
       <c r="AN13" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.61519421014736919</v>
       </c>
       <c r="AO13">
@@ -2780,42 +2780,42 @@
         <v>-0.37516113947091589</v>
       </c>
       <c r="AP13" s="3">
-        <v>120000</v>
+        <v>102718.40575454501</v>
       </c>
       <c r="AQ13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.3515009622558487</v>
       </c>
       <c r="AR13">
-        <f>-1.386/(AE13+1.27)+0.03463</f>
+        <f t="shared" si="5"/>
         <v>-8.0768782761494989E-2</v>
       </c>
       <c r="AS13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3594109987045153</v>
       </c>
       <c r="AT13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.4595118310265036</v>
       </c>
       <c r="AU13" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.22950064326148401</v>
+        <f t="shared" si="18"/>
+        <v>-0.26811238929454967</v>
       </c>
       <c r="AV13">
-        <f t="shared" si="18"/>
-        <v>-1.600610531245088</v>
+        <f t="shared" si="19"/>
+        <v>-1.8699011373714964</v>
       </c>
       <c r="AW13" s="1">
-        <f t="shared" si="19"/>
-        <v>1.072646821823251</v>
+        <f t="shared" si="20"/>
+        <v>1.253111530239017</v>
       </c>
       <c r="AX13">
-        <f t="shared" si="20"/>
-        <v>9.4284185963350566</v>
+        <f t="shared" si="21"/>
+        <v>11.014678657141689</v>
       </c>
       <c r="AY13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2142.1675735633012</v>
       </c>
     </row>
@@ -2906,15 +2906,15 @@
         <v>0.61217637854675822</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5559099955632094</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.9437336170164512</v>
       </c>
       <c r="AE14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11.799224683651081</v>
       </c>
       <c r="AF14">
@@ -2922,23 +2922,23 @@
         <v>-5.3894653597032418</v>
       </c>
       <c r="AG14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.27372862879567128</v>
       </c>
       <c r="AH14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0586993831843472</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.25855179774673392</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.21624968622931356</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.17899874918137998</v>
       </c>
       <c r="AL14">
@@ -2950,7 +2950,7 @@
         <v>1977343.6949454998</v>
       </c>
       <c r="AN14" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.61652429017766097</v>
       </c>
       <c r="AO14">
@@ -2958,42 +2958,42 @@
         <v>-0.38086311871768991</v>
       </c>
       <c r="AP14" s="3">
-        <v>120000</v>
+        <v>102718.40575454501</v>
       </c>
       <c r="AQ14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.3411157643469349</v>
       </c>
       <c r="AR14">
-        <f>-1.386/(AE14+1.27)+0.03463</f>
+        <f t="shared" si="5"/>
         <v>-7.1420667392214449E-2</v>
       </c>
       <c r="AS14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3581323811731396</v>
       </c>
       <c r="AT14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.4253333696048442</v>
       </c>
       <c r="AU14" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.21884355100722661</v>
+        <f t="shared" si="18"/>
+        <v>-0.25566232193693494</v>
       </c>
       <c r="AV14">
-        <f t="shared" si="18"/>
-        <v>-1.8194540822523146</v>
+        <f t="shared" si="19"/>
+        <v>-2.1255634593084314</v>
       </c>
       <c r="AW14" s="1">
-        <f t="shared" si="19"/>
-        <v>1.0119947678220562</v>
+        <f t="shared" si="20"/>
+        <v>1.182255227255349</v>
       </c>
       <c r="AX14">
-        <f t="shared" si="20"/>
-        <v>10.440413364157113</v>
+        <f t="shared" si="21"/>
+        <v>12.196933884397037</v>
       </c>
       <c r="AY14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2361.2133516477543</v>
       </c>
     </row>
@@ -3084,15 +3084,15 @@
         <v>0.47374110819143889</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6383160723024259</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.164574964110987</v>
       </c>
       <c r="AE15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12.842394085569522</v>
       </c>
       <c r="AF15">
@@ -3100,23 +3100,23 @@
         <v>-6.026412785958561</v>
       </c>
       <c r="AG15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.22084134709453584</v>
       </c>
       <c r="AH15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0431694019184405</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.21170228602219121</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.2177898087145983</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.14144278474134586</v>
       </c>
       <c r="AL15">
@@ -3128,7 +3128,7 @@
         <v>2144755.1031145002</v>
       </c>
       <c r="AN15" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.61741913464883347</v>
       </c>
       <c r="AO15">
@@ -3136,42 +3136,42 @@
         <v>-0.3878102228713543</v>
       </c>
       <c r="AP15" s="3">
-        <v>120000</v>
+        <v>102718.40575454501</v>
       </c>
       <c r="AQ15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.3291799095516921</v>
       </c>
       <c r="AR15">
-        <f>-1.386/(AE15+1.27)+0.03463</f>
+        <f t="shared" si="5"/>
         <v>-6.358154310148123E-2</v>
       </c>
       <c r="AS15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3566779581793642</v>
       </c>
       <c r="AT15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.386576359388374</v>
       </c>
       <c r="AU15" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.21119619676128426</v>
+        <f t="shared" si="18"/>
+        <v>-0.2467283582254462</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="18"/>
-        <v>-2.030650279013599</v>
+        <f t="shared" si="19"/>
+        <v>-2.3722918175338776</v>
       </c>
       <c r="AW15" s="1">
-        <f t="shared" si="19"/>
-        <v>0.9697248829399796</v>
+        <f t="shared" si="20"/>
+        <v>1.1328737542020177</v>
       </c>
       <c r="AX15">
-        <f t="shared" si="20"/>
-        <v>11.410138247097093</v>
+        <f t="shared" si="21"/>
+        <v>13.329807638599055</v>
       </c>
       <c r="AY15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2568.1640328165322</v>
       </c>
     </row>
@@ -3262,15 +3262,15 @@
         <v>0.18450674208951856</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7080696681794678</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.5235629260899493</v>
       </c>
       <c r="AE16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13.939128383436827</v>
       </c>
       <c r="AF16">
@@ -3278,23 +3278,23 @@
         <v>-6.8158085733104814</v>
       </c>
       <c r="AG16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.35898796197896221</v>
       </c>
       <c r="AH16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0967342978673056</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.32732446015141975</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.21994804793876821</v>
       </c>
       <c r="AK16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.26469412729394198</v>
       </c>
       <c r="AL16">
@@ -3306,7 +3306,7 @@
         <v>2285570.4841089998</v>
       </c>
       <c r="AN16" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.61867478651380448</v>
       </c>
       <c r="AO16">
@@ -3314,42 +3314,42 @@
         <v>-0.3963417830412741</v>
       </c>
       <c r="AP16" s="3">
-        <v>120000</v>
+        <v>102718.40575454501</v>
       </c>
       <c r="AQ16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.3147613573283785</v>
       </c>
       <c r="AR16">
-        <f>-1.386/(AE16+1.27)+0.03463</f>
+        <f t="shared" si="5"/>
         <v>-5.6499482575043107E-2</v>
       </c>
       <c r="AS16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3561308502824347</v>
       </c>
       <c r="AT16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.340489929504721</v>
       </c>
       <c r="AU16" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.18849738732554316</v>
+        <f t="shared" si="18"/>
+        <v>-0.22021064591984596</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="18"/>
-        <v>-2.2191476663391421</v>
+        <f t="shared" si="19"/>
+        <v>-2.5925024634537235</v>
       </c>
       <c r="AW16" s="1">
-        <f t="shared" si="19"/>
-        <v>0.85700868496918625</v>
+        <f t="shared" si="20"/>
+        <v>1.0011939091232627</v>
       </c>
       <c r="AX16">
-        <f t="shared" si="20"/>
-        <v>12.267146932066279</v>
+        <f t="shared" si="21"/>
+        <v>14.331001547722318</v>
       </c>
       <c r="AY16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2743.74210855725</v>
       </c>
     </row>
@@ -3440,15 +3440,15 @@
         <v>-1.6226043161094106</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7037338057634561</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-4.3263381218728671</v>
       </c>
       <c r="AE17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15.541604670769804</v>
       </c>
       <c r="AF17">
@@ -3456,23 +3456,23 @@
         <v>-9.1229725988094117</v>
       </c>
       <c r="AG17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.8027751957829179</v>
       </c>
       <c r="AH17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.6024762873329763</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1249933680973849</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.23242079888052447</v>
       </c>
       <c r="AK17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0618949311946746</v>
       </c>
       <c r="AL17">
@@ -3484,7 +3484,7 @@
         <v>2171373.4943349999</v>
       </c>
       <c r="AN17" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.62596972768828685</v>
       </c>
       <c r="AO17">
@@ -3492,42 +3492,42 @@
         <v>-0.43352041490019766</v>
       </c>
       <c r="AP17" s="3">
-        <v>120000</v>
+        <v>102718.40575454501</v>
       </c>
       <c r="AQ17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.2548072059110469</v>
       </c>
       <c r="AR17">
-        <f>-1.386/(AE17+1.27)+0.03463</f>
+        <f t="shared" si="5"/>
         <v>-4.7813052114461539E-2</v>
       </c>
       <c r="AS17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3652853847882489</v>
       </c>
       <c r="AT17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.1570233560918926</v>
       </c>
       <c r="AU17" s="1">
-        <f t="shared" si="17"/>
-        <v>1.1923659578937949E-2</v>
+        <f t="shared" si="18"/>
+        <v>1.3929725047443536E-2</v>
       </c>
       <c r="AV17">
-        <f t="shared" si="18"/>
-        <v>-2.207224006760204</v>
+        <f t="shared" si="19"/>
+        <v>-2.57857273840628</v>
       </c>
       <c r="AW17" s="1">
-        <f t="shared" si="19"/>
-        <v>-5.1302033365212225E-2</v>
+        <f t="shared" si="20"/>
+        <v>-5.9933212150277845E-2</v>
       </c>
       <c r="AX17">
-        <f t="shared" si="20"/>
-        <v>12.215844898701066</v>
+        <f t="shared" si="21"/>
+        <v>14.271068335572039</v>
       </c>
       <c r="AY17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2613.9918083277498</v>
       </c>
     </row>
@@ -3618,15 +3618,15 @@
         <v>-3.3556936808933902</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.590222998070026</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-5.9459166789634157</v>
       </c>
       <c r="AE18" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.121634609997798</v>
       </c>
       <c r="AF18">
@@ -3634,23 +3634,23 @@
         <v>-11.35722870574339</v>
       </c>
       <c r="AG18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.6195785570905485</v>
       </c>
       <c r="AH18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.5800299392279946</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.025030296503038</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.25475598559989593</v>
       </c>
       <c r="AK18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.94938496880229839</v>
       </c>
       <c r="AL18">
@@ -3662,7 +3662,7 @@
         <v>1756875.9963530002</v>
       </c>
       <c r="AN18" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.63919854715842028</v>
       </c>
       <c r="AO18">
@@ -3670,42 +3670,42 @@
         <v>-0.51255786911094847</v>
       </c>
       <c r="AP18" s="3">
-        <v>120000</v>
+        <v>102718.40575454501</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1473155427948749</v>
       </c>
       <c r="AR18">
-        <f>-1.386/(AE18+1.27)+0.03463</f>
+        <f t="shared" si="5"/>
         <v>-4.0730348842868074E-2</v>
       </c>
       <c r="AS18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3849149788578716</v>
       </c>
       <c r="AT18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.8578158925006512</v>
       </c>
       <c r="AU18" s="1">
-        <f t="shared" si="17"/>
-        <v>0.29029965717747763</v>
+        <f t="shared" si="18"/>
+        <v>0.33914037708627426</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="18"/>
-        <v>-1.9169243495827264</v>
+        <f t="shared" si="19"/>
+        <v>-2.2394323613200058</v>
       </c>
       <c r="AW18" s="1">
-        <f t="shared" si="19"/>
-        <v>-1.1395204571695694</v>
+        <f t="shared" si="20"/>
+        <v>-1.3312361485351212</v>
       </c>
       <c r="AX18">
-        <f t="shared" si="20"/>
-        <v>11.076324441531497</v>
+        <f t="shared" si="21"/>
+        <v>12.939832187036918</v>
       </c>
       <c r="AY18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2131.3086696379314</v>
       </c>
     </row>
@@ -3881,6 +3881,16 @@
       <c r="AB20">
         <f t="shared" si="0"/>
         <v>-5.1207268259545913</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="V21">
+        <f>MAX(V2:V20)</f>
+        <v>4292.4899902400002</v>
+      </c>
+      <c r="W21">
+        <f>MIN(W2:W20)</f>
+        <v>4.2222995839699999</v>
       </c>
     </row>
   </sheetData>
